--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\37605\Documents\TA-305\JD_IC_TestAutomation\src\test\resources\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AB74F7-018A-48EA-B8BD-F91AF91D60F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IC_ProductsSortBy++" sheetId="39" r:id="rId1"/>
@@ -35,24 +41,25 @@
     <sheet name="icRedeemGiftCard++" sheetId="18" r:id="rId26"/>
     <sheet name="VeriyGiftcardUsableity++" sheetId="19" r:id="rId27"/>
     <sheet name="ic_login++" sheetId="20" r:id="rId28"/>
-    <sheet name="DB_connection_master++" sheetId="21" r:id="rId29"/>
-    <sheet name="icGiftCardVerificationSender++" sheetId="22" r:id="rId30"/>
-    <sheet name="ic_CashDepositPayment++" sheetId="23" r:id="rId31"/>
-    <sheet name="CreateaccountBackend++" sheetId="24" r:id="rId32"/>
-    <sheet name="accountCreation++" sheetId="25" r:id="rId33"/>
-    <sheet name="Russels" sheetId="26" r:id="rId34"/>
-    <sheet name="Login++" sheetId="27" r:id="rId35"/>
-    <sheet name="Bradlows" sheetId="28" r:id="rId36"/>
-    <sheet name="Rochester" sheetId="29" r:id="rId37"/>
-    <sheet name="Sleepmasters" sheetId="30" r:id="rId38"/>
-    <sheet name="HiFiCorp" sheetId="31" r:id="rId39"/>
+    <sheet name="ic_invalidCredslogin++" sheetId="40" r:id="rId29"/>
+    <sheet name="DB_connection_master++" sheetId="21" r:id="rId30"/>
+    <sheet name="icGiftCardVerificationSender++" sheetId="22" r:id="rId31"/>
+    <sheet name="ic_CashDepositPayment++" sheetId="23" r:id="rId32"/>
+    <sheet name="CreateaccountBackend++" sheetId="24" r:id="rId33"/>
+    <sheet name="accountCreation++" sheetId="25" r:id="rId34"/>
+    <sheet name="Russels" sheetId="26" r:id="rId35"/>
+    <sheet name="Login++" sheetId="27" r:id="rId36"/>
+    <sheet name="Bradlows" sheetId="28" r:id="rId37"/>
+    <sheet name="Rochester" sheetId="29" r:id="rId38"/>
+    <sheet name="Sleepmasters" sheetId="30" r:id="rId39"/>
+    <sheet name="HiFiCorp" sheetId="31" r:id="rId40"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3709" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3729" uniqueCount="537">
   <si>
     <t>TCID</t>
   </si>
@@ -1642,16 +1649,51 @@
   </si>
   <si>
     <t>Registered customer from sales order</t>
+  </si>
+  <si>
+    <t>Invalid login creditials</t>
+  </si>
+  <si>
+    <t>ic_invalidCredslogin</t>
+  </si>
+  <si>
+    <t>Invalid login credentials</t>
+  </si>
+  <si>
+    <t>LouieGBynumjourrapide.com</t>
+  </si>
+  <si>
+    <t>UsernameFlag</t>
+  </si>
+  <si>
+    <t>PasswordFlag</t>
+  </si>
+  <si>
+    <t>Password@</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1811,80 +1853,83 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1943,6 +1988,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1990,7 +2038,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2023,9 +2071,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2058,6 +2123,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2233,18 +2315,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="22"/>
+    <col min="1" max="1" width="9.1796875" style="22"/>
     <col min="2" max="2" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="22"/>
+    <col min="3" max="3" width="11.54296875" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2309,12 +2391,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -2350,12 +2432,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -2523,12 +2605,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" t="s">
@@ -3138,12 +3220,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" t="s">
@@ -5376,20 +5458,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5841,12 +5923,12 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -6015,24 +6097,24 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6670,14 +6752,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -6909,18 +6991,18 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -7573,12 +7655,12 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -7796,16 +7878,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="22"/>
-    <col min="4" max="4" width="15.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="3" width="9.1796875" style="22"/>
+    <col min="4" max="4" width="15.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7848,20 +7930,20 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8126,17 +8208,17 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8419,14 +8501,14 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -8740,14 +8822,14 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C33" sqref="C33:E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -9384,12 +9466,12 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -9621,14 +9703,14 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
   </cols>
@@ -10329,12 +10411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -10427,12 +10511,14 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -10500,20 +10586,20 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:E14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10752,23 +10838,6 @@
       </c>
       <c r="E14" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -10794,158 +10863,125 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E33CB3B-AD03-4F56-B6A4-8FC3B61BC7DA}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>246</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>247</v>
+        <v>534</v>
       </c>
       <c r="E1" t="s">
         <v>209</v>
       </c>
       <c r="F1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1" t="s">
         <v>210</v>
       </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>100</v>
+      <c r="A2">
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" t="s">
-        <v>249</v>
+        <v>532</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>250</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>533</v>
       </c>
       <c r="F2" t="s">
-        <v>251</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>252</v>
+      <c r="A3">
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
+        <v>532</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>475</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F4" t="s">
-        <v>258</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
+        <v>59</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{DC4F99B1-5268-4B9A-87F5-7E177F207A61}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{D2B4C346-DE42-4D7A-A317-25EA5EB6E642}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="10" max="11" width="28.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="27.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -12142,8 +12178,8 @@
       <c r="D40" t="s">
         <v>510</v>
       </c>
-      <c r="E40" s="32" t="s">
-        <v>94</v>
+      <c r="E40" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="G40" t="s">
         <v>513</v>
@@ -12375,6 +12411,46 @@
       </c>
       <c r="Q46" t="s">
         <v>366</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="2">
+        <v>51</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="C47" s="2">
+        <v>305</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="2">
+        <v>52</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="C48" s="2">
+        <v>305</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -12394,62 +12470,62 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G29" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="G22:G23" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="H22" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="H23" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="I31" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="L31" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="N31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="J2" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="J3" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="J4" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="J5" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="J6" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
-    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
-    <hyperlink ref="I8:I9" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="I7" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="H37" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
-    <hyperlink ref="H38" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
-    <hyperlink ref="I37" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
-    <hyperlink ref="I38" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
-    <hyperlink ref="J37" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
-    <hyperlink ref="J38" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
-    <hyperlink ref="K37" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
-    <hyperlink ref="K38" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
-    <hyperlink ref="L37" location="'EnterContact++'!A1" display="EnterContact"/>
-    <hyperlink ref="L38" location="'EnterContact++'!A1" display="EnterContact"/>
-    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="G38" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="G39" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID"/>
-    <hyperlink ref="O43" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="P45" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
-    <hyperlink ref="I44" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="G44" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="H45" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="J44" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="K44" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="L44" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="M44" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="N44" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="O44" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
-    <hyperlink ref="Q44" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="G45:G46" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G29" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="G22:G23" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="H22" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="H23" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="I31" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="L31" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="N31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="J2" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="J3" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="J4" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="J5" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="J6" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="I8:I9" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="I7" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="H37" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="H38" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="I37" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="I38" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="J37" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="J38" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="K37" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="K38" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="L37" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="L38" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="G38" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="G39" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="O43" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="P45" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="I44" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="G44" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="H45" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="J44" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="K44" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="L44" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="M44" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="N44" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="O44" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="Q44" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="G45:G46" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12457,95 +12533,71 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>245</v>
       </c>
       <c r="C1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="D1" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="E1" t="s">
-        <v>262</v>
+        <v>209</v>
       </c>
       <c r="F1" t="s">
-        <v>263</v>
+        <v>210</v>
       </c>
       <c r="G1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H1" t="s">
-        <v>265</v>
-      </c>
-      <c r="I1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J1" t="s">
-        <v>267</v>
-      </c>
-      <c r="K1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
-        <v>269</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>268</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -12556,16 +12608,50 @@
       <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -12575,14 +12661,14 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12590,23 +12676,100 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>261</v>
+      </c>
+      <c r="E1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -12616,504 +12779,38 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>270</v>
       </c>
       <c r="D1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H1" t="s">
-        <v>277</v>
-      </c>
-      <c r="I1" t="s">
-        <v>278</v>
-      </c>
-      <c r="J1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K1" t="s">
-        <v>280</v>
-      </c>
-      <c r="L1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>272</v>
       </c>
       <c r="D2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G2" t="s">
-        <v>277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>285</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>286</v>
-      </c>
-      <c r="K2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E3" t="s">
-        <v>283</v>
-      </c>
-      <c r="F3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G3" t="s">
-        <v>277</v>
-      </c>
-      <c r="H3" t="s">
-        <v>285</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>286</v>
-      </c>
-      <c r="K3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F4" t="s">
-        <v>288</v>
-      </c>
-      <c r="G4" t="s">
-        <v>278</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>289</v>
-      </c>
-      <c r="J4" t="s">
-        <v>286</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13123,660 +12820,505 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>290</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>273</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>274</v>
       </c>
       <c r="F1" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="G1" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="H1" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="I1" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="J1" t="s">
-        <v>172</v>
+        <v>279</v>
       </c>
       <c r="K1" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="L1" t="s">
-        <v>295</v>
-      </c>
-      <c r="M1" t="s">
-        <v>296</v>
-      </c>
-      <c r="N1" t="s">
-        <v>297</v>
-      </c>
-      <c r="O1" t="s">
-        <v>298</v>
-      </c>
-      <c r="P1" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>300</v>
-      </c>
-      <c r="R1" t="s">
-        <v>301</v>
-      </c>
-      <c r="S1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="E2" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="F2" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="G2" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="H2" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="K2" t="s">
-        <v>307</v>
+        <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" t="s">
-        <v>308</v>
-      </c>
-      <c r="N2" t="s">
-        <v>309</v>
-      </c>
-      <c r="O2" t="s">
-        <v>59</v>
-      </c>
-      <c r="P2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="E3" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="F3" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="G3" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="H3" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="K3" t="s">
-        <v>307</v>
+        <v>65</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N3" t="s">
-        <v>311</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="E4" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>288</v>
       </c>
       <c r="G4" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="H4" t="s">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>289</v>
       </c>
       <c r="J4" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="K4" t="s">
-        <v>307</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" t="s">
-        <v>278</v>
-      </c>
-      <c r="N4" t="s">
-        <v>313</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>60</v>
-      </c>
-      <c r="R4" t="s">
-        <v>60</v>
-      </c>
-      <c r="S4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>303</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>314</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>315</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" t="s">
-        <v>308</v>
-      </c>
-      <c r="N5" t="s">
-        <v>309</v>
-      </c>
-      <c r="O5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R5" t="s">
-        <v>60</v>
-      </c>
-      <c r="S5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>303</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>316</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M6" t="s">
-        <v>308</v>
-      </c>
-      <c r="N6" t="s">
-        <v>309</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>60</v>
-      </c>
-      <c r="R6" t="s">
-        <v>60</v>
-      </c>
-      <c r="S6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>319</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>303</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" t="s">
-        <v>308</v>
-      </c>
-      <c r="N7" t="s">
-        <v>309</v>
-      </c>
-      <c r="O7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>60</v>
-      </c>
-      <c r="R7" t="s">
-        <v>60</v>
-      </c>
-      <c r="S7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>321</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>322</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>303</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>323</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" t="s">
-        <v>308</v>
-      </c>
-      <c r="N8" t="s">
-        <v>309</v>
-      </c>
-      <c r="O8" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>60</v>
-      </c>
-      <c r="R8" t="s">
-        <v>60</v>
-      </c>
-      <c r="S8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>303</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>326</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" t="s">
-        <v>308</v>
-      </c>
-      <c r="N9" t="s">
-        <v>309</v>
-      </c>
-      <c r="O9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P9" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>59</v>
-      </c>
-      <c r="R9" t="s">
-        <v>60</v>
-      </c>
-      <c r="S9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>327</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>328</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>303</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>329</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" t="s">
-        <v>308</v>
-      </c>
-      <c r="N10" t="s">
-        <v>309</v>
-      </c>
-      <c r="O10" t="s">
-        <v>60</v>
-      </c>
-      <c r="P10" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>60</v>
-      </c>
-      <c r="R10" t="s">
-        <v>59</v>
-      </c>
-      <c r="S10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>330</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>331</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>303</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>332</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11" t="s">
-        <v>308</v>
-      </c>
-      <c r="N11" t="s">
-        <v>309</v>
-      </c>
-      <c r="O11" t="s">
-        <v>60</v>
-      </c>
-      <c r="P11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>60</v>
-      </c>
-      <c r="R11" t="s">
-        <v>60</v>
-      </c>
-      <c r="S11" t="s">
-        <v>59</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -13785,143 +13327,660 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="C1" t="s">
-        <v>335</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>336</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="G1" t="s">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c r="H1" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="I1" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="J1" t="s">
-        <v>341</v>
+        <v>172</v>
       </c>
       <c r="K1" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="L1" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="M1" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="N1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>297</v>
+      </c>
+      <c r="O1" t="s">
+        <v>298</v>
+      </c>
+      <c r="P1" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>300</v>
+      </c>
+      <c r="R1" t="s">
+        <v>301</v>
+      </c>
+      <c r="S1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>346</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>347</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>303</v>
       </c>
       <c r="E2" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="F2" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="G2" t="s">
-        <v>348</v>
+        <v>244</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>308</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>309</v>
+      </c>
+      <c r="O2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>350</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>303</v>
       </c>
       <c r="E3" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="F3" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>308</v>
       </c>
       <c r="N3" t="s">
-        <v>20</v>
+        <v>311</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" t="s">
+        <v>244</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>312</v>
+      </c>
+      <c r="K4" t="s">
+        <v>307</v>
+      </c>
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" t="s">
+        <v>278</v>
+      </c>
+      <c r="N4" t="s">
+        <v>313</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
+        <v>315</v>
+      </c>
+      <c r="K5" t="s">
+        <v>307</v>
+      </c>
+      <c r="L5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" t="s">
+        <v>308</v>
+      </c>
+      <c r="N5" t="s">
+        <v>309</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F6" t="s">
+        <v>316</v>
+      </c>
+      <c r="G6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H6" t="s">
+        <v>244</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" t="s">
+        <v>317</v>
+      </c>
+      <c r="K6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" t="s">
+        <v>308</v>
+      </c>
+      <c r="N6" t="s">
+        <v>309</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" t="s">
+        <v>308</v>
+      </c>
+      <c r="N7" t="s">
+        <v>309</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" t="s">
+        <v>304</v>
+      </c>
+      <c r="F8" t="s">
+        <v>323</v>
+      </c>
+      <c r="G8" t="s">
+        <v>244</v>
+      </c>
+      <c r="H8" t="s">
+        <v>244</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
+        <v>317</v>
+      </c>
+      <c r="K8" t="s">
+        <v>307</v>
+      </c>
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" t="s">
+        <v>308</v>
+      </c>
+      <c r="N8" t="s">
+        <v>309</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" t="s">
+        <v>244</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K9" t="s">
+        <v>307</v>
+      </c>
+      <c r="L9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" t="s">
+        <v>308</v>
+      </c>
+      <c r="N9" t="s">
+        <v>309</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F10" t="s">
+        <v>329</v>
+      </c>
+      <c r="G10" t="s">
+        <v>244</v>
+      </c>
+      <c r="H10" t="s">
+        <v>244</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>317</v>
+      </c>
+      <c r="K10" t="s">
+        <v>307</v>
+      </c>
+      <c r="L10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" t="s">
+        <v>308</v>
+      </c>
+      <c r="N10" t="s">
+        <v>309</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F11" t="s">
+        <v>332</v>
+      </c>
+      <c r="G11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" t="s">
+        <v>244</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K11" t="s">
+        <v>307</v>
+      </c>
+      <c r="L11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" t="s">
+        <v>308</v>
+      </c>
+      <c r="N11" t="s">
+        <v>309</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -13930,193 +13989,143 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>334</v>
       </c>
       <c r="C1" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="D1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K1" t="s">
+        <v>342</v>
+      </c>
+      <c r="L1" t="s">
+        <v>343</v>
+      </c>
+      <c r="M1" t="s">
+        <v>344</v>
+      </c>
+      <c r="N1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>346</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s">
-        <v>352</v>
-      </c>
-      <c r="D4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>352</v>
-      </c>
-      <c r="D5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s">
-        <v>352</v>
-      </c>
-      <c r="D6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" t="s">
-        <v>352</v>
-      </c>
-      <c r="D7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>352</v>
-      </c>
-      <c r="D8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" t="s">
-        <v>352</v>
-      </c>
-      <c r="D10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>352</v>
-      </c>
-      <c r="D11" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" t="s">
-        <v>352</v>
-      </c>
-      <c r="D12" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" t="s">
-        <v>352</v>
-      </c>
-      <c r="D13" t="s">
-        <v>353</v>
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -14125,134 +14134,193 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>335</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>351</v>
       </c>
       <c r="D1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G1" t="s">
-        <v>339</v>
-      </c>
-      <c r="H1" t="s">
-        <v>340</v>
-      </c>
-      <c r="I1" t="s">
-        <v>341</v>
-      </c>
-      <c r="J1" t="s">
-        <v>342</v>
-      </c>
-      <c r="K1" t="s">
-        <v>343</v>
-      </c>
-      <c r="L1" t="s">
-        <v>344</v>
-      </c>
-      <c r="M1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>352</v>
       </c>
       <c r="D2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
-        <v>356</v>
-      </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>352</v>
       </c>
       <c r="D3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F3" t="s">
-        <v>359</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>352</v>
+      </c>
+      <c r="D10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>352</v>
+      </c>
+      <c r="D12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>352</v>
+      </c>
+      <c r="D13" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -14261,12 +14329,12 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -14397,12 +14465,12 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -14533,12 +14601,12 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -14669,37 +14737,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.453125" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="22" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="22"/>
-    <col min="14" max="14" width="23.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="22"/>
+    <col min="13" max="13" width="9.1796875" style="22"/>
+    <col min="14" max="14" width="23.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.54296875" style="22" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.54296875" style="22" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -14903,29 +14971,165 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K1" t="s">
+        <v>343</v>
+      </c>
+      <c r="L1" t="s">
+        <v>344</v>
+      </c>
+      <c r="M1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.26953125" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1796875" style="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="22"/>
+    <col min="12" max="12" width="17.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -15048,24 +15252,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="22"/>
+    <col min="3" max="3" width="22.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.26953125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -15152,26 +15356,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="22"/>
+    <col min="9" max="9" width="11.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -15276,23 +15480,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="22"/>
+    <col min="7" max="7" width="18.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -15394,12 +15598,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">

--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34642\git\TA245\JD_IC_TestAutomationTA245\src\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\37605\git\JD_IC_TestAutomation\JD_IC_TestAutomation\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCF0F49-A13B-4DA2-9A4A-7314E9A4EFDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09EE7E9-5E18-40A8-80FA-1481A717F938}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ic_NavigetoWishlist++" sheetId="41" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3815" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3858" uniqueCount="557">
   <si>
     <t>TCID</t>
   </si>
@@ -1717,16 +1717,38 @@
   </si>
   <si>
     <t>Sourav.Banerjee@itcinfotech.com</t>
+  </si>
+  <si>
+    <t>Validate SKU code visible</t>
+  </si>
+  <si>
+    <t>Get_SKU_Code</t>
+  </si>
+  <si>
+    <t>validationRequired</t>
+  </si>
+  <si>
+    <t>No_wishlist</t>
+  </si>
+  <si>
+    <t>Bluetooth Music Receiver</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1907,75 +1929,77 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -2377,12 +2401,12 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2468,17 +2492,17 @@
       <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="22"/>
+    <col min="3" max="3" width="22.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.26953125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2572,19 +2596,19 @@
       <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="22"/>
+    <col min="9" max="9" width="11.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2696,16 +2720,16 @@
       <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="22"/>
+    <col min="7" max="7" width="18.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2812,7 +2836,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -2865,7 +2889,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -2906,7 +2930,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -3079,7 +3103,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" t="s">
@@ -3694,7 +3718,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" t="s">
@@ -5934,13 +5958,13 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6397,7 +6421,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -6573,7 +6597,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
@@ -6630,17 +6654,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7285,7 +7309,7 @@
       <selection activeCell="C12" sqref="C12:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -7524,11 +7548,11 @@
       <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -8186,7 +8210,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -8411,13 +8435,13 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8689,10 +8713,10 @@
       <selection activeCell="C10" sqref="C10:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8982,7 +9006,7 @@
       <selection activeCell="C14" sqref="C14:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -9303,7 +9327,7 @@
       <selection activeCell="C33" sqref="C33:E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -9945,7 +9969,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -10182,7 +10206,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -10282,7 +10306,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="22" t="s">
@@ -10319,7 +10343,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -10394,13 +10418,13 @@
       <selection activeCell="C11" sqref="C11:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10686,7 +10710,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -10814,7 +10838,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -10932,7 +10956,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -10973,7 +10997,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -11480,7 +11504,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
@@ -12142,7 +12166,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
@@ -12287,7 +12311,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -12482,7 +12506,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -12614,22 +12638,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="F12" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="139.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="139.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12652,13 +12677,16 @@
         <v>544</v>
       </c>
       <c r="H1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I1" t="s">
         <v>215</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -12681,13 +12709,16 @@
         <v>546</v>
       </c>
       <c r="H2" t="s">
+        <v>555</v>
+      </c>
+      <c r="I2" t="s">
         <v>101</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -12710,13 +12741,16 @@
         <v>546</v>
       </c>
       <c r="H3" t="s">
+        <v>555</v>
+      </c>
+      <c r="I3" t="s">
         <v>101</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -12739,13 +12773,16 @@
         <v>546</v>
       </c>
       <c r="H4" t="s">
+        <v>555</v>
+      </c>
+      <c r="I4" t="s">
         <v>223</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -12768,13 +12805,16 @@
         <v>546</v>
       </c>
       <c r="H5" t="s">
+        <v>555</v>
+      </c>
+      <c r="I5" t="s">
         <v>101</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>162</v>
       </c>
@@ -12797,13 +12837,16 @@
         <v>546</v>
       </c>
       <c r="H6" t="s">
+        <v>555</v>
+      </c>
+      <c r="I6" t="s">
         <v>101</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -12826,13 +12869,16 @@
         <v>546</v>
       </c>
       <c r="H7" t="s">
+        <v>555</v>
+      </c>
+      <c r="I7" t="s">
         <v>101</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -12855,13 +12901,16 @@
         <v>546</v>
       </c>
       <c r="H8" t="s">
+        <v>555</v>
+      </c>
+      <c r="I8" t="s">
         <v>101</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -12884,13 +12933,16 @@
         <v>546</v>
       </c>
       <c r="H9" t="s">
+        <v>555</v>
+      </c>
+      <c r="I9" t="s">
         <v>101</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -12913,13 +12965,16 @@
         <v>546</v>
       </c>
       <c r="H10" t="s">
+        <v>555</v>
+      </c>
+      <c r="I10" t="s">
         <v>228</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -12942,13 +12997,16 @@
         <v>546</v>
       </c>
       <c r="H11" t="s">
+        <v>555</v>
+      </c>
+      <c r="I11" t="s">
         <v>223</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -12971,13 +13029,16 @@
         <v>546</v>
       </c>
       <c r="H12" t="s">
+        <v>555</v>
+      </c>
+      <c r="I12" t="s">
         <v>230</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -13000,13 +13061,16 @@
         <v>546</v>
       </c>
       <c r="H13" t="s">
+        <v>555</v>
+      </c>
+      <c r="I13" t="s">
         <v>101</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -13029,13 +13093,16 @@
         <v>546</v>
       </c>
       <c r="H14" t="s">
+        <v>555</v>
+      </c>
+      <c r="I14" t="s">
         <v>101</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -13058,13 +13125,16 @@
         <v>546</v>
       </c>
       <c r="H15" t="s">
+        <v>555</v>
+      </c>
+      <c r="I15" t="s">
         <v>101</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -13087,13 +13157,16 @@
         <v>546</v>
       </c>
       <c r="H16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I16" t="s">
         <v>101</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -13116,13 +13189,16 @@
         <v>546</v>
       </c>
       <c r="H17" t="s">
+        <v>555</v>
+      </c>
+      <c r="I17" t="s">
         <v>101</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -13145,13 +13221,16 @@
         <v>546</v>
       </c>
       <c r="H18" t="s">
+        <v>555</v>
+      </c>
+      <c r="I18" t="s">
         <v>101</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -13174,13 +13253,16 @@
         <v>546</v>
       </c>
       <c r="H19" t="s">
+        <v>555</v>
+      </c>
+      <c r="I19" t="s">
         <v>101</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -13203,13 +13285,16 @@
         <v>546</v>
       </c>
       <c r="H20" t="s">
+        <v>555</v>
+      </c>
+      <c r="I20" t="s">
         <v>101</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -13232,13 +13317,16 @@
         <v>546</v>
       </c>
       <c r="H21" t="s">
+        <v>555</v>
+      </c>
+      <c r="I21" t="s">
         <v>101</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -13261,13 +13349,16 @@
         <v>546</v>
       </c>
       <c r="H22" t="s">
+        <v>555</v>
+      </c>
+      <c r="I22" t="s">
         <v>101</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -13290,13 +13381,16 @@
         <v>546</v>
       </c>
       <c r="H23" t="s">
+        <v>555</v>
+      </c>
+      <c r="I23" t="s">
         <v>101</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -13319,13 +13413,16 @@
         <v>546</v>
       </c>
       <c r="H24" t="s">
+        <v>555</v>
+      </c>
+      <c r="I24" t="s">
         <v>101</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>156</v>
       </c>
@@ -13348,13 +13445,16 @@
         <v>546</v>
       </c>
       <c r="H25" t="s">
+        <v>555</v>
+      </c>
+      <c r="I25" t="s">
         <v>101</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -13377,13 +13477,16 @@
         <v>546</v>
       </c>
       <c r="H26" t="s">
-        <v>8</v>
+        <v>555</v>
       </c>
       <c r="I26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>47</v>
       </c>
@@ -13406,13 +13509,16 @@
         <v>546</v>
       </c>
       <c r="H27" t="s">
-        <v>8</v>
+        <v>555</v>
       </c>
       <c r="I27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>48</v>
       </c>
@@ -13435,13 +13541,16 @@
         <v>546</v>
       </c>
       <c r="H28" t="s">
-        <v>8</v>
+        <v>555</v>
       </c>
       <c r="I28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>49</v>
       </c>
@@ -13464,13 +13573,16 @@
         <v>546</v>
       </c>
       <c r="H29" t="s">
-        <v>8</v>
+        <v>555</v>
       </c>
       <c r="I29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>50</v>
       </c>
@@ -13493,13 +13605,16 @@
         <v>546</v>
       </c>
       <c r="H30" t="s">
-        <v>8</v>
+        <v>555</v>
       </c>
       <c r="I30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>52</v>
       </c>
@@ -13522,22 +13637,58 @@
         <v>545</v>
       </c>
       <c r="H31" t="s">
+        <v>555</v>
+      </c>
+      <c r="I31" t="s">
         <v>548</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>552</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32" t="s">
+        <v>556</v>
+      </c>
+      <c r="F32" t="s">
+        <v>543</v>
+      </c>
+      <c r="G32" t="s">
+        <v>553</v>
+      </c>
+      <c r="H32" t="s">
+        <v>555</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F31" xr:uid="{5CD818F2-7DF9-4D2A-BFD9-3AE0D352B9FD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{5CD818F2-7DF9-4D2A-BFD9-3AE0D352B9FD}">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G31" xr:uid="{DFF07F52-7F3F-471C-B6F1-F0586C11D30A}">
-      <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{A25B3CDA-76F6-48A2-81AB-4F94865E9D4A}">
+      <formula1>"Add_To_Cart,Add_To_Wishlist,Get_SKU_Code"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13547,7 +13698,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -13683,7 +13834,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -13819,7 +13970,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -13951,27 +14102,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="10" max="11" width="28.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="27.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -15413,8 +15564,8 @@
       <c r="D47" s="35" t="s">
         <v>549</v>
       </c>
-      <c r="E47" s="32" t="s">
-        <v>94</v>
+      <c r="E47" s="37" t="s">
+        <v>64</v>
       </c>
       <c r="G47" s="32" t="s">
         <v>535</v>
@@ -15436,8 +15587,8 @@
       <c r="D48" s="35" t="s">
         <v>550</v>
       </c>
-      <c r="E48" s="36" t="s">
-        <v>94</v>
+      <c r="E48" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="G48" s="32" t="s">
         <v>535</v>
@@ -15451,6 +15602,26 @@
       <c r="J48" s="35" t="s">
         <v>539</v>
       </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="2">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>552</v>
+      </c>
+      <c r="D49" t="s">
+        <v>552</v>
+      </c>
+      <c r="E49" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" s="37" t="s">
+        <v>377</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="35"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2">
@@ -15538,13 +15709,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="22"/>
+    <col min="1" max="1" width="9.1796875" style="22"/>
     <col min="2" max="2" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="22"/>
+    <col min="3" max="3" width="11.54296875" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -15614,11 +15785,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="22"/>
-    <col min="4" max="4" width="15.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="3" width="9.1796875" style="22"/>
+    <col min="4" max="4" width="15.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -15668,30 +15839,30 @@
       <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.453125" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="22" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="22"/>
-    <col min="14" max="14" width="23.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="22"/>
+    <col min="13" max="13" width="9.1796875" style="22"/>
+    <col min="14" max="14" width="23.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.54296875" style="22" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.54296875" style="22" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -15903,21 +16074,21 @@
       <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.26953125" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1796875" style="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="22"/>
+    <col min="12" max="12" width="17.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">

--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34642\git\TA245\JD_IC_TestAutomationTA245\src\test\resources\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCF0F49-A13B-4DA2-9A4A-7314E9A4EFDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ic_NavigetoWishlist++" sheetId="41" r:id="rId1"/>
@@ -61,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3815" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3815" uniqueCount="554">
   <si>
     <t>TCID</t>
   </si>
@@ -1717,16 +1711,36 @@
   </si>
   <si>
     <t>Sourav.Banerjee@itcinfotech.com</t>
+  </si>
+  <si>
+    <t>Click_the_IC_logo_to_go_home_page</t>
+  </si>
+  <si>
+    <t>Validating_the_minimum_search_characters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1907,84 +1921,85 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="3"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -2093,7 +2108,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2126,26 +2141,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2178,23 +2176,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2370,7 +2351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B197FA4-789E-4E7E-B874-0B9B3EEE48E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2448,20 +2429,20 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{8B610BF8-80B5-4E4F-800A-BBCF0ADA6178}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
       <formula1>"ExistingUser,logedOn_user"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{BBC5B614-36C8-467E-85E9-21877CF6A5B4}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{83BAA6B4-2AF2-41FF-AA92-468715D569A4}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2565,7 +2546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2689,7 +2670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2807,7 +2788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2860,7 +2841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2901,7 +2882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3074,7 +3055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3689,7 +3670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5927,7 +5908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -6392,7 +6373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6566,7 +6547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5978DD-B5A2-422F-931F-0C277A87B7E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6614,7 +6595,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{DCE38A74-3F09-4033-9113-0D40589180A4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
       <formula1>"All,Specific"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6623,7 +6604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7278,7 +7259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7517,7 +7498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8181,7 +8162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8404,7 +8385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8682,7 +8663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8975,7 +8956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9296,7 +9277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -9940,7 +9921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10177,7 +10158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10275,7 +10256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC8B28F-0CEF-41FF-ACE0-A0ABFA59C5D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10314,7 +10295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10387,7 +10368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10681,7 +10662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10809,7 +10790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10927,7 +10908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10968,7 +10949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11475,7 +11456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12137,7 +12118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12282,7 +12263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12477,7 +12458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12613,7 +12594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
@@ -13530,10 +13511,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F31" xr:uid="{5CD818F2-7DF9-4D2A-BFD9-3AE0D352B9FD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F31">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G31" xr:uid="{DFF07F52-7F3F-471C-B6F1-F0586C11D30A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G31">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13542,7 +13523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13678,7 +13659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13814,7 +13795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13950,11 +13931,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14984,15 +14965,15 @@
       <c r="A33" s="9">
         <v>40</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>408</v>
+      <c r="B33" s="37" t="s">
+        <v>552</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>64</v>
+      <c r="E33" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>409</v>
@@ -15009,7 +14990,7 @@
       <c r="D34" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="36" t="s">
         <v>64</v>
       </c>
       <c r="G34" s="3" t="s">
@@ -15037,8 +15018,8 @@
       <c r="A36" s="20">
         <v>43</v>
       </c>
-      <c r="B36" s="21" t="s">
-        <v>414</v>
+      <c r="B36" s="3" t="s">
+        <v>553</v>
       </c>
       <c r="C36" s="2">
         <v>181</v>
@@ -15046,8 +15027,8 @@
       <c r="D36" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>64</v>
+      <c r="E36" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>415</v>
@@ -15413,8 +15394,8 @@
       <c r="D47" s="35" t="s">
         <v>549</v>
       </c>
-      <c r="E47" s="32" t="s">
-        <v>94</v>
+      <c r="E47" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="G47" s="32" t="s">
         <v>535</v>
@@ -15436,8 +15417,8 @@
       <c r="D48" s="35" t="s">
         <v>550</v>
       </c>
-      <c r="E48" s="36" t="s">
-        <v>94</v>
+      <c r="E48" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="G48" s="32" t="s">
         <v>535</v>
@@ -15469,63 +15450,63 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G29" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="G22:G23" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="H22" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="H23" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="I31" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="L31" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="N31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="J2" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="J3" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="J4" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="J5" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="J6" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="I8:I9" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="I7" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="H37" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="H38" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="I37" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="I38" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="J37" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="J38" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="K37" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="K38" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="L37" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="L38" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="G38" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="G39" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="O43" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="P45" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="I44" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="G44" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="H45" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="J44" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="K44" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="L44" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="M44" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="N44" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="O44" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="Q44" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="G45:G46" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="H48" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{4E22FA89-343A-4DCB-B1C9-A8A8B5A7C70C}"/>
+    <hyperlink ref="G29" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G22:G23" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H22" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H23" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I31" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L31" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="J2" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="J3" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="J4" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="J5" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="J6" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
+    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
+    <hyperlink ref="I8:I9" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="I7" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="H37" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
+    <hyperlink ref="H38" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
+    <hyperlink ref="I37" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
+    <hyperlink ref="I38" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
+    <hyperlink ref="J37" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
+    <hyperlink ref="J38" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
+    <hyperlink ref="K37" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
+    <hyperlink ref="K38" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
+    <hyperlink ref="L37" location="'EnterContact++'!A1" display="EnterContact"/>
+    <hyperlink ref="L38" location="'EnterContact++'!A1" display="EnterContact"/>
+    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G38" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G39" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID"/>
+    <hyperlink ref="O43" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="P45" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="I44" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="G44" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H45" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="J44" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K44" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L44" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="M44" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="N44" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O44" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="Q44" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G45:G46" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H48" location="'ProductSearch++'!A1" display="ProductSearch"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -15533,7 +15514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15609,7 +15590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15661,7 +15642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -15896,7 +15877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -3105,11 +3105,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E37" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
+      <selection pane="bottomRight" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3199,7 +3199,7 @@
         <v>123</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="55"/>
       <c r="G2" s="57" t="s">
@@ -16164,8 +16164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17074,21 +17074,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17241,14 +17241,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -17261,6 +17253,14 @@
     <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="596">
   <si>
     <t>testSuitID</t>
   </si>
@@ -1909,6 +1909,18 @@
   </si>
   <si>
     <t>Samsung Toner D105L</t>
+  </si>
+  <si>
+    <t>Wish List - Validate Multiple Products can be added to Wish List</t>
+  </si>
+  <si>
+    <t>Wishlist - Validate product can be added to Wishlist</t>
+  </si>
+  <si>
+    <t>Samsung Toner D105L#Xbox One Stealth 600 Gaming Headsets#Volkano Earphones With Mic Stannic Series Black</t>
+  </si>
+  <si>
+    <t>1#1#1</t>
   </si>
 </sst>
 </file>
@@ -3103,13 +3115,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G55" sqref="G55"/>
+      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5149,8 +5161,8 @@
       <c r="D55" s="75" t="s">
         <v>583</v>
       </c>
-      <c r="E55" s="75" t="s">
-        <v>8</v>
+      <c r="E55" s="55" t="s">
+        <v>9</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>472</v>
@@ -5166,13 +5178,39 @@
       </c>
       <c r="K55" s="76" t="s">
         <v>584</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="74" customFormat="1">
+      <c r="A56" s="74">
+        <v>55</v>
+      </c>
+      <c r="B56" s="75" t="s">
+        <v>592</v>
+      </c>
+      <c r="D56" s="75" t="s">
+        <v>592</v>
+      </c>
+      <c r="E56" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B53:B54">
     <cfRule type="duplicateValues" dxfId="53" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56:B1048576 B1:B31 B33:B49">
+  <conditionalFormatting sqref="B57:B1048576 B1:B31 B33:B49">
     <cfRule type="duplicateValues" dxfId="52" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
@@ -5386,6 +5424,10 @@
     <hyperlink ref="G55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
     <hyperlink ref="H55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
     <hyperlink ref="K55" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart"/>
+    <hyperlink ref="J56" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G56" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="H56" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I56" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12131,11 +12173,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12186,6 +12226,17 @@
         <v>583</v>
       </c>
       <c r="C4" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="35">
+        <v>55</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>592</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>87</v>
       </c>
     </row>
@@ -12202,11 +12253,9 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13192,6 +13241,38 @@
         <v>373</v>
       </c>
     </row>
+    <row r="32" spans="1:12" s="35" customFormat="1">
+      <c r="A32" s="35">
+        <v>55</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>593</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>594</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>586</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>595</v>
+      </c>
+      <c r="J32" s="35" t="s">
+        <v>373</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B27:B29">
@@ -13204,16 +13285,16 @@
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G31 H2:H30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G32 H2:H30">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30 D32:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30 D33:D1048576">
       <formula1>$K$2:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31:H32">
       <formula1>"Yes_Wishlist,No_wishlist"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15080,11 +15161,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -15151,6 +15230,20 @@
         <v>496</v>
       </c>
     </row>
+    <row r="5" spans="1:4" s="35" customFormat="1">
+      <c r="A5" s="35">
+        <v>55</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>592</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>496</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="44" priority="2"/>
@@ -15159,7 +15252,7 @@
     <cfRule type="duplicateValues" dxfId="43" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4 D5">
       <formula1>"All,Specific"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16162,11 +16255,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -16272,6 +16363,29 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="74">
+        <v>55</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>592</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>493</v>
+      </c>
+      <c r="G5" s="35">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="42" priority="2"/>
@@ -16280,7 +16394,7 @@
     <cfRule type="duplicateValues" dxfId="41" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4 D5">
       <formula1>"ExistingUser,logedOn_user"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16288,8 +16402,10 @@
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
     <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -17074,21 +17190,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17241,6 +17357,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -17253,14 +17377,6 @@
     <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
-    <sheet name="IC_WishlistToCart++" sheetId="69" r:id="rId2"/>
-    <sheet name="ic_RemoveFromcart++" sheetId="67" r:id="rId3"/>
-    <sheet name="ic_verifyWishlistItem++" sheetId="66" r:id="rId4"/>
+    <sheet name="ic_verifyWishlistItem++" sheetId="66" r:id="rId2"/>
+    <sheet name="IC_WishlistToCart++" sheetId="69" r:id="rId3"/>
+    <sheet name="ic_RemoveFromcart++" sheetId="67" r:id="rId4"/>
     <sheet name="ic_NavigetoWishlist++" sheetId="65" r:id="rId5"/>
     <sheet name="Magento_UserInfoVerification++" sheetId="64" r:id="rId6"/>
     <sheet name="IC_ProductsSortBy++" sheetId="63" r:id="rId7"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2592" uniqueCount="598">
   <si>
     <t>testSuitID</t>
   </si>
@@ -1921,6 +1921,12 @@
   </si>
   <si>
     <t>1#1#1</t>
+  </si>
+  <si>
+    <t>Wish List - Validate Add All to Cart</t>
+  </si>
+  <si>
+    <t>Samsung Toner D105L#Volkano Earphones With Mic Stannic Series Black</t>
   </si>
 </sst>
 </file>
@@ -3115,13 +3121,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5190,8 +5196,8 @@
       <c r="D56" s="75" t="s">
         <v>592</v>
       </c>
-      <c r="E56" s="75" t="s">
-        <v>8</v>
+      <c r="E56" s="55" t="s">
+        <v>9</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>472</v>
@@ -5204,13 +5210,42 @@
       </c>
       <c r="J56" s="11" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="74" customFormat="1">
+      <c r="A57" s="74">
+        <v>56</v>
+      </c>
+      <c r="B57" s="75" t="s">
+        <v>596</v>
+      </c>
+      <c r="D57" s="75" t="s">
+        <v>596</v>
+      </c>
+      <c r="E57" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B53:B54">
     <cfRule type="duplicateValues" dxfId="53" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B1048576 B1:B31 B33:B49">
+  <conditionalFormatting sqref="B58:B1048576 B1:B31 B33:B49">
     <cfRule type="duplicateValues" dxfId="52" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
@@ -5428,6 +5463,11 @@
     <hyperlink ref="G56" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
     <hyperlink ref="H56" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
     <hyperlink ref="I56" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="J57" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="H57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="K57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8685,57 +8725,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="42"/>
-    <col min="3" max="3" width="20.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>588</v>
-      </c>
       <c r="D1" s="42" t="s">
-        <v>589</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="42">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="62">
+        <v>52</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>471</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="62">
+        <v>53</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="74">
         <v>54</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B4" s="75" t="s">
+        <v>583</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>590</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="42">
-        <v>11</v>
+      <c r="D4" s="42" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="35" customFormat="1">
+      <c r="A5" s="35">
+        <v>55</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>592</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="74">
+        <v>56</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>596</v>
+      </c>
+      <c r="C6" s="42">
+        <v>1</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="74">
+        <v>56</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>596</v>
+      </c>
+      <c r="C7" s="42">
+        <v>2</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"All_product,Specific_product"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5 D6:D7">
+      <formula1>"All,Specific"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12173,87 +12283,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="2" width="9.140625" style="42"/>
+    <col min="3" max="3" width="20.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="69" t="s">
-        <v>84</v>
+      <c r="B1" s="42" t="s">
+        <v>35</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="62">
-        <v>52</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>471</v>
+        <v>588</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>589</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="42">
+        <v>54</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="62">
-        <v>53</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="74">
-        <v>54</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>583</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="35">
-        <v>55</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>592</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>87</v>
+        <v>590</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="42">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
-  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"All_product,Specific_product"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -13273,6 +13362,38 @@
         <v>373</v>
       </c>
     </row>
+    <row r="33" spans="1:10" s="35" customFormat="1">
+      <c r="A33" s="35">
+        <v>56</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>596</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>597</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>586</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="J33" s="35" t="s">
+        <v>373</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B27:B29">
@@ -13285,16 +13406,16 @@
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G32 H2:H30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G33 H2:H30">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F33">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30 D33:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30 D34:D1048576">
       <formula1>$K$2:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31:H32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31:H33">
       <formula1>"Yes_Wishlist,No_wishlist"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15161,20 +15282,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" style="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="42"/>
+    <col min="4" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="42" t="s">
         <v>34</v>
       </c>
@@ -15184,11 +15304,8 @@
       <c r="C1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="42" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="62">
         <v>52</v>
       </c>
@@ -15198,11 +15315,8 @@
       <c r="C2" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="62">
         <v>53</v>
       </c>
@@ -15212,11 +15326,8 @@
       <c r="C3" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="74">
         <v>54</v>
       </c>
@@ -15226,11 +15337,8 @@
       <c r="C4" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="35" customFormat="1">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="35">
         <v>55</v>
       </c>
@@ -15240,8 +15348,16 @@
       <c r="C5" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>496</v>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="74">
+        <v>56</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>596</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -15251,11 +15367,6 @@
   <conditionalFormatting sqref="A2:A3">
     <cfRule type="duplicateValues" dxfId="43" priority="1"/>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4 D5">
-      <formula1>"All,Specific"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16255,7 +16366,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16386,6 +16497,29 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="74">
+        <v>56</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>596</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>493</v>
+      </c>
+      <c r="G6" s="35">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="42" priority="2"/>
@@ -16394,7 +16528,7 @@
     <cfRule type="duplicateValues" dxfId="41" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4 D5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
       <formula1>"ExistingUser,logedOn_user"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16403,9 +16537,10 @@
     <hyperlink ref="E3" r:id="rId2"/>
     <hyperlink ref="E4" r:id="rId3"/>
     <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -8,50 +8,51 @@
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
-    <sheet name="ic_verifyWishlistItem++" sheetId="66" r:id="rId2"/>
-    <sheet name="IC_WishlistToCart++" sheetId="69" r:id="rId3"/>
-    <sheet name="ic_RemoveFromcart++" sheetId="67" r:id="rId4"/>
-    <sheet name="ic_NavigetoWishlist++" sheetId="65" r:id="rId5"/>
-    <sheet name="Magento_UserInfoVerification++" sheetId="64" r:id="rId6"/>
-    <sheet name="IC_ProductsSortBy++" sheetId="63" r:id="rId7"/>
-    <sheet name="ic_SubscribeNews_DupliEmailID++" sheetId="62" r:id="rId8"/>
-    <sheet name="EnterSpouseInfor++" sheetId="61" r:id="rId9"/>
-    <sheet name="EnterContact++" sheetId="58" r:id="rId10"/>
-    <sheet name="CreditEnterAddressDetails++" sheetId="59" r:id="rId11"/>
-    <sheet name="CreditEnterEmploymentDetails++" sheetId="60" r:id="rId12"/>
-    <sheet name="EnterBasicDetails++" sheetId="57" r:id="rId13"/>
-    <sheet name="CreditStatusVerification++" sheetId="56" r:id="rId14"/>
-    <sheet name="CreditApp_NavigateFilter++" sheetId="55" r:id="rId15"/>
-    <sheet name="giftCardReport++" sheetId="54" r:id="rId16"/>
-    <sheet name="adminUserUpdate++" sheetId="52" r:id="rId17"/>
-    <sheet name="ICUpdateUser++" sheetId="51" r:id="rId18"/>
-    <sheet name="SapCustomer++" sheetId="50" r:id="rId19"/>
-    <sheet name="Suites" sheetId="22" r:id="rId20"/>
-    <sheet name="PayUPagePayment++" sheetId="31" r:id="rId21"/>
-    <sheet name="CheckoutpaymentOption++" sheetId="32" r:id="rId22"/>
-    <sheet name="deliveryPopulation++" sheetId="34" r:id="rId23"/>
-    <sheet name="icGiftCardPurchase++" sheetId="43" r:id="rId24"/>
-    <sheet name="SAP_OrderRelated++" sheetId="46" r:id="rId25"/>
-    <sheet name="GenerateOrderSAPnumber++" sheetId="38" r:id="rId26"/>
-    <sheet name="OrderStatusSearch++" sheetId="36" r:id="rId27"/>
-    <sheet name="Login_magento++" sheetId="35" r:id="rId28"/>
-    <sheet name="ic_RetriveOrderID++" sheetId="53" r:id="rId29"/>
-    <sheet name="ProductSearch++" sheetId="33" r:id="rId30"/>
-    <sheet name="icRedeemGiftCard++" sheetId="48" r:id="rId31"/>
-    <sheet name="VeriyGiftcardUsableity++" sheetId="49" r:id="rId32"/>
-    <sheet name="ic_login++" sheetId="44" r:id="rId33"/>
-    <sheet name="DB_connection_master++" sheetId="47" r:id="rId34"/>
-    <sheet name="icGiftCardVerificationSender++" sheetId="45" r:id="rId35"/>
-    <sheet name="ic_CashDepositPayment++" sheetId="41" r:id="rId36"/>
-    <sheet name="CreateaccountBackend++" sheetId="40" r:id="rId37"/>
-    <sheet name="accountCreation++" sheetId="39" r:id="rId38"/>
-    <sheet name="Russels" sheetId="26" r:id="rId39"/>
-    <sheet name="Login++" sheetId="25" r:id="rId40"/>
-    <sheet name="Bradlows" sheetId="27" r:id="rId41"/>
-    <sheet name="Rochester" sheetId="28" r:id="rId42"/>
-    <sheet name="Preferred Store" sheetId="68" r:id="rId43"/>
-    <sheet name="Sleepmasters" sheetId="29" r:id="rId44"/>
-    <sheet name="HiFiCorp" sheetId="30" r:id="rId45"/>
+    <sheet name="ClearCart++" sheetId="70" r:id="rId2"/>
+    <sheet name="ic_verifyWishlistItem++" sheetId="66" r:id="rId3"/>
+    <sheet name="IC_WishlistToCart++" sheetId="69" r:id="rId4"/>
+    <sheet name="ic_RemoveFromcart++" sheetId="67" r:id="rId5"/>
+    <sheet name="ic_NavigetoWishlist++" sheetId="65" r:id="rId6"/>
+    <sheet name="Magento_UserInfoVerification++" sheetId="64" r:id="rId7"/>
+    <sheet name="IC_ProductsSortBy++" sheetId="63" r:id="rId8"/>
+    <sheet name="ic_SubscribeNews_DupliEmailID++" sheetId="62" r:id="rId9"/>
+    <sheet name="EnterSpouseInfor++" sheetId="61" r:id="rId10"/>
+    <sheet name="EnterContact++" sheetId="58" r:id="rId11"/>
+    <sheet name="CreditEnterAddressDetails++" sheetId="59" r:id="rId12"/>
+    <sheet name="CreditEnterEmploymentDetails++" sheetId="60" r:id="rId13"/>
+    <sheet name="EnterBasicDetails++" sheetId="57" r:id="rId14"/>
+    <sheet name="CreditStatusVerification++" sheetId="56" r:id="rId15"/>
+    <sheet name="CreditApp_NavigateFilter++" sheetId="55" r:id="rId16"/>
+    <sheet name="giftCardReport++" sheetId="54" r:id="rId17"/>
+    <sheet name="adminUserUpdate++" sheetId="52" r:id="rId18"/>
+    <sheet name="ICUpdateUser++" sheetId="51" r:id="rId19"/>
+    <sheet name="SapCustomer++" sheetId="50" r:id="rId20"/>
+    <sheet name="Suites" sheetId="22" r:id="rId21"/>
+    <sheet name="PayUPagePayment++" sheetId="31" r:id="rId22"/>
+    <sheet name="CheckoutpaymentOption++" sheetId="32" r:id="rId23"/>
+    <sheet name="deliveryPopulation++" sheetId="34" r:id="rId24"/>
+    <sheet name="icGiftCardPurchase++" sheetId="43" r:id="rId25"/>
+    <sheet name="SAP_OrderRelated++" sheetId="46" r:id="rId26"/>
+    <sheet name="GenerateOrderSAPnumber++" sheetId="38" r:id="rId27"/>
+    <sheet name="OrderStatusSearch++" sheetId="36" r:id="rId28"/>
+    <sheet name="Login_magento++" sheetId="35" r:id="rId29"/>
+    <sheet name="ic_RetriveOrderID++" sheetId="53" r:id="rId30"/>
+    <sheet name="ProductSearch++" sheetId="33" r:id="rId31"/>
+    <sheet name="icRedeemGiftCard++" sheetId="48" r:id="rId32"/>
+    <sheet name="VeriyGiftcardUsableity++" sheetId="49" r:id="rId33"/>
+    <sheet name="ic_login++" sheetId="44" r:id="rId34"/>
+    <sheet name="DB_connection_master++" sheetId="47" r:id="rId35"/>
+    <sheet name="icGiftCardVerificationSender++" sheetId="45" r:id="rId36"/>
+    <sheet name="ic_CashDepositPayment++" sheetId="41" r:id="rId37"/>
+    <sheet name="CreateaccountBackend++" sheetId="40" r:id="rId38"/>
+    <sheet name="accountCreation++" sheetId="39" r:id="rId39"/>
+    <sheet name="Russels" sheetId="26" r:id="rId40"/>
+    <sheet name="Login++" sheetId="25" r:id="rId41"/>
+    <sheet name="Bradlows" sheetId="27" r:id="rId42"/>
+    <sheet name="Rochester" sheetId="28" r:id="rId43"/>
+    <sheet name="Preferred Store" sheetId="68" r:id="rId44"/>
+    <sheet name="Sleepmasters" sheetId="29" r:id="rId45"/>
+    <sheet name="HiFiCorp" sheetId="30" r:id="rId46"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -125,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2592" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="606">
   <si>
     <t>testSuitID</t>
   </si>
@@ -1927,6 +1928,30 @@
   </si>
   <si>
     <t>Samsung Toner D105L#Volkano Earphones With Mic Stannic Series Black</t>
+  </si>
+  <si>
+    <t>ClearCart</t>
+  </si>
+  <si>
+    <t>Cart - Add One Item to the Cart and Verify</t>
+  </si>
+  <si>
+    <t>Cart - Add the same Item multiple Times and Verify</t>
+  </si>
+  <si>
+    <t>Clear cart</t>
+  </si>
+  <si>
+    <t>Leverch</t>
+  </si>
+  <si>
+    <t>Password@124</t>
+  </si>
+  <si>
+    <t>Volkano Phonic Bluetooth Headphones Black VK-2002BK</t>
+  </si>
+  <si>
+    <t>No_wishlist</t>
   </si>
 </sst>
 </file>
@@ -2098,7 +2123,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2272,6 +2297,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3121,13 +3147,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
+      <selection pane="bottomRight" activeCell="E56" sqref="E56:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5222,8 +5248,8 @@
       <c r="D57" s="75" t="s">
         <v>596</v>
       </c>
-      <c r="E57" s="75" t="s">
-        <v>8</v>
+      <c r="E57" s="55" t="s">
+        <v>9</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>472</v>
@@ -5239,13 +5265,92 @@
       </c>
       <c r="K57" s="11" t="s">
         <v>473</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" s="74" customFormat="1">
+      <c r="A58" s="74">
+        <v>57</v>
+      </c>
+      <c r="B58" s="75" t="s">
+        <v>601</v>
+      </c>
+      <c r="C58" s="74">
+        <v>265</v>
+      </c>
+      <c r="D58" s="75" t="s">
+        <v>601</v>
+      </c>
+      <c r="E58" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="77" t="s">
+        <v>602</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H58" s="76" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" s="74" customFormat="1">
+      <c r="A59" s="74">
+        <v>58</v>
+      </c>
+      <c r="B59" s="75" t="s">
+        <v>600</v>
+      </c>
+      <c r="C59" s="74">
+        <v>271</v>
+      </c>
+      <c r="D59" s="75" t="s">
+        <v>600</v>
+      </c>
+      <c r="E59" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="77" t="s">
+        <v>602</v>
+      </c>
+      <c r="G59" s="76" t="s">
+        <v>598</v>
+      </c>
+      <c r="H59" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" s="75"/>
+    </row>
+    <row r="60" spans="1:15" s="74" customFormat="1">
+      <c r="A60" s="74">
+        <v>59</v>
+      </c>
+      <c r="B60" s="75" t="s">
+        <v>599</v>
+      </c>
+      <c r="C60" s="74">
+        <v>266</v>
+      </c>
+      <c r="D60" s="75" t="s">
+        <v>599</v>
+      </c>
+      <c r="E60" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="77" t="s">
+        <v>602</v>
+      </c>
+      <c r="G60" s="76" t="s">
+        <v>598</v>
+      </c>
+      <c r="H60" s="76" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B53:B54">
     <cfRule type="duplicateValues" dxfId="53" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58:B1048576 B1:B31 B33:B49">
+  <conditionalFormatting sqref="B61:B1048576 B1:B31 B33:B49">
     <cfRule type="duplicateValues" dxfId="52" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
@@ -5468,6 +5573,11 @@
     <hyperlink ref="H57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
     <hyperlink ref="I57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
     <hyperlink ref="K57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H59" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="H60" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G59:G60" location="'ClearCart++'!A1" display="ClearCart"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5475,6 +5585,174 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="42" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>436</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>437</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>438</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>441</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>442</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="66">
+        <v>46</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>445</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>446</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>447</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>448</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="66">
+        <v>47</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>488</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>445</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>446</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>447</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>448</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+      <formula1>"Female,Male"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -5605,7 +5883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -5763,7 +6041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -5902,7 +6180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -6176,7 +6454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -6247,7 +6525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -6304,7 +6582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -6423,7 +6701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC7"/>
   <sheetViews>
@@ -6870,7 +7148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
@@ -8261,7 +8539,72 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="42"/>
+    <col min="2" max="2" width="47.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="74">
+        <v>57</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="74">
+        <v>58</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>600</v>
+      </c>
+      <c r="C3" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="74">
+        <v>59</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>599</v>
+      </c>
+      <c r="C4" s="42">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -8723,136 +9066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="42"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="62">
-        <v>52</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>471</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="62">
-        <v>53</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="74">
-        <v>54</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>583</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="35" customFormat="1">
-      <c r="A5" s="35">
-        <v>55</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>592</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="74">
-        <v>56</v>
-      </c>
-      <c r="B6" s="75" t="s">
-        <v>596</v>
-      </c>
-      <c r="C6" s="42">
-        <v>1</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="74">
-        <v>56</v>
-      </c>
-      <c r="B7" s="75" t="s">
-        <v>596</v>
-      </c>
-      <c r="C7" s="42">
-        <v>2</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>496</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5 D6:D7">
-      <formula1>"All,Specific"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -9017,7 +9231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -9606,7 +9820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -9843,7 +10057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
@@ -10458,7 +10672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -10705,7 +10919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -10912,7 +11126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -11172,7 +11386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -11461,7 +11675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
@@ -12116,7 +12330,136 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="62">
+        <v>52</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>471</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="62">
+        <v>53</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="74">
+        <v>54</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>583</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="35" customFormat="1">
+      <c r="A5" s="35">
+        <v>55</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>592</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="74">
+        <v>56</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>596</v>
+      </c>
+      <c r="C6" s="42">
+        <v>1</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="74">
+        <v>56</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>596</v>
+      </c>
+      <c r="C7" s="42">
+        <v>2</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>496</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5 D6:D7">
+      <formula1>"All,Specific"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -12281,70 +12624,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="42"/>
-    <col min="3" max="3" width="20.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="42"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>588</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>589</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="42">
-        <v>54</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>590</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="42">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"All_product,Specific_product"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13394,6 +13680,70 @@
         <v>373</v>
       </c>
     </row>
+    <row r="34" spans="1:10" s="35" customFormat="1">
+      <c r="A34" s="74">
+        <v>58</v>
+      </c>
+      <c r="B34" s="75" t="s">
+        <v>600</v>
+      </c>
+      <c r="C34" s="35">
+        <v>1</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>604</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>605</v>
+      </c>
+      <c r="I34" s="35">
+        <v>3</v>
+      </c>
+      <c r="J34" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="35" customFormat="1">
+      <c r="A35" s="74">
+        <v>59</v>
+      </c>
+      <c r="B35" s="75" t="s">
+        <v>599</v>
+      </c>
+      <c r="C35" s="35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>604</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>605</v>
+      </c>
+      <c r="I35" s="35">
+        <v>1</v>
+      </c>
+      <c r="J35" s="35">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B27:B29">
@@ -13406,16 +13756,16 @@
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G33 H2:H30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G35 H2:H30">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F35">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30 D34:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30 D36:D1048576">
       <formula1>$K$2:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31:H33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31:H35">
       <formula1>"Yes_Wishlist,No_wishlist"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13425,7 +13775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -13528,7 +13878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -13611,11 +13961,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13866,11 +14218,21 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="19"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="A15" s="74">
+        <v>57</v>
+      </c>
+      <c r="B15" s="75" t="s">
+        <v>601</v>
+      </c>
+      <c r="C15" s="19">
+        <v>2</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="19"/>
@@ -13901,13 +14263,14 @@
     <hyperlink ref="E12" r:id="rId8"/>
     <hyperlink ref="E13" r:id="rId9"/>
     <hyperlink ref="E14" r:id="rId10"/>
+    <hyperlink ref="E15" r:id="rId11" display="Password@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -14019,7 +14382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -14117,7 +14480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -14163,7 +14526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -14472,7 +14835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
@@ -15175,7 +15538,66 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="42"/>
+    <col min="3" max="3" width="20.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>588</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>589</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="42">
+        <v>54</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>590</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="42">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"All_product,Specific_product"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
@@ -15280,98 +15702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="42"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="62">
-        <v>52</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>471</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="62">
-        <v>53</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="74">
-        <v>54</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>583</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="35">
-        <v>55</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>592</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="74">
-        <v>56</v>
-      </c>
-      <c r="B6" s="75" t="s">
-        <v>596</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -15575,7 +15906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -15679,7 +16010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -15783,7 +16114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A71"/>
   <sheetViews>
@@ -16156,7 +16487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -16260,7 +16591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -16365,6 +16696,97 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="62">
+        <v>52</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>471</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="62">
+        <v>53</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="74">
+        <v>54</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>583</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="35">
+        <v>55</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>592</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="74">
+        <v>56</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>596</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -16544,7 +16966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -16999,7 +17421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -17093,7 +17515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -17156,190 +17578,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="42" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="42"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>435</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>436</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>437</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>438</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>439</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>440</v>
-      </c>
-      <c r="J1" s="42" t="s">
-        <v>441</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>442</v>
-      </c>
-      <c r="L1" s="42" t="s">
-        <v>443</v>
-      </c>
-      <c r="M1" s="42" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="66">
-        <v>46</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>478</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>403</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>445</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>446</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>447</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>399</v>
-      </c>
-      <c r="J2" s="47" t="s">
-        <v>448</v>
-      </c>
-      <c r="K2" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="L2" s="42" t="s">
-        <v>408</v>
-      </c>
-      <c r="M2" s="42" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="66">
-        <v>47</v>
-      </c>
-      <c r="B3" s="67" t="s">
-        <v>488</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>403</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>445</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>446</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>447</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>399</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>448</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>408</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>449</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
-      <formula1>"Female,Male"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17492,14 +17746,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -17512,6 +17758,14 @@
     <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="608">
   <si>
     <t>testSuitID</t>
   </si>
@@ -1952,6 +1952,12 @@
   </si>
   <si>
     <t>No_wishlist</t>
+  </si>
+  <si>
+    <t>Cart - Validate Quantity can be increased in Cart</t>
+  </si>
+  <si>
+    <t>IncreaseQuanityInCart</t>
   </si>
 </sst>
 </file>
@@ -3147,13 +3153,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E56" sqref="E56:E57"/>
+      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5280,8 +5286,8 @@
       <c r="D58" s="75" t="s">
         <v>601</v>
       </c>
-      <c r="E58" s="75" t="s">
-        <v>8</v>
+      <c r="E58" s="55" t="s">
+        <v>9</v>
       </c>
       <c r="F58" s="77" t="s">
         <v>602</v>
@@ -5306,8 +5312,8 @@
       <c r="D59" s="75" t="s">
         <v>600</v>
       </c>
-      <c r="E59" s="75" t="s">
-        <v>8</v>
+      <c r="E59" s="55" t="s">
+        <v>9</v>
       </c>
       <c r="F59" s="77" t="s">
         <v>602</v>
@@ -5333,8 +5339,8 @@
       <c r="D60" s="75" t="s">
         <v>599</v>
       </c>
-      <c r="E60" s="75" t="s">
-        <v>8</v>
+      <c r="E60" s="55" t="s">
+        <v>9</v>
       </c>
       <c r="F60" s="77" t="s">
         <v>602</v>
@@ -5344,13 +5350,39 @@
       </c>
       <c r="H60" s="76" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="74" customFormat="1">
+      <c r="A61" s="74">
+        <v>60</v>
+      </c>
+      <c r="B61" s="75" t="s">
+        <v>606</v>
+      </c>
+      <c r="C61" s="74">
+        <v>270</v>
+      </c>
+      <c r="D61" s="75" t="s">
+        <v>606</v>
+      </c>
+      <c r="E61" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="77" t="s">
+        <v>602</v>
+      </c>
+      <c r="G61" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="75" t="s">
+        <v>607</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B53:B54">
     <cfRule type="duplicateValues" dxfId="53" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61:B1048576 B1:B31 B33:B49">
+  <conditionalFormatting sqref="B62:B1048576 B1:B31 B33:B49">
     <cfRule type="duplicateValues" dxfId="52" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
@@ -5578,6 +5610,7 @@
     <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart"/>
     <hyperlink ref="H60" location="'ProductSearch++'!A1" display="ProductSearch"/>
     <hyperlink ref="G59:G60" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="G61" location="'ProductSearch++'!A1" display="ProductSearch"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12626,11 +12659,9 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:B35"/>
-    </sheetView>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13744,6 +13775,38 @@
         <v>6</v>
       </c>
     </row>
+    <row r="36" spans="1:10" s="35" customFormat="1">
+      <c r="A36" s="74">
+        <v>60</v>
+      </c>
+      <c r="B36" s="75" t="s">
+        <v>606</v>
+      </c>
+      <c r="C36" s="35">
+        <v>1</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>604</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>605</v>
+      </c>
+      <c r="I36" s="35">
+        <v>1</v>
+      </c>
+      <c r="J36" s="35">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B27:B29">
@@ -13756,16 +13819,16 @@
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G35 H2:H30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G36 H2:H30">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F36">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30 D36:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30 D37:D1048576">
       <formula1>$K$2:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31:H35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31:H36">
       <formula1>"Yes_Wishlist,No_wishlist"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17588,15 +17651,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E4315169E4449459811E1A2A421A5D2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="484de8a0a7035cbf3240ac5ef037eda8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="38ec8e4d-8506-4d8b-b040-96d37469ddf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40b4f8b6fbe630a6badbf346a8d0e64c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -17745,6 +17799,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
   <ds:schemaRefs>
@@ -17763,14 +17826,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED871C4-2A4D-4B74-98A2-587321F60978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17787,4 +17842,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="27" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="612">
   <si>
     <t>testSuitID</t>
   </si>
@@ -1958,6 +1958,18 @@
   </si>
   <si>
     <t>IncreaseQuanityInCart</t>
+  </si>
+  <si>
+    <t>Cart - Remove some items from the cart and verify</t>
+  </si>
+  <si>
+    <t>RemoveArticleFromCart</t>
+  </si>
+  <si>
+    <t>Remove one quantity from cart adding 3 articles</t>
+  </si>
+  <si>
+    <t>Bluetooth Music Receiver#JBL Earphones T110 Blue#Basic Monitor Riser</t>
   </si>
 </sst>
 </file>
@@ -2129,7 +2141,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2304,6 +2316,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3153,13 +3168,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomRight" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5378,11 +5393,31 @@
         <v>607</v>
       </c>
     </row>
+    <row r="62" spans="1:15" s="74" customFormat="1">
+      <c r="A62" s="74">
+        <v>61</v>
+      </c>
+      <c r="B62" s="75" t="s">
+        <v>608</v>
+      </c>
+      <c r="D62" s="75" t="s">
+        <v>608</v>
+      </c>
+      <c r="E62" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="75" t="s">
+        <v>609</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B53:B54">
     <cfRule type="duplicateValues" dxfId="53" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62:B1048576 B1:B31 B33:B49">
+  <conditionalFormatting sqref="B63:B1048576 B1:B31 B33:B49">
     <cfRule type="duplicateValues" dxfId="52" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
@@ -5611,6 +5646,7 @@
     <hyperlink ref="H60" location="'ProductSearch++'!A1" display="ProductSearch"/>
     <hyperlink ref="G59:G60" location="'ClearCart++'!A1" display="ClearCart"/>
     <hyperlink ref="G61" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G62" location="'ProductSearch++'!A1" display="ProductSearch"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12659,9 +12695,11 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13807,6 +13845,38 @@
         <v>6</v>
       </c>
     </row>
+    <row r="37" spans="1:10" s="35" customFormat="1" ht="30">
+      <c r="A37" s="35">
+        <v>61</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>610</v>
+      </c>
+      <c r="C37" s="35">
+        <v>1</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="78" t="s">
+        <v>611</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>605</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>595</v>
+      </c>
+      <c r="J37" s="35">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B27:B29">
@@ -13819,16 +13889,16 @@
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G36 H2:H30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G37 H2:H30">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F37">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30 D37:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30 D38:D1048576">
       <formula1>$K$2:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31:H36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31:H37">
       <formula1>"Yes_Wishlist,No_wishlist"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17651,6 +17721,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E4315169E4449459811E1A2A421A5D2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="484de8a0a7035cbf3240ac5ef037eda8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="38ec8e4d-8506-4d8b-b040-96d37469ddf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40b4f8b6fbe630a6badbf346a8d0e64c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -17799,15 +17878,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
   <ds:schemaRefs>
@@ -17826,6 +17896,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED871C4-2A4D-4B74-98A2-587321F60978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17842,12 +17920,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -4,55 +4,56 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="27" activeTab="30"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
-    <sheet name="ClearCart++" sheetId="70" r:id="rId2"/>
-    <sheet name="ic_verifyWishlistItem++" sheetId="66" r:id="rId3"/>
-    <sheet name="IC_WishlistToCart++" sheetId="69" r:id="rId4"/>
-    <sheet name="ic_RemoveFromcart++" sheetId="67" r:id="rId5"/>
-    <sheet name="ic_NavigetoWishlist++" sheetId="65" r:id="rId6"/>
-    <sheet name="Magento_UserInfoVerification++" sheetId="64" r:id="rId7"/>
-    <sheet name="IC_ProductsSortBy++" sheetId="63" r:id="rId8"/>
-    <sheet name="ic_SubscribeNews_DupliEmailID++" sheetId="62" r:id="rId9"/>
-    <sheet name="EnterSpouseInfor++" sheetId="61" r:id="rId10"/>
-    <sheet name="EnterContact++" sheetId="58" r:id="rId11"/>
-    <sheet name="CreditEnterAddressDetails++" sheetId="59" r:id="rId12"/>
-    <sheet name="CreditEnterEmploymentDetails++" sheetId="60" r:id="rId13"/>
-    <sheet name="EnterBasicDetails++" sheetId="57" r:id="rId14"/>
-    <sheet name="CreditStatusVerification++" sheetId="56" r:id="rId15"/>
-    <sheet name="CreditApp_NavigateFilter++" sheetId="55" r:id="rId16"/>
-    <sheet name="giftCardReport++" sheetId="54" r:id="rId17"/>
-    <sheet name="adminUserUpdate++" sheetId="52" r:id="rId18"/>
-    <sheet name="ICUpdateUser++" sheetId="51" r:id="rId19"/>
-    <sheet name="SapCustomer++" sheetId="50" r:id="rId20"/>
-    <sheet name="Suites" sheetId="22" r:id="rId21"/>
-    <sheet name="PayUPagePayment++" sheetId="31" r:id="rId22"/>
-    <sheet name="CheckoutpaymentOption++" sheetId="32" r:id="rId23"/>
-    <sheet name="deliveryPopulation++" sheetId="34" r:id="rId24"/>
-    <sheet name="icGiftCardPurchase++" sheetId="43" r:id="rId25"/>
-    <sheet name="SAP_OrderRelated++" sheetId="46" r:id="rId26"/>
-    <sheet name="GenerateOrderSAPnumber++" sheetId="38" r:id="rId27"/>
-    <sheet name="OrderStatusSearch++" sheetId="36" r:id="rId28"/>
-    <sheet name="Login_magento++" sheetId="35" r:id="rId29"/>
-    <sheet name="ic_RetriveOrderID++" sheetId="53" r:id="rId30"/>
-    <sheet name="ProductSearch++" sheetId="33" r:id="rId31"/>
-    <sheet name="icRedeemGiftCard++" sheetId="48" r:id="rId32"/>
-    <sheet name="VeriyGiftcardUsableity++" sheetId="49" r:id="rId33"/>
-    <sheet name="ic_login++" sheetId="44" r:id="rId34"/>
-    <sheet name="DB_connection_master++" sheetId="47" r:id="rId35"/>
-    <sheet name="icGiftCardVerificationSender++" sheetId="45" r:id="rId36"/>
-    <sheet name="ic_CashDepositPayment++" sheetId="41" r:id="rId37"/>
-    <sheet name="CreateaccountBackend++" sheetId="40" r:id="rId38"/>
-    <sheet name="accountCreation++" sheetId="39" r:id="rId39"/>
-    <sheet name="Russels" sheetId="26" r:id="rId40"/>
-    <sheet name="Login++" sheetId="25" r:id="rId41"/>
-    <sheet name="Bradlows" sheetId="27" r:id="rId42"/>
-    <sheet name="Rochester" sheetId="28" r:id="rId43"/>
-    <sheet name="Preferred Store" sheetId="68" r:id="rId44"/>
-    <sheet name="Sleepmasters" sheetId="29" r:id="rId45"/>
-    <sheet name="HiFiCorp" sheetId="30" r:id="rId46"/>
+    <sheet name="ic_invalidCredslogin++" sheetId="71" r:id="rId2"/>
+    <sheet name="ClearCart++" sheetId="70" r:id="rId3"/>
+    <sheet name="ic_verifyWishlistItem++" sheetId="66" r:id="rId4"/>
+    <sheet name="IC_WishlistToCart++" sheetId="69" r:id="rId5"/>
+    <sheet name="ic_RemoveFromcart++" sheetId="67" r:id="rId6"/>
+    <sheet name="ic_NavigetoWishlist++" sheetId="65" r:id="rId7"/>
+    <sheet name="Magento_UserInfoVerification++" sheetId="64" r:id="rId8"/>
+    <sheet name="IC_ProductsSortBy++" sheetId="63" r:id="rId9"/>
+    <sheet name="ic_SubscribeNews_DupliEmailID++" sheetId="62" r:id="rId10"/>
+    <sheet name="EnterSpouseInfor++" sheetId="61" r:id="rId11"/>
+    <sheet name="EnterContact++" sheetId="58" r:id="rId12"/>
+    <sheet name="CreditEnterAddressDetails++" sheetId="59" r:id="rId13"/>
+    <sheet name="CreditEnterEmploymentDetails++" sheetId="60" r:id="rId14"/>
+    <sheet name="EnterBasicDetails++" sheetId="57" r:id="rId15"/>
+    <sheet name="CreditStatusVerification++" sheetId="56" r:id="rId16"/>
+    <sheet name="CreditApp_NavigateFilter++" sheetId="55" r:id="rId17"/>
+    <sheet name="giftCardReport++" sheetId="54" r:id="rId18"/>
+    <sheet name="adminUserUpdate++" sheetId="52" r:id="rId19"/>
+    <sheet name="ICUpdateUser++" sheetId="51" r:id="rId20"/>
+    <sheet name="SapCustomer++" sheetId="50" r:id="rId21"/>
+    <sheet name="Suites" sheetId="22" r:id="rId22"/>
+    <sheet name="PayUPagePayment++" sheetId="31" r:id="rId23"/>
+    <sheet name="CheckoutpaymentOption++" sheetId="32" r:id="rId24"/>
+    <sheet name="deliveryPopulation++" sheetId="34" r:id="rId25"/>
+    <sheet name="icGiftCardPurchase++" sheetId="43" r:id="rId26"/>
+    <sheet name="SAP_OrderRelated++" sheetId="46" r:id="rId27"/>
+    <sheet name="GenerateOrderSAPnumber++" sheetId="38" r:id="rId28"/>
+    <sheet name="OrderStatusSearch++" sheetId="36" r:id="rId29"/>
+    <sheet name="Login_magento++" sheetId="35" r:id="rId30"/>
+    <sheet name="ic_RetriveOrderID++" sheetId="53" r:id="rId31"/>
+    <sheet name="ProductSearch++" sheetId="33" r:id="rId32"/>
+    <sheet name="icRedeemGiftCard++" sheetId="48" r:id="rId33"/>
+    <sheet name="VeriyGiftcardUsableity++" sheetId="49" r:id="rId34"/>
+    <sheet name="ic_login++" sheetId="44" r:id="rId35"/>
+    <sheet name="DB_connection_master++" sheetId="47" r:id="rId36"/>
+    <sheet name="icGiftCardVerificationSender++" sheetId="45" r:id="rId37"/>
+    <sheet name="ic_CashDepositPayment++" sheetId="41" r:id="rId38"/>
+    <sheet name="CreateaccountBackend++" sheetId="40" r:id="rId39"/>
+    <sheet name="accountCreation++" sheetId="39" r:id="rId40"/>
+    <sheet name="Russels" sheetId="26" r:id="rId41"/>
+    <sheet name="Login++" sheetId="25" r:id="rId42"/>
+    <sheet name="Bradlows" sheetId="27" r:id="rId43"/>
+    <sheet name="Rochester" sheetId="28" r:id="rId44"/>
+    <sheet name="Preferred Store" sheetId="68" r:id="rId45"/>
+    <sheet name="Sleepmasters" sheetId="29" r:id="rId46"/>
+    <sheet name="HiFiCorp" sheetId="30" r:id="rId47"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="618">
   <si>
     <t>testSuitID</t>
   </si>
@@ -1970,6 +1971,24 @@
   </si>
   <si>
     <t>Bluetooth Music Receiver#JBL Earphones T110 Blue#Basic Monitor Riser</t>
+  </si>
+  <si>
+    <t>Invalid login creditials</t>
+  </si>
+  <si>
+    <t>ic_invalidCredslogin</t>
+  </si>
+  <si>
+    <t>Password@</t>
+  </si>
+  <si>
+    <t>LouieGBynumjourrapide.com</t>
+  </si>
+  <si>
+    <t>PasswordFlag</t>
+  </si>
+  <si>
+    <t>UsernameFlag</t>
   </si>
 </sst>
 </file>
@@ -3168,13 +3187,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G62" sqref="G62"/>
+      <selection pane="bottomRight" activeCell="A63" sqref="A63:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5413,11 +5432,51 @@
         <v>609</v>
       </c>
     </row>
+    <row r="63" spans="1:15" s="74" customFormat="1">
+      <c r="A63" s="74">
+        <v>62</v>
+      </c>
+      <c r="B63" s="75" t="s">
+        <v>612</v>
+      </c>
+      <c r="C63" s="74">
+        <v>305</v>
+      </c>
+      <c r="D63" s="75" t="s">
+        <v>612</v>
+      </c>
+      <c r="E63" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="74" customFormat="1">
+      <c r="A64" s="74">
+        <v>63</v>
+      </c>
+      <c r="B64" s="75" t="s">
+        <v>612</v>
+      </c>
+      <c r="C64" s="74">
+        <v>305</v>
+      </c>
+      <c r="D64" s="75" t="s">
+        <v>612</v>
+      </c>
+      <c r="E64" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>613</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B53:B54">
     <cfRule type="duplicateValues" dxfId="53" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B1048576 B1:B31 B33:B49">
+  <conditionalFormatting sqref="B65:B1048576 B1:B31 B33:B49">
     <cfRule type="duplicateValues" dxfId="52" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
@@ -5655,6 +5714,69 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="63">
+        <v>48</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>451</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>452</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -5821,7 +5943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -5952,7 +6074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -6110,7 +6232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -6249,7 +6371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -6523,7 +6645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -6594,7 +6716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -6651,7 +6773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -6770,7 +6892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC7"/>
   <sheetViews>
@@ -7217,7 +7339,105 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="42"/>
+    <col min="2" max="2" width="20.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="42"/>
+    <col min="4" max="4" width="13.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>617</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>616</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="74">
+        <v>62</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2" s="42">
+        <v>1</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="74">
+        <v>63</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>612</v>
+      </c>
+      <c r="C3" s="42">
+        <v>1</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
@@ -8608,72 +8828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="42"/>
-    <col min="2" max="2" width="47.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="42"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="74">
-        <v>57</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>601</v>
-      </c>
-      <c r="C2" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="74">
-        <v>58</v>
-      </c>
-      <c r="B3" s="75" t="s">
-        <v>600</v>
-      </c>
-      <c r="C3" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="74">
-        <v>59</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>599</v>
-      </c>
-      <c r="C4" s="42">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -9135,7 +9290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -9300,7 +9455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -9889,7 +10044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -10126,7 +10281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
@@ -10741,7 +10896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -10988,7 +11143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -11195,7 +11350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -11455,7 +11610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -11744,7 +11899,72 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="42"/>
+    <col min="2" max="2" width="47.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="74">
+        <v>57</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="74">
+        <v>58</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>600</v>
+      </c>
+      <c r="C3" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="74">
+        <v>59</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>599</v>
+      </c>
+      <c r="C4" s="42">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
@@ -12399,136 +12619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="42"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="62">
-        <v>52</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>471</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="62">
-        <v>53</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="74">
-        <v>54</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>583</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="35" customFormat="1">
-      <c r="A5" s="35">
-        <v>55</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>592</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="74">
-        <v>56</v>
-      </c>
-      <c r="B6" s="75" t="s">
-        <v>596</v>
-      </c>
-      <c r="C6" s="42">
-        <v>1</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="74">
-        <v>56</v>
-      </c>
-      <c r="B7" s="75" t="s">
-        <v>596</v>
-      </c>
-      <c r="C7" s="42">
-        <v>2</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>496</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5 D6:D7">
-      <formula1>"All,Specific"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -12693,12 +12784,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13724,8 +13815,8 @@
       <c r="B33" s="35" t="s">
         <v>596</v>
       </c>
-      <c r="C33" s="35" t="s">
-        <v>87</v>
+      <c r="C33" s="35">
+        <v>1</v>
       </c>
       <c r="D33" s="35" t="s">
         <v>152</v>
@@ -13908,7 +13999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -14011,7 +14102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -14094,7 +14185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -14403,7 +14494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -14515,7 +14606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -14613,7 +14704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -14659,7 +14750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -14968,7 +15059,136 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="62">
+        <v>52</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>471</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="62">
+        <v>53</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="74">
+        <v>54</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>583</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="35" customFormat="1">
+      <c r="A5" s="35">
+        <v>55</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>592</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="74">
+        <v>56</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>596</v>
+      </c>
+      <c r="C6" s="42">
+        <v>1</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="74">
+        <v>56</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>596</v>
+      </c>
+      <c r="C7" s="42">
+        <v>2</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>496</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5 D6:D7">
+      <formula1>"All,Specific"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
@@ -15671,66 +15891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="42"/>
-    <col min="3" max="3" width="20.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="42"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>588</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>589</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="42">
-        <v>54</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>590</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="42">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"All_product,Specific_product"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
@@ -15835,7 +15996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -16039,7 +16200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -16143,7 +16304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -16247,7 +16408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A71"/>
   <sheetViews>
@@ -16620,7 +16781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -16724,7 +16885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -16830,6 +16991,65 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="42"/>
+    <col min="3" max="3" width="20.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>588</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>589</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="42">
+        <v>54</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>590</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="42">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"All_product,Specific_product"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16919,7 +17139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -17099,7 +17319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -17554,7 +17774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -17648,79 +17868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="42"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>450</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="63">
-        <v>48</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>341</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>451</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>452</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -17729,7 +17877,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E4315169E4449459811E1A2A421A5D2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="484de8a0a7035cbf3240ac5ef037eda8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="38ec8e4d-8506-4d8b-b040-96d37469ddf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40b4f8b6fbe630a6badbf346a8d0e64c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -17878,24 +18026,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -17903,7 +18043,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED871C4-2A4D-4B74-98A2-587321F60978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17920,4 +18060,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="30" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="620">
   <si>
     <t>testSuitID</t>
   </si>
@@ -1989,6 +1989,12 @@
   </si>
   <si>
     <t>UsernameFlag</t>
+  </si>
+  <si>
+    <t>Validate the password is not visible</t>
+  </si>
+  <si>
+    <t>icPasswordSecured</t>
   </si>
 </sst>
 </file>
@@ -3187,13 +3193,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A63" sqref="A63:B64"/>
+      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5399,8 +5405,8 @@
       <c r="D61" s="75" t="s">
         <v>606</v>
       </c>
-      <c r="E61" s="75" t="s">
-        <v>8</v>
+      <c r="E61" s="55" t="s">
+        <v>9</v>
       </c>
       <c r="F61" s="77" t="s">
         <v>602</v>
@@ -5422,8 +5428,11 @@
       <c r="D62" s="75" t="s">
         <v>608</v>
       </c>
-      <c r="E62" s="75" t="s">
-        <v>8</v>
+      <c r="E62" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="77" t="s">
+        <v>602</v>
       </c>
       <c r="G62" s="76" t="s">
         <v>31</v>
@@ -5446,7 +5455,10 @@
         <v>612</v>
       </c>
       <c r="E63" s="75" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F63" s="77" t="s">
+        <v>210</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>613</v>
@@ -5468,15 +5480,41 @@
       <c r="E64" s="75" t="s">
         <v>8</v>
       </c>
+      <c r="F64" s="77" t="s">
+        <v>210</v>
+      </c>
       <c r="G64" s="11" t="s">
         <v>613</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="74" customFormat="1">
+      <c r="A65" s="74">
+        <v>64</v>
+      </c>
+      <c r="B65" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="C65" s="74">
+        <v>309</v>
+      </c>
+      <c r="D65" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="E65" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B53:B54">
     <cfRule type="duplicateValues" dxfId="53" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65:B1048576 B1:B31 B33:B49">
+  <conditionalFormatting sqref="B66:B1048576 B1:B31 B33:B49">
     <cfRule type="duplicateValues" dxfId="52" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
@@ -7343,7 +7381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
@@ -14189,8 +14227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14449,7 +14487,7 @@
         <v>601</v>
       </c>
       <c r="C15" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>180</v>
@@ -14459,11 +14497,21 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="19"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="A16" s="74">
+        <v>64</v>
+      </c>
+      <c r="B16" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="C16" s="19">
+        <v>1</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>603</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -14488,9 +14536,10 @@
     <hyperlink ref="E13" r:id="rId9"/>
     <hyperlink ref="E14" r:id="rId10"/>
     <hyperlink ref="E15" r:id="rId11" display="Password@123"/>
+    <hyperlink ref="E16" r:id="rId12" display="Password@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -17869,12 +17918,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18027,18 +18076,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18063,18 +18121,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="36" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="628">
   <si>
     <t>testSuitID</t>
   </si>
@@ -2007,6 +2007,18 @@
   </si>
   <si>
     <t>icVerifyForgotPass</t>
+  </si>
+  <si>
+    <t>Validating the new password setting email sent</t>
+  </si>
+  <si>
+    <t>icEmailSentVerification</t>
+  </si>
+  <si>
+    <t>jdg123auto@gmail.com</t>
+  </si>
+  <si>
+    <t>Xpath@123</t>
   </si>
 </sst>
 </file>
@@ -3205,13 +3217,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E43" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A67" sqref="A67:B67"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5499,7 +5511,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="74" customFormat="1">
+    <row r="65" spans="1:8" s="74" customFormat="1">
       <c r="A65" s="74">
         <v>64</v>
       </c>
@@ -5522,7 +5534,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="74" customFormat="1">
+    <row r="66" spans="1:8" s="74" customFormat="1">
       <c r="A66" s="74">
         <v>65</v>
       </c>
@@ -5535,8 +5547,8 @@
       <c r="D66" s="75" t="s">
         <v>620</v>
       </c>
-      <c r="E66" s="75" t="s">
-        <v>8</v>
+      <c r="E66" s="55" t="s">
+        <v>9</v>
       </c>
       <c r="F66" s="75" t="s">
         <v>210</v>
@@ -5545,7 +5557,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="74" customFormat="1">
+    <row r="67" spans="1:8" s="74" customFormat="1">
       <c r="A67" s="74">
         <v>66</v>
       </c>
@@ -5558,21 +5570,47 @@
       <c r="D67" s="74" t="s">
         <v>622</v>
       </c>
-      <c r="E67" s="75" t="s">
-        <v>8</v>
+      <c r="E67" s="55" t="s">
+        <v>9</v>
       </c>
       <c r="F67" s="75" t="s">
         <v>210</v>
       </c>
       <c r="G67" s="77" t="s">
         <v>623</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="74" customFormat="1">
+      <c r="A68" s="74">
+        <v>67</v>
+      </c>
+      <c r="B68" s="75" t="s">
+        <v>624</v>
+      </c>
+      <c r="C68" s="74">
+        <v>318</v>
+      </c>
+      <c r="D68" s="75" t="s">
+        <v>624</v>
+      </c>
+      <c r="E68" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="G68" s="74" t="s">
+        <v>623</v>
+      </c>
+      <c r="H68" s="75" t="s">
+        <v>625</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B53:B54">
     <cfRule type="duplicateValues" dxfId="53" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B68:B1048576 B1:B31 B33:B49">
+  <conditionalFormatting sqref="B69:B1048576 B1:B31 B33:B49">
     <cfRule type="duplicateValues" dxfId="52" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
@@ -14733,16 +14771,16 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -14754,78 +14792,110 @@
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1">
+    <row r="2" spans="1:12" s="1" customFormat="1">
       <c r="A2" s="1">
         <v>15</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>16</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H3" s="1">
+      <c r="F3"/>
+      <c r="I3" s="1">
         <v>500</v>
       </c>
     </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="74">
+        <v>67</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>624</v>
+      </c>
+      <c r="C4" s="35">
+        <v>1</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>626</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14880,7 +14950,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15315,19 +15385,19 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="44" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -16055,18 +16125,77 @@
         <v>93</v>
       </c>
     </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="74">
+        <v>67</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>624</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="14">
+        <v>2222227</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K13">
       <formula1>"Main Website,Incredible Connection,Hifi Corporation,Russells,Sleepmasters,Rochester"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I12 O2:S12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I13 O2:S13">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M13">
       <formula1>"ID, Passport"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L13">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18053,12 +18182,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18211,27 +18340,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18256,9 +18376,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="36" activeTab="36"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="28" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="631">
   <si>
     <t>testSuitID</t>
   </si>
@@ -2019,6 +2019,15 @@
   </si>
   <si>
     <t>Xpath@123</t>
+  </si>
+  <si>
+    <t>Validate SKU code visible</t>
+  </si>
+  <si>
+    <t>Bluetooth Music Receiver</t>
+  </si>
+  <si>
+    <t>Get_SKU_Code</t>
   </si>
 </sst>
 </file>
@@ -2190,7 +2199,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2368,6 +2377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3217,13 +3227,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5511,7 +5521,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="74" customFormat="1">
+    <row r="65" spans="1:10" s="74" customFormat="1">
       <c r="A65" s="74">
         <v>64</v>
       </c>
@@ -5534,7 +5544,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="74" customFormat="1">
+    <row r="66" spans="1:10" s="74" customFormat="1">
       <c r="A66" s="74">
         <v>65</v>
       </c>
@@ -5557,7 +5567,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="74" customFormat="1">
+    <row r="67" spans="1:10" s="74" customFormat="1">
       <c r="A67" s="74">
         <v>66</v>
       </c>
@@ -5580,7 +5590,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="74" customFormat="1">
+    <row r="68" spans="1:10" s="74" customFormat="1">
       <c r="A68" s="74">
         <v>67</v>
       </c>
@@ -5605,12 +5615,38 @@
       <c r="H68" s="75" t="s">
         <v>625</v>
       </c>
+    </row>
+    <row r="69" spans="1:10" s="74" customFormat="1">
+      <c r="A69" s="74">
+        <v>68</v>
+      </c>
+      <c r="B69" s="35" t="s">
+        <v>628</v>
+      </c>
+      <c r="C69" s="74">
+        <v>331</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>628</v>
+      </c>
+      <c r="E69" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="G69" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" s="11"/>
+      <c r="I69" s="79"/>
+      <c r="J69" s="79"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B53:B54">
     <cfRule type="duplicateValues" dxfId="53" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69:B1048576 B1:B31 B33:B49">
+  <conditionalFormatting sqref="B70:B1048576 B1:B31 B33:B49">
     <cfRule type="duplicateValues" dxfId="52" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
@@ -5840,6 +5876,7 @@
     <hyperlink ref="G59:G60" location="'ClearCart++'!A1" display="ClearCart"/>
     <hyperlink ref="G61" location="'ProductSearch++'!A1" display="ProductSearch"/>
     <hyperlink ref="G62" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G69" location="'ProductSearch++'!A1" display="ProductSearch"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12920,10 +12957,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14102,6 +14139,38 @@
         <v>6</v>
       </c>
     </row>
+    <row r="38" spans="1:10" s="35" customFormat="1">
+      <c r="A38" s="74">
+        <v>68</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>628</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>629</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>630</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>605</v>
+      </c>
+      <c r="I38" s="35">
+        <v>1</v>
+      </c>
+      <c r="J38" s="35" t="s">
+        <v>373</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B27:B29">
@@ -14113,18 +14182,21 @@
   <conditionalFormatting sqref="A30">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G37 H2:H30">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F38">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30 D38:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30 D39:D1048576">
       <formula1>$K$2:$K$18</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31:H37">
       <formula1>"Yes_Wishlist,No_wishlist"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G38">
+      <formula1>"Add_To_Cart,Add_To_Wishlist,Get_SKU_Code"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14773,7 +14845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -15476,7 +15548,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30">
+    <row r="2" spans="1:19">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -15535,7 +15607,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="30">
+    <row r="3" spans="1:19">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -15594,7 +15666,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="30">
+    <row r="4" spans="1:19">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -15771,7 +15843,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="45">
+    <row r="7" spans="1:19" ht="30">
       <c r="A7" s="19">
         <v>21</v>
       </c>
@@ -15889,7 +15961,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="45">
+    <row r="9" spans="1:19" ht="30">
       <c r="A9" s="19">
         <v>23</v>
       </c>
@@ -15948,7 +16020,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="45">
+    <row r="10" spans="1:19" ht="30">
       <c r="A10" s="19">
         <v>24</v>
       </c>
@@ -18182,12 +18254,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18340,18 +18412,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18376,18 +18457,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="28" activeTab="31"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="635">
   <si>
     <t>testSuitID</t>
   </si>
@@ -2028,6 +2028,18 @@
   </si>
   <si>
     <t>Get_SKU_Code</t>
+  </si>
+  <si>
+    <t>Compare products</t>
+  </si>
+  <si>
+    <t>CompareProducts</t>
+  </si>
+  <si>
+    <t>Bluetooth Music Receiver#JBL Tune600 Black</t>
+  </si>
+  <si>
+    <t>Add_To_Compare</t>
   </si>
 </sst>
 </file>
@@ -3227,13 +3239,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G69" sqref="G69"/>
+      <selection pane="bottomRight" activeCell="E67" sqref="E67:E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5603,8 +5615,8 @@
       <c r="D68" s="75" t="s">
         <v>624</v>
       </c>
-      <c r="E68" s="75" t="s">
-        <v>8</v>
+      <c r="E68" s="55" t="s">
+        <v>9</v>
       </c>
       <c r="F68" s="75" t="s">
         <v>210</v>
@@ -5629,8 +5641,8 @@
       <c r="D69" s="35" t="s">
         <v>628</v>
       </c>
-      <c r="E69" s="75" t="s">
-        <v>8</v>
+      <c r="E69" s="55" t="s">
+        <v>9</v>
       </c>
       <c r="F69" s="75" t="s">
         <v>210</v>
@@ -5641,12 +5653,35 @@
       <c r="H69" s="11"/>
       <c r="I69" s="79"/>
       <c r="J69" s="79"/>
+    </row>
+    <row r="70" spans="1:10" s="74" customFormat="1">
+      <c r="A70" s="74">
+        <v>69</v>
+      </c>
+      <c r="B70" s="75" t="s">
+        <v>631</v>
+      </c>
+      <c r="C70" s="74">
+        <v>335</v>
+      </c>
+      <c r="D70" s="75" t="s">
+        <v>631</v>
+      </c>
+      <c r="E70" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" s="74" t="s">
+        <v>632</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B53:B54">
     <cfRule type="duplicateValues" dxfId="53" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70:B1048576 B1:B31 B33:B49">
+  <conditionalFormatting sqref="B71:B1048576 B1:B31 B33:B49">
     <cfRule type="duplicateValues" dxfId="52" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
@@ -5664,6 +5699,11 @@
   <conditionalFormatting sqref="A53:A54 A2:A31 A33:A49">
     <cfRule type="duplicateValues" dxfId="47" priority="12"/>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D70">
+      <formula1>$K$2:$K$18</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento"/>
     <hyperlink ref="J3" location="'SapCustomer++'!A1" display="SapCustomer"/>
@@ -12957,10 +12997,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:B38"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14171,6 +14211,38 @@
         <v>373</v>
       </c>
     </row>
+    <row r="39" spans="1:10" s="35" customFormat="1">
+      <c r="A39" s="35">
+        <v>69</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>631</v>
+      </c>
+      <c r="C39" s="35">
+        <v>1</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>633</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>634</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>605</v>
+      </c>
+      <c r="I39" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="J39" s="35">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B27:B29">
@@ -14182,14 +14254,14 @@
   <conditionalFormatting sqref="A30">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G37 H2:H30">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F39">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30 D39:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30 D40:D1048576">
       <formula1>$K$2:$K$18</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31:H37">
@@ -14197,6 +14269,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G38">
       <formula1>"Add_To_Cart,Add_To_Wishlist,Get_SKU_Code"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G39">
+      <formula1>"Add_To_Cart,Add_To_Wishlist,Get_SKU_Code,Add_To_Compare"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18254,12 +18329,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18412,27 +18487,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18457,9 +18523,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -8,52 +8,54 @@
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
-    <sheet name="ic_invalidCredslogin++" sheetId="71" r:id="rId2"/>
-    <sheet name="ClearCart++" sheetId="70" r:id="rId3"/>
-    <sheet name="ic_verifyWishlistItem++" sheetId="66" r:id="rId4"/>
-    <sheet name="IC_WishlistToCart++" sheetId="69" r:id="rId5"/>
-    <sheet name="ic_RemoveFromcart++" sheetId="67" r:id="rId6"/>
-    <sheet name="ic_NavigetoWishlist++" sheetId="65" r:id="rId7"/>
-    <sheet name="Magento_UserInfoVerification++" sheetId="64" r:id="rId8"/>
-    <sheet name="IC_ProductsSortBy++" sheetId="63" r:id="rId9"/>
-    <sheet name="ic_SubscribeNews_DupliEmailID++" sheetId="62" r:id="rId10"/>
-    <sheet name="EnterSpouseInfor++" sheetId="61" r:id="rId11"/>
-    <sheet name="EnterContact++" sheetId="58" r:id="rId12"/>
-    <sheet name="CreditEnterAddressDetails++" sheetId="59" r:id="rId13"/>
-    <sheet name="CreditEnterEmploymentDetails++" sheetId="60" r:id="rId14"/>
-    <sheet name="EnterBasicDetails++" sheetId="57" r:id="rId15"/>
-    <sheet name="CreditStatusVerification++" sheetId="56" r:id="rId16"/>
-    <sheet name="CreditApp_NavigateFilter++" sheetId="55" r:id="rId17"/>
-    <sheet name="giftCardReport++" sheetId="54" r:id="rId18"/>
-    <sheet name="adminUserUpdate++" sheetId="52" r:id="rId19"/>
-    <sheet name="ICUpdateUser++" sheetId="51" r:id="rId20"/>
-    <sheet name="SapCustomer++" sheetId="50" r:id="rId21"/>
-    <sheet name="Suites" sheetId="22" r:id="rId22"/>
-    <sheet name="PayUPagePayment++" sheetId="31" r:id="rId23"/>
-    <sheet name="CheckoutpaymentOption++" sheetId="32" r:id="rId24"/>
-    <sheet name="deliveryPopulation++" sheetId="34" r:id="rId25"/>
-    <sheet name="icGiftCardPurchase++" sheetId="43" r:id="rId26"/>
-    <sheet name="SAP_OrderRelated++" sheetId="46" r:id="rId27"/>
-    <sheet name="GenerateOrderSAPnumber++" sheetId="38" r:id="rId28"/>
-    <sheet name="OrderStatusSearch++" sheetId="36" r:id="rId29"/>
-    <sheet name="Login_magento++" sheetId="35" r:id="rId30"/>
-    <sheet name="ic_RetriveOrderID++" sheetId="53" r:id="rId31"/>
-    <sheet name="ProductSearch++" sheetId="33" r:id="rId32"/>
-    <sheet name="icRedeemGiftCard++" sheetId="48" r:id="rId33"/>
-    <sheet name="VeriyGiftcardUsableity++" sheetId="49" r:id="rId34"/>
-    <sheet name="ic_login++" sheetId="44" r:id="rId35"/>
-    <sheet name="DB_connection_master++" sheetId="47" r:id="rId36"/>
-    <sheet name="icGiftCardVerificationSender++" sheetId="45" r:id="rId37"/>
-    <sheet name="ic_CashDepositPayment++" sheetId="41" r:id="rId38"/>
-    <sheet name="CreateaccountBackend++" sheetId="40" r:id="rId39"/>
-    <sheet name="accountCreation++" sheetId="39" r:id="rId40"/>
-    <sheet name="Russels" sheetId="26" r:id="rId41"/>
-    <sheet name="Login++" sheetId="25" r:id="rId42"/>
-    <sheet name="Bradlows" sheetId="27" r:id="rId43"/>
-    <sheet name="Rochester" sheetId="28" r:id="rId44"/>
-    <sheet name="Preferred Store" sheetId="68" r:id="rId45"/>
-    <sheet name="Sleepmasters" sheetId="29" r:id="rId46"/>
-    <sheet name="HiFiCorp" sheetId="30" r:id="rId47"/>
+    <sheet name="icEmailWishlistverification++" sheetId="73" r:id="rId2"/>
+    <sheet name="SendWishlistToEmail++" sheetId="72" r:id="rId3"/>
+    <sheet name="ic_invalidCredslogin++" sheetId="71" r:id="rId4"/>
+    <sheet name="ClearCart++" sheetId="70" r:id="rId5"/>
+    <sheet name="ic_verifyWishlistItem++" sheetId="66" r:id="rId6"/>
+    <sheet name="IC_WishlistToCart++" sheetId="69" r:id="rId7"/>
+    <sheet name="ic_RemoveFromcart++" sheetId="67" r:id="rId8"/>
+    <sheet name="ic_NavigetoWishlist++" sheetId="65" r:id="rId9"/>
+    <sheet name="Magento_UserInfoVerification++" sheetId="64" r:id="rId10"/>
+    <sheet name="IC_ProductsSortBy++" sheetId="63" r:id="rId11"/>
+    <sheet name="ic_SubscribeNews_DupliEmailID++" sheetId="62" r:id="rId12"/>
+    <sheet name="EnterSpouseInfor++" sheetId="61" r:id="rId13"/>
+    <sheet name="EnterContact++" sheetId="58" r:id="rId14"/>
+    <sheet name="CreditEnterAddressDetails++" sheetId="59" r:id="rId15"/>
+    <sheet name="CreditEnterEmploymentDetails++" sheetId="60" r:id="rId16"/>
+    <sheet name="EnterBasicDetails++" sheetId="57" r:id="rId17"/>
+    <sheet name="CreditStatusVerification++" sheetId="56" r:id="rId18"/>
+    <sheet name="CreditApp_NavigateFilter++" sheetId="55" r:id="rId19"/>
+    <sheet name="giftCardReport++" sheetId="54" r:id="rId20"/>
+    <sheet name="adminUserUpdate++" sheetId="52" r:id="rId21"/>
+    <sheet name="ICUpdateUser++" sheetId="51" r:id="rId22"/>
+    <sheet name="SapCustomer++" sheetId="50" r:id="rId23"/>
+    <sheet name="Suites" sheetId="22" r:id="rId24"/>
+    <sheet name="PayUPagePayment++" sheetId="31" r:id="rId25"/>
+    <sheet name="CheckoutpaymentOption++" sheetId="32" r:id="rId26"/>
+    <sheet name="deliveryPopulation++" sheetId="34" r:id="rId27"/>
+    <sheet name="icGiftCardPurchase++" sheetId="43" r:id="rId28"/>
+    <sheet name="SAP_OrderRelated++" sheetId="46" r:id="rId29"/>
+    <sheet name="GenerateOrderSAPnumber++" sheetId="38" r:id="rId30"/>
+    <sheet name="OrderStatusSearch++" sheetId="36" r:id="rId31"/>
+    <sheet name="Login_magento++" sheetId="35" r:id="rId32"/>
+    <sheet name="ic_RetriveOrderID++" sheetId="53" r:id="rId33"/>
+    <sheet name="ProductSearch++" sheetId="33" r:id="rId34"/>
+    <sheet name="icRedeemGiftCard++" sheetId="48" r:id="rId35"/>
+    <sheet name="VeriyGiftcardUsableity++" sheetId="49" r:id="rId36"/>
+    <sheet name="ic_login++" sheetId="44" r:id="rId37"/>
+    <sheet name="DB_connection_master++" sheetId="47" r:id="rId38"/>
+    <sheet name="icGiftCardVerificationSender++" sheetId="45" r:id="rId39"/>
+    <sheet name="ic_CashDepositPayment++" sheetId="41" r:id="rId40"/>
+    <sheet name="CreateaccountBackend++" sheetId="40" r:id="rId41"/>
+    <sheet name="accountCreation++" sheetId="39" r:id="rId42"/>
+    <sheet name="Russels" sheetId="26" r:id="rId43"/>
+    <sheet name="Login++" sheetId="25" r:id="rId44"/>
+    <sheet name="Bradlows" sheetId="27" r:id="rId45"/>
+    <sheet name="Rochester" sheetId="28" r:id="rId46"/>
+    <sheet name="Preferred Store" sheetId="68" r:id="rId47"/>
+    <sheet name="Sleepmasters" sheetId="29" r:id="rId48"/>
+    <sheet name="HiFiCorp" sheetId="30" r:id="rId49"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -127,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="644">
   <si>
     <t>testSuitID</t>
   </si>
@@ -2040,6 +2042,33 @@
   </si>
   <si>
     <t>Add_To_Compare</t>
+  </si>
+  <si>
+    <t>Wish List - Validate Mail for Wish List Share</t>
+  </si>
+  <si>
+    <t>SendWishlistToEmail</t>
+  </si>
+  <si>
+    <t>icEmailWishlistverification</t>
+  </si>
+  <si>
+    <t>Sourave</t>
+  </si>
+  <si>
+    <t>R300 Wallet top-up for purchases on PlayStation Store</t>
+  </si>
+  <si>
+    <t>Email_To_Share</t>
+  </si>
+  <si>
+    <t>TimeOut</t>
+  </si>
+  <si>
+    <t>waitTimeForEmailInSec</t>
+  </si>
+  <si>
+    <t>500</t>
   </si>
 </sst>
 </file>
@@ -3239,13 +3268,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E67" sqref="E67:E69"/>
+      <selection pane="bottomRight" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5533,7 +5562,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="74" customFormat="1">
+    <row r="65" spans="1:12" s="74" customFormat="1">
       <c r="A65" s="74">
         <v>64</v>
       </c>
@@ -5556,7 +5585,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="74" customFormat="1">
+    <row r="66" spans="1:12" s="74" customFormat="1">
       <c r="A66" s="74">
         <v>65</v>
       </c>
@@ -5579,7 +5608,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="74" customFormat="1">
+    <row r="67" spans="1:12" s="74" customFormat="1">
       <c r="A67" s="74">
         <v>66</v>
       </c>
@@ -5602,7 +5631,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="74" customFormat="1">
+    <row r="68" spans="1:12" s="74" customFormat="1">
       <c r="A68" s="74">
         <v>67</v>
       </c>
@@ -5628,7 +5657,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="74" customFormat="1">
+    <row r="69" spans="1:12" s="74" customFormat="1">
       <c r="A69" s="74">
         <v>68</v>
       </c>
@@ -5654,7 +5683,7 @@
       <c r="I69" s="79"/>
       <c r="J69" s="79"/>
     </row>
-    <row r="70" spans="1:10" s="74" customFormat="1">
+    <row r="70" spans="1:12" s="74" customFormat="1">
       <c r="A70" s="74">
         <v>69</v>
       </c>
@@ -5675,13 +5704,51 @@
       </c>
       <c r="H70" s="74" t="s">
         <v>632</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" s="74" customFormat="1">
+      <c r="A71" s="35">
+        <v>70</v>
+      </c>
+      <c r="B71" s="75" t="s">
+        <v>635</v>
+      </c>
+      <c r="C71" s="74">
+        <v>265</v>
+      </c>
+      <c r="D71" s="75" t="s">
+        <v>635</v>
+      </c>
+      <c r="E71" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="77" t="s">
+        <v>638</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="L71" s="76" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B53:B54">
     <cfRule type="duplicateValues" dxfId="53" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B1048576 B1:B31 B33:B49">
+  <conditionalFormatting sqref="B72:B1048576 B1:B31 B33:B49">
     <cfRule type="duplicateValues" dxfId="52" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
@@ -5700,7 +5767,7 @@
     <cfRule type="duplicateValues" dxfId="47" priority="12"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D70:D71">
       <formula1>$K$2:$K$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -5917,6 +5984,12 @@
     <hyperlink ref="G61" location="'ProductSearch++'!A1" display="ProductSearch"/>
     <hyperlink ref="G62" location="'ProductSearch++'!A1" display="ProductSearch"/>
     <hyperlink ref="G69" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="J71" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="H71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="K71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail"/>
+    <hyperlink ref="L71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5924,6 +5997,555 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="68" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="68"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="69" t="s">
+        <v>480</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="69" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="69">
+        <v>25</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="69">
+        <v>26</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="69">
+        <v>29</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="55">
+        <v>1</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="69">
+        <v>1</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="55">
+        <v>2</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="69">
+        <v>1</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="55">
+        <v>3</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="69">
+        <v>1</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="55">
+        <v>4</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="69">
+        <v>1</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="55">
+        <v>5</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="69">
+        <v>1</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="55">
+        <v>6</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="69">
+        <v>1</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30">
+      <c r="A13" s="55">
+        <v>7</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="69">
+        <v>1</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30">
+      <c r="A14" s="55">
+        <v>8</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="69">
+        <v>1</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="55">
+        <v>9</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="69">
+        <v>1</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="55">
+        <v>10</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="69">
+        <v>1</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="55">
+        <v>11</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="69">
+        <v>1</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="55">
+        <v>12</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="69">
+        <v>1</v>
+      </c>
+      <c r="D18" s="69" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="55">
+        <v>13</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="69">
+        <v>1</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="55">
+        <v>14</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="C20" s="69">
+        <v>1</v>
+      </c>
+      <c r="D20" s="69" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="55">
+        <v>15</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="69">
+        <v>1</v>
+      </c>
+      <c r="D21" s="69" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="55">
+        <v>16</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="69">
+        <v>1</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="55">
+        <v>17</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" s="69">
+        <v>1</v>
+      </c>
+      <c r="D23" s="69" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="55">
+        <v>18</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="69">
+        <v>1</v>
+      </c>
+      <c r="D24" s="69" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="55">
+        <v>19</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="69">
+        <v>1</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="55">
+        <v>20</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="C26" s="69">
+        <v>1</v>
+      </c>
+      <c r="D26" s="69" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="55">
+        <v>31</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="69">
+        <v>1</v>
+      </c>
+      <c r="D27" s="69" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="63">
+        <v>39</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>345</v>
+      </c>
+      <c r="C28" s="69">
+        <v>1</v>
+      </c>
+      <c r="D28" s="69" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="63">
+        <v>40</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>346</v>
+      </c>
+      <c r="C29" s="69">
+        <v>1</v>
+      </c>
+      <c r="D29" s="69" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="63">
+        <v>41</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>347</v>
+      </c>
+      <c r="C30" s="69">
+        <v>1</v>
+      </c>
+      <c r="D30" s="69" t="s">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A7:A26">
+    <cfRule type="duplicateValues" dxfId="40" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B26">
+    <cfRule type="duplicateValues" dxfId="39" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="duplicateValues" dxfId="38" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="37" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:A30">
+    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B30">
+    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"Update Account,Update Account Magento Admin,Create Account,Create Account Magento Admin,Guest Customer Creation,Registered customer from sales order"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>453</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="44">
+        <v>47</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="44">
+        <v>48</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="44">
+        <v>49</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -5986,7 +6608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -6154,7 +6776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -6285,7 +6907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -6443,7 +7065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -6582,7 +7204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -6856,7 +7478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -6927,7 +7549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -6984,7 +7606,108 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="42"/>
+    <col min="4" max="4" width="23.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="42"/>
+    <col min="9" max="9" width="29.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>642</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="35">
+        <v>70</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>635</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>643</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -7103,7 +7826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC7"/>
   <sheetViews>
@@ -7550,105 +8273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="42"/>
-    <col min="2" max="2" width="20.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="42"/>
-    <col min="4" max="4" width="13.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="42" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="42"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>617</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>616</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="74">
-        <v>62</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>612</v>
-      </c>
-      <c r="C2" s="42">
-        <v>1</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>615</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="74">
-        <v>63</v>
-      </c>
-      <c r="B3" s="75" t="s">
-        <v>612</v>
-      </c>
-      <c r="C3" s="42">
-        <v>1</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>417</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>614</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
@@ -9039,7 +9664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -9501,7 +10126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -9666,7 +10291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -10255,7 +10880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -10492,7 +11117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
@@ -11107,7 +11732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -11354,7 +11979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -11561,7 +12186,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="42"/>
+    <col min="2" max="2" width="10" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>640</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="35">
+        <v>70</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>635</v>
+      </c>
+      <c r="C2" s="75">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="42">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -11821,7 +12499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -12110,72 +12788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="42"/>
-    <col min="2" max="2" width="47.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="42"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="74">
-        <v>57</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>601</v>
-      </c>
-      <c r="C2" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="74">
-        <v>58</v>
-      </c>
-      <c r="B3" s="75" t="s">
-        <v>600</v>
-      </c>
-      <c r="C3" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="74">
-        <v>59</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>599</v>
-      </c>
-      <c r="C4" s="42">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
@@ -12830,7 +13443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -12995,13 +13608,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
-    </sheetView>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -14243,6 +14854,38 @@
         <v>6</v>
       </c>
     </row>
+    <row r="40" spans="1:10" s="35" customFormat="1">
+      <c r="A40" s="35">
+        <v>70</v>
+      </c>
+      <c r="B40" s="75" t="s">
+        <v>635</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>639</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>586</v>
+      </c>
+      <c r="I40" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="J40" s="35" t="s">
+        <v>373</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B27:B29">
@@ -14255,16 +14898,16 @@
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G37 H2:H30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G37 H2:H30 G40">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F40">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30 D40:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30 D41:D1048576">
       <formula1>$K$2:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31:H37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31:H37 H40">
       <formula1>"Yes_Wishlist,No_wishlist"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G38">
@@ -14280,7 +14923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -14383,7 +15026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -14466,7 +15109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -14804,7 +15447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -14916,7 +15559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -15046,7 +15689,105 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="42"/>
+    <col min="2" max="2" width="20.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="42"/>
+    <col min="4" max="4" width="13.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>617</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>616</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="74">
+        <v>62</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2" s="42">
+        <v>1</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="74">
+        <v>63</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>612</v>
+      </c>
+      <c r="C3" s="42">
+        <v>1</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -15092,7 +15833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -15401,136 +16142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="42"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="62">
-        <v>52</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>471</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="62">
-        <v>53</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="74">
-        <v>54</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>583</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="35" customFormat="1">
-      <c r="A5" s="35">
-        <v>55</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>592</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="74">
-        <v>56</v>
-      </c>
-      <c r="B6" s="75" t="s">
-        <v>596</v>
-      </c>
-      <c r="C6" s="42">
-        <v>1</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="74">
-        <v>56</v>
-      </c>
-      <c r="B7" s="75" t="s">
-        <v>596</v>
-      </c>
-      <c r="C7" s="42">
-        <v>2</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>496</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5 D6:D7">
-      <formula1>"All,Specific"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
@@ -16351,7 +16963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
@@ -16456,7 +17068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -16660,7 +17272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -16764,7 +17376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -16868,7 +17480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A71"/>
   <sheetViews>
@@ -17241,7 +17853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -17345,7 +17957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -17451,6 +18063,214 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="42"/>
+    <col min="2" max="2" width="47.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="74">
+        <v>57</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="74">
+        <v>58</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>600</v>
+      </c>
+      <c r="C3" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="74">
+        <v>59</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>599</v>
+      </c>
+      <c r="C4" s="42">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="62">
+        <v>52</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>471</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="62">
+        <v>53</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="74">
+        <v>54</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>583</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="35" customFormat="1">
+      <c r="A5" s="35">
+        <v>55</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>592</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="74">
+        <v>56</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>596</v>
+      </c>
+      <c r="C6" s="42">
+        <v>1</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="74">
+        <v>56</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>596</v>
+      </c>
+      <c r="C7" s="42">
+        <v>2</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="35">
+        <v>70</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>635</v>
+      </c>
+      <c r="C8" s="42">
+        <v>1</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>496</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8">
+      <formula1>"All,Specific"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17508,9 +18328,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17588,6 +18408,17 @@
         <v>87</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="35">
+        <v>70</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>635</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="44" priority="2"/>
@@ -17599,9 +18430,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17755,6 +18586,29 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:7" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A7" s="35">
+        <v>70</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>635</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>493</v>
+      </c>
+      <c r="G7" s="35">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="42" priority="2"/>
@@ -17763,7 +18617,7 @@
     <cfRule type="duplicateValues" dxfId="41" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7">
       <formula1>"ExistingUser,logedOn_user"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17773,568 +18627,20 @@
     <hyperlink ref="E4" r:id="rId3"/>
     <hyperlink ref="E5" r:id="rId4"/>
     <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="68"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="69" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="69" t="s">
-        <v>480</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="69" t="s">
-        <v>481</v>
-      </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="69" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="69">
-        <v>25</v>
-      </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="69">
-        <v>26</v>
-      </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="69">
-        <v>29</v>
-      </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="55">
-        <v>1</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="69">
-        <v>1</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="55">
-        <v>2</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="C8" s="69">
-        <v>1</v>
-      </c>
-      <c r="D8" s="69" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="55">
-        <v>3</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="C9" s="69">
-        <v>1</v>
-      </c>
-      <c r="D9" s="69" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="55">
-        <v>4</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="C10" s="69">
-        <v>1</v>
-      </c>
-      <c r="D10" s="69" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="55">
-        <v>5</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="C11" s="69">
-        <v>1</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="55">
-        <v>6</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="69">
-        <v>1</v>
-      </c>
-      <c r="D12" s="69" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="55">
-        <v>7</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="C13" s="69">
-        <v>1</v>
-      </c>
-      <c r="D13" s="69" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30">
-      <c r="A14" s="55">
-        <v>8</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="C14" s="69">
-        <v>1</v>
-      </c>
-      <c r="D14" s="69" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="55">
-        <v>9</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" s="69">
-        <v>1</v>
-      </c>
-      <c r="D15" s="69" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="55">
-        <v>10</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>233</v>
-      </c>
-      <c r="C16" s="69">
-        <v>1</v>
-      </c>
-      <c r="D16" s="69" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="55">
-        <v>11</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" s="69">
-        <v>1</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="55">
-        <v>12</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="C18" s="69">
-        <v>1</v>
-      </c>
-      <c r="D18" s="69" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="55">
-        <v>13</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>236</v>
-      </c>
-      <c r="C19" s="69">
-        <v>1</v>
-      </c>
-      <c r="D19" s="69" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="55">
-        <v>14</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>285</v>
-      </c>
-      <c r="C20" s="69">
-        <v>1</v>
-      </c>
-      <c r="D20" s="69" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="55">
-        <v>15</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="69">
-        <v>1</v>
-      </c>
-      <c r="D21" s="69" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="55">
-        <v>16</v>
-      </c>
-      <c r="B22" s="55" t="s">
-        <v>246</v>
-      </c>
-      <c r="C22" s="69">
-        <v>1</v>
-      </c>
-      <c r="D22" s="69" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="55">
-        <v>17</v>
-      </c>
-      <c r="B23" s="55" t="s">
-        <v>247</v>
-      </c>
-      <c r="C23" s="69">
-        <v>1</v>
-      </c>
-      <c r="D23" s="69" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="55">
-        <v>18</v>
-      </c>
-      <c r="B24" s="55" t="s">
-        <v>248</v>
-      </c>
-      <c r="C24" s="69">
-        <v>1</v>
-      </c>
-      <c r="D24" s="69" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="55">
-        <v>19</v>
-      </c>
-      <c r="B25" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="C25" s="69">
-        <v>1</v>
-      </c>
-      <c r="D25" s="69" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="55">
-        <v>20</v>
-      </c>
-      <c r="B26" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="C26" s="69">
-        <v>1</v>
-      </c>
-      <c r="D26" s="69" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="55">
-        <v>31</v>
-      </c>
-      <c r="B27" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="C27" s="69">
-        <v>1</v>
-      </c>
-      <c r="D27" s="69" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="63">
-        <v>39</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>345</v>
-      </c>
-      <c r="C28" s="69">
-        <v>1</v>
-      </c>
-      <c r="D28" s="69" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="63">
-        <v>40</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>346</v>
-      </c>
-      <c r="C29" s="69">
-        <v>1</v>
-      </c>
-      <c r="D29" s="69" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="63">
-        <v>41</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>347</v>
-      </c>
-      <c r="C30" s="69">
-        <v>1</v>
-      </c>
-      <c r="D30" s="69" t="s">
-        <v>458</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A7:A26">
-    <cfRule type="duplicateValues" dxfId="40" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B26">
-    <cfRule type="duplicateValues" dxfId="39" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="38" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="37" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A30">
-    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B30">
-    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"Update Account,Update Account Magento Admin,Create Account,Create Account Magento Admin,Guest Customer Creation,Registered customer from sales order"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="42"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>453</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="44">
-        <v>47</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>342</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="44">
-        <v>48</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>343</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="44">
-        <v>49</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>344</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>457</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:B4">
-    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18487,18 +18793,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18523,18 +18838,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="658">
   <si>
     <t>testSuitID</t>
   </si>
@@ -2053,9 +2053,6 @@
     <t>icEmailWishlistverification</t>
   </si>
   <si>
-    <t>Sourave</t>
-  </si>
-  <si>
     <t>R300 Wallet top-up for purchases on PlayStation Store</t>
   </si>
   <si>
@@ -2069,6 +2066,51 @@
   </si>
   <si>
     <t>500</t>
+  </si>
+  <si>
+    <t>Verify Message after submit email on Forgot Password Page</t>
+  </si>
+  <si>
+    <t>Login Page - verify Mail is received for Forget Password</t>
+  </si>
+  <si>
+    <t>Bongi, getting 0 emails</t>
+  </si>
+  <si>
+    <t>Sourave, share button not showing</t>
+  </si>
+  <si>
+    <t>Cart redirection to Cart details page TA275</t>
+  </si>
+  <si>
+    <t>Cart redirection to cart details page</t>
+  </si>
+  <si>
+    <t>RedirectToProdDetailPageFromCart</t>
+  </si>
+  <si>
+    <t>Redeem gift cart with invalid coupon code TA277</t>
+  </si>
+  <si>
+    <t>Redeem gift cart with invalid coupon code</t>
+  </si>
+  <si>
+    <t>giftCardWithInvalidCouponCode</t>
+  </si>
+  <si>
+    <t>Registered user add items to cart-Logout to login again and confirm cart TA278</t>
+  </si>
+  <si>
+    <t>Registered user add items to cart-Logout to login again and confirm cart</t>
+  </si>
+  <si>
+    <t>ic_logout</t>
+  </si>
+  <si>
+    <t>verifyCart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2170,7 +2212,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2192,6 +2234,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2240,7 +2288,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2419,6 +2467,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2427,7 +2482,17 @@
     <cellStyle name="Normal 2 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3268,13 +3333,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E71" sqref="E71"/>
+      <selection pane="bottomRight" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3284,7 +3349,7 @@
     <col min="3" max="3" width="20.140625" style="63" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="89.42578125" style="63" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="63" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="63" customWidth="1"/>
     <col min="7" max="7" width="34.42578125" style="63" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" style="63" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.140625" style="63" bestFit="1" customWidth="1"/>
@@ -3297,7 +3362,7 @@
     <col min="18" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" ht="30">
       <c r="A1" s="43" t="s">
         <v>15</v>
       </c>
@@ -5193,7 +5258,7 @@
       <c r="O49" s="64"/>
     </row>
     <row r="50" spans="1:15" s="45" customFormat="1">
-      <c r="A50" s="44">
+      <c r="A50" s="62">
         <v>49</v>
       </c>
       <c r="B50" s="44" t="s">
@@ -5205,7 +5270,7 @@
       <c r="D50" s="44" t="s">
         <v>342</v>
       </c>
-      <c r="E50" s="45" t="s">
+      <c r="E50" s="55" t="s">
         <v>9</v>
       </c>
       <c r="G50" s="73" t="s">
@@ -5214,7 +5279,7 @@
       <c r="H50" s="44"/>
     </row>
     <row r="51" spans="1:15" s="45" customFormat="1">
-      <c r="A51" s="44">
+      <c r="A51" s="62">
         <v>50</v>
       </c>
       <c r="B51" s="44" t="s">
@@ -5226,7 +5291,7 @@
       <c r="D51" s="44" t="s">
         <v>343</v>
       </c>
-      <c r="E51" s="45" t="s">
+      <c r="E51" s="55" t="s">
         <v>9</v>
       </c>
       <c r="G51" s="73" t="s">
@@ -5235,7 +5300,7 @@
       <c r="H51" s="44"/>
     </row>
     <row r="52" spans="1:15" s="45" customFormat="1">
-      <c r="A52" s="44">
+      <c r="A52" s="62">
         <v>51</v>
       </c>
       <c r="B52" s="44" t="s">
@@ -5247,7 +5312,7 @@
       <c r="D52" s="44" t="s">
         <v>344</v>
       </c>
-      <c r="E52" s="45" t="s">
+      <c r="E52" s="55" t="s">
         <v>9</v>
       </c>
       <c r="G52" s="73" t="s">
@@ -5259,7 +5324,7 @@
       <c r="A53" s="62">
         <v>52</v>
       </c>
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="80" t="s">
         <v>471</v>
       </c>
       <c r="D53" s="62" t="s">
@@ -5305,7 +5370,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" s="74" customFormat="1">
-      <c r="A55" s="74">
+      <c r="A55" s="62">
         <v>54</v>
       </c>
       <c r="B55" s="75" t="s">
@@ -5334,10 +5399,10 @@
       </c>
     </row>
     <row r="56" spans="1:15" s="74" customFormat="1">
-      <c r="A56" s="74">
+      <c r="A56" s="62">
         <v>55</v>
       </c>
-      <c r="B56" s="75" t="s">
+      <c r="B56" s="83" t="s">
         <v>592</v>
       </c>
       <c r="D56" s="75" t="s">
@@ -5360,10 +5425,10 @@
       </c>
     </row>
     <row r="57" spans="1:15" s="74" customFormat="1">
-      <c r="A57" s="74">
+      <c r="A57" s="62">
         <v>56</v>
       </c>
-      <c r="B57" s="75" t="s">
+      <c r="B57" s="82" t="s">
         <v>596</v>
       </c>
       <c r="D57" s="75" t="s">
@@ -5389,10 +5454,10 @@
       </c>
     </row>
     <row r="58" spans="1:15" s="74" customFormat="1">
-      <c r="A58" s="74">
+      <c r="A58" s="62">
         <v>57</v>
       </c>
-      <c r="B58" s="75" t="s">
+      <c r="B58" s="81" t="s">
         <v>601</v>
       </c>
       <c r="C58" s="74">
@@ -5415,7 +5480,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" s="74" customFormat="1">
-      <c r="A59" s="74">
+      <c r="A59" s="62">
         <v>58</v>
       </c>
       <c r="B59" s="75" t="s">
@@ -5442,10 +5507,10 @@
       <c r="I59" s="75"/>
     </row>
     <row r="60" spans="1:15" s="74" customFormat="1">
-      <c r="A60" s="74">
+      <c r="A60" s="62">
         <v>59</v>
       </c>
-      <c r="B60" s="75" t="s">
+      <c r="B60" s="81" t="s">
         <v>599</v>
       </c>
       <c r="C60" s="74">
@@ -5468,10 +5533,10 @@
       </c>
     </row>
     <row r="61" spans="1:15" s="74" customFormat="1">
-      <c r="A61" s="74">
+      <c r="A61" s="62">
         <v>60</v>
       </c>
-      <c r="B61" s="75" t="s">
+      <c r="B61" s="82" t="s">
         <v>606</v>
       </c>
       <c r="C61" s="74">
@@ -5494,10 +5559,10 @@
       </c>
     </row>
     <row r="62" spans="1:15" s="74" customFormat="1">
-      <c r="A62" s="74">
+      <c r="A62" s="62">
         <v>61</v>
       </c>
-      <c r="B62" s="75" t="s">
+      <c r="B62" s="82" t="s">
         <v>608</v>
       </c>
       <c r="D62" s="75" t="s">
@@ -5517,7 +5582,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" s="74" customFormat="1">
-      <c r="A63" s="74">
+      <c r="A63" s="62">
         <v>62</v>
       </c>
       <c r="B63" s="75" t="s">
@@ -5540,7 +5605,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" s="74" customFormat="1">
-      <c r="A64" s="74">
+      <c r="A64" s="62">
         <v>63</v>
       </c>
       <c r="B64" s="75" t="s">
@@ -5562,8 +5627,8 @@
         <v>613</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="74" customFormat="1">
-      <c r="A65" s="74">
+    <row r="65" spans="1:13" s="74" customFormat="1">
+      <c r="A65" s="62">
         <v>64</v>
       </c>
       <c r="B65" s="75" t="s">
@@ -5585,11 +5650,11 @@
         <v>619</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="74" customFormat="1">
-      <c r="A66" s="74">
+    <row r="66" spans="1:13" s="74" customFormat="1">
+      <c r="A66" s="62">
         <v>65</v>
       </c>
-      <c r="B66" s="75" t="s">
+      <c r="B66" s="77" t="s">
         <v>620</v>
       </c>
       <c r="C66" s="74">
@@ -5608,18 +5673,18 @@
         <v>621</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="74" customFormat="1">
-      <c r="A67" s="74">
+    <row r="67" spans="1:13" s="74" customFormat="1">
+      <c r="A67" s="62">
         <v>66</v>
       </c>
-      <c r="B67" s="74" t="s">
-        <v>622</v>
+      <c r="B67" s="81" t="s">
+        <v>643</v>
       </c>
       <c r="C67" s="74">
         <v>315</v>
       </c>
-      <c r="D67" s="74" t="s">
-        <v>622</v>
+      <c r="D67" s="75" t="s">
+        <v>643</v>
       </c>
       <c r="E67" s="55" t="s">
         <v>9</v>
@@ -5631,34 +5696,34 @@
         <v>623</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="74" customFormat="1">
-      <c r="A68" s="74">
+    <row r="68" spans="1:13" s="74" customFormat="1">
+      <c r="A68" s="62">
         <v>67</v>
       </c>
-      <c r="B68" s="75" t="s">
-        <v>624</v>
+      <c r="B68" s="77" t="s">
+        <v>644</v>
       </c>
       <c r="C68" s="74">
         <v>318</v>
       </c>
       <c r="D68" s="75" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
       <c r="E68" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="75" t="s">
-        <v>210</v>
-      </c>
-      <c r="G68" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="77" t="s">
+        <v>645</v>
+      </c>
+      <c r="G68" s="77" t="s">
         <v>623</v>
       </c>
-      <c r="H68" s="75" t="s">
+      <c r="H68" s="35" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="74" customFormat="1">
-      <c r="A69" s="74">
+    <row r="69" spans="1:13" s="74" customFormat="1">
+      <c r="A69" s="62">
         <v>68</v>
       </c>
       <c r="B69" s="35" t="s">
@@ -5683,11 +5748,11 @@
       <c r="I69" s="79"/>
       <c r="J69" s="79"/>
     </row>
-    <row r="70" spans="1:12" s="74" customFormat="1">
-      <c r="A70" s="74">
+    <row r="70" spans="1:13" s="74" customFormat="1">
+      <c r="A70" s="62">
         <v>69</v>
       </c>
-      <c r="B70" s="75" t="s">
+      <c r="B70" s="81" t="s">
         <v>631</v>
       </c>
       <c r="C70" s="74">
@@ -5696,8 +5761,8 @@
       <c r="D70" s="75" t="s">
         <v>631</v>
       </c>
-      <c r="E70" s="75" t="s">
-        <v>8</v>
+      <c r="E70" s="55" t="s">
+        <v>9</v>
       </c>
       <c r="G70" s="79" t="s">
         <v>31</v>
@@ -5706,11 +5771,11 @@
         <v>632</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="74" customFormat="1">
-      <c r="A71" s="35">
+    <row r="71" spans="1:13" s="74" customFormat="1">
+      <c r="A71" s="62">
         <v>70</v>
       </c>
-      <c r="B71" s="75" t="s">
+      <c r="B71" s="35" t="s">
         <v>635</v>
       </c>
       <c r="C71" s="74">
@@ -5719,11 +5784,11 @@
       <c r="D71" s="75" t="s">
         <v>635</v>
       </c>
-      <c r="E71" s="75" t="s">
-        <v>8</v>
+      <c r="E71" s="55" t="s">
+        <v>9</v>
       </c>
       <c r="F71" s="77" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>472</v>
@@ -5744,29 +5809,131 @@
         <v>637</v>
       </c>
     </row>
+    <row r="72" spans="1:13" s="74" customFormat="1">
+      <c r="A72" s="74">
+        <v>30</v>
+      </c>
+      <c r="B72" s="75" t="s">
+        <v>647</v>
+      </c>
+      <c r="C72" s="74">
+        <v>275</v>
+      </c>
+      <c r="D72" s="75" t="s">
+        <v>648</v>
+      </c>
+      <c r="E72" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="77" t="s">
+        <v>602</v>
+      </c>
+      <c r="G72" s="77" t="s">
+        <v>657</v>
+      </c>
+      <c r="H72" s="75" t="s">
+        <v>350</v>
+      </c>
+      <c r="I72" s="74" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" s="74" customFormat="1">
+      <c r="A73" s="74">
+        <v>31</v>
+      </c>
+      <c r="B73" s="75" t="s">
+        <v>650</v>
+      </c>
+      <c r="C73" s="74">
+        <v>277</v>
+      </c>
+      <c r="D73" s="75" t="s">
+        <v>651</v>
+      </c>
+      <c r="E73" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="77" t="s">
+        <v>602</v>
+      </c>
+      <c r="G73" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" s="75" t="s">
+        <v>350</v>
+      </c>
+      <c r="I73" s="75" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="84" customFormat="1">
+      <c r="A74" s="84">
+        <v>32</v>
+      </c>
+      <c r="B74" s="79" t="s">
+        <v>653</v>
+      </c>
+      <c r="C74" s="84">
+        <v>278</v>
+      </c>
+      <c r="D74" s="79" t="s">
+        <v>654</v>
+      </c>
+      <c r="E74" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="77" t="s">
+        <v>602</v>
+      </c>
+      <c r="G74" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="H74" s="79" t="s">
+        <v>598</v>
+      </c>
+      <c r="I74" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="J74" s="75" t="s">
+        <v>350</v>
+      </c>
+      <c r="K74" s="79" t="s">
+        <v>655</v>
+      </c>
+      <c r="L74" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="M74" s="79" t="s">
+        <v>656</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B53:B54">
-    <cfRule type="duplicateValues" dxfId="53" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B1048576 B1:B31 B33:B49">
-    <cfRule type="duplicateValues" dxfId="52" priority="11"/>
+  <conditionalFormatting sqref="B75:B1048576 B1:B31 B33:B49">
+    <cfRule type="duplicateValues" dxfId="53" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="51" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="50" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B52">
-    <cfRule type="duplicateValues" dxfId="49" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:A54 A2:A31 A33:A49">
-    <cfRule type="duplicateValues" dxfId="47" priority="12"/>
+  <conditionalFormatting sqref="A2:A31 A33:A49">
+    <cfRule type="duplicateValues" dxfId="48" priority="13"/>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <conditionalFormatting sqref="A50:A71">
+    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D70:D71">
       <formula1>$K$2:$K$18</formula1>
     </dataValidation>
@@ -7610,9 +7777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7649,7 +7814,7 @@
         <v>191</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J1" s="42" t="s">
         <v>185</v>
@@ -7687,7 +7852,7 @@
         <v>362</v>
       </c>
       <c r="I2" s="42" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J2" s="42" t="s">
         <v>362</v>
@@ -12211,10 +12376,10 @@
         <v>35</v>
       </c>
       <c r="D1" s="42" t="s">
+        <v>639</v>
+      </c>
+      <c r="E1" s="42" t="s">
         <v>640</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14868,7 +15033,7 @@
         <v>152</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F40" s="35" t="s">
         <v>469</v>
@@ -15564,15 +15729,14 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" bestFit="1" customWidth="1"/>

--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="662">
   <si>
     <t>testSuitID</t>
   </si>
@@ -2110,7 +2110,19 @@
     <t>verifyCart</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Validate product is out of stock</t>
+  </si>
+  <si>
+    <t>275-278 sheet</t>
+  </si>
+  <si>
+    <t>277-276 sheet</t>
+  </si>
+  <si>
+    <t>Ultra Link Keyboard And Mouse Combo KBM04</t>
+  </si>
+  <si>
+    <t>Validate_Out_Of_Stock</t>
   </si>
 </sst>
 </file>
@@ -3333,13 +3345,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G72" sqref="G72"/>
+      <selection pane="bottomRight" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5811,25 +5823,25 @@
     </row>
     <row r="72" spans="1:13" s="74" customFormat="1">
       <c r="A72" s="74">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="B72" s="75" t="s">
         <v>647</v>
       </c>
-      <c r="C72" s="74">
-        <v>275</v>
+      <c r="C72" s="77" t="s">
+        <v>658</v>
       </c>
       <c r="D72" s="75" t="s">
         <v>648</v>
       </c>
-      <c r="E72" s="79" t="s">
-        <v>8</v>
+      <c r="E72" s="55" t="s">
+        <v>9</v>
       </c>
       <c r="F72" s="77" t="s">
         <v>602</v>
       </c>
-      <c r="G72" s="77" t="s">
-        <v>657</v>
+      <c r="G72" s="75" t="s">
+        <v>31</v>
       </c>
       <c r="H72" s="75" t="s">
         <v>350</v>
@@ -5840,19 +5852,19 @@
     </row>
     <row r="73" spans="1:13" s="74" customFormat="1">
       <c r="A73" s="74">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="B73" s="75" t="s">
         <v>650</v>
       </c>
-      <c r="C73" s="74">
-        <v>277</v>
+      <c r="C73" s="77" t="s">
+        <v>659</v>
       </c>
       <c r="D73" s="75" t="s">
         <v>651</v>
       </c>
-      <c r="E73" s="79" t="s">
-        <v>8</v>
+      <c r="E73" s="55" t="s">
+        <v>9</v>
       </c>
       <c r="F73" s="77" t="s">
         <v>602</v>
@@ -5869,7 +5881,7 @@
     </row>
     <row r="74" spans="1:13" s="84" customFormat="1">
       <c r="A74" s="84">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="B74" s="79" t="s">
         <v>653</v>
@@ -5880,8 +5892,8 @@
       <c r="D74" s="79" t="s">
         <v>654</v>
       </c>
-      <c r="E74" s="79" t="s">
-        <v>8</v>
+      <c r="E74" s="55" t="s">
+        <v>9</v>
       </c>
       <c r="F74" s="77" t="s">
         <v>602</v>
@@ -5907,12 +5919,40 @@
       <c r="M74" s="79" t="s">
         <v>656</v>
       </c>
+    </row>
+    <row r="75" spans="1:13" s="74" customFormat="1">
+      <c r="A75" s="74">
+        <v>74</v>
+      </c>
+      <c r="B75" s="75" t="s">
+        <v>657</v>
+      </c>
+      <c r="C75" s="74">
+        <v>280</v>
+      </c>
+      <c r="D75" s="75" t="s">
+        <v>657</v>
+      </c>
+      <c r="E75" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="77" t="s">
+        <v>602</v>
+      </c>
+      <c r="G75" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" s="75"/>
+      <c r="I75" s="75"/>
+      <c r="J75" s="75"/>
+      <c r="K75" s="75"/>
+      <c r="L75" s="75"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B53:B54">
     <cfRule type="duplicateValues" dxfId="54" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B75:B1048576 B1:B31 B33:B49">
+  <conditionalFormatting sqref="B76:B1048576 B1:B31 B33:B49">
     <cfRule type="duplicateValues" dxfId="53" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
@@ -13775,9 +13815,11 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -15051,6 +15093,38 @@
         <v>373</v>
       </c>
     </row>
+    <row r="41" spans="1:10" s="35" customFormat="1">
+      <c r="A41" s="35">
+        <v>74</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>657</v>
+      </c>
+      <c r="C41" s="35">
+        <v>1</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>499</v>
+      </c>
+      <c r="E41" s="78" t="s">
+        <v>660</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>661</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>605</v>
+      </c>
+      <c r="I41" s="35">
+        <v>1</v>
+      </c>
+      <c r="J41" s="35">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B27:B29">
@@ -15062,17 +15136,17 @@
   <conditionalFormatting sqref="A30">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G37 H2:H30 G40">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F41">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30 D41:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30 D42:D1048576">
       <formula1>$K$2:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31:H37 H40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31:H37 H40:H41">
       <formula1>"Yes_Wishlist,No_wishlist"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G38">
@@ -15080,6 +15154,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G39">
       <formula1>"Add_To_Cart,Add_To_Wishlist,Get_SKU_Code,Add_To_Compare"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G41">
+      <formula1>"Add_To_Cart,Add_To_Wishlist,Validate_Out_Of_Stock"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18799,12 +18876,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18957,27 +19034,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19002,9 +19070,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="26" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2743" uniqueCount="650">
   <si>
     <t>testSuitID</t>
   </si>
@@ -2094,6 +2094,15 @@
   </si>
   <si>
     <t>Xpath@123</t>
+  </si>
+  <si>
+    <t>Pagination</t>
+  </si>
+  <si>
+    <t>Different delivery options to display on checkout</t>
+  </si>
+  <si>
+    <t>verifyDeliveryOption</t>
   </si>
 </sst>
 </file>
@@ -2302,7 +2311,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2653,6 +2662,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2661,7 +2671,37 @@
     <cellStyle name="Normal 2 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
-  <dxfs count="85">
+  <dxfs count="88">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3812,13 +3852,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA72"/>
+  <dimension ref="A1:AA74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomRight" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6479,8 +6519,8 @@
       <c r="E72" s="144" t="s">
         <v>199</v>
       </c>
-      <c r="F72" s="144" t="s">
-        <v>8</v>
+      <c r="F72" s="127" t="s">
+        <v>9</v>
       </c>
       <c r="G72" s="144" t="s">
         <v>643</v>
@@ -6512,28 +6552,83 @@
       <c r="Z72" s="144"/>
       <c r="AA72" s="144"/>
     </row>
+    <row r="73" spans="1:27">
+      <c r="A73" s="62">
+        <v>72</v>
+      </c>
+      <c r="B73" s="67" t="s">
+        <v>647</v>
+      </c>
+      <c r="C73" s="62">
+        <v>328</v>
+      </c>
+      <c r="D73" s="67" t="s">
+        <v>647</v>
+      </c>
+      <c r="E73" s="68" t="s">
+        <v>507</v>
+      </c>
+      <c r="F73" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="58" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27">
+      <c r="A74" s="134">
+        <v>73</v>
+      </c>
+      <c r="B74" s="134" t="s">
+        <v>648</v>
+      </c>
+      <c r="C74" s="134">
+        <v>345</v>
+      </c>
+      <c r="D74" s="134" t="s">
+        <v>648</v>
+      </c>
+      <c r="E74" s="144" t="s">
+        <v>199</v>
+      </c>
+      <c r="F74" s="134" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="148" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" s="134" t="s">
+        <v>649</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Q72"/>
   <conditionalFormatting sqref="B53:B54">
-    <cfRule type="duplicateValues" dxfId="84" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="83" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="82" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B52">
-    <cfRule type="duplicateValues" dxfId="81" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="duplicateValues" dxfId="80" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:A54 A2:A31 A33:A49">
-    <cfRule type="duplicateValues" dxfId="79" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B49 B1:B31 B55:B1048576">
-    <cfRule type="duplicateValues" dxfId="78" priority="73"/>
+  <conditionalFormatting sqref="B33:B49 B1:B31 B55:B72 B75:B1048576">
+    <cfRule type="duplicateValues" dxfId="81" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74">
+    <cfRule type="duplicateValues" dxfId="80" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74">
+    <cfRule type="duplicateValues" dxfId="79" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento"/>
@@ -6900,10 +6995,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="58" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="57" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
@@ -7027,10 +7122,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="56" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="55" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
@@ -7283,10 +7378,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="53" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3">
@@ -7378,10 +7473,10 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="52" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="51" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7435,10 +7530,10 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="50" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="49" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8168,22 +8263,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="48" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="47" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="45" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B21">
-    <cfRule type="duplicateValues" dxfId="44" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A21">
-    <cfRule type="duplicateValues" dxfId="43" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="47"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10">
@@ -8846,22 +8941,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="42" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="41" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B21">
-    <cfRule type="duplicateValues" dxfId="38" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A21">
-    <cfRule type="duplicateValues" dxfId="37" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="29"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576">
@@ -9321,10 +9416,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
@@ -9599,10 +9694,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="77" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="76" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10050,7 +10145,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B12:B14">
-    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10283,7 +10378,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B13:B15">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
@@ -11194,16 +11289,16 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B10:B12">
-    <cfRule type="duplicateValues" dxfId="32" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="31" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B33">
-    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A33">
-    <cfRule type="duplicateValues" dxfId="29" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1"/>
@@ -11375,16 +11470,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B6">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A6">
-    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B12">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A12">
-    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12021,7 +12116,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12251,7 +12346,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12895,19 +12990,19 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B33:B35">
-    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A32">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B32">
-    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13209,10 +13304,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="74" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
@@ -13225,13 +13320,13 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13986,15 +14081,50 @@
         <v>576</v>
       </c>
     </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="134">
+        <v>73</v>
+      </c>
+      <c r="B24" s="134" t="s">
+        <v>648</v>
+      </c>
+      <c r="C24" s="126" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="119" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="126" t="s">
+        <v>602</v>
+      </c>
+      <c r="F24" s="126" t="s">
+        <v>411</v>
+      </c>
+      <c r="G24" s="126" t="s">
+        <v>408</v>
+      </c>
+      <c r="H24" s="126" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="126" t="s">
+        <v>315</v>
+      </c>
+      <c r="J24" s="126" t="s">
+        <v>577</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B10:B12">
-    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
     <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
+  <conditionalFormatting sqref="B24">
     <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -14018,13 +14148,13 @@
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$18</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D23</xm:sqref>
+          <xm:sqref>D2:D24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D24:D1048576</xm:sqref>
+          <xm:sqref>D25:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15208,10 +15338,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="73" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="72" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
@@ -18336,22 +18466,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A21">
-    <cfRule type="duplicateValues" dxfId="71" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B21">
-    <cfRule type="duplicateValues" dxfId="70" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="69" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="68" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="67" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="66" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
@@ -18658,7 +18788,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="duplicateValues" dxfId="65" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18718,10 +18848,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="64" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="63" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18878,10 +19008,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="62" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="61" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
@@ -19006,10 +19136,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="60" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="59" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
@@ -19176,21 +19306,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19213,14 +19343,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -19235,4 +19357,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -4044,10 +4044,10 @@
   <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4147,7 +4147,7 @@
         <v>501</v>
       </c>
       <c r="F2" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="126" t="s">
         <v>108</v>
@@ -4187,7 +4187,7 @@
         <v>501</v>
       </c>
       <c r="F3" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="126" t="s">
         <v>108</v>
@@ -4228,7 +4228,7 @@
         <v>501</v>
       </c>
       <c r="F4" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="126" t="s">
         <v>108</v>
@@ -4267,7 +4267,7 @@
         <v>501</v>
       </c>
       <c r="F5" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="126" t="s">
         <v>108</v>
@@ -4308,7 +4308,7 @@
         <v>501</v>
       </c>
       <c r="F6" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="126" t="s">
         <v>108</v>
@@ -4349,7 +4349,7 @@
         <v>136</v>
       </c>
       <c r="F7" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="126" t="s">
         <v>86</v>
@@ -4388,7 +4388,7 @@
         <v>501</v>
       </c>
       <c r="F8" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="126" t="s">
         <v>86</v>
@@ -4427,7 +4427,7 @@
         <v>501</v>
       </c>
       <c r="F9" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="126" t="s">
         <v>86</v>
@@ -4464,7 +4464,7 @@
         <v>196</v>
       </c>
       <c r="F10" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="126" t="s">
         <v>86</v>
@@ -4503,7 +4503,7 @@
         <v>196</v>
       </c>
       <c r="F11" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="126" t="s">
         <v>86</v>
@@ -4542,7 +4542,7 @@
         <v>196</v>
       </c>
       <c r="F12" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="126" t="s">
         <v>86</v>
@@ -4581,7 +4581,7 @@
         <v>196</v>
       </c>
       <c r="F13" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" s="126" t="s">
         <v>86</v>
@@ -4620,7 +4620,7 @@
         <v>196</v>
       </c>
       <c r="F14" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" s="126" t="s">
         <v>86</v>
@@ -4659,7 +4659,7 @@
         <v>196</v>
       </c>
       <c r="F15" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" s="126" t="s">
         <v>86</v>
@@ -4698,7 +4698,7 @@
         <v>196</v>
       </c>
       <c r="F16" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="126" t="s">
         <v>154</v>
@@ -4741,7 +4741,7 @@
         <v>196</v>
       </c>
       <c r="F17" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="126" t="s">
         <v>154</v>
@@ -4784,7 +4784,7 @@
         <v>196</v>
       </c>
       <c r="F18" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" s="126" t="s">
         <v>154</v>
@@ -4827,7 +4827,7 @@
         <v>196</v>
       </c>
       <c r="F19" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" s="126" t="s">
         <v>154</v>
@@ -4870,7 +4870,7 @@
         <v>196</v>
       </c>
       <c r="F20" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="126" t="s">
         <v>154</v>
@@ -4913,7 +4913,7 @@
         <v>196</v>
       </c>
       <c r="F21" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" s="126" t="s">
         <v>154</v>
@@ -4954,7 +4954,7 @@
       </c>
       <c r="E22" s="124"/>
       <c r="F22" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" s="126" t="s">
         <v>108</v>
@@ -4984,7 +4984,7 @@
       </c>
       <c r="E23" s="124"/>
       <c r="F23" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23" s="126" t="s">
         <v>108</v>
@@ -5014,7 +5014,7 @@
       </c>
       <c r="E24" s="124"/>
       <c r="F24" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G24" s="126" t="s">
         <v>108</v>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="E25" s="124"/>
       <c r="F25" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" s="126" t="s">
         <v>108</v>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="E26" s="124"/>
       <c r="F26" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" s="126" t="s">
         <v>108</v>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="E27" s="124"/>
       <c r="F27" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" s="126" t="s">
         <v>31</v>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="E28" s="125"/>
       <c r="F28" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G28" s="126" t="s">
         <v>31</v>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="E29" s="125"/>
       <c r="F29" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G29" s="126" t="s">
         <v>31</v>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="E30" s="125"/>
       <c r="F30" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G30" s="126" t="s">
         <v>31</v>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="E31" s="125"/>
       <c r="F31" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G31" s="126" t="s">
         <v>31</v>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="E32" s="125"/>
       <c r="F32" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G32" s="126" t="s">
         <v>31</v>
@@ -5385,7 +5385,7 @@
         <v>196</v>
       </c>
       <c r="F33" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G33" s="127" t="s">
         <v>155</v>
@@ -5431,7 +5431,7 @@
         <v>196</v>
       </c>
       <c r="F34" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G34" s="127" t="s">
         <v>154</v>
@@ -5480,7 +5480,7 @@
         <v>196</v>
       </c>
       <c r="F35" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G35" s="127" t="s">
         <v>155</v>
@@ -5524,7 +5524,7 @@
         <v>196</v>
       </c>
       <c r="F36" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G36" s="126" t="s">
         <v>31</v>
@@ -5564,7 +5564,7 @@
         <v>196</v>
       </c>
       <c r="F37" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G37" s="127" t="s">
         <v>154</v>
@@ -5606,7 +5606,7 @@
         <v>196</v>
       </c>
       <c r="F38" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G38" s="129" t="s">
         <v>86</v>
@@ -5640,7 +5640,7 @@
         <v>196</v>
       </c>
       <c r="F39" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G39" s="129" t="s">
         <v>86</v>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="E40" s="125"/>
       <c r="F40" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G40" s="129" t="s">
         <v>154</v>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="E41" s="125"/>
       <c r="F41" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G41" s="129" t="s">
         <v>154</v>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="E42" s="125"/>
       <c r="F42" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G42" s="129" t="s">
         <v>154</v>
@@ -5866,7 +5866,7 @@
       </c>
       <c r="E44" s="125"/>
       <c r="F44" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G44" s="130" t="s">
         <v>288</v>
@@ -5897,7 +5897,7 @@
         <v>196</v>
       </c>
       <c r="F45" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G45" s="130" t="s">
         <v>289</v>
@@ -5928,7 +5928,7 @@
         <v>196</v>
       </c>
       <c r="F46" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G46" s="133" t="s">
         <v>290</v>
@@ -5959,7 +5959,7 @@
         <v>196</v>
       </c>
       <c r="F47" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G47" s="129" t="s">
         <v>154</v>
@@ -6004,7 +6004,7 @@
         <v>136</v>
       </c>
       <c r="F48" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G48" s="129" t="s">
         <v>154</v>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="E49" s="125"/>
       <c r="F49" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G49" s="129" t="s">
         <v>296</v>
@@ -6066,7 +6066,7 @@
         <v>501</v>
       </c>
       <c r="F50" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G50" s="58" t="s">
         <v>297</v>
@@ -6090,7 +6090,7 @@
         <v>501</v>
       </c>
       <c r="F51" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G51" s="58" t="s">
         <v>297</v>
@@ -6114,7 +6114,7 @@
         <v>501</v>
       </c>
       <c r="F52" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G52" s="58" t="s">
         <v>297</v>
@@ -6136,7 +6136,7 @@
         <v>136</v>
       </c>
       <c r="F53" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G53" s="129" t="s">
         <v>407</v>
@@ -6163,7 +6163,7 @@
         <v>136</v>
       </c>
       <c r="F54" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G54" s="129" t="s">
         <v>407</v>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G55" s="58" t="s">
         <v>407</v>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="E56" s="57"/>
       <c r="F56" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G56" s="58" t="s">
         <v>407</v>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="E57" s="57"/>
       <c r="F57" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G57" s="58" t="s">
         <v>407</v>
@@ -6299,7 +6299,7 @@
         <v>501</v>
       </c>
       <c r="F58" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G58" s="58" t="s">
         <v>154</v>
@@ -6332,7 +6332,7 @@
         <v>501</v>
       </c>
       <c r="F59" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G59" s="58" t="s">
         <v>576</v>
@@ -6365,7 +6365,7 @@
         <v>501</v>
       </c>
       <c r="F60" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G60" s="58" t="s">
         <v>576</v>
@@ -6398,7 +6398,7 @@
         <v>501</v>
       </c>
       <c r="F61" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G61" s="58" t="s">
         <v>31</v>
@@ -6429,7 +6429,7 @@
         <v>501</v>
       </c>
       <c r="F62" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G62" s="58" t="s">
         <v>31</v>
@@ -6462,7 +6462,7 @@
         <v>196</v>
       </c>
       <c r="F63" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G63" s="58" t="s">
         <v>580</v>
@@ -6493,7 +6493,7 @@
         <v>196</v>
       </c>
       <c r="F64" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G64" s="58" t="s">
         <v>580</v>
@@ -6524,7 +6524,7 @@
         <v>196</v>
       </c>
       <c r="F65" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G65" s="58" t="s">
         <v>581</v>
@@ -6552,7 +6552,7 @@
         <v>196</v>
       </c>
       <c r="F66" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G66" s="57" t="s">
         <v>582</v>
@@ -6580,7 +6580,7 @@
         <v>196</v>
       </c>
       <c r="F67" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G67" s="66" t="s">
         <v>583</v>
@@ -6608,7 +6608,7 @@
         <v>196</v>
       </c>
       <c r="F68" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G68" s="57" t="s">
         <v>583</v>
@@ -6638,7 +6638,7 @@
         <v>196</v>
       </c>
       <c r="F69" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G69" s="58" t="s">
         <v>31</v>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="E70" s="57"/>
       <c r="F70" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G70" s="58" t="s">
         <v>31</v>
@@ -6694,7 +6694,7 @@
         <v>586</v>
       </c>
       <c r="F71" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G71" s="58" t="s">
         <v>407</v>
@@ -19276,15 +19276,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E4315169E4449459811E1A2A421A5D2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="484de8a0a7035cbf3240ac5ef037eda8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="38ec8e4d-8506-4d8b-b040-96d37469ddf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40b4f8b6fbe630a6badbf346a8d0e64c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19433,6 +19424,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
   <ds:schemaRefs>
@@ -19442,23 +19442,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED871C4-2A4D-4B74-98A2-587321F60978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19475,4 +19458,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -4044,10 +4044,10 @@
   <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:F71"/>
+      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4147,7 +4147,7 @@
         <v>501</v>
       </c>
       <c r="F2" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="126" t="s">
         <v>108</v>
@@ -4187,7 +4187,7 @@
         <v>501</v>
       </c>
       <c r="F3" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="126" t="s">
         <v>108</v>
@@ -4228,7 +4228,7 @@
         <v>501</v>
       </c>
       <c r="F4" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="126" t="s">
         <v>108</v>
@@ -4267,7 +4267,7 @@
         <v>501</v>
       </c>
       <c r="F5" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="126" t="s">
         <v>108</v>
@@ -4308,7 +4308,7 @@
         <v>501</v>
       </c>
       <c r="F6" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" s="126" t="s">
         <v>108</v>
@@ -4349,7 +4349,7 @@
         <v>136</v>
       </c>
       <c r="F7" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" s="126" t="s">
         <v>86</v>
@@ -4388,7 +4388,7 @@
         <v>501</v>
       </c>
       <c r="F8" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="126" t="s">
         <v>86</v>
@@ -4427,7 +4427,7 @@
         <v>501</v>
       </c>
       <c r="F9" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="126" t="s">
         <v>86</v>
@@ -4464,7 +4464,7 @@
         <v>196</v>
       </c>
       <c r="F10" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" s="126" t="s">
         <v>86</v>
@@ -4503,7 +4503,7 @@
         <v>196</v>
       </c>
       <c r="F11" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" s="126" t="s">
         <v>86</v>
@@ -4542,7 +4542,7 @@
         <v>196</v>
       </c>
       <c r="F12" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" s="126" t="s">
         <v>86</v>
@@ -4581,7 +4581,7 @@
         <v>196</v>
       </c>
       <c r="F13" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" s="126" t="s">
         <v>86</v>
@@ -4620,7 +4620,7 @@
         <v>196</v>
       </c>
       <c r="F14" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14" s="126" t="s">
         <v>86</v>
@@ -4659,7 +4659,7 @@
         <v>196</v>
       </c>
       <c r="F15" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" s="126" t="s">
         <v>86</v>
@@ -4698,7 +4698,7 @@
         <v>196</v>
       </c>
       <c r="F16" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" s="126" t="s">
         <v>154</v>
@@ -4741,7 +4741,7 @@
         <v>196</v>
       </c>
       <c r="F17" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" s="126" t="s">
         <v>154</v>
@@ -4784,7 +4784,7 @@
         <v>196</v>
       </c>
       <c r="F18" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" s="126" t="s">
         <v>154</v>
@@ -4827,7 +4827,7 @@
         <v>196</v>
       </c>
       <c r="F19" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" s="126" t="s">
         <v>154</v>
@@ -4870,7 +4870,7 @@
         <v>196</v>
       </c>
       <c r="F20" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" s="126" t="s">
         <v>154</v>
@@ -4913,7 +4913,7 @@
         <v>196</v>
       </c>
       <c r="F21" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21" s="126" t="s">
         <v>154</v>
@@ -4954,7 +4954,7 @@
       </c>
       <c r="E22" s="124"/>
       <c r="F22" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22" s="126" t="s">
         <v>108</v>
@@ -4984,7 +4984,7 @@
       </c>
       <c r="E23" s="124"/>
       <c r="F23" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G23" s="126" t="s">
         <v>108</v>
@@ -5014,7 +5014,7 @@
       </c>
       <c r="E24" s="124"/>
       <c r="F24" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G24" s="126" t="s">
         <v>108</v>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="E25" s="124"/>
       <c r="F25" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G25" s="126" t="s">
         <v>108</v>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="E26" s="124"/>
       <c r="F26" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G26" s="126" t="s">
         <v>108</v>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="E27" s="124"/>
       <c r="F27" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G27" s="126" t="s">
         <v>31</v>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="E28" s="125"/>
       <c r="F28" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G28" s="126" t="s">
         <v>31</v>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="E29" s="125"/>
       <c r="F29" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G29" s="126" t="s">
         <v>31</v>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="E30" s="125"/>
       <c r="F30" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G30" s="126" t="s">
         <v>31</v>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="E31" s="125"/>
       <c r="F31" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G31" s="126" t="s">
         <v>31</v>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="E32" s="125"/>
       <c r="F32" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G32" s="126" t="s">
         <v>31</v>
@@ -5385,7 +5385,7 @@
         <v>196</v>
       </c>
       <c r="F33" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G33" s="127" t="s">
         <v>155</v>
@@ -5431,7 +5431,7 @@
         <v>196</v>
       </c>
       <c r="F34" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G34" s="127" t="s">
         <v>154</v>
@@ -5480,7 +5480,7 @@
         <v>196</v>
       </c>
       <c r="F35" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G35" s="127" t="s">
         <v>155</v>
@@ -5524,7 +5524,7 @@
         <v>196</v>
       </c>
       <c r="F36" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G36" s="126" t="s">
         <v>31</v>
@@ -5564,7 +5564,7 @@
         <v>196</v>
       </c>
       <c r="F37" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G37" s="127" t="s">
         <v>154</v>
@@ -5606,7 +5606,7 @@
         <v>196</v>
       </c>
       <c r="F38" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G38" s="129" t="s">
         <v>86</v>
@@ -5640,7 +5640,7 @@
         <v>196</v>
       </c>
       <c r="F39" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G39" s="129" t="s">
         <v>86</v>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="E40" s="125"/>
       <c r="F40" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G40" s="129" t="s">
         <v>154</v>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="E41" s="125"/>
       <c r="F41" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G41" s="129" t="s">
         <v>154</v>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="E42" s="125"/>
       <c r="F42" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G42" s="129" t="s">
         <v>154</v>
@@ -5866,7 +5866,7 @@
       </c>
       <c r="E44" s="125"/>
       <c r="F44" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G44" s="130" t="s">
         <v>288</v>
@@ -5897,7 +5897,7 @@
         <v>196</v>
       </c>
       <c r="F45" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G45" s="130" t="s">
         <v>289</v>
@@ -5928,7 +5928,7 @@
         <v>196</v>
       </c>
       <c r="F46" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G46" s="133" t="s">
         <v>290</v>
@@ -5959,7 +5959,7 @@
         <v>196</v>
       </c>
       <c r="F47" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G47" s="129" t="s">
         <v>154</v>
@@ -6004,7 +6004,7 @@
         <v>136</v>
       </c>
       <c r="F48" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G48" s="129" t="s">
         <v>154</v>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="E49" s="125"/>
       <c r="F49" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G49" s="129" t="s">
         <v>296</v>
@@ -6066,7 +6066,7 @@
         <v>501</v>
       </c>
       <c r="F50" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G50" s="58" t="s">
         <v>297</v>
@@ -6090,7 +6090,7 @@
         <v>501</v>
       </c>
       <c r="F51" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G51" s="58" t="s">
         <v>297</v>
@@ -6114,7 +6114,7 @@
         <v>501</v>
       </c>
       <c r="F52" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G52" s="58" t="s">
         <v>297</v>
@@ -6136,7 +6136,7 @@
         <v>136</v>
       </c>
       <c r="F53" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G53" s="129" t="s">
         <v>407</v>
@@ -6163,7 +6163,7 @@
         <v>136</v>
       </c>
       <c r="F54" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G54" s="129" t="s">
         <v>407</v>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G55" s="58" t="s">
         <v>407</v>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="E56" s="57"/>
       <c r="F56" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G56" s="58" t="s">
         <v>407</v>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="E57" s="57"/>
       <c r="F57" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G57" s="58" t="s">
         <v>407</v>
@@ -6299,7 +6299,7 @@
         <v>501</v>
       </c>
       <c r="F58" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G58" s="58" t="s">
         <v>154</v>
@@ -6332,7 +6332,7 @@
         <v>501</v>
       </c>
       <c r="F59" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G59" s="58" t="s">
         <v>576</v>
@@ -6365,7 +6365,7 @@
         <v>501</v>
       </c>
       <c r="F60" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G60" s="58" t="s">
         <v>576</v>
@@ -6398,7 +6398,7 @@
         <v>501</v>
       </c>
       <c r="F61" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G61" s="58" t="s">
         <v>31</v>
@@ -6429,7 +6429,7 @@
         <v>501</v>
       </c>
       <c r="F62" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G62" s="58" t="s">
         <v>31</v>
@@ -6462,7 +6462,7 @@
         <v>196</v>
       </c>
       <c r="F63" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G63" s="58" t="s">
         <v>580</v>
@@ -6493,7 +6493,7 @@
         <v>196</v>
       </c>
       <c r="F64" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G64" s="58" t="s">
         <v>580</v>
@@ -6524,7 +6524,7 @@
         <v>196</v>
       </c>
       <c r="F65" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G65" s="58" t="s">
         <v>581</v>
@@ -6552,7 +6552,7 @@
         <v>196</v>
       </c>
       <c r="F66" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G66" s="57" t="s">
         <v>582</v>
@@ -6580,7 +6580,7 @@
         <v>196</v>
       </c>
       <c r="F67" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G67" s="66" t="s">
         <v>583</v>
@@ -6608,7 +6608,7 @@
         <v>196</v>
       </c>
       <c r="F68" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G68" s="57" t="s">
         <v>583</v>
@@ -6638,7 +6638,7 @@
         <v>196</v>
       </c>
       <c r="F69" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G69" s="58" t="s">
         <v>31</v>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="E70" s="57"/>
       <c r="F70" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G70" s="58" t="s">
         <v>31</v>
@@ -6694,7 +6694,7 @@
         <v>586</v>
       </c>
       <c r="F71" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G71" s="58" t="s">
         <v>407</v>
@@ -19276,6 +19276,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E4315169E4449459811E1A2A421A5D2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="484de8a0a7035cbf3240ac5ef037eda8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="38ec8e4d-8506-4d8b-b040-96d37469ddf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40b4f8b6fbe630a6badbf346a8d0e64c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19424,15 +19433,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
   <ds:schemaRefs>
@@ -19442,6 +19442,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED871C4-2A4D-4B74-98A2-587321F60978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19458,21 +19475,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE4E936-C1E8-43C0-99F9-F49264C50037}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -67,12 +68,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1D00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1D00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -111,12 +112,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2226,7 +2227,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -2322,7 +2323,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2389,6 +2390,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2434,7 +2459,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2799,12 +2824,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2812,13 +2831,31 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="4"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="92">
     <dxf>
@@ -3797,7 +3834,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3830,9 +3867,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3865,6 +3919,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4040,35 +4111,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="11" style="61" customWidth="1"/>
-    <col min="2" max="2" width="93.5703125" style="131" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.7109375" style="131" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="131" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="131" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" style="131" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" style="131" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" style="131" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" style="131" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.42578125" style="131" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.42578125" style="131" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="27.140625" style="131" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="31.42578125" style="131" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="131" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" style="131" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="131"/>
+    <col min="2" max="2" width="93.54296875" style="131" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.7265625" style="131" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="131" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" style="131" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.7265625" style="131" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.54296875" style="131" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.453125" style="131" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.7265625" style="131" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.453125" style="131" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.453125" style="131" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="27.1796875" style="131" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="31.453125" style="131" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.1796875" style="131" customWidth="1"/>
+    <col min="18" max="18" width="20.1796875" style="131" customWidth="1"/>
+    <col min="19" max="16384" width="9.1796875" style="131"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -4130,7 +4201,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30">
+    <row r="2" spans="1:19" ht="29">
       <c r="A2" s="137">
         <v>1</v>
       </c>
@@ -4170,7 +4241,7 @@
       <c r="O2" s="124"/>
       <c r="P2" s="124"/>
     </row>
-    <row r="3" spans="1:19" ht="30">
+    <row r="3" spans="1:19" ht="29">
       <c r="A3" s="137">
         <v>2</v>
       </c>
@@ -4211,7 +4282,7 @@
       <c r="P3" s="124"/>
       <c r="Q3" s="124"/>
     </row>
-    <row r="4" spans="1:19" ht="30">
+    <row r="4" spans="1:19" ht="29">
       <c r="A4" s="137">
         <v>3</v>
       </c>
@@ -4250,7 +4321,7 @@
       <c r="P4" s="124"/>
       <c r="Q4" s="124"/>
     </row>
-    <row r="5" spans="1:19" ht="30">
+    <row r="5" spans="1:19" ht="29">
       <c r="A5" s="137">
         <v>4</v>
       </c>
@@ -4291,7 +4362,7 @@
       <c r="P5" s="124"/>
       <c r="Q5" s="124"/>
     </row>
-    <row r="6" spans="1:19" ht="30">
+    <row r="6" spans="1:19" ht="29">
       <c r="A6" s="137">
         <v>5</v>
       </c>
@@ -4332,7 +4403,7 @@
       <c r="P6" s="124"/>
       <c r="Q6" s="124"/>
     </row>
-    <row r="7" spans="1:19" ht="30">
+    <row r="7" spans="1:19" ht="29">
       <c r="A7" s="137">
         <v>6</v>
       </c>
@@ -4371,7 +4442,7 @@
       <c r="P7" s="124"/>
       <c r="Q7" s="124"/>
     </row>
-    <row r="8" spans="1:19" ht="30">
+    <row r="8" spans="1:19" ht="29">
       <c r="A8" s="137">
         <v>7</v>
       </c>
@@ -4410,7 +4481,7 @@
       <c r="P8" s="124"/>
       <c r="Q8" s="124"/>
     </row>
-    <row r="9" spans="1:19" ht="30">
+    <row r="9" spans="1:19" ht="29">
       <c r="A9" s="137">
         <v>8</v>
       </c>
@@ -4447,7 +4518,7 @@
       <c r="P9" s="124"/>
       <c r="Q9" s="124"/>
     </row>
-    <row r="10" spans="1:19" ht="30">
+    <row r="10" spans="1:19" ht="29">
       <c r="A10" s="137">
         <v>9</v>
       </c>
@@ -4486,7 +4557,7 @@
       <c r="P10" s="124"/>
       <c r="Q10" s="124"/>
     </row>
-    <row r="11" spans="1:19" ht="30">
+    <row r="11" spans="1:19" ht="29">
       <c r="A11" s="137">
         <v>10</v>
       </c>
@@ -4525,7 +4596,7 @@
       <c r="P11" s="124"/>
       <c r="Q11" s="124"/>
     </row>
-    <row r="12" spans="1:19" ht="30">
+    <row r="12" spans="1:19" ht="29">
       <c r="A12" s="137">
         <v>11</v>
       </c>
@@ -4564,7 +4635,7 @@
       <c r="P12" s="124"/>
       <c r="Q12" s="124"/>
     </row>
-    <row r="13" spans="1:19" ht="30">
+    <row r="13" spans="1:19" ht="29">
       <c r="A13" s="137">
         <v>12</v>
       </c>
@@ -4603,7 +4674,7 @@
       <c r="P13" s="124"/>
       <c r="Q13" s="124"/>
     </row>
-    <row r="14" spans="1:19" ht="30">
+    <row r="14" spans="1:19" ht="29">
       <c r="A14" s="140">
         <v>13</v>
       </c>
@@ -4642,7 +4713,7 @@
       <c r="P14" s="124"/>
       <c r="Q14" s="124"/>
     </row>
-    <row r="15" spans="1:19" ht="30">
+    <row r="15" spans="1:19" ht="29">
       <c r="A15" s="137">
         <v>14</v>
       </c>
@@ -4681,7 +4752,7 @@
       <c r="P15" s="124"/>
       <c r="Q15" s="124"/>
     </row>
-    <row r="16" spans="1:19" ht="30">
+    <row r="16" spans="1:19" ht="29">
       <c r="A16" s="149">
         <v>15</v>
       </c>
@@ -4724,7 +4795,7 @@
       <c r="P16" s="124"/>
       <c r="Q16" s="124"/>
     </row>
-    <row r="17" spans="1:17" ht="30">
+    <row r="17" spans="1:17" ht="29">
       <c r="A17" s="149">
         <v>16</v>
       </c>
@@ -4767,7 +4838,7 @@
       <c r="P17" s="124"/>
       <c r="Q17" s="124"/>
     </row>
-    <row r="18" spans="1:17" ht="30">
+    <row r="18" spans="1:17" ht="29">
       <c r="A18" s="149">
         <v>17</v>
       </c>
@@ -4810,7 +4881,7 @@
       <c r="P18" s="124"/>
       <c r="Q18" s="124"/>
     </row>
-    <row r="19" spans="1:17" ht="30">
+    <row r="19" spans="1:17" ht="29">
       <c r="A19" s="149">
         <v>18</v>
       </c>
@@ -4853,7 +4924,7 @@
       <c r="P19" s="124"/>
       <c r="Q19" s="124"/>
     </row>
-    <row r="20" spans="1:17" ht="30">
+    <row r="20" spans="1:17" ht="29">
       <c r="A20" s="149">
         <v>19</v>
       </c>
@@ -4896,7 +4967,7 @@
       <c r="P20" s="124"/>
       <c r="Q20" s="124"/>
     </row>
-    <row r="21" spans="1:17" ht="30">
+    <row r="21" spans="1:17" ht="29">
       <c r="A21" s="149">
         <v>20</v>
       </c>
@@ -5837,7 +5908,7 @@
         <v>196</v>
       </c>
       <c r="F43" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G43" s="130" t="s">
         <v>287</v>
@@ -5914,7 +5985,7 @@
       <c r="Q45" s="130"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="152">
+      <c r="A46" s="150">
         <v>45</v>
       </c>
       <c r="B46" s="133" t="s">
@@ -5945,7 +6016,7 @@
       <c r="Q46" s="130"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="153">
+      <c r="A47" s="151">
         <v>46</v>
       </c>
       <c r="B47" s="131" t="s">
@@ -5990,7 +6061,7 @@
       </c>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="153">
+      <c r="A48" s="151">
         <v>47</v>
       </c>
       <c r="B48" s="134" t="s">
@@ -6098,7 +6169,7 @@
       <c r="H51" s="123"/>
     </row>
     <row r="52" spans="1:16" s="57" customFormat="1">
-      <c r="A52" s="64">
+      <c r="A52" s="156">
         <v>51</v>
       </c>
       <c r="B52" s="123" t="s">
@@ -6114,7 +6185,7 @@
         <v>501</v>
       </c>
       <c r="F52" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G52" s="58" t="s">
         <v>297</v>
@@ -6122,7 +6193,7 @@
       <c r="H52" s="123"/>
     </row>
     <row r="53" spans="1:16" s="130" customFormat="1">
-      <c r="A53" s="63">
+      <c r="A53" s="157">
         <v>52</v>
       </c>
       <c r="B53" s="130" t="s">
@@ -6149,7 +6220,7 @@
       </c>
     </row>
     <row r="54" spans="1:16" s="130" customFormat="1">
-      <c r="A54" s="63">
+      <c r="A54" s="154">
         <v>53</v>
       </c>
       <c r="B54" s="130" t="s">
@@ -6179,7 +6250,7 @@
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="67">
+      <c r="A55" s="155">
         <v>54</v>
       </c>
       <c r="B55" s="65" t="s">
@@ -6215,7 +6286,7 @@
       <c r="P55" s="124"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="67">
+      <c r="A56" s="155">
         <v>55</v>
       </c>
       <c r="B56" s="65" t="s">
@@ -6248,7 +6319,7 @@
       <c r="O56" s="57"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="67">
+      <c r="A57" s="155">
         <v>56</v>
       </c>
       <c r="B57" s="65" t="s">
@@ -6283,7 +6354,7 @@
       <c r="O57" s="57"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="67">
+      <c r="A58" s="158">
         <v>57</v>
       </c>
       <c r="B58" s="65" t="s">
@@ -6316,7 +6387,7 @@
       <c r="O58" s="57"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="67">
+      <c r="A59" s="158">
         <v>58</v>
       </c>
       <c r="B59" s="65" t="s">
@@ -6349,7 +6420,7 @@
       <c r="O59" s="57"/>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="67">
+      <c r="A60" s="158">
         <v>59</v>
       </c>
       <c r="B60" s="65" t="s">
@@ -6382,7 +6453,7 @@
       <c r="O60" s="57"/>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="151">
+      <c r="A61" s="158">
         <v>60</v>
       </c>
       <c r="B61" s="65" t="s">
@@ -6415,7 +6486,7 @@
       <c r="O61" s="57"/>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="151">
+      <c r="A62" s="158">
         <v>61</v>
       </c>
       <c r="B62" s="65" t="s">
@@ -6446,7 +6517,7 @@
       <c r="O62" s="57"/>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="67">
+      <c r="A63" s="158">
         <v>62</v>
       </c>
       <c r="B63" s="70" t="s">
@@ -6477,10 +6548,10 @@
       <c r="O63" s="57"/>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="67">
+      <c r="A64" s="158">
         <v>63</v>
       </c>
-      <c r="B64" s="154" t="s">
+      <c r="B64" s="152" t="s">
         <v>692</v>
       </c>
       <c r="C64" s="67">
@@ -6508,7 +6579,7 @@
       <c r="O64" s="57"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="67">
+      <c r="A65" s="158">
         <v>64</v>
       </c>
       <c r="B65" s="71" t="s">
@@ -6536,7 +6607,7 @@
       <c r="L65" s="57"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="67">
+      <c r="A66" s="158">
         <v>65</v>
       </c>
       <c r="B66" s="65" t="s">
@@ -6564,7 +6635,7 @@
       <c r="L66" s="57"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="150">
+      <c r="A67" s="158">
         <v>66</v>
       </c>
       <c r="B67" s="65" t="s">
@@ -6592,7 +6663,7 @@
       <c r="L67" s="57"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="150">
+      <c r="A68" s="155">
         <v>67</v>
       </c>
       <c r="B68" s="65" t="s">
@@ -6622,7 +6693,7 @@
       <c r="L68" s="57"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="150">
+      <c r="A69" s="155">
         <v>68</v>
       </c>
       <c r="B69" s="65" t="s">
@@ -6650,7 +6721,7 @@
       <c r="L69" s="57"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="151">
+      <c r="A70" s="155">
         <v>69</v>
       </c>
       <c r="B70" s="65" t="s">
@@ -6678,7 +6749,7 @@
       <c r="L70" s="57"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="64">
+      <c r="A71" s="153">
         <v>70</v>
       </c>
       <c r="B71" s="65" t="s">
@@ -6747,239 +6818,239 @@
     <cfRule type="duplicateValues" dxfId="82" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
-    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
-    <hyperlink ref="J7" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="G10:G14" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="H10" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
-    <hyperlink ref="H11:H14" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
-    <hyperlink ref="G15" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="H15" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
-    <hyperlink ref="G16" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="H16" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
-    <hyperlink ref="I16" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G17" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="G18" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="G19" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="G20" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="H17" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
-    <hyperlink ref="H18" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
-    <hyperlink ref="H19" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
-    <hyperlink ref="H20" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
-    <hyperlink ref="I17" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="I18" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="I19" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="I20" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="H21" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
-    <hyperlink ref="I21" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G27" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="H27" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="L27" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="N27" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="G24" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="G25" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="G22" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="G23" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="G26" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="J10:J15" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="L17:L21" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="L16" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="I27" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="J27" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="M27" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="K27" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
-    <hyperlink ref="O27" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="G28" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="G30" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="H28" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="H30" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="L28" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="L30" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="N28" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="N30" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="I28" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="I30" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="J28" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="J30" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="M28" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="M30" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="K28" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
-    <hyperlink ref="K30" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
-    <hyperlink ref="O28" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="O30" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="H31" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="K31" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="N31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="I31" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="L31" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="J31" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
-    <hyperlink ref="O31" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="G29" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="H29" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="L29" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="N29" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="I29" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="J29" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="M29" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="K29" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
-    <hyperlink ref="O29" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="G32" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="H32" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="L32" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="I32" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="J32" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="M32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="K32" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
-    <hyperlink ref="O32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="P32" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="G34" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="H37" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="H33" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="I33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="J33" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="K33" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="L33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="M33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="N33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="G33" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
-    <hyperlink ref="H34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
-    <hyperlink ref="J34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="K34" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="L34" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="M34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="N34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="O34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="M35" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="H47" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
-    <hyperlink ref="H48" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
-    <hyperlink ref="I47" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
-    <hyperlink ref="I48" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
-    <hyperlink ref="J47" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
-    <hyperlink ref="J48" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
-    <hyperlink ref="G47" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="G48" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="G49" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID"/>
-    <hyperlink ref="G40" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="M40" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G41:G42" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="M40:M42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="H54" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="M47" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="N47" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter"/>
-    <hyperlink ref="O47" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification"/>
-    <hyperlink ref="N32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="L48" location="'EnterContact++'!A1" display="EnterContact"/>
-    <hyperlink ref="L47" location="'EnterContact++'!A1" display="EnterContact"/>
-    <hyperlink ref="K48" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
-    <hyperlink ref="K47" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
-    <hyperlink ref="G39" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G38" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G53:G54" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
-    <hyperlink ref="H53" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
-    <hyperlink ref="I54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
-    <hyperlink ref="I53" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
-    <hyperlink ref="J54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
-    <hyperlink ref="G35" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
-    <hyperlink ref="H35" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="I35" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="J35" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="K35" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="L35" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="G36" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="H36" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
-    <hyperlink ref="I36" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="J36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="K37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="I37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
-    <hyperlink ref="K36" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="L37" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="H38" location="'giftCardReport++'!A1" display="giftCardReport"/>
-    <hyperlink ref="H39" location="'giftCardReport++'!A1" display="giftCardReport"/>
-    <hyperlink ref="G50" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
-    <hyperlink ref="G50:G52" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
-    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="K2" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation"/>
-    <hyperlink ref="J2" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
-    <hyperlink ref="K3" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="K5" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="J3" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
-    <hyperlink ref="J4" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
-    <hyperlink ref="J5" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
-    <hyperlink ref="K6" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="J6" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
-    <hyperlink ref="K16" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
-    <hyperlink ref="K17:K21" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
-    <hyperlink ref="J16" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
-    <hyperlink ref="J17:J21" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
-    <hyperlink ref="I2" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
-    <hyperlink ref="I3:I6" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
-    <hyperlink ref="J55" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="I55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
-    <hyperlink ref="G55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
-    <hyperlink ref="H55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
-    <hyperlink ref="K55" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart"/>
-    <hyperlink ref="J56" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="J57" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="K57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
-    <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login"/>
-    <hyperlink ref="H59" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart"/>
-    <hyperlink ref="H60" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="G59:G60" location="'ClearCart++'!A1" display="ClearCart"/>
-    <hyperlink ref="G61" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="G62" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="G69" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="J71" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="G71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
-    <hyperlink ref="H71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
-    <hyperlink ref="I71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
-    <hyperlink ref="K71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail"/>
-    <hyperlink ref="L71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification"/>
-    <hyperlink ref="G56:G57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
-    <hyperlink ref="H56:H57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
-    <hyperlink ref="I56:I57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
-    <hyperlink ref="G63" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
-    <hyperlink ref="G64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
-    <hyperlink ref="G70" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="H40" location="'ClearCart++'!A1" display="ClearCart++"/>
-    <hyperlink ref="I40" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="I41:I42" location="'ProductSearch++'!A1" display="ProductSearch"/>
-    <hyperlink ref="H41:H42" location="'ClearCart++'!A1" display="ClearCart++"/>
-    <hyperlink ref="K41" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="K42" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="K40" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
-    <hyperlink ref="J42" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="J40:J41" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
-    <hyperlink ref="L42" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="L40:L41" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
-    <hyperlink ref="M41" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="N41" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="N40" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="N42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
-    <hyperlink ref="O42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="O40:O41" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
-    <hyperlink ref="Q41" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
-    <hyperlink ref="Q40" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
-    <hyperlink ref="Q42" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
-    <hyperlink ref="R40" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="R41:R42" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
-    <hyperlink ref="S41" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="S40" location="'SapCustomer++'!A1" display="SapCustomer"/>
-    <hyperlink ref="S42" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J7" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G10:G14" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H10" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H11:H14" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G15" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H15" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G16" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H16" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I16" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G17" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G18" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G19" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G20" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H17" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H18" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H19" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H20" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I17" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I18" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I19" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I20" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="H21" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I21" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G27" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H27" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="L27" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="N27" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G24" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G25" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G22" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G23" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G26" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J10:J15" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L17:L21" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="L16" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="I27" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J27" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="M27" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K27" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O27" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G28" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G30" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="H28" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="H30" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="L28" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="L30" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="N28" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="N30" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="I28" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="I30" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="J28" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="J30" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="M28" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="M30" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="K28" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="K30" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="O28" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="O30" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="H31" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="K31" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="N31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="I31" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="L31" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="J31" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="O31" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="G29" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="H29" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="L29" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="N29" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="I29" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="J29" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="M29" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="K29" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="O29" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="G32" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="H32" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="L32" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="I32" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J32" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="M32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="K32" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="O32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="P32" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="G34" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="H37" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="H33" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="I33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="J33" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="K33" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="L33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="M33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="N33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="G33" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="H34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="J34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="K34" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="L34" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="M34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="N34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="O34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="M35" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="H47" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="H48" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="I47" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="I48" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="J47" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="J48" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="G47" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="G48" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G49" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="G40" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="M40" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="G41:G42" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="M40:M42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="H54" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="M47" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="N47" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="O47" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="N32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="L48" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="L47" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="K48" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="K47" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="G39" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="G38" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="G53:G54" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="H53" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="I54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="I53" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="J54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="G35" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="H35" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="I35" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="J35" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="K35" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="L35" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="G36" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="H36" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="I36" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="J36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="K37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="I37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="K36" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="L37" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="H38" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="H39" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="G50" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="G50:G52" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="K2" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="J2" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="K3" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="K5" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="J3" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="J4" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="J5" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="K6" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="J6" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="K16" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="K17:K21" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="J16" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="J17:J21" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="I2" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="I3:I6" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="J55" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="I55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="G55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="H55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="K55" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="J56" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="J57" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="K57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="H59" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="H60" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="G59:G60" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="G61" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="G62" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="G69" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="J71" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="G71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="H71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="I71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="K71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="L71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="G56:G57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="H56:H57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="I56:I57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="G63" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="G64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="G70" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="H40" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="I40" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="I41:I42" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="H41:H42" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="K41" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="K42" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="K40" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="J42" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="J40:J41" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="L42" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="L40:L41" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="M41" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="N41" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="N40" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="N42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="O42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="O40:O41" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="Q41" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="Q40" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="Q42" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="R40" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="R41:R42" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="S41" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="S40" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="S42" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6987,28 +7058,28 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.26953125" style="36" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="36"/>
+    <col min="10" max="10" width="11.7265625" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -7124,7 +7195,7 @@
     <cfRule type="duplicateValues" dxfId="61" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7132,7 +7203,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000001000000}">
           <x14:formula1>
             <xm:f>'Preferred Store'!$A$2:$A$71</xm:f>
           </x14:formula1>
@@ -7145,24 +7216,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" style="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="36"/>
+    <col min="8" max="8" width="18.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7251,7 +7322,7 @@
     <cfRule type="duplicateValues" dxfId="59" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"Domestic Worker,Company Employed,Government Employed,Full-time Housewife,Self Employed - Company Owner,Self Employed - Informal Trader,Student,Unemployed,Pensioner/Retired,Contract Worker,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7261,38 +7332,38 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.453125" style="36" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" style="36" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="36"/>
-    <col min="15" max="15" width="23.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="36"/>
+    <col min="14" max="14" width="9.1796875" style="36"/>
+    <col min="15" max="15" width="23.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7265625" style="36" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7265625" style="36" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.1796875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -7507,25 +7578,25 @@
     <cfRule type="duplicateValues" dxfId="57" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3" xr:uid="{00000000-0002-0000-0B00-000002000000}">
       <formula1>"African,Asian,Coloured,White,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{00000000-0002-0000-0B00-000003000000}">
       <formula1>"Single,Married / Civil Partnership,Widowed,Divorced,Separated,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{00000000-0002-0000-0B00-000004000000}">
       <formula1>"ANC with Accrual,ANC without Accrual,In Community,Customary Union,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3" xr:uid="{00000000-0002-0000-0B00-000005000000}">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576" xr:uid="{00000000-0002-0000-0B00-000006000000}">
       <formula1>"0,1,2,3,4,5,6,7,8,9"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7535,22 +7606,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="36"/>
+    <col min="4" max="4" width="20.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7606,15 +7677,15 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.81640625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="35"/>
@@ -7661,25 +7732,25 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1796875" style="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="29"/>
+    <col min="10" max="16384" width="9.1796875" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -7752,7 +7823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7763,42 +7834,42 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="11" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="11" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="20.26953125" style="11" customWidth="1"/>
+    <col min="15" max="15" width="31.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.453125" style="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="30" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.26953125" style="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="20" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.140625" style="11" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="11.5703125" style="11" customWidth="1"/>
-    <col min="31" max="16384" width="8.7109375" style="11"/>
+    <col min="27" max="27" width="23.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.1796875" style="11" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="11.54296875" style="11" customWidth="1"/>
+    <col min="31" max="16384" width="8.7265625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="30">
+    <row r="1" spans="1:28">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -8402,64 +8473,64 @@
     <cfRule type="duplicateValues" dxfId="47" priority="47"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7" xr:uid="{00000000-0002-0000-0F00-000001000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D6:D7" r:id="rId1" display="original2Ic@automationjdg.co.za"/>
-    <hyperlink ref="D7" r:id="rId2"/>
-    <hyperlink ref="D2:D4" r:id="rId3" display="original2Ic@automationjdg.co.za"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D5" r:id="rId5" display="original2Ic@automationjdg.co.za"/>
+    <hyperlink ref="D6:D7" r:id="rId1" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
+    <hyperlink ref="D2:D4" r:id="rId3" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0F00-000003000000}"/>
+    <hyperlink ref="D5" r:id="rId5" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-0F00-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.1796875" style="12" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" style="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21" style="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="25" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.453125" style="12" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="30" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.26953125" style="12" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20" style="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.7109375" style="12"/>
+    <col min="28" max="28" width="23.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.7265625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -9081,7 +9152,7 @@
     <cfRule type="duplicateValues" dxfId="41" priority="29"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9090,7 +9161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9101,14 +9172,14 @@
       <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -9544,7 +9615,7 @@
     <cfRule type="duplicateValues" dxfId="39" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1100-000000000000}">
       <formula1>"Guest Customer Creation, Customer Creation, Customer Update,Customer Creation Magento Admin, Customer Update Magento Admin"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9553,22 +9624,22 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -9722,19 +9793,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" style="82" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="82" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="82"/>
+    <col min="4" max="16384" width="9.1796875" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9826,24 +9897,24 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" style="38" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="38"/>
+    <col min="11" max="16384" width="9.1796875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="55" customFormat="1">
@@ -10273,19 +10344,19 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10503,7 +10574,7 @@
     <cfRule type="duplicateValues" dxfId="37" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1400-000000000000}">
       <formula1>"payUcreditcard,Cash_Deposits"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10512,33 +10583,33 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="30">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="29">
       <c r="A1" s="37" t="s">
         <v>34</v>
       </c>
@@ -10788,7 +10859,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="4" customFormat="1" ht="30">
+    <row r="6" spans="1:16" s="4" customFormat="1">
       <c r="A6" s="16">
         <v>30</v>
       </c>
@@ -10838,7 +10909,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="4" customFormat="1" ht="30">
+    <row r="7" spans="1:16" s="4" customFormat="1" ht="29">
       <c r="A7" s="16">
         <v>31</v>
       </c>
@@ -11379,14 +11450,14 @@
     <cfRule type="duplicateValues" dxfId="33" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1"/>
-    <hyperlink ref="O3" r:id="rId2"/>
-    <hyperlink ref="O4" r:id="rId3"/>
-    <hyperlink ref="O5" r:id="rId4"/>
-    <hyperlink ref="O8" r:id="rId5"/>
-    <hyperlink ref="O6" r:id="rId6"/>
-    <hyperlink ref="O7" r:id="rId7"/>
-    <hyperlink ref="O9" r:id="rId8"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
+    <hyperlink ref="O3" r:id="rId2" xr:uid="{00000000-0004-0000-1500-000001000000}"/>
+    <hyperlink ref="O4" r:id="rId3" xr:uid="{00000000-0004-0000-1500-000002000000}"/>
+    <hyperlink ref="O5" r:id="rId4" xr:uid="{00000000-0004-0000-1500-000003000000}"/>
+    <hyperlink ref="O8" r:id="rId5" xr:uid="{00000000-0004-0000-1500-000004000000}"/>
+    <hyperlink ref="O6" r:id="rId6" xr:uid="{00000000-0004-0000-1500-000005000000}"/>
+    <hyperlink ref="O7" r:id="rId7" xr:uid="{00000000-0004-0000-1500-000006000000}"/>
+    <hyperlink ref="O9" r:id="rId8" xr:uid="{00000000-0004-0000-1500-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
@@ -11394,18 +11465,18 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="21.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="29"/>
+    <col min="1" max="1" width="21.1796875" style="29"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="29"/>
+    <col min="3" max="3" width="21.1796875" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11425,7 +11496,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
+    <row r="2" spans="1:5" ht="29">
       <c r="A2" s="45">
         <v>1</v>
       </c>
@@ -11436,7 +11507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30">
+    <row r="3" spans="1:5" ht="29">
       <c r="A3" s="45">
         <v>2</v>
       </c>
@@ -11447,7 +11518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
+    <row r="4" spans="1:5">
       <c r="A4" s="45">
         <v>3</v>
       </c>
@@ -11458,7 +11529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:5" ht="29">
       <c r="A5" s="45">
         <v>4</v>
       </c>
@@ -11469,7 +11540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30">
+    <row r="6" spans="1:5" ht="29">
       <c r="A6" s="45">
         <v>5</v>
       </c>
@@ -11524,7 +11595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30">
+    <row r="11" spans="1:5">
       <c r="A11" s="45">
         <v>19</v>
       </c>
@@ -11564,27 +11635,27 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="4" width="17.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -11729,29 +11800,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="H2" r:id="rId2"/>
-    <hyperlink ref="J3" r:id="rId3"/>
-    <hyperlink ref="H3" r:id="rId4"/>
-    <hyperlink ref="J4" r:id="rId5"/>
-    <hyperlink ref="H4" r:id="rId6"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-1700-000001000000}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{00000000-0004-0000-1700-000002000000}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{00000000-0004-0000-1700-000003000000}"/>
+    <hyperlink ref="J4" r:id="rId5" xr:uid="{00000000-0004-0000-1700-000004000000}"/>
+    <hyperlink ref="H4" r:id="rId6" xr:uid="{00000000-0004-0000-1700-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="39.7265625" style="11" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11768,7 +11839,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4" ht="29">
       <c r="A2" s="16">
         <v>26</v>
       </c>
@@ -11782,7 +11853,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="45">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="29">
       <c r="A3" s="16">
         <v>27</v>
       </c>
@@ -11796,7 +11867,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45">
+    <row r="4" spans="1:4" ht="29">
       <c r="A4" s="16">
         <v>28</v>
       </c>
@@ -11810,7 +11881,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30">
+    <row r="5" spans="1:4" ht="29">
       <c r="A5" s="16">
         <v>29</v>
       </c>
@@ -11824,7 +11895,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30">
+    <row r="6" spans="1:4" ht="29">
       <c r="A6" s="16">
         <v>30</v>
       </c>
@@ -11838,7 +11909,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30">
+    <row r="7" spans="1:4" ht="29">
       <c r="A7" s="16">
         <v>31</v>
       </c>
@@ -11894,7 +11965,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30">
+    <row r="11" spans="1:4" ht="29">
       <c r="A11" s="143">
         <v>40</v>
       </c>
@@ -11908,7 +11979,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45">
+    <row r="12" spans="1:4" ht="29">
       <c r="A12" s="61">
         <v>41</v>
       </c>
@@ -11978,21 +12049,21 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12240,19 +12311,19 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="38"/>
+    <col min="5" max="5" width="13.54296875" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12332,7 +12403,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30">
+    <row r="6" spans="1:5" ht="29">
       <c r="A6" s="16">
         <v>30</v>
       </c>
@@ -12467,7 +12538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12478,14 +12549,14 @@
       <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -13124,7 +13195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13134,13 +13205,13 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="11"/>
+    <col min="4" max="4" width="7.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -13157,7 +13228,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4" ht="29">
       <c r="A2" s="16">
         <v>26</v>
       </c>
@@ -13169,7 +13240,7 @@
       </c>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="1:4" ht="45">
+    <row r="3" spans="1:4" ht="43.5">
       <c r="A3" s="16">
         <v>27</v>
       </c>
@@ -13181,7 +13252,7 @@
       </c>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="1:4" ht="45">
+    <row r="4" spans="1:4" ht="43.5">
       <c r="A4" s="16">
         <v>28</v>
       </c>
@@ -13193,7 +13264,7 @@
       </c>
       <c r="D4" s="16"/>
     </row>
-    <row r="5" spans="1:4" ht="30">
+    <row r="5" spans="1:4" ht="29">
       <c r="A5" s="16">
         <v>29</v>
       </c>
@@ -13205,7 +13276,7 @@
       </c>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="1:4" ht="30">
+    <row r="6" spans="1:4" ht="29">
       <c r="A6" s="16">
         <v>30</v>
       </c>
@@ -13217,7 +13288,7 @@
       </c>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="1:4" ht="30">
+    <row r="7" spans="1:4" ht="29">
       <c r="A7" s="16">
         <v>31</v>
       </c>
@@ -13289,20 +13360,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="77" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" style="77" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="77" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="77" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="77"/>
+    <col min="4" max="4" width="19.26953125" style="77" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="77"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -13425,7 +13494,7 @@
     <cfRule type="duplicateValues" dxfId="78" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"All,Specific"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13434,33 +13503,33 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="83" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="83" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="83" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="83" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="83" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="83" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="83" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="83"/>
+    <col min="4" max="4" width="20.7265625" style="83" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.54296875" style="83" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" style="83" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" style="83" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="83" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7265625" style="83" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.26953125" style="83" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.26953125" style="83" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <row r="1" spans="1:11">
       <c r="A1" s="79" t="s">
         <v>34</v>
       </c>
@@ -13559,7 +13628,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30">
+    <row r="4" spans="1:11" ht="29">
       <c r="A4" s="84">
         <v>28</v>
       </c>
@@ -14071,7 +14140,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30">
+    <row r="20" spans="1:10" ht="29">
       <c r="A20" s="86">
         <v>61</v>
       </c>
@@ -14211,13 +14280,13 @@
     <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13" xr:uid="{00000000-0002-0000-1D00-000000000000}">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F13" xr:uid="{00000000-0002-0000-1D00-000001000000}">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J13" xr:uid="{00000000-0002-0000-1D00-000002000000}">
       <formula1>"Yes_Wishlist,No_wishlist"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14227,13 +14296,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-1D00-000003000000}">
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D23</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-1D00-000004000000}">
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$7</xm:f>
           </x14:formula1>
@@ -14246,20 +14315,20 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14309,16 +14378,16 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.26953125" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -14417,21 +14486,21 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="31"/>
+    <col min="4" max="4" width="18.54296875" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -14492,21 +14561,21 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -14576,21 +14645,21 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="97" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="97" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="97" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="97" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="97" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="97" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="97"/>
+    <col min="5" max="5" width="23.1796875" style="97" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="97"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -14841,11 +14910,11 @@
       <c r="C15" s="95">
         <v>1</v>
       </c>
-      <c r="D15" s="95" t="s">
-        <v>169</v>
+      <c r="D15" s="94" t="s">
+        <v>664</v>
       </c>
       <c r="E15" s="94" t="s">
-        <v>168</v>
+        <v>677</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -14894,40 +14963,41 @@
     <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Password@123"/>
-    <hyperlink ref="E8" r:id="rId2"/>
-    <hyperlink ref="E9" r:id="rId3"/>
-    <hyperlink ref="E12" r:id="rId4" display="Password@123"/>
-    <hyperlink ref="E14" r:id="rId5"/>
-    <hyperlink ref="E15" r:id="rId6"/>
-    <hyperlink ref="E16" r:id="rId7"/>
-    <hyperlink ref="E17" r:id="rId8"/>
-    <hyperlink ref="D12" r:id="rId9"/>
-    <hyperlink ref="D13" r:id="rId10"/>
-    <hyperlink ref="E13" r:id="rId11" display="Password@123"/>
-    <hyperlink ref="E3" r:id="rId12" display="Password@123"/>
-    <hyperlink ref="E4" r:id="rId13" display="Password@123"/>
-    <hyperlink ref="E5" r:id="rId14" display="Password@123"/>
-    <hyperlink ref="E6" r:id="rId15" display="Password@123"/>
-    <hyperlink ref="E7" r:id="rId16" display="Password@123"/>
-    <hyperlink ref="E10" r:id="rId17" display="Password@123"/>
-    <hyperlink ref="E11" r:id="rId18" display="Password@123"/>
+    <hyperlink ref="E2" r:id="rId1" display="Password@123" xr:uid="{00000000-0004-0000-2200-000000000000}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{00000000-0004-0000-2200-000001000000}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{00000000-0004-0000-2200-000002000000}"/>
+    <hyperlink ref="E12" r:id="rId4" display="Password@123" xr:uid="{00000000-0004-0000-2200-000003000000}"/>
+    <hyperlink ref="E14" r:id="rId5" xr:uid="{00000000-0004-0000-2200-000004000000}"/>
+    <hyperlink ref="E16" r:id="rId6" xr:uid="{00000000-0004-0000-2200-000006000000}"/>
+    <hyperlink ref="E17" r:id="rId7" xr:uid="{00000000-0004-0000-2200-000007000000}"/>
+    <hyperlink ref="D12" r:id="rId8" xr:uid="{00000000-0004-0000-2200-000008000000}"/>
+    <hyperlink ref="E13" r:id="rId9" display="Password@123" xr:uid="{00000000-0004-0000-2200-00000A000000}"/>
+    <hyperlink ref="E3" r:id="rId10" display="Password@123" xr:uid="{00000000-0004-0000-2200-00000B000000}"/>
+    <hyperlink ref="E4" r:id="rId11" display="Password@123" xr:uid="{00000000-0004-0000-2200-00000C000000}"/>
+    <hyperlink ref="E5" r:id="rId12" display="Password@123" xr:uid="{00000000-0004-0000-2200-00000D000000}"/>
+    <hyperlink ref="E6" r:id="rId13" display="Password@123" xr:uid="{00000000-0004-0000-2200-00000E000000}"/>
+    <hyperlink ref="E7" r:id="rId14" display="Password@123" xr:uid="{00000000-0004-0000-2200-00000F000000}"/>
+    <hyperlink ref="E10" r:id="rId15" display="Password@123" xr:uid="{00000000-0004-0000-2200-000010000000}"/>
+    <hyperlink ref="E11" r:id="rId16" display="Password@123" xr:uid="{00000000-0004-0000-2200-000011000000}"/>
+    <hyperlink ref="D13" r:id="rId17" xr:uid="{00000000-0004-0000-2200-000009000000}"/>
+    <hyperlink ref="D15" r:id="rId18" xr:uid="{81428C68-028B-4893-9B4A-CD71D7D22D03}"/>
+    <hyperlink ref="E15" r:id="rId19" display="Password@123" xr:uid="{7AE80BCF-FE0D-40EE-8F1D-4CCBC9DED593}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15034,22 +15104,22 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -15123,28 +15193,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-2400-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-2400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -15187,27 +15257,27 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -15288,30 +15358,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-2600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="74" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" style="74" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="74" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="74" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="74" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="74" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="74" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="74" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="74"/>
+    <col min="8" max="16384" width="9.1796875" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -15483,38 +15551,38 @@
     <cfRule type="duplicateValues" dxfId="76" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"ExistingUser,logedOn_user"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -15604,7 +15672,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-2700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -15612,26 +15680,26 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -15710,19 +15778,19 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1">
@@ -15739,7 +15807,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24.6" customHeight="1">
+    <row r="2" spans="1:4" ht="24.65" customHeight="1">
       <c r="A2" s="3">
         <v>9</v>
       </c>
@@ -15750,7 +15818,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="112" customFormat="1" ht="24.6" customHeight="1">
+    <row r="3" spans="1:4" s="112" customFormat="1" ht="24.65" customHeight="1">
       <c r="A3" s="3">
         <v>20</v>
       </c>
@@ -15767,31 +15835,31 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30">
+    <row r="1" spans="1:12" ht="29">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -15897,7 +15965,7 @@
       </c>
       <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="1:12" ht="30">
+    <row r="4" spans="1:12">
       <c r="A4" s="16">
         <v>8</v>
       </c>
@@ -16236,17 +16304,17 @@
     <cfRule type="duplicateValues" dxfId="6" priority="56"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-2A00-000000000000}">
       <formula1>"Main Website,Incredible Connection"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 F5:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 F5:F1048576" xr:uid="{00000000-0002-0000-2A00-000001000000}">
       <formula1>"SAID,Passport"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com"/>
-    <hyperlink ref="F3" r:id="rId2" display="TestAutomation2@gmail.com"/>
-    <hyperlink ref="F4" r:id="rId3" display="TestAutomation2@gmail.com"/>
+    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-2A00-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-2A00-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-2A00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -16255,7 +16323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -16265,28 +16333,28 @@
       <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="122" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="122" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="122" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="122" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="122" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="122" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="122" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="122" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="122" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="122" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="122" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="122" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" style="122" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="122" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.54296875" style="122" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" style="122" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11" style="122" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" style="122" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="122" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="122" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" style="122" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" style="122" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="122" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.42578125" style="122" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.42578125" style="122" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" style="122" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="122"/>
+    <col min="12" max="12" width="20.81640625" style="122" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7265625" style="122" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" style="122" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.1796875" style="122" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.54296875" style="122" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7265625" style="122" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.453125" style="122" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.453125" style="122" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.1796875" style="122" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.1796875" style="122"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -16785,7 +16853,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="30">
+    <row r="9" spans="1:20">
       <c r="A9" s="116">
         <v>23</v>
       </c>
@@ -16847,7 +16915,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="30">
+    <row r="10" spans="1:20">
       <c r="A10" s="116">
         <v>24</v>
       </c>
@@ -17291,21 +17359,21 @@
     <cfRule type="duplicateValues" dxfId="0" priority="66"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L11" xr:uid="{00000000-0002-0000-2B00-000000000000}">
       <formula1>"Main Website,Incredible Connection,Hifi Corporation,Russells,Sleepmasters,Rochester"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I11 P2:T11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I11 P2:T11" xr:uid="{00000000-0002-0000-2B00-000001000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N11" xr:uid="{00000000-0002-0000-2B00-000002000000}">
       <formula1>"ID, Passport"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M11" xr:uid="{00000000-0002-0000-2B00-000003000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1"/>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{00000000-0004-0000-2B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -17313,21 +17381,21 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1">
@@ -17417,19 +17485,19 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
@@ -17621,21 +17689,21 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -17725,21 +17793,21 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -17829,16 +17897,16 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <dimension ref="A1:A71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -18202,20 +18270,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="50" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="50" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="50"/>
+    <col min="5" max="16384" width="9.1796875" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -18594,7 +18662,7 @@
     <cfRule type="duplicateValues" dxfId="70" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Update Account,Update Account Magento Admin,Create Account,Create Account Magento Admin,Guest Customer Creation,Registered customer from sales order"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18603,21 +18671,21 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -18707,21 +18775,21 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView topLeftCell="L14" workbookViewId="0">
       <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -18811,21 +18879,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="36"/>
+    <col min="4" max="4" width="11.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -18881,7 +18949,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="38">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>523</v>
@@ -18905,21 +18973,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.453125" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="36"/>
+    <col min="4" max="4" width="15.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -18968,29 +19036,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1796875" style="36" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="36"/>
+    <col min="13" max="13" width="17.7265625" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -19124,10 +19192,10 @@
     <cfRule type="duplicateValues" dxfId="65" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19136,25 +19204,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="36"/>
+    <col min="4" max="4" width="22.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.26953125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -19252,13 +19320,13 @@
     <cfRule type="duplicateValues" dxfId="63" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"ABSA,AFRICAN BANK,BIDVEST.CAPITEC,FNB,INVESTEC,NEDBANK,STANDARD BANK SA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>"English,Afrikaans,Sesotho,Xhosa,Zulu"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE4E936-C1E8-43C0-99F9-F49264C50037}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D45C13-D632-406D-9223-F69E01175BC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="694">
   <si>
     <t>testSuitID</t>
   </si>
@@ -2119,9 +2119,6 @@
     <t>9601015800085</t>
   </si>
   <si>
-    <t>Joanna</t>
-  </si>
-  <si>
     <t>BaLastName</t>
   </si>
   <si>
@@ -2131,12 +2128,6 @@
     <t>BdFisrtname</t>
   </si>
   <si>
-    <t>BackendLastJo</t>
-  </si>
-  <si>
-    <t>9501015800087</t>
-  </si>
-  <si>
     <t>watlevi41@gmail.com</t>
   </si>
   <si>
@@ -2222,6 +2213,18 @@
   </si>
   <si>
     <t>Invalid_login_creditials_No_Username</t>
+  </si>
+  <si>
+    <t>Password001!</t>
+  </si>
+  <si>
+    <t>9104123240187</t>
+  </si>
+  <si>
+    <t>Janne</t>
+  </si>
+  <si>
+    <t>Louw</t>
   </si>
 </sst>
 </file>
@@ -4115,10 +4118,10 @@
   <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G54" sqref="G54"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4195,14 +4198,14 @@
         <v>301</v>
       </c>
       <c r="R1" s="145" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="S1" s="145" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="29">
-      <c r="A2" s="137">
+      <c r="A2" s="140">
         <v>1</v>
       </c>
       <c r="B2" s="124" t="s">
@@ -4242,7 +4245,7 @@
       <c r="P2" s="124"/>
     </row>
     <row r="3" spans="1:19" ht="29">
-      <c r="A3" s="137">
+      <c r="A3" s="140">
         <v>2</v>
       </c>
       <c r="B3" s="124" t="s">
@@ -4283,7 +4286,7 @@
       <c r="Q3" s="124"/>
     </row>
     <row r="4" spans="1:19" ht="29">
-      <c r="A4" s="137">
+      <c r="A4" s="140">
         <v>3</v>
       </c>
       <c r="B4" s="124" t="s">
@@ -4322,7 +4325,7 @@
       <c r="Q4" s="124"/>
     </row>
     <row r="5" spans="1:19" ht="29">
-      <c r="A5" s="137">
+      <c r="A5" s="140">
         <v>4</v>
       </c>
       <c r="B5" s="124" t="s">
@@ -4363,7 +4366,7 @@
       <c r="Q5" s="124"/>
     </row>
     <row r="6" spans="1:19" ht="29">
-      <c r="A6" s="137">
+      <c r="A6" s="140">
         <v>5</v>
       </c>
       <c r="B6" s="124" t="s">
@@ -4535,7 +4538,7 @@
         <v>196</v>
       </c>
       <c r="F10" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="126" t="s">
         <v>86</v>
@@ -5303,13 +5306,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="124" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C30" s="69" t="s">
         <v>261</v>
       </c>
       <c r="D30" s="124" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E30" s="125"/>
       <c r="F30" s="124" t="s">
@@ -5349,13 +5352,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="124" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C31" s="69" t="s">
         <v>261</v>
       </c>
       <c r="D31" s="124" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E31" s="125"/>
       <c r="F31" s="124" t="s">
@@ -5380,7 +5383,7 @@
         <v>88</v>
       </c>
       <c r="M31" s="126" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="N31" s="126" t="s">
         <v>109</v>
@@ -6185,7 +6188,7 @@
         <v>501</v>
       </c>
       <c r="F52" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G52" s="58" t="s">
         <v>297</v>
@@ -6552,7 +6555,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="152" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C64" s="67">
         <v>305</v>
@@ -7655,7 +7658,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>308</v>
@@ -8116,7 +8119,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="94" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>92</v>
@@ -8166,7 +8169,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="94" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>92</v>
@@ -10676,16 +10679,16 @@
         <v>396</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>76</v>
@@ -10697,16 +10700,16 @@
         <v>73</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="N2" s="25" t="s">
+        <v>667</v>
+      </c>
+      <c r="O2" s="26" t="s">
         <v>670</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="P2" s="27" t="s">
         <v>673</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1">
@@ -10876,13 +10879,13 @@
         <v>396</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>74</v>
@@ -10897,16 +10900,16 @@
         <v>73</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="N6" s="25" t="s">
         <v>74</v>
       </c>
       <c r="O6" s="26" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="P6" s="27" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="4" customFormat="1" ht="29">
@@ -12542,11 +12545,11 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H2" sqref="H2"/>
       <selection pane="topRight" activeCell="H2" sqref="H2"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -12678,7 +12681,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="29">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -12692,7 +12695,7 @@
         <v>225504</v>
       </c>
       <c r="E8" s="116" t="s">
-        <v>635</v>
+        <v>690</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -12794,7 +12797,7 @@
         <v>225564</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -13578,7 +13581,7 @@
         <v>147</v>
       </c>
       <c r="E2" s="84" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F2" s="83" t="s">
         <v>401</v>
@@ -13706,7 +13709,7 @@
         <v>147</v>
       </c>
       <c r="E6" s="116" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F6" s="83" t="s">
         <v>401</v>
@@ -13834,7 +13837,7 @@
         <v>147</v>
       </c>
       <c r="E10" s="83" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F10" s="83" t="s">
         <v>405</v>
@@ -13866,7 +13869,7 @@
         <v>147</v>
       </c>
       <c r="E11" s="114" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F11" s="83" t="s">
         <v>401</v>
@@ -14122,7 +14125,7 @@
         <v>147</v>
       </c>
       <c r="E19" s="116" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F19" s="86" t="s">
         <v>401</v>
@@ -14154,7 +14157,7 @@
         <v>147</v>
       </c>
       <c r="E20" s="116" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F20" s="86" t="s">
         <v>401</v>
@@ -14218,7 +14221,7 @@
         <v>147</v>
       </c>
       <c r="E22" s="86" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F22" s="86" t="s">
         <v>405</v>
@@ -14690,10 +14693,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="95" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E2" s="94" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -14707,10 +14710,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="116" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E3" s="94" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -14724,10 +14727,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="116" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -14741,10 +14744,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="116" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E5" s="94" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -14758,10 +14761,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="116" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E6" s="94" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -14775,10 +14778,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="116" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E7" s="94" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -14826,10 +14829,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="116" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -14843,10 +14846,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="116" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E11" s="94" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -14860,10 +14863,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E12" s="94" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -14877,10 +14880,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E13" s="94" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -14911,10 +14914,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="94" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E15" s="94" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -15826,7 +15829,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -15838,8 +15841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -15942,10 +15945,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>658</v>
+        <v>692</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>662</v>
+        <v>693</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>126</v>
@@ -15954,7 +15957,7 @@
         <v>128</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>663</v>
+        <v>691</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16" t="s">
@@ -15976,10 +15979,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>126</v>
@@ -15989,7 +15992,7 @@
       </c>
       <c r="H4" s="24"/>
       <c r="I4" s="24" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>127</v>
@@ -16746,7 +16749,7 @@
         <v>95</v>
       </c>
       <c r="F7" s="139" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G7" s="118" t="s">
         <v>116</v>

--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -4043,11 +4043,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5928,7 +5928,7 @@
         <v>196</v>
       </c>
       <c r="F46" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G46" s="133" t="s">
         <v>290</v>
@@ -19276,15 +19276,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E4315169E4449459811E1A2A421A5D2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="484de8a0a7035cbf3240ac5ef037eda8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="38ec8e4d-8506-4d8b-b040-96d37469ddf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40b4f8b6fbe630a6badbf346a8d0e64c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19433,6 +19424,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
   <ds:schemaRefs>
@@ -19442,23 +19442,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED871C4-2A4D-4B74-98A2-587321F60978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19475,4 +19458,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D45C13-D632-406D-9223-F69E01175BC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769B8279-28F1-4F6B-BDBE-3BB3AE502596}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
     <sheet name="ic_RemoveFromcart++" sheetId="67" r:id="rId2"/>
-    <sheet name="ic_verifyWishlistItem++" sheetId="66" r:id="rId3"/>
+    <sheet name="IC_ClearWishList++" sheetId="66" r:id="rId3"/>
     <sheet name="ic_NavigetoWishlist++" sheetId="65" r:id="rId4"/>
     <sheet name="Magento_UserInfoVerification++" sheetId="64" r:id="rId5"/>
     <sheet name="IC_ProductsSortBy++" sheetId="63" r:id="rId6"/>
@@ -61,7 +61,7 @@
     <sheet name="HiFiCorp" sheetId="30" r:id="rId51"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IC!$A$1:$S$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IC!$A$1:$S$76</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="707">
   <si>
     <t>testSuitID</t>
   </si>
@@ -1375,9 +1375,6 @@
     <t>ic_RemoveFromcart</t>
   </si>
   <si>
-    <t>Samsung Toner D105L#JBL Tune600 Black</t>
-  </si>
-  <si>
     <t>1#1</t>
   </si>
   <si>
@@ -1417,9 +1414,6 @@
     <t>Test123#</t>
   </si>
   <si>
-    <t>Sourav.Banerjee@itcinfotech.com</t>
-  </si>
-  <si>
     <t>AddToCartCondition</t>
   </si>
   <si>
@@ -2191,9 +2185,6 @@
     <t>8111299864089</t>
   </si>
   <si>
-    <t>Access#3</t>
-  </si>
-  <si>
     <t xml:space="preserve"> jdg123auto@gmail.com</t>
   </si>
   <si>
@@ -2225,6 +2216,54 @@
   </si>
   <si>
     <t>Louw</t>
+  </si>
+  <si>
+    <t>IC_ClearWishList</t>
+  </si>
+  <si>
+    <t>Wish_List_Clear_Wish_List</t>
+  </si>
+  <si>
+    <t>WishList_Verifiy_Login_Screen_Before_Accessing_WishList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leverch </t>
+  </si>
+  <si>
+    <t>IncredibleConnection22</t>
+  </si>
+  <si>
+    <t>NavigateToWishlist_VerifyLoginPageAppear</t>
+  </si>
+  <si>
+    <t>Clear_cart_RegisteredUser</t>
+  </si>
+  <si>
+    <t>Clear_cart_GuestUser</t>
+  </si>
+  <si>
+    <t>Cart_Add_the_same_Item_multiple_Times_and_Verify_RegisteredUser</t>
+  </si>
+  <si>
+    <t>Cart_Add_the_same_Item_multiple_Times_and_Verify_GuestUser</t>
+  </si>
+  <si>
+    <t>Cart_Add_One_Item_to_the_Cart_and_Verify_RegisteredUser</t>
+  </si>
+  <si>
+    <t>Cart_Add_One_Item_to_the_Cart_and_Verify_GuestUser</t>
+  </si>
+  <si>
+    <t>Cart_Validate_Quantity_can_be_increased_in_Cart_RegisteredUser</t>
+  </si>
+  <si>
+    <t>Cart_Validate_Quantity_can_be_increased_in_Cart_GuestUser</t>
+  </si>
+  <si>
+    <t>Cart_Remove_some_items_from_the_cart_and_verify_RegisteredUser</t>
+  </si>
+  <si>
+    <t>Cart_Remove_some_items_from_the_cart_and_verify_GuestUser</t>
   </si>
 </sst>
 </file>
@@ -2462,7 +2501,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2838,9 +2877,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2852,6 +2888,18 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2860,7 +2908,77 @@
     <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="92">
+  <dxfs count="99">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4115,13 +4233,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4132,7 +4250,7 @@
     <col min="4" max="4" width="90.7265625" style="131" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.81640625" style="131" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.1796875" style="131" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.7265625" style="131" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.26953125" style="131" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.54296875" style="131" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.453125" style="131" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.7265625" style="131" bestFit="1" customWidth="1"/>
@@ -4150,7 +4268,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="121" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C1" s="60" t="s">
         <v>219</v>
@@ -4198,10 +4316,10 @@
         <v>301</v>
       </c>
       <c r="R1" s="145" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="S1" s="145" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="29">
@@ -4209,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="124" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C2" s="68" t="s">
         <v>253</v>
@@ -4218,7 +4336,7 @@
         <v>121</v>
       </c>
       <c r="E2" s="124" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F2" s="124" t="s">
         <v>9</v>
@@ -4249,7 +4367,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="124" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C3" s="68" t="s">
         <v>257</v>
@@ -4258,7 +4376,7 @@
         <v>120</v>
       </c>
       <c r="E3" s="124" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F3" s="124" t="s">
         <v>9</v>
@@ -4290,7 +4408,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="124" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C4" s="68" t="s">
         <v>256</v>
@@ -4299,7 +4417,7 @@
         <v>119</v>
       </c>
       <c r="E4" s="124" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F4" s="124" t="s">
         <v>9</v>
@@ -4329,7 +4447,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="124" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C5" s="68" t="s">
         <v>255</v>
@@ -4338,7 +4456,7 @@
         <v>118</v>
       </c>
       <c r="E5" s="124" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F5" s="124" t="s">
         <v>9</v>
@@ -4370,7 +4488,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="124" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C6" s="68" t="s">
         <v>254</v>
@@ -4379,7 +4497,7 @@
         <v>125</v>
       </c>
       <c r="E6" s="124" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F6" s="124" t="s">
         <v>9</v>
@@ -4411,7 +4529,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C7" s="68" t="s">
         <v>258</v>
@@ -4450,7 +4568,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="124" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C8" s="68" t="s">
         <v>258</v>
@@ -4459,7 +4577,7 @@
         <v>120</v>
       </c>
       <c r="E8" s="124" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F8" s="124" t="s">
         <v>9</v>
@@ -4489,7 +4607,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="124" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C9" s="68" t="s">
         <v>258</v>
@@ -4498,7 +4616,7 @@
         <v>119</v>
       </c>
       <c r="E9" s="124" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F9" s="124" t="s">
         <v>9</v>
@@ -4526,7 +4644,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="124" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C10" s="68" t="s">
         <v>259</v>
@@ -4538,7 +4656,7 @@
         <v>196</v>
       </c>
       <c r="F10" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" s="126" t="s">
         <v>86</v>
@@ -4565,7 +4683,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="124" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C11" s="68" t="s">
         <v>259</v>
@@ -4604,7 +4722,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="124" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C12" s="68" t="s">
         <v>259</v>
@@ -4643,13 +4761,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="124" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C13" s="68" t="s">
         <v>259</v>
       </c>
       <c r="D13" s="124" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E13" s="125" t="s">
         <v>196</v>
@@ -4682,13 +4800,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="124" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C14" s="68" t="s">
         <v>259</v>
       </c>
       <c r="D14" s="124" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E14" s="125" t="s">
         <v>196</v>
@@ -4721,13 +4839,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="124" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C15" s="68" t="s">
         <v>259</v>
       </c>
       <c r="D15" s="124" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E15" s="125" t="s">
         <v>196</v>
@@ -4760,13 +4878,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="124" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C16" s="68" t="s">
         <v>260</v>
       </c>
       <c r="D16" s="124" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E16" s="125" t="s">
         <v>196</v>
@@ -4803,13 +4921,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="124" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C17" s="68" t="s">
         <v>260</v>
       </c>
       <c r="D17" s="124" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E17" s="125" t="s">
         <v>196</v>
@@ -4846,13 +4964,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="124" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C18" s="68" t="s">
         <v>260</v>
       </c>
       <c r="D18" s="124" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E18" s="125" t="s">
         <v>196</v>
@@ -4889,13 +5007,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="124" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C19" s="68" t="s">
         <v>260</v>
       </c>
       <c r="D19" s="124" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E19" s="125" t="s">
         <v>196</v>
@@ -4932,13 +5050,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="124" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C20" s="68" t="s">
         <v>260</v>
       </c>
       <c r="D20" s="124" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E20" s="125" t="s">
         <v>196</v>
@@ -4975,13 +5093,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="124" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C21" s="68" t="s">
         <v>260</v>
       </c>
       <c r="D21" s="124" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E21" s="125" t="s">
         <v>196</v>
@@ -5018,7 +5136,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="124" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C22" s="68" t="s">
         <v>264</v>
@@ -5048,7 +5166,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="124" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C23" s="68" t="s">
         <v>264</v>
@@ -5078,7 +5196,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="124" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C24" s="68" t="s">
         <v>264</v>
@@ -5108,7 +5226,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="124" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C25" s="68" t="s">
         <v>264</v>
@@ -5138,7 +5256,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="124" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C26" s="68" t="s">
         <v>264</v>
@@ -5168,13 +5286,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="124" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C27" s="69" t="s">
         <v>261</v>
       </c>
       <c r="D27" s="124" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E27" s="124"/>
       <c r="F27" s="124" t="s">
@@ -5214,13 +5332,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="124" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C28" s="69" t="s">
         <v>261</v>
       </c>
       <c r="D28" s="124" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E28" s="125"/>
       <c r="F28" s="124" t="s">
@@ -5260,13 +5378,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="124" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C29" s="69" t="s">
         <v>261</v>
       </c>
       <c r="D29" s="124" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E29" s="125"/>
       <c r="F29" s="124" t="s">
@@ -5306,13 +5424,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="124" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C30" s="69" t="s">
         <v>261</v>
       </c>
       <c r="D30" s="124" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E30" s="125"/>
       <c r="F30" s="124" t="s">
@@ -5352,13 +5470,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="124" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C31" s="69" t="s">
         <v>261</v>
       </c>
       <c r="D31" s="124" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E31" s="125"/>
       <c r="F31" s="124" t="s">
@@ -5383,7 +5501,7 @@
         <v>88</v>
       </c>
       <c r="M31" s="126" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="N31" s="126" t="s">
         <v>109</v>
@@ -5399,13 +5517,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="124" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C32" s="69" t="s">
         <v>270</v>
       </c>
       <c r="D32" s="124" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E32" s="125"/>
       <c r="F32" s="124" t="s">
@@ -5447,13 +5565,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="124" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C33" s="68" t="s">
         <v>261</v>
       </c>
       <c r="D33" s="124" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E33" s="125" t="s">
         <v>196</v>
@@ -5493,13 +5611,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="124" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C34" s="68" t="s">
         <v>261</v>
       </c>
       <c r="D34" s="124" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E34" s="125" t="s">
         <v>196</v>
@@ -5542,13 +5660,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="124" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>273</v>
       </c>
       <c r="D35" s="124" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E35" s="125" t="s">
         <v>196</v>
@@ -5586,13 +5704,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="124" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C36" s="68" t="s">
         <v>272</v>
       </c>
       <c r="D36" s="124" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E36" s="125" t="s">
         <v>196</v>
@@ -5626,13 +5744,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="124" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C37" s="68" t="s">
         <v>272</v>
       </c>
       <c r="D37" s="124" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E37" s="125" t="s">
         <v>196</v>
@@ -5668,13 +5786,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="124" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C38" s="68" t="s">
         <v>274</v>
       </c>
       <c r="D38" s="124" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E38" s="125" t="s">
         <v>196</v>
@@ -5702,13 +5820,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="124" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C39" s="68" t="s">
         <v>274</v>
       </c>
       <c r="D39" s="124" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E39" s="125" t="s">
         <v>196</v>
@@ -5736,11 +5854,11 @@
         <v>39</v>
       </c>
       <c r="B40" s="131" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C40" s="68"/>
       <c r="D40" s="131" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E40" s="125"/>
       <c r="F40" s="124" t="s">
@@ -5750,7 +5868,7 @@
         <v>154</v>
       </c>
       <c r="H40" s="129" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I40" s="129" t="s">
         <v>31</v>
@@ -5791,11 +5909,11 @@
         <v>40</v>
       </c>
       <c r="B41" s="131" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C41" s="68"/>
       <c r="D41" s="131" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E41" s="125"/>
       <c r="F41" s="124" t="s">
@@ -5805,7 +5923,7 @@
         <v>154</v>
       </c>
       <c r="H41" s="129" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I41" s="129" t="s">
         <v>31</v>
@@ -5846,11 +5964,11 @@
         <v>41</v>
       </c>
       <c r="B42" s="131" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C42" s="68"/>
       <c r="D42" s="131" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E42" s="125"/>
       <c r="F42" s="124" t="s">
@@ -5860,7 +5978,7 @@
         <v>154</v>
       </c>
       <c r="H42" s="129" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I42" s="129" t="s">
         <v>31</v>
@@ -5901,11 +6019,11 @@
         <v>42</v>
       </c>
       <c r="B43" s="130" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C43" s="68"/>
       <c r="D43" s="130" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E43" s="125" t="s">
         <v>196</v>
@@ -5932,11 +6050,11 @@
         <v>43</v>
       </c>
       <c r="B44" s="130" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C44" s="68"/>
       <c r="D44" s="130" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E44" s="125"/>
       <c r="F44" s="124" t="s">
@@ -5961,7 +6079,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="130" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C45" s="68"/>
       <c r="D45" s="130" t="s">
@@ -5992,7 +6110,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="133" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C46" s="68"/>
       <c r="D46" s="133" t="s">
@@ -6023,11 +6141,11 @@
         <v>46</v>
       </c>
       <c r="B47" s="131" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C47" s="68"/>
       <c r="D47" s="131" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E47" s="125" t="s">
         <v>196</v>
@@ -6068,11 +6186,11 @@
         <v>47</v>
       </c>
       <c r="B48" s="134" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C48" s="68"/>
       <c r="D48" s="131" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E48" s="125" t="s">
         <v>136</v>
@@ -6099,16 +6217,16 @@
         <v>295</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:17">
       <c r="A49" s="61">
         <v>48</v>
       </c>
       <c r="B49" s="134" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C49" s="68"/>
       <c r="D49" s="134" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E49" s="125"/>
       <c r="F49" s="124" t="s">
@@ -6123,21 +6241,21 @@
       <c r="N49" s="129"/>
       <c r="O49" s="132"/>
     </row>
-    <row r="50" spans="1:16" s="57" customFormat="1">
+    <row r="50" spans="1:17" s="57" customFormat="1">
       <c r="A50" s="64">
         <v>49</v>
       </c>
       <c r="B50" s="123" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C50" s="67">
         <v>215</v>
       </c>
       <c r="D50" s="123" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E50" s="125" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F50" s="124" t="s">
         <v>9</v>
@@ -6147,21 +6265,21 @@
       </c>
       <c r="H50" s="123"/>
     </row>
-    <row r="51" spans="1:16" s="57" customFormat="1">
+    <row r="51" spans="1:17" s="57" customFormat="1">
       <c r="A51" s="64">
         <v>50</v>
       </c>
       <c r="B51" s="123" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C51" s="67">
         <v>216</v>
       </c>
       <c r="D51" s="123" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E51" s="125" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F51" s="124" t="s">
         <v>9</v>
@@ -6171,21 +6289,21 @@
       </c>
       <c r="H51" s="123"/>
     </row>
-    <row r="52" spans="1:16" s="57" customFormat="1">
-      <c r="A52" s="156">
+    <row r="52" spans="1:17" s="57" customFormat="1">
+      <c r="A52" s="155">
         <v>51</v>
       </c>
       <c r="B52" s="123" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C52" s="67">
         <v>217</v>
       </c>
       <c r="D52" s="123" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E52" s="125" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F52" s="124" t="s">
         <v>9</v>
@@ -6195,16 +6313,16 @@
       </c>
       <c r="H52" s="123"/>
     </row>
-    <row r="53" spans="1:16" s="130" customFormat="1">
-      <c r="A53" s="157">
+    <row r="53" spans="1:17" s="130" customFormat="1">
+      <c r="A53" s="156">
         <v>52</v>
       </c>
       <c r="B53" s="130" t="s">
-        <v>536</v>
+        <v>692</v>
       </c>
       <c r="C53" s="63"/>
       <c r="D53" s="130" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E53" s="130" t="s">
         <v>136</v>
@@ -6216,22 +6334,22 @@
         <v>407</v>
       </c>
       <c r="H53" s="129" t="s">
-        <v>408</v>
+        <v>691</v>
       </c>
       <c r="I53" s="129" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="130" customFormat="1">
-      <c r="A54" s="154">
+    <row r="54" spans="1:17" s="130" customFormat="1">
+      <c r="A54" s="159">
         <v>53</v>
       </c>
       <c r="B54" s="130" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C54" s="63"/>
       <c r="D54" s="130" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E54" s="130" t="s">
         <v>136</v>
@@ -6243,35 +6361,41 @@
         <v>407</v>
       </c>
       <c r="H54" s="129" t="s">
+        <v>691</v>
+      </c>
+      <c r="I54" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="J54" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="I54" s="129" t="s">
-        <v>408</v>
-      </c>
-      <c r="J54" s="129" t="s">
+      <c r="K54" s="129" t="s">
+        <v>691</v>
+      </c>
+      <c r="L54" s="58" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="155">
+    <row r="55" spans="1:17">
+      <c r="A55" s="154">
         <v>54</v>
       </c>
       <c r="B55" s="65" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C55" s="67"/>
       <c r="D55" s="65" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G55" s="58" t="s">
         <v>407</v>
       </c>
-      <c r="H55" s="58" t="s">
-        <v>408</v>
+      <c r="H55" s="129" t="s">
+        <v>691</v>
       </c>
       <c r="I55" s="58" t="s">
         <v>409</v>
@@ -6280,7 +6404,7 @@
         <v>31</v>
       </c>
       <c r="K55" s="58" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L55" s="57"/>
       <c r="M55" s="57"/>
@@ -6288,16 +6412,16 @@
       <c r="O55" s="57"/>
       <c r="P55" s="124"/>
     </row>
-    <row r="56" spans="1:16">
-      <c r="A56" s="155">
+    <row r="56" spans="1:17">
+      <c r="A56" s="160">
         <v>55</v>
       </c>
       <c r="B56" s="65" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C56" s="67"/>
       <c r="D56" s="65" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E56" s="57"/>
       <c r="F56" s="124" t="s">
@@ -6306,8 +6430,8 @@
       <c r="G56" s="58" t="s">
         <v>407</v>
       </c>
-      <c r="H56" s="58" t="s">
-        <v>408</v>
+      <c r="H56" s="129" t="s">
+        <v>691</v>
       </c>
       <c r="I56" s="58" t="s">
         <v>409</v>
@@ -6321,16 +6445,16 @@
       <c r="N56" s="57"/>
       <c r="O56" s="57"/>
     </row>
-    <row r="57" spans="1:16">
-      <c r="A57" s="155">
+    <row r="57" spans="1:17">
+      <c r="A57" s="160">
         <v>56</v>
       </c>
       <c r="B57" s="65" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C57" s="67"/>
       <c r="D57" s="65" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E57" s="57"/>
       <c r="F57" s="124" t="s">
@@ -6339,8 +6463,8 @@
       <c r="G57" s="58" t="s">
         <v>407</v>
       </c>
-      <c r="H57" s="58" t="s">
-        <v>408</v>
+      <c r="H57" s="129" t="s">
+        <v>691</v>
       </c>
       <c r="I57" s="58" t="s">
         <v>409</v>
@@ -6348,29 +6472,29 @@
       <c r="J57" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="K57" s="58" t="s">
-        <v>408</v>
+      <c r="K57" s="129" t="s">
+        <v>691</v>
       </c>
       <c r="L57" s="57"/>
       <c r="M57" s="57"/>
       <c r="N57" s="57"/>
       <c r="O57" s="57"/>
     </row>
-    <row r="58" spans="1:16">
-      <c r="A58" s="158">
+    <row r="58" spans="1:17">
+      <c r="A58" s="161">
         <v>57</v>
       </c>
       <c r="B58" s="65" t="s">
-        <v>614</v>
+        <v>697</v>
       </c>
       <c r="C58" s="67">
         <v>265</v>
       </c>
       <c r="D58" s="65" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E58" s="66" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F58" s="124" t="s">
         <v>9</v>
@@ -6379,75 +6503,86 @@
         <v>154</v>
       </c>
       <c r="H58" s="58" t="s">
-        <v>576</v>
-      </c>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
+        <v>574</v>
+      </c>
+      <c r="I58" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="J58" s="58" t="s">
+        <v>574</v>
+      </c>
       <c r="K58" s="57"/>
       <c r="L58" s="57"/>
       <c r="M58" s="57"/>
       <c r="N58" s="57"/>
       <c r="O58" s="57"/>
-    </row>
-    <row r="59" spans="1:16">
-      <c r="A59" s="158">
+      <c r="P58" s="57"/>
+      <c r="Q58" s="57"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="161">
         <v>58</v>
       </c>
       <c r="B59" s="65" t="s">
-        <v>615</v>
+        <v>699</v>
       </c>
       <c r="C59" s="67">
         <v>271</v>
       </c>
       <c r="D59" s="65" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E59" s="66" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F59" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="58" t="s">
-        <v>576</v>
+      <c r="G59" s="124" t="s">
+        <v>154</v>
       </c>
       <c r="H59" s="58" t="s">
+        <v>574</v>
+      </c>
+      <c r="I59" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="I59" s="65"/>
-      <c r="J59" s="57"/>
+      <c r="J59" s="65"/>
       <c r="K59" s="57"/>
       <c r="L59" s="57"/>
       <c r="M59" s="57"/>
       <c r="N59" s="57"/>
       <c r="O59" s="57"/>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="A60" s="158">
+      <c r="P59" s="57"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="161">
         <v>59</v>
       </c>
       <c r="B60" s="65" t="s">
-        <v>616</v>
+        <v>701</v>
       </c>
       <c r="C60" s="67">
         <v>266</v>
       </c>
       <c r="D60" s="65" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E60" s="66" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F60" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="G60" s="58" t="s">
-        <v>576</v>
+      <c r="G60" s="124" t="s">
+        <v>154</v>
       </c>
       <c r="H60" s="58" t="s">
+        <v>574</v>
+      </c>
+      <c r="I60" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="I60" s="57"/>
       <c r="J60" s="57"/>
       <c r="K60" s="57"/>
       <c r="L60" s="57"/>
@@ -6455,93 +6590,101 @@
       <c r="N60" s="57"/>
       <c r="O60" s="57"/>
     </row>
-    <row r="61" spans="1:16">
-      <c r="A61" s="158">
+    <row r="61" spans="1:17">
+      <c r="A61" s="161">
         <v>60</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>617</v>
+        <v>703</v>
       </c>
       <c r="C61" s="67">
         <v>270</v>
       </c>
       <c r="D61" s="65" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E61" s="66" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F61" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="G61" s="58" t="s">
+      <c r="G61" s="124" t="s">
+        <v>154</v>
+      </c>
+      <c r="H61" s="58" t="s">
+        <v>574</v>
+      </c>
+      <c r="I61" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H61" s="65" t="s">
-        <v>577</v>
-      </c>
-      <c r="I61" s="57"/>
-      <c r="J61" s="57"/>
+      <c r="J61" s="65" t="s">
+        <v>575</v>
+      </c>
       <c r="K61" s="57"/>
       <c r="L61" s="57"/>
       <c r="M61" s="57"/>
       <c r="N61" s="57"/>
       <c r="O61" s="57"/>
-    </row>
-    <row r="62" spans="1:16">
-      <c r="A62" s="158">
+      <c r="P61" s="57"/>
+      <c r="Q61" s="57"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="161">
         <v>61</v>
       </c>
       <c r="B62" s="65" t="s">
-        <v>618</v>
+        <v>705</v>
       </c>
       <c r="C62" s="67"/>
       <c r="D62" s="65" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E62" s="66" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F62" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="58" t="s">
+      <c r="G62" s="124" t="s">
+        <v>154</v>
+      </c>
+      <c r="H62" s="58" t="s">
+        <v>574</v>
+      </c>
+      <c r="I62" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H62" s="65" t="s">
-        <v>578</v>
-      </c>
-      <c r="I62" s="57"/>
-      <c r="J62" s="57"/>
+      <c r="J62" s="65" t="s">
+        <v>576</v>
+      </c>
       <c r="K62" s="57"/>
       <c r="L62" s="57"/>
       <c r="M62" s="57"/>
       <c r="N62" s="57"/>
       <c r="O62" s="57"/>
-    </row>
-    <row r="63" spans="1:16">
-      <c r="A63" s="158">
-        <v>62</v>
-      </c>
-      <c r="B63" s="70" t="s">
-        <v>619</v>
-      </c>
-      <c r="C63" s="67">
-        <v>305</v>
-      </c>
-      <c r="D63" s="65" t="s">
-        <v>579</v>
-      </c>
-      <c r="E63" s="66" t="s">
-        <v>196</v>
-      </c>
+      <c r="P62" s="57"/>
+      <c r="Q62" s="57"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="161">
+        <v>74</v>
+      </c>
+      <c r="B63" s="65" t="s">
+        <v>698</v>
+      </c>
+      <c r="C63" s="67"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="66"/>
       <c r="F63" s="124" t="s">
         <v>9</v>
       </c>
       <c r="G63" s="58" t="s">
-        <v>580</v>
-      </c>
-      <c r="H63" s="57"/>
+        <v>31</v>
+      </c>
+      <c r="H63" s="58" t="s">
+        <v>574</v>
+      </c>
       <c r="I63" s="57"/>
       <c r="J63" s="57"/>
       <c r="K63" s="57"/>
@@ -6550,275 +6693,469 @@
       <c r="N63" s="57"/>
       <c r="O63" s="57"/>
     </row>
-    <row r="64" spans="1:16">
-      <c r="A64" s="158">
-        <v>63</v>
-      </c>
-      <c r="B64" s="152" t="s">
-        <v>689</v>
+    <row r="64" spans="1:17">
+      <c r="A64" s="161">
+        <v>75</v>
+      </c>
+      <c r="B64" s="65" t="s">
+        <v>700</v>
       </c>
       <c r="C64" s="67">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="D64" s="65" t="s">
-        <v>579</v>
+        <v>613</v>
       </c>
       <c r="E64" s="66" t="s">
-        <v>196</v>
+        <v>499</v>
       </c>
       <c r="F64" s="124" t="s">
         <v>9</v>
       </c>
       <c r="G64" s="58" t="s">
-        <v>580</v>
-      </c>
-      <c r="H64" s="57"/>
+        <v>31</v>
+      </c>
+      <c r="H64" s="65"/>
       <c r="I64" s="57"/>
       <c r="J64" s="57"/>
       <c r="K64" s="57"/>
       <c r="L64" s="57"/>
       <c r="M64" s="57"/>
       <c r="N64" s="57"/>
-      <c r="O64" s="57"/>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="158">
-        <v>64</v>
-      </c>
-      <c r="B65" s="71" t="s">
-        <v>620</v>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="161">
+        <v>76</v>
+      </c>
+      <c r="B65" s="65" t="s">
+        <v>702</v>
       </c>
       <c r="C65" s="67">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="D65" s="65" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E65" s="66" t="s">
-        <v>196</v>
+        <v>499</v>
       </c>
       <c r="F65" s="124" t="s">
         <v>9</v>
       </c>
       <c r="G65" s="58" t="s">
-        <v>581</v>
-      </c>
-      <c r="H65" s="57"/>
+        <v>31</v>
+      </c>
+      <c r="H65" s="65"/>
       <c r="I65" s="57"/>
       <c r="J65" s="57"/>
       <c r="K65" s="57"/>
       <c r="L65" s="57"/>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="158">
-        <v>65</v>
+      <c r="M65" s="57"/>
+      <c r="N65" s="57"/>
+      <c r="O65" s="57"/>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="161">
+        <v>77</v>
       </c>
       <c r="B66" s="65" t="s">
-        <v>621</v>
+        <v>704</v>
       </c>
       <c r="C66" s="67">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="D66" s="65" t="s">
-        <v>621</v>
-      </c>
-      <c r="E66" s="65" t="s">
-        <v>196</v>
+        <v>615</v>
+      </c>
+      <c r="E66" s="66" t="s">
+        <v>499</v>
       </c>
       <c r="F66" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="G66" s="57" t="s">
-        <v>582</v>
-      </c>
-      <c r="H66" s="57"/>
+      <c r="G66" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" s="65" t="s">
+        <v>575</v>
+      </c>
       <c r="I66" s="57"/>
       <c r="J66" s="57"/>
       <c r="K66" s="57"/>
       <c r="L66" s="57"/>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="158">
-        <v>66</v>
+      <c r="M66" s="57"/>
+      <c r="N66" s="57"/>
+      <c r="O66" s="57"/>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="161">
+        <v>78</v>
       </c>
       <c r="B67" s="65" t="s">
-        <v>622</v>
-      </c>
-      <c r="C67" s="67">
-        <v>315</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="C67" s="67"/>
       <c r="D67" s="65" t="s">
-        <v>622</v>
-      </c>
-      <c r="E67" s="65" t="s">
-        <v>196</v>
+        <v>616</v>
+      </c>
+      <c r="E67" s="66" t="s">
+        <v>499</v>
       </c>
       <c r="F67" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="G67" s="66" t="s">
-        <v>583</v>
-      </c>
-      <c r="H67" s="57"/>
+      <c r="G67" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="65" t="s">
+        <v>576</v>
+      </c>
       <c r="I67" s="57"/>
       <c r="J67" s="57"/>
       <c r="K67" s="57"/>
       <c r="L67" s="57"/>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="155">
-        <v>67</v>
-      </c>
-      <c r="B68" s="65" t="s">
-        <v>623</v>
+      <c r="M67" s="57"/>
+      <c r="N67" s="57"/>
+      <c r="O67" s="57"/>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="157">
+        <v>62</v>
+      </c>
+      <c r="B68" s="70" t="s">
+        <v>617</v>
       </c>
       <c r="C68" s="67">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="D68" s="65" t="s">
-        <v>623</v>
-      </c>
-      <c r="E68" s="65" t="s">
+        <v>577</v>
+      </c>
+      <c r="E68" s="66" t="s">
         <v>196</v>
       </c>
       <c r="F68" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="G68" s="57" t="s">
-        <v>583</v>
-      </c>
-      <c r="H68" s="65" t="s">
-        <v>584</v>
-      </c>
+      <c r="G68" s="58" t="s">
+        <v>578</v>
+      </c>
+      <c r="H68" s="57"/>
       <c r="I68" s="57"/>
       <c r="J68" s="57"/>
       <c r="K68" s="57"/>
       <c r="L68" s="57"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="155">
-        <v>68</v>
-      </c>
-      <c r="B69" s="65" t="s">
-        <v>624</v>
+      <c r="M68" s="57"/>
+      <c r="N68" s="57"/>
+      <c r="O68" s="57"/>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="157">
+        <v>63</v>
+      </c>
+      <c r="B69" s="152" t="s">
+        <v>686</v>
       </c>
       <c r="C69" s="67">
-        <v>331</v>
-      </c>
-      <c r="D69" s="123" t="s">
-        <v>624</v>
-      </c>
-      <c r="E69" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="D69" s="65" t="s">
+        <v>577</v>
+      </c>
+      <c r="E69" s="66" t="s">
         <v>196</v>
       </c>
       <c r="F69" s="124" t="s">
         <v>9</v>
       </c>
       <c r="G69" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H69" s="58"/>
-      <c r="I69" s="65"/>
-      <c r="J69" s="65"/>
+        <v>578</v>
+      </c>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="57"/>
       <c r="K69" s="57"/>
       <c r="L69" s="57"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="155">
-        <v>69</v>
-      </c>
-      <c r="B70" s="65" t="s">
-        <v>625</v>
+      <c r="M69" s="57"/>
+      <c r="N69" s="57"/>
+      <c r="O69" s="57"/>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="157">
+        <v>64</v>
+      </c>
+      <c r="B70" s="71" t="s">
+        <v>618</v>
       </c>
       <c r="C70" s="67">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="D70" s="65" t="s">
-        <v>625</v>
-      </c>
-      <c r="E70" s="57"/>
+        <v>618</v>
+      </c>
+      <c r="E70" s="66" t="s">
+        <v>196</v>
+      </c>
       <c r="F70" s="124" t="s">
         <v>9</v>
       </c>
       <c r="G70" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H70" s="57" t="s">
-        <v>585</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="H70" s="57"/>
       <c r="I70" s="57"/>
       <c r="J70" s="57"/>
       <c r="K70" s="57"/>
       <c r="L70" s="57"/>
     </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="153">
-        <v>70</v>
+    <row r="71" spans="1:15">
+      <c r="A71" s="157">
+        <v>65</v>
       </c>
       <c r="B71" s="65" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C71" s="67">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="D71" s="65" t="s">
-        <v>626</v>
-      </c>
-      <c r="E71" s="66" t="s">
-        <v>586</v>
+        <v>619</v>
+      </c>
+      <c r="E71" s="65" t="s">
+        <v>196</v>
       </c>
       <c r="F71" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="G71" s="58" t="s">
+      <c r="G71" s="57" t="s">
+        <v>580</v>
+      </c>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="57"/>
+      <c r="L71" s="57"/>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="157">
+        <v>66</v>
+      </c>
+      <c r="B72" s="65" t="s">
+        <v>620</v>
+      </c>
+      <c r="C72" s="67">
+        <v>315</v>
+      </c>
+      <c r="D72" s="65" t="s">
+        <v>620</v>
+      </c>
+      <c r="E72" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="F72" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="66" t="s">
+        <v>581</v>
+      </c>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="57"/>
+      <c r="K72" s="57"/>
+      <c r="L72" s="57"/>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="154">
+        <v>67</v>
+      </c>
+      <c r="B73" s="65" t="s">
+        <v>621</v>
+      </c>
+      <c r="C73" s="67">
+        <v>318</v>
+      </c>
+      <c r="D73" s="65" t="s">
+        <v>621</v>
+      </c>
+      <c r="E73" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="F73" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="57" t="s">
+        <v>581</v>
+      </c>
+      <c r="H73" s="65" t="s">
+        <v>582</v>
+      </c>
+      <c r="I73" s="57"/>
+      <c r="J73" s="57"/>
+      <c r="K73" s="57"/>
+      <c r="L73" s="57"/>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="154">
+        <v>68</v>
+      </c>
+      <c r="B74" s="65" t="s">
+        <v>622</v>
+      </c>
+      <c r="C74" s="67">
+        <v>331</v>
+      </c>
+      <c r="D74" s="123" t="s">
+        <v>622</v>
+      </c>
+      <c r="E74" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="F74" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" s="58"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="57"/>
+      <c r="L74" s="57"/>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="154">
+        <v>69</v>
+      </c>
+      <c r="B75" s="65" t="s">
+        <v>623</v>
+      </c>
+      <c r="C75" s="67">
+        <v>335</v>
+      </c>
+      <c r="D75" s="65" t="s">
+        <v>623</v>
+      </c>
+      <c r="E75" s="57"/>
+      <c r="F75" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="I75" s="57"/>
+      <c r="J75" s="57"/>
+      <c r="K75" s="57"/>
+      <c r="L75" s="57"/>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="153">
+        <v>70</v>
+      </c>
+      <c r="B76" s="65" t="s">
+        <v>624</v>
+      </c>
+      <c r="C76" s="67">
+        <v>265</v>
+      </c>
+      <c r="D76" s="65" t="s">
+        <v>624</v>
+      </c>
+      <c r="E76" s="66" t="s">
+        <v>584</v>
+      </c>
+      <c r="F76" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="58" t="s">
         <v>407</v>
       </c>
-      <c r="H71" s="58" t="s">
+      <c r="H76" s="58" t="s">
         <v>408</v>
       </c>
-      <c r="I71" s="58" t="s">
+      <c r="I76" s="58" t="s">
         <v>409</v>
       </c>
-      <c r="J71" s="58" t="s">
+      <c r="J76" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="K71" s="58" t="s">
-        <v>587</v>
-      </c>
-      <c r="L71" s="58" t="s">
-        <v>588</v>
+      <c r="K76" s="58" t="s">
+        <v>585</v>
+      </c>
+      <c r="L76" s="58" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="158">
+        <v>73</v>
+      </c>
+      <c r="B77" s="131" t="s">
+        <v>693</v>
+      </c>
+      <c r="C77" s="61">
+        <v>249</v>
+      </c>
+      <c r="D77" s="131" t="s">
+        <v>693</v>
+      </c>
+      <c r="E77" s="131" t="s">
+        <v>694</v>
+      </c>
+      <c r="F77" s="131" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="129" t="s">
+        <v>696</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B53:B54">
-    <cfRule type="duplicateValues" dxfId="91" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B49 B1:B31 B55:B1048576">
-    <cfRule type="duplicateValues" dxfId="90" priority="17"/>
+  <conditionalFormatting sqref="B68:B1048576 B33:B49 B1:B31 B55:B63">
+    <cfRule type="duplicateValues" dxfId="97" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="89" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="88" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B52">
-    <cfRule type="duplicateValues" dxfId="87" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="duplicateValues" dxfId="86" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:A54 A2:A31 A33:A49">
-    <cfRule type="duplicateValues" dxfId="85" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="duplicateValues" dxfId="84" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="83" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="82" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D77">
+    <cfRule type="duplicateValues" dxfId="88" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
+    <cfRule type="duplicateValues" dxfId="87" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="duplicateValues" dxfId="86" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="duplicateValues" dxfId="85" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="duplicateValues" dxfId="84" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6950,7 +7287,7 @@
     <hyperlink ref="M40" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
     <hyperlink ref="G41:G42" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
     <hyperlink ref="M40:M42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="H54" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="J54" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
     <hyperlink ref="M47" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
     <hyperlink ref="N47" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
     <hyperlink ref="O47" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
@@ -6963,9 +7300,7 @@
     <hyperlink ref="G38" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
     <hyperlink ref="G53:G54" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
     <hyperlink ref="H53" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="I54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
     <hyperlink ref="I53" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="J54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
     <hyperlink ref="G35" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
     <hyperlink ref="H35" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
     <hyperlink ref="I35" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
@@ -7004,31 +7339,27 @@
     <hyperlink ref="J55" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
     <hyperlink ref="I55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
     <hyperlink ref="G55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="H55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
     <hyperlink ref="K55" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
     <hyperlink ref="J56" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
     <hyperlink ref="J57" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="K57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
     <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="H59" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="H60" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="I59" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="J58" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
     <hyperlink ref="G59:G60" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="G61" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="G62" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="G69" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="J71" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="G71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="H71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="I71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="K71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="L71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="I61" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="I62" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="G74" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="J76" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="G76" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="H76" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="I76" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="K76" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="L76" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
     <hyperlink ref="G56:G57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="H56:H57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
     <hyperlink ref="I56:I57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="G63" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="G64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="G70" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="G68" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="G69" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="G75" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
     <hyperlink ref="H40" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
     <hyperlink ref="I40" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
     <hyperlink ref="I41:I42" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
@@ -7054,6 +7385,22 @@
     <hyperlink ref="S41" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
     <hyperlink ref="S40" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
     <hyperlink ref="S42" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="L54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{43F28687-BDD4-4576-9CB2-335425C70DAB}"/>
+    <hyperlink ref="H55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{F7B3758D-DA28-4354-BB8E-4C52273B9C3C}"/>
+    <hyperlink ref="H56:H57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{23E952BA-0F16-4536-A7E8-246446D5A12E}"/>
+    <hyperlink ref="K57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{8D6E5A07-449A-45E0-82D1-0BB597EC06AA}"/>
+    <hyperlink ref="H54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{0E18B1F8-9186-42F4-8530-23AF563BF6B2}"/>
+    <hyperlink ref="I54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{7B638116-682E-4260-A375-FDF510D5A2D9}"/>
+    <hyperlink ref="K54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{05E5242C-1360-4A14-B570-9DBB6D84B394}"/>
+    <hyperlink ref="G77" location="'ic_NavigetoWishlist++'!A1" display="NavigateToWishlist_VerifyLoginPageAppear" xr:uid="{569BCBC1-14CB-4BDD-94B1-584A32FF0AE5}"/>
+    <hyperlink ref="G64" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{3CB13DEB-3034-49A9-B462-26183D3B6C73}"/>
+    <hyperlink ref="I60" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{65874D81-208B-406D-8BAA-05FDD5436D6D}"/>
+    <hyperlink ref="G60:G65" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{2BC93EEF-5E89-4239-B2AA-557EADD3A0A7}"/>
+    <hyperlink ref="G65" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{21643C6F-B89A-41F5-A8CC-D6B78B60AC6D}"/>
+    <hyperlink ref="G66" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{277B8CC8-2F10-470D-A563-9D1039ED8B31}"/>
+    <hyperlink ref="G61" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{AE84F51F-CF8B-46D3-B750-AB0CE6156770}"/>
+    <hyperlink ref="G67" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{AC74479E-FD2D-4273-8B19-9B3413C0A200}"/>
+    <hyperlink ref="G62" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{41B06D1D-C704-4DEE-BA20-51F00BE80BFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7125,7 +7472,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C2" s="36">
         <v>1</v>
@@ -7152,7 +7499,7 @@
         <v>335</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7160,7 +7507,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C3" s="36">
         <v>1</v>
@@ -7270,7 +7617,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C2" s="36">
         <v>1</v>
@@ -7296,7 +7643,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C3" s="36">
         <v>1</v>
@@ -7442,7 +7789,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>87</v>
@@ -7510,7 +7857,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>87</v>
@@ -7652,13 +7999,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C2" s="36">
         <v>1</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>308</v>
@@ -7713,7 +8060,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>87</v>
@@ -7791,7 +8138,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C2" s="29">
         <v>1</v>
@@ -7808,7 +8155,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C3" s="29">
         <v>1</v>
@@ -7963,7 +8310,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
@@ -8013,7 +8360,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C3" s="16">
         <v>1</v>
@@ -8113,13 +8460,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C5" s="16">
         <v>1</v>
       </c>
       <c r="D5" s="94" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>92</v>
@@ -8163,13 +8510,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C6" s="16">
         <v>1</v>
       </c>
       <c r="D6" s="94" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>92</v>
@@ -8213,7 +8560,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C7" s="16">
         <v>1</v>
@@ -8263,7 +8610,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="124" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C8" s="114">
         <v>1</v>
@@ -8274,7 +8621,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="124" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C9" s="114">
         <v>1</v>
@@ -8285,7 +8632,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="124" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C10" s="114">
         <v>1</v>
@@ -8296,7 +8643,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="124" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C11" s="114">
         <v>1</v>
@@ -8307,7 +8654,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="124" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C12" s="114">
         <v>1</v>
@@ -8318,7 +8665,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="124" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C13" s="114">
         <v>1</v>
@@ -8329,7 +8676,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="124" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C14" s="114">
         <v>1</v>
@@ -8340,7 +8687,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="124" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C15" s="114">
         <v>1</v>
@@ -8351,7 +8698,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="124" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C16" s="114">
         <v>1</v>
@@ -8362,7 +8709,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="124" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C17" s="114">
         <v>1</v>
@@ -8373,7 +8720,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="124" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C18" s="114">
         <v>1</v>
@@ -8384,7 +8731,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="124" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C19" s="114">
         <v>1</v>
@@ -8395,7 +8742,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="124" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C20" s="114">
         <v>1</v>
@@ -8406,7 +8753,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="124" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C21" s="114">
         <v>1</v>
@@ -8417,7 +8764,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="124" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C22" s="114">
         <v>1</v>
@@ -8428,7 +8775,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="131" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C23" s="114">
         <v>1</v>
@@ -8439,7 +8786,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="131" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C24" s="114">
         <v>1</v>
@@ -8450,7 +8797,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="131" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C25" s="114">
         <v>1</v>
@@ -8630,7 +8977,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
@@ -8687,7 +9034,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C3" s="14">
         <v>1</v>
@@ -8738,7 +9085,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C4" s="14">
         <v>1</v>
@@ -8789,7 +9136,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
@@ -8840,7 +9187,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C6" s="14">
         <v>1</v>
@@ -8891,7 +9238,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -8942,7 +9289,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="124" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C8" s="114">
         <v>1</v>
@@ -8953,7 +9300,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="124" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C9" s="114">
         <v>1</v>
@@ -8964,7 +9311,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="124" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C10" s="114">
         <v>1</v>
@@ -8975,7 +9322,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="124" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C11" s="114">
         <v>1</v>
@@ -8986,7 +9333,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="124" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C12" s="114">
         <v>1</v>
@@ -8997,7 +9344,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="124" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C13" s="114">
         <v>1</v>
@@ -9008,7 +9355,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="124" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C14" s="114">
         <v>1</v>
@@ -9019,7 +9366,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="124" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C15" s="114">
         <v>1</v>
@@ -9030,7 +9377,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="124" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C16" s="114">
         <v>1</v>
@@ -9041,7 +9388,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="124" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C17" s="114">
         <v>1</v>
@@ -9052,7 +9399,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="124" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C18" s="114">
         <v>1</v>
@@ -9063,7 +9410,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="124" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C19" s="114">
         <v>1</v>
@@ -9074,7 +9421,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="124" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C20" s="114">
         <v>1</v>
@@ -9085,7 +9432,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="124" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C21" s="114">
         <v>1</v>
@@ -9096,7 +9443,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="124" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C22" s="114">
         <v>1</v>
@@ -9107,7 +9454,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="131" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C23" s="114">
         <v>1</v>
@@ -9118,7 +9465,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="131" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C24" s="114">
         <v>1</v>
@@ -9129,7 +9476,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="131" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C25" s="114">
         <v>1</v>
@@ -9172,7 +9519,7 @@
       <selection activeCell="H2" sqref="H2"/>
       <selection pane="topRight" activeCell="H2" sqref="H2"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -9207,7 +9554,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
@@ -9224,7 +9571,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C3" s="16">
         <v>1</v>
@@ -9241,7 +9588,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
@@ -9258,7 +9605,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C5" s="16">
         <v>1</v>
@@ -9275,7 +9622,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C6" s="16">
         <v>1</v>
@@ -9292,7 +9639,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C7" s="16">
         <v>1</v>
@@ -9309,7 +9656,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C8" s="16">
         <v>1</v>
@@ -9326,7 +9673,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C9" s="16">
         <v>1</v>
@@ -9343,7 +9690,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
@@ -9360,7 +9707,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C11" s="16">
         <v>1</v>
@@ -9394,7 +9741,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C13" s="16">
         <v>1</v>
@@ -9411,7 +9758,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C14" s="16">
         <v>1</v>
@@ -9428,7 +9775,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C15" s="16">
         <v>1</v>
@@ -9445,7 +9792,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C16" s="16">
         <v>1</v>
@@ -9462,7 +9809,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C17" s="16">
         <v>1</v>
@@ -9479,7 +9826,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C18" s="16">
         <v>1</v>
@@ -9496,7 +9843,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C19" s="16">
         <v>1</v>
@@ -9513,7 +9860,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C20" s="16">
         <v>1</v>
@@ -9530,7 +9877,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C21" s="16">
         <v>1</v>
@@ -9547,7 +9894,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C22" s="16">
         <v>1</v>
@@ -9564,7 +9911,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>87</v>
@@ -9581,7 +9928,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>87</v>
@@ -9598,7 +9945,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C25" s="43" t="s">
         <v>87</v>
@@ -9800,7 +10147,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -9827,7 +10174,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C2" s="82" t="s">
         <v>87</v>
@@ -9838,7 +10185,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C3" s="82" t="s">
         <v>87</v>
@@ -9849,7 +10196,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C4" s="82" t="s">
         <v>87</v>
@@ -9860,7 +10207,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C5" s="82" t="s">
         <v>87</v>
@@ -9871,7 +10218,7 @@
         <v>56</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C6" s="82" t="s">
         <v>87</v>
@@ -9882,18 +10229,19 @@
         <v>70</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C7" s="82" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="81" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="80" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="69"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9957,7 +10305,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C2" s="56">
         <v>1</v>
@@ -9987,7 +10335,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C3" s="56">
         <v>1</v>
@@ -10017,7 +10365,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C4" s="56">
         <v>1</v>
@@ -10047,7 +10395,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C5" s="56">
         <v>1</v>
@@ -10077,7 +10425,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C6" s="56">
         <v>1</v>
@@ -10107,7 +10455,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C7" s="56">
         <v>1</v>
@@ -10137,7 +10485,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>87</v>
@@ -10167,7 +10515,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C9" s="56">
         <v>1</v>
@@ -10197,7 +10545,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C10" s="56">
         <v>1</v>
@@ -10226,7 +10574,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C11" s="56">
         <v>1</v>
@@ -10255,7 +10603,7 @@
         <v>303</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C12" s="56">
         <v>1</v>
@@ -10281,10 +10629,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="56" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C13" s="56">
         <v>1</v>
@@ -10310,10 +10658,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="56" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C14" s="56">
         <v>1</v>
@@ -10381,7 +10729,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C2" s="17">
         <v>1</v>
@@ -10395,7 +10743,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C3" s="17">
         <v>1</v>
@@ -10409,7 +10757,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C4" s="17">
         <v>1</v>
@@ -10423,7 +10771,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C5" s="17">
         <v>1</v>
@@ -10437,7 +10785,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C6" s="17">
         <v>1</v>
@@ -10451,7 +10799,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C7" s="17">
         <v>1</v>
@@ -10465,7 +10813,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C8" s="17">
         <v>1</v>
@@ -10479,7 +10827,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C9" s="17">
         <v>1</v>
@@ -10493,7 +10841,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C10" s="17">
         <v>1</v>
@@ -10507,7 +10855,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C11" s="17">
         <v>1</v>
@@ -10521,7 +10869,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C12" s="17">
         <v>1</v>
@@ -10535,7 +10883,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C13" s="17">
         <v>1</v>
@@ -10549,7 +10897,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C14" s="17">
         <v>1</v>
@@ -10563,7 +10911,7 @@
         <v>41</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C15" s="17">
         <v>1</v>
@@ -10667,28 +11015,28 @@
         <v>26</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C2" s="25">
         <v>1</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>396</v>
       </c>
       <c r="F2" s="25" t="s">
+        <v>667</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>669</v>
       </c>
-      <c r="G2" s="25" t="s">
-        <v>671</v>
-      </c>
       <c r="H2" s="25" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>76</v>
@@ -10700,16 +11048,16 @@
         <v>73</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1">
@@ -10717,13 +11065,13 @@
         <v>27</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C3" s="25">
         <v>1</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>396</v>
@@ -10767,13 +11115,13 @@
         <v>28</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C4" s="25">
         <v>1</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>396</v>
@@ -10817,13 +11165,13 @@
         <v>29</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>87</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>396</v>
@@ -10867,25 +11215,25 @@
         <v>30</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>87</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>396</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>74</v>
@@ -10900,16 +11248,16 @@
         <v>73</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N6" s="25" t="s">
         <v>74</v>
       </c>
       <c r="O6" s="26" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="P6" s="27" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="4" customFormat="1" ht="29">
@@ -10917,28 +11265,28 @@
         <v>31</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>87</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>396</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>76</v>
@@ -10947,19 +11295,19 @@
         <v>73</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="O7" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="P7" s="138" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="4" customFormat="1">
@@ -10967,13 +11315,13 @@
         <v>32</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>87</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>396</v>
@@ -11017,13 +11365,13 @@
         <v>35</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>87</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>396</v>
@@ -11067,7 +11415,7 @@
         <v>39</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C10" s="39" t="s">
         <v>87</v>
@@ -11095,7 +11443,7 @@
         <v>40</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C11" s="39" t="s">
         <v>87</v>
@@ -11123,7 +11471,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>87</v>
@@ -11173,7 +11521,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>87</v>
@@ -11223,7 +11571,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="124" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C14" s="114">
         <v>1</v>
@@ -11234,7 +11582,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="124" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C15" s="114">
         <v>1</v>
@@ -11245,7 +11593,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="124" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C16" s="114">
         <v>1</v>
@@ -11256,7 +11604,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="124" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C17" s="114">
         <v>1</v>
@@ -11267,7 +11615,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="124" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C18" s="114">
         <v>1</v>
@@ -11278,7 +11626,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="124" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C19" s="114">
         <v>1</v>
@@ -11289,7 +11637,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="124" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C20" s="114">
         <v>1</v>
@@ -11300,7 +11648,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="124" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C21" s="114">
         <v>1</v>
@@ -11311,7 +11659,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="124" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C22" s="114">
         <v>1</v>
@@ -11322,7 +11670,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="124" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C23" s="114">
         <v>1</v>
@@ -11333,7 +11681,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="124" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C24" s="114">
         <v>1</v>
@@ -11344,7 +11692,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="124" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C25" s="114">
         <v>1</v>
@@ -11355,7 +11703,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="124" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C26" s="114">
         <v>1</v>
@@ -11366,7 +11714,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="124" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C27" s="114">
         <v>1</v>
@@ -11377,7 +11725,7 @@
         <v>15</v>
       </c>
       <c r="B28" s="124" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C28" s="114">
         <v>1</v>
@@ -11388,7 +11736,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="124" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C29" s="114">
         <v>1</v>
@@ -11399,7 +11747,7 @@
         <v>17</v>
       </c>
       <c r="B30" s="124" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C30" s="114">
         <v>1</v>
@@ -11410,7 +11758,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="124" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C31" s="114">
         <v>1</v>
@@ -11421,7 +11769,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="124" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C32" s="114">
         <v>1</v>
@@ -11432,7 +11780,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="124" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C33" s="114">
         <v>1</v>
@@ -11493,7 +11841,7 @@
         <v>35</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E1" s="37" t="s">
         <v>122</v>
@@ -11504,7 +11852,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C2" s="29">
         <v>1</v>
@@ -11515,7 +11863,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C3" s="29">
         <v>1</v>
@@ -11526,7 +11874,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C4" s="29">
         <v>1</v>
@@ -11537,7 +11885,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C5" s="29">
         <v>1</v>
@@ -11548,7 +11896,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C6" s="29">
         <v>1</v>
@@ -11559,7 +11907,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C7" s="29">
         <v>1</v>
@@ -11570,7 +11918,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C8" s="29">
         <v>1</v>
@@ -11581,7 +11929,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C9" s="29">
         <v>1</v>
@@ -11592,7 +11940,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C10" s="29">
         <v>1</v>
@@ -11603,7 +11951,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C11" s="29">
         <v>1</v>
@@ -11614,7 +11962,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C12" s="29">
         <v>1</v>
@@ -11701,7 +12049,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C2" s="30">
         <v>1</v>
@@ -11736,7 +12084,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C3" s="30">
         <v>1</v>
@@ -11771,7 +12119,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C4" s="30">
         <v>1</v>
@@ -11847,7 +12195,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
@@ -11861,7 +12209,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C3" s="16">
         <v>1</v>
@@ -11875,7 +12223,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
@@ -11889,7 +12237,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C5" s="16">
         <v>1</v>
@@ -11903,7 +12251,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C6" s="16">
         <v>1</v>
@@ -11917,7 +12265,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C7" s="16">
         <v>1</v>
@@ -11931,7 +12279,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C8" s="16">
         <v>1</v>
@@ -11945,7 +12293,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C9" s="16">
         <v>1</v>
@@ -11959,7 +12307,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
@@ -11973,7 +12321,7 @@
         <v>40</v>
       </c>
       <c r="B11" s="124" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C11" s="16">
         <v>1</v>
@@ -11987,7 +12335,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="124" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C12" s="16">
         <v>1</v>
@@ -12001,7 +12349,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="144" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C13" s="16">
         <v>1</v>
@@ -12094,7 +12442,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
@@ -12112,7 +12460,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C3" s="16">
         <v>1</v>
@@ -12130,7 +12478,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
@@ -12148,7 +12496,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C5" s="16">
         <v>1</v>
@@ -12166,7 +12514,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C6" s="16">
         <v>1</v>
@@ -12184,7 +12532,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C7" s="16">
         <v>1</v>
@@ -12202,7 +12550,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C8" s="16">
         <v>1</v>
@@ -12220,7 +12568,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C9" s="16">
         <v>1</v>
@@ -12238,7 +12586,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
@@ -12256,7 +12604,7 @@
         <v>303</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C11" s="16">
         <v>1</v>
@@ -12271,10 +12619,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C12" s="16">
         <v>1</v>
@@ -12289,10 +12637,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C13" s="16">
         <v>1</v>
@@ -12351,7 +12699,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
@@ -12366,7 +12714,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C3" s="16">
         <v>1</v>
@@ -12381,7 +12729,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
@@ -12396,7 +12744,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C5" s="16">
         <v>1</v>
@@ -12411,7 +12759,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C6" s="16">
         <v>1</v>
@@ -12426,7 +12774,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C7" s="16">
         <v>1</v>
@@ -12441,7 +12789,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C8" s="16">
         <v>1</v>
@@ -12456,7 +12804,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C9" s="16">
         <v>1</v>
@@ -12471,7 +12819,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
@@ -12486,7 +12834,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C11" s="39" t="s">
         <v>87</v>
@@ -12503,7 +12851,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>87</v>
@@ -12520,7 +12868,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>87</v>
@@ -12545,11 +12893,11 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H2" sqref="H2"/>
       <selection pane="topRight" activeCell="H2" sqref="H2"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -12584,7 +12932,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
@@ -12601,7 +12949,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C3" s="16">
         <v>1</v>
@@ -12618,7 +12966,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
@@ -12635,7 +12983,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C5" s="16">
         <v>1</v>
@@ -12652,7 +13000,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C6" s="16">
         <v>1</v>
@@ -12661,7 +13009,7 @@
         <v>225504</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -12669,7 +13017,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C7" s="16">
         <v>1</v>
@@ -12678,7 +13026,7 @@
         <v>225504</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29">
@@ -12686,7 +13034,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C8" s="16">
         <v>1</v>
@@ -12695,7 +13043,7 @@
         <v>225504</v>
       </c>
       <c r="E8" s="116" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -12703,7 +13051,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C9" s="16">
         <v>1</v>
@@ -12712,7 +13060,7 @@
         <v>225504</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -12720,7 +13068,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
@@ -12737,7 +13085,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C11" s="16">
         <v>1</v>
@@ -12771,7 +13119,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C13" s="16">
         <v>1</v>
@@ -12780,24 +13128,24 @@
         <v>225504</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="29">
       <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C14" s="16">
         <v>1</v>
       </c>
       <c r="D14" s="16">
-        <v>225564</v>
+        <v>225504</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -12805,7 +13153,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C15" s="16">
         <v>1</v>
@@ -12822,7 +13170,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C16" s="16">
         <v>1</v>
@@ -12839,7 +13187,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C17" s="16">
         <v>1</v>
@@ -12856,7 +13204,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C18" s="16">
         <v>1</v>
@@ -12873,7 +13221,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C19" s="16">
         <v>1</v>
@@ -12890,7 +13238,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C20" s="16">
         <v>1</v>
@@ -12907,7 +13255,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C21" s="16">
         <v>1</v>
@@ -12924,7 +13272,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C22" s="16">
         <v>1</v>
@@ -12933,7 +13281,7 @@
         <v>225504</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -12941,7 +13289,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C23" s="16">
         <v>1</v>
@@ -12958,7 +13306,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C24" s="16">
         <v>1</v>
@@ -12975,7 +13323,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C25" s="16">
         <v>1</v>
@@ -12992,7 +13340,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C26" s="16">
         <v>1</v>
@@ -13001,7 +13349,7 @@
         <v>225504</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -13009,7 +13357,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C27" s="16">
         <v>1</v>
@@ -13018,7 +13366,7 @@
         <v>225504</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -13026,7 +13374,7 @@
         <v>32</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C28" s="16">
         <v>1</v>
@@ -13043,7 +13391,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C29" s="16">
         <v>1</v>
@@ -13060,7 +13408,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C30" s="16">
         <v>1</v>
@@ -13078,7 +13426,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C31" s="16">
         <v>1</v>
@@ -13095,7 +13443,7 @@
         <v>38</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C32" s="16">
         <v>1</v>
@@ -13112,7 +13460,7 @@
         <v>303</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C33" s="16">
         <v>1</v>
@@ -13121,15 +13469,15 @@
         <v>225504</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C34" s="16">
         <v>1</v>
@@ -13138,15 +13486,15 @@
         <v>225504</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C35" s="16">
         <v>1</v>
@@ -13163,7 +13511,7 @@
         <v>46</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C36" s="16">
         <v>1</v>
@@ -13236,7 +13584,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
@@ -13248,7 +13596,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C3" s="16">
         <v>1</v>
@@ -13260,7 +13608,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
@@ -13272,7 +13620,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C5" s="16">
         <v>1</v>
@@ -13284,7 +13632,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C6" s="16">
         <v>1</v>
@@ -13296,7 +13644,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C7" s="16">
         <v>1</v>
@@ -13364,9 +13712,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
@@ -13388,7 +13738,7 @@
         <v>35</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -13396,69 +13746,69 @@
         <v>52</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C2" s="77" t="s">
         <v>87</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="76">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="91" customFormat="1">
+      <c r="A3" s="130">
         <v>53</v>
       </c>
-      <c r="B3" s="76" t="s">
-        <v>535</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="77" t="s">
-        <v>426</v>
+      <c r="B3" s="130" t="s">
+        <v>533</v>
+      </c>
+      <c r="C3" s="91">
+        <v>1</v>
+      </c>
+      <c r="D3" s="91" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="57">
+      <c r="A4" s="76">
+        <v>53</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>533</v>
+      </c>
+      <c r="C4" s="77">
+        <v>2</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="57">
         <v>54</v>
       </c>
-      <c r="B4" s="65" t="s">
-        <v>612</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="77" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="75">
-        <v>55</v>
-      </c>
       <c r="B5" s="65" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C5" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="75" t="s">
-        <v>426</v>
+      <c r="D5" s="77" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="57">
-        <v>56</v>
+      <c r="A6" s="75">
+        <v>55</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>613</v>
-      </c>
-      <c r="C6" s="77">
-        <v>1</v>
+        <v>609</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>87</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -13466,38 +13816,58 @@
         <v>56</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C7" s="77">
+        <v>1</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="57">
+        <v>56</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>611</v>
+      </c>
+      <c r="C8" s="77">
         <v>2</v>
       </c>
-      <c r="D7" s="75" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="75">
+      <c r="D8" s="75" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="75">
         <v>70</v>
       </c>
-      <c r="B8" s="65" t="s">
-        <v>626</v>
-      </c>
-      <c r="C8" s="77">
-        <v>1</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>426</v>
+      <c r="B9" s="65" t="s">
+        <v>624</v>
+      </c>
+      <c r="C9" s="77">
+        <v>1</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B3">
+  <conditionalFormatting sqref="B2 B4">
+    <cfRule type="duplicateValues" dxfId="81" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2 A4">
+    <cfRule type="duplicateValues" dxfId="80" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
     <cfRule type="duplicateValues" dxfId="79" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
+  <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" dxfId="78" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"All,Specific"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13510,10 +13880,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -13561,10 +13931,10 @@
         <v>146</v>
       </c>
       <c r="J1" s="79" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="K1" s="147" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -13572,7 +13942,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C2" s="84" t="s">
         <v>87</v>
@@ -13581,7 +13951,7 @@
         <v>147</v>
       </c>
       <c r="E2" s="84" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F2" s="83" t="s">
         <v>401</v>
@@ -13596,7 +13966,7 @@
         <v>309</v>
       </c>
       <c r="J2" s="83" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -13604,7 +13974,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C3" s="84" t="s">
         <v>87</v>
@@ -13628,7 +13998,7 @@
         <v>309</v>
       </c>
       <c r="J3" s="83" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="29">
@@ -13636,7 +14006,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C4" s="84" t="s">
         <v>87</v>
@@ -13660,7 +14030,7 @@
         <v>309</v>
       </c>
       <c r="J4" s="83" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -13668,7 +14038,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C5" s="84" t="s">
         <v>87</v>
@@ -13692,7 +14062,7 @@
         <v>309</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -13700,7 +14070,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C6" s="84" t="s">
         <v>87</v>
@@ -13709,7 +14079,7 @@
         <v>147</v>
       </c>
       <c r="E6" s="116" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F6" s="83" t="s">
         <v>401</v>
@@ -13724,7 +14094,7 @@
         <v>309</v>
       </c>
       <c r="J6" s="83" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -13732,7 +14102,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C7" s="84" t="s">
         <v>87</v>
@@ -13741,7 +14111,7 @@
         <v>147</v>
       </c>
       <c r="E7" s="84" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F7" s="83" t="s">
         <v>405</v>
@@ -13756,7 +14126,7 @@
         <v>309</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -13764,7 +14134,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C8" s="84" t="s">
         <v>87</v>
@@ -13788,7 +14158,7 @@
         <v>309</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13796,7 +14166,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C9" s="84" t="s">
         <v>87</v>
@@ -13820,7 +14190,7 @@
         <v>309</v>
       </c>
       <c r="J9" s="83" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13828,7 +14198,7 @@
         <v>39</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C10" s="83" t="s">
         <v>87</v>
@@ -13837,7 +14207,7 @@
         <v>147</v>
       </c>
       <c r="E10" s="83" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F10" s="83" t="s">
         <v>405</v>
@@ -13852,7 +14222,7 @@
         <v>309</v>
       </c>
       <c r="J10" s="83" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13860,7 +14230,7 @@
         <v>40</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C11" s="83" t="s">
         <v>87</v>
@@ -13869,7 +14239,7 @@
         <v>147</v>
       </c>
       <c r="E11" s="114" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F11" s="83" t="s">
         <v>401</v>
@@ -13884,7 +14254,7 @@
         <v>309</v>
       </c>
       <c r="J11" s="83" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13892,7 +14262,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C12" s="83" t="s">
         <v>87</v>
@@ -13916,7 +14286,7 @@
         <v>309</v>
       </c>
       <c r="J12" s="83" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13924,7 +14294,7 @@
         <v>53</v>
       </c>
       <c r="B13" s="78" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C13" s="83" t="s">
         <v>87</v>
@@ -13933,7 +14303,7 @@
         <v>147</v>
       </c>
       <c r="E13" s="83" t="s">
-        <v>410</v>
+        <v>600</v>
       </c>
       <c r="F13" s="83" t="s">
         <v>405</v>
@@ -13941,14 +14311,14 @@
       <c r="G13" s="83" t="s">
         <v>406</v>
       </c>
-      <c r="H13" s="83" t="s">
-        <v>411</v>
+      <c r="H13" s="83">
+        <v>1</v>
       </c>
       <c r="I13" s="83" t="s">
         <v>309</v>
       </c>
       <c r="J13" s="83" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13956,7 +14326,7 @@
         <v>54</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C14" s="86" t="s">
         <v>87</v>
@@ -13965,7 +14335,7 @@
         <v>147</v>
       </c>
       <c r="E14" s="86" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F14" s="86" t="s">
         <v>405</v>
@@ -13974,13 +14344,13 @@
         <v>406</v>
       </c>
       <c r="H14" s="86" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I14" s="86" t="s">
         <v>309</v>
       </c>
       <c r="J14" s="86" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13988,7 +14358,7 @@
         <v>55</v>
       </c>
       <c r="B15" s="86" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C15" s="86" t="s">
         <v>87</v>
@@ -13997,7 +14367,7 @@
         <v>147</v>
       </c>
       <c r="E15" s="86" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F15" s="86" t="s">
         <v>405</v>
@@ -14006,13 +14376,13 @@
         <v>406</v>
       </c>
       <c r="H15" s="86" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I15" s="86" t="s">
         <v>309</v>
       </c>
       <c r="J15" s="86" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -14020,7 +14390,7 @@
         <v>56</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C16" s="86">
         <v>1</v>
@@ -14029,7 +14399,7 @@
         <v>147</v>
       </c>
       <c r="E16" s="86" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F16" s="86" t="s">
         <v>405</v>
@@ -14038,13 +14408,13 @@
         <v>406</v>
       </c>
       <c r="H16" s="86" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I16" s="86" t="s">
         <v>309</v>
       </c>
       <c r="J16" s="86" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14052,7 +14422,7 @@
         <v>58</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C17" s="86">
         <v>1</v>
@@ -14061,7 +14431,7 @@
         <v>147</v>
       </c>
       <c r="E17" s="86" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F17" s="86" t="s">
         <v>401</v>
@@ -14076,7 +14446,7 @@
         <v>6</v>
       </c>
       <c r="J17" s="86" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14084,7 +14454,7 @@
         <v>59</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C18" s="86">
         <v>1</v>
@@ -14093,7 +14463,7 @@
         <v>147</v>
       </c>
       <c r="E18" s="86" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F18" s="86" t="s">
         <v>401</v>
@@ -14108,7 +14478,7 @@
         <v>6</v>
       </c>
       <c r="J18" s="86" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14116,7 +14486,7 @@
         <v>60</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C19" s="86">
         <v>1</v>
@@ -14125,7 +14495,7 @@
         <v>147</v>
       </c>
       <c r="E19" s="116" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F19" s="86" t="s">
         <v>401</v>
@@ -14140,7 +14510,7 @@
         <v>6</v>
       </c>
       <c r="J19" s="86" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="29">
@@ -14148,7 +14518,7 @@
         <v>61</v>
       </c>
       <c r="B20" s="86" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C20" s="86">
         <v>1</v>
@@ -14157,7 +14527,7 @@
         <v>147</v>
       </c>
       <c r="E20" s="116" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F20" s="86" t="s">
         <v>401</v>
@@ -14166,13 +14536,13 @@
         <v>402</v>
       </c>
       <c r="H20" s="86" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I20" s="86">
         <v>6</v>
       </c>
       <c r="J20" s="86" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -14180,7 +14550,7 @@
         <v>68</v>
       </c>
       <c r="B21" s="86" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C21" s="86" t="s">
         <v>87</v>
@@ -14189,13 +14559,13 @@
         <v>147</v>
       </c>
       <c r="E21" s="86" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F21" s="86" t="s">
         <v>405</v>
       </c>
       <c r="G21" s="86" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H21" s="86">
         <v>1</v>
@@ -14204,7 +14574,7 @@
         <v>309</v>
       </c>
       <c r="J21" s="86" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -14212,7 +14582,7 @@
         <v>69</v>
       </c>
       <c r="B22" s="86" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C22" s="86">
         <v>1</v>
@@ -14221,22 +14591,22 @@
         <v>147</v>
       </c>
       <c r="E22" s="86" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F22" s="86" t="s">
         <v>405</v>
       </c>
       <c r="G22" s="86" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H22" s="86" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I22" s="86">
         <v>6</v>
       </c>
       <c r="J22" s="86" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -14244,7 +14614,7 @@
         <v>70</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C23" s="86" t="s">
         <v>87</v>
@@ -14253,7 +14623,7 @@
         <v>147</v>
       </c>
       <c r="E23" s="86" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F23" s="86" t="s">
         <v>405</v>
@@ -14268,7 +14638,7 @@
         <v>309</v>
       </c>
       <c r="J23" s="86" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -14322,7 +14692,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14346,13 +14716,13 @@
         <v>35</v>
       </c>
       <c r="D1" s="90" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E1" s="90" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F1" s="90" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -14360,16 +14730,16 @@
         <v>54</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C2" s="90" t="s">
         <v>87</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F2" s="90">
         <v>11</v>
@@ -14395,7 +14765,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="37" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -14410,12 +14780,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="43" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="43" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -14425,62 +14795,62 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="43" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="43" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="43" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="43" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="43" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="43" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="43" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="43" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="43" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="43" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="43" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="43" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -14528,7 +14898,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C2" s="31">
         <v>1</v>
@@ -14545,7 +14915,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C3" s="31">
         <v>1</v>
@@ -14687,16 +15057,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="93" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C2" s="95">
         <v>1</v>
       </c>
       <c r="D2" s="95" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E2" s="94" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -14704,16 +15074,16 @@
         <v>16</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C3" s="95">
         <v>1</v>
       </c>
       <c r="D3" s="116" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E3" s="94" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -14721,16 +15091,16 @@
         <v>17</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C4" s="95">
         <v>1</v>
       </c>
       <c r="D4" s="116" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -14738,16 +15108,16 @@
         <v>18</v>
       </c>
       <c r="B5" s="93" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C5" s="95">
         <v>1</v>
       </c>
       <c r="D5" s="116" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E5" s="94" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -14755,16 +15125,16 @@
         <v>19</v>
       </c>
       <c r="B6" s="93" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C6" s="95">
         <v>1</v>
       </c>
       <c r="D6" s="116" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E6" s="94" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -14772,16 +15142,16 @@
         <v>20</v>
       </c>
       <c r="B7" s="93" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C7" s="95">
         <v>1</v>
       </c>
       <c r="D7" s="116" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E7" s="94" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -14789,7 +15159,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="93" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C8" s="95">
         <v>1</v>
@@ -14806,7 +15176,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="93" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C9" s="95">
         <v>1</v>
@@ -14823,16 +15193,16 @@
         <v>46</v>
       </c>
       <c r="B10" s="98" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C10" s="95">
         <v>1</v>
       </c>
       <c r="D10" s="116" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -14840,16 +15210,16 @@
         <v>47</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C11" s="95">
         <v>1</v>
       </c>
       <c r="D11" s="116" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E11" s="94" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -14857,16 +15227,16 @@
         <v>39</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C12" s="95">
         <v>1</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E12" s="94" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -14874,16 +15244,16 @@
         <v>40</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C13" s="95">
         <v>1</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E13" s="94" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -14891,7 +15261,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C14" s="95">
         <v>1</v>
@@ -14908,16 +15278,16 @@
         <v>57</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C15" s="95">
         <v>1</v>
       </c>
       <c r="D15" s="94" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E15" s="94" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -14925,7 +15295,7 @@
         <v>64</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C16" s="95">
         <v>1</v>
@@ -14942,7 +15312,7 @@
         <v>65</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C17" s="95">
         <v>1</v>
@@ -15015,7 +15385,7 @@
         <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -15023,7 +15393,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="103" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C2" s="101">
         <v>1</v>
@@ -15034,7 +15404,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="103" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C3" s="101">
         <v>1</v>
@@ -15045,7 +15415,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="103" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C4" s="101">
         <v>1</v>
@@ -15056,7 +15426,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="136" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C5" s="120">
         <v>1</v>
@@ -15067,7 +15437,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="131" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C6" s="120">
         <v>1</v>
@@ -15078,7 +15448,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="131" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C7" s="120">
         <v>1</v>
@@ -15089,7 +15459,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="131" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C8" s="120">
         <v>1</v>
@@ -15136,13 +15506,13 @@
         <v>35</v>
       </c>
       <c r="D1" s="105" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E1" s="105" t="s">
         <v>82</v>
       </c>
       <c r="F1" s="105" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G1" s="105" t="s">
         <v>83</v>
@@ -15153,7 +15523,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C2" s="105">
         <v>1</v>
@@ -15162,7 +15532,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="105" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F2" s="105" t="s">
         <v>9</v>
@@ -15176,7 +15546,7 @@
         <v>63</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C3" s="105">
         <v>1</v>
@@ -15191,7 +15561,7 @@
         <v>91</v>
       </c>
       <c r="G3" s="104" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -15231,10 +15601,10 @@
         <v>35</v>
       </c>
       <c r="D1" s="110" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E1" s="110" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -15242,7 +15612,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C2" s="111">
         <v>1</v>
@@ -15309,7 +15679,7 @@
         <v>179</v>
       </c>
       <c r="I1" s="120" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="J1" s="120" t="s">
         <v>173</v>
@@ -15326,7 +15696,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="136" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C2" s="120" t="s">
         <v>87</v>
@@ -15347,7 +15717,7 @@
         <v>299</v>
       </c>
       <c r="I2" s="120" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J2" s="120" t="s">
         <v>299</v>
@@ -15369,9 +15739,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
@@ -15396,7 +15768,7 @@
         <v>35</v>
       </c>
       <c r="D1" s="74" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E1" s="74" t="s">
         <v>82</v>
@@ -15405,7 +15777,7 @@
         <v>83</v>
       </c>
       <c r="G1" s="74" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -15413,19 +15785,19 @@
         <v>52</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C2" s="74" t="s">
         <v>87</v>
       </c>
       <c r="D2" s="74" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="F2" s="74" t="s">
         <v>422</v>
-      </c>
-      <c r="F2" s="74" t="s">
-        <v>423</v>
       </c>
       <c r="G2" s="74">
         <v>11</v>
@@ -15436,19 +15808,19 @@
         <v>53</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C3" s="74" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>424</v>
+        <v>659</v>
       </c>
       <c r="F3" s="74" t="s">
-        <v>423</v>
+        <v>672</v>
       </c>
       <c r="G3" s="74">
         <v>11</v>
@@ -15459,19 +15831,19 @@
         <v>54</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C4" s="74" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>424</v>
-      </c>
-      <c r="F4" s="74" t="s">
-        <v>423</v>
+        <v>659</v>
+      </c>
+      <c r="F4" s="91" t="s">
+        <v>672</v>
       </c>
       <c r="G4" s="74">
         <v>11</v>
@@ -15482,19 +15854,19 @@
         <v>55</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C5" s="74" t="s">
         <v>87</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>422</v>
-      </c>
-      <c r="F5" s="74" t="s">
-        <v>423</v>
+        <v>659</v>
+      </c>
+      <c r="F5" s="91" t="s">
+        <v>672</v>
       </c>
       <c r="G5" s="72">
         <v>11</v>
@@ -15505,19 +15877,19 @@
         <v>56</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C6" s="74" t="s">
         <v>87</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>422</v>
-      </c>
-      <c r="F6" s="74" t="s">
-        <v>423</v>
+        <v>659</v>
+      </c>
+      <c r="F6" s="91" t="s">
+        <v>672</v>
       </c>
       <c r="G6" s="72">
         <v>11</v>
@@ -15528,25 +15900,49 @@
         <v>70</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C7" s="74" t="s">
         <v>87</v>
       </c>
       <c r="D7" s="74" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>422</v>
-      </c>
-      <c r="F7" s="74" t="s">
-        <v>423</v>
+        <v>659</v>
+      </c>
+      <c r="F7" s="91" t="s">
+        <v>672</v>
       </c>
       <c r="G7" s="72">
         <v>11</v>
       </c>
     </row>
+    <row r="8" spans="1:7" s="91" customFormat="1">
+      <c r="A8" s="123">
+        <v>73</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>624</v>
+      </c>
+      <c r="C8" s="91">
+        <v>1</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>420</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>659</v>
+      </c>
+      <c r="F8" s="91" t="s">
+        <v>695</v>
+      </c>
+      <c r="G8" s="123">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="77" priority="2"/>
   </conditionalFormatting>
@@ -15561,10 +15957,8 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="E4:E7" r:id="rId3" display="watlevi41@gmail.com" xr:uid="{D16A3140-4CBC-4253-9C85-FAF9D1CB6F5C}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{B853E9E6-3548-4C36-8719-4B3DD1319787}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15829,7 +16223,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -15905,16 +16299,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>126</v>
@@ -15923,7 +16317,7 @@
         <v>128</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="16" t="s">
@@ -15939,16 +16333,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C3" s="16">
         <v>1</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>126</v>
@@ -15957,7 +16351,7 @@
         <v>128</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16" t="s">
@@ -15973,16 +16367,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>126</v>
@@ -15992,7 +16386,7 @@
       </c>
       <c r="H4" s="24"/>
       <c r="I4" s="24" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>127</v>
@@ -16007,7 +16401,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="124" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C5" s="114">
         <v>1</v>
@@ -16027,7 +16421,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="124" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C6" s="114">
         <v>1</v>
@@ -16047,7 +16441,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C7" s="114">
         <v>1</v>
@@ -16067,7 +16461,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="124" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C8" s="114">
         <v>1</v>
@@ -16087,7 +16481,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="124" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C9" s="114">
         <v>1</v>
@@ -16107,7 +16501,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="124" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C10" s="114">
         <v>1</v>
@@ -16127,7 +16521,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="124" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C11" s="114">
         <v>1</v>
@@ -16138,7 +16532,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="124" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C12" s="114">
         <v>1</v>
@@ -16149,7 +16543,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="124" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C13" s="114">
         <v>1</v>
@@ -16160,7 +16554,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="124" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C14" s="114">
         <v>1</v>
@@ -16171,7 +16565,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="124" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C15" s="114">
         <v>1</v>
@@ -16182,7 +16576,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="124" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C16" s="114">
         <v>1</v>
@@ -16193,7 +16587,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="124" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C17" s="114">
         <v>1</v>
@@ -16204,7 +16598,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="124" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C18" s="114">
         <v>1</v>
@@ -16215,7 +16609,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="124" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C19" s="114">
         <v>1</v>
@@ -16226,7 +16620,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="124" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C20" s="114">
         <v>1</v>
@@ -16237,7 +16631,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="124" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C21" s="114">
         <v>1</v>
@@ -16248,7 +16642,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="124" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C22" s="114">
         <v>1</v>
@@ -16259,7 +16653,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="131" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C23" s="114">
         <v>1</v>
@@ -16270,7 +16664,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="131" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C24" s="114">
         <v>1</v>
@@ -16281,7 +16675,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="131" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C25" s="114">
         <v>1</v>
@@ -16392,7 +16786,7 @@
         <v>66</v>
       </c>
       <c r="K1" s="88" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="L1" s="88" t="s">
         <v>122</v>
@@ -16427,7 +16821,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="116" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C2" s="114">
         <v>1</v>
@@ -16466,7 +16860,7 @@
         <v>94</v>
       </c>
       <c r="O2" s="119" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="P2" s="114" t="s">
         <v>92</v>
@@ -16489,16 +16883,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="116" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C3" s="114">
         <v>1</v>
       </c>
       <c r="D3" s="114" t="s">
+        <v>635</v>
+      </c>
+      <c r="E3" s="114" t="s">
         <v>637</v>
-      </c>
-      <c r="E3" s="114" t="s">
-        <v>639</v>
       </c>
       <c r="F3" s="115" t="s">
         <v>126</v>
@@ -16516,7 +16910,7 @@
         <v>2222224</v>
       </c>
       <c r="K3" s="119" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="L3" s="114" t="s">
         <v>115</v>
@@ -16528,7 +16922,7 @@
         <v>94</v>
       </c>
       <c r="O3" s="119" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="P3" s="114" t="s">
         <v>92</v>
@@ -16551,7 +16945,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="116" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C4" s="114">
         <v>1</v>
@@ -16613,16 +17007,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="116" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C5" s="114">
         <v>1</v>
       </c>
       <c r="D5" s="114" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E5" s="114" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F5" s="115" t="s">
         <v>126</v>
@@ -16640,7 +17034,7 @@
         <v>2222226</v>
       </c>
       <c r="K5" s="119" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="L5" s="114" t="s">
         <v>115</v>
@@ -16652,7 +17046,7 @@
         <v>94</v>
       </c>
       <c r="O5" s="119" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="P5" s="114" t="s">
         <v>92</v>
@@ -16675,16 +17069,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="116" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C6" s="114">
         <v>1</v>
       </c>
       <c r="D6" s="114" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E6" s="114" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F6" s="115" t="s">
         <v>126</v>
@@ -16702,7 +17096,7 @@
         <v>2222227</v>
       </c>
       <c r="K6" s="119" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="L6" s="114" t="s">
         <v>115</v>
@@ -16714,7 +17108,7 @@
         <v>94</v>
       </c>
       <c r="O6" s="119" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="P6" s="114" t="s">
         <v>92</v>
@@ -16737,7 +17131,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="117" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C7" s="114">
         <v>1</v>
@@ -16749,7 +17143,7 @@
         <v>95</v>
       </c>
       <c r="F7" s="139" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G7" s="118" t="s">
         <v>116</v>
@@ -16764,7 +17158,7 @@
         <v>2222227</v>
       </c>
       <c r="K7" s="119" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="L7" s="114" t="s">
         <v>115</v>
@@ -16799,7 +17193,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="117" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C8" s="114">
         <v>1</v>
@@ -16861,7 +17255,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="117" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C9" s="114">
         <v>1</v>
@@ -16923,7 +17317,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="117" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C10" s="114">
         <v>1</v>
@@ -16985,7 +17379,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="117" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C11" s="114">
         <v>1</v>
@@ -17047,7 +17441,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="124" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C12" s="114">
         <v>1</v>
@@ -17061,7 +17455,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="124" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C13" s="114">
         <v>1</v>
@@ -17075,7 +17469,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="124" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C14" s="114">
         <v>1</v>
@@ -17089,7 +17483,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="124" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C15" s="114">
         <v>1</v>
@@ -17103,7 +17497,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="124" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C16" s="114">
         <v>1</v>
@@ -17117,7 +17511,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="124" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C17" s="114">
         <v>1</v>
@@ -17131,7 +17525,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="124" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C18" s="114">
         <v>1</v>
@@ -17145,7 +17539,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="124" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C19" s="114">
         <v>1</v>
@@ -17159,7 +17553,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="124" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C20" s="114">
         <v>1</v>
@@ -17176,7 +17570,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="124" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C21" s="114">
         <v>1</v>
@@ -17193,7 +17587,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="124" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C22" s="114">
         <v>1</v>
@@ -17210,7 +17604,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="124" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C23" s="114">
         <v>1</v>
@@ -17227,7 +17621,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="124" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C24" s="114">
         <v>1</v>
@@ -17244,7 +17638,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="124" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C25" s="114">
         <v>1</v>
@@ -17261,7 +17655,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="124" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C26" s="114">
         <v>1</v>
@@ -17278,7 +17672,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="124" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C27" s="114">
         <v>1</v>
@@ -17295,7 +17689,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="131" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C28" s="114">
         <v>1</v>
@@ -17312,7 +17706,7 @@
         <v>40</v>
       </c>
       <c r="B29" s="131" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C29" s="114">
         <v>1</v>
@@ -17329,7 +17723,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="131" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C30" s="114">
         <v>1</v>
@@ -17914,97 +18308,97 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="53" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="52" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="52" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="52" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="52" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="52" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="52" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="52" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="52" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="52" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="52" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="52" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="52" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="52" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="52" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="52" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="52" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="52" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="52" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -18014,257 +18408,257 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="52" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="52" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="52" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="52" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="52" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="52" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="52" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="52" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="52" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="52" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="52" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="52" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="52" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="52" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="52" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="52" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="52" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="52" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="52" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="52" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="52" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="52" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="52" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="52" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="52" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="52" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="52" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="52" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="52" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="52" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="52" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="52" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="52" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="52" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="52" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="52" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="52" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="52" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="52" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="52" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="52" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="52" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="52" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="52" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="52" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="52" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="52" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="52" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="52" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="52" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="52" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -18300,7 +18694,7 @@
         <v>35</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -18308,13 +18702,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C2" s="51">
         <v>1</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -18322,13 +18716,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C3" s="51">
         <v>1</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -18336,13 +18730,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C4" s="51">
         <v>1</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -18350,13 +18744,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C5" s="51">
         <v>1</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -18364,13 +18758,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C6" s="51">
         <v>1</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -18378,13 +18772,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C7" s="51">
         <v>1</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -18392,13 +18786,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C8" s="51">
         <v>1</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -18406,13 +18800,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C9" s="51">
         <v>1</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -18420,13 +18814,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C10" s="51">
         <v>1</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -18434,13 +18828,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C11" s="51">
         <v>1</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -18454,7 +18848,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -18462,13 +18856,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C13" s="51">
         <v>1</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -18476,13 +18870,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C14" s="51">
         <v>1</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -18490,13 +18884,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C15" s="51">
         <v>1</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -18504,13 +18898,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C16" s="51">
         <v>1</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -18518,13 +18912,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C17" s="51">
         <v>1</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -18532,13 +18926,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C18" s="51">
         <v>1</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -18546,13 +18940,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C19" s="51">
         <v>1</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -18560,13 +18954,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C20" s="51">
         <v>1</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -18574,13 +18968,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C21" s="51">
         <v>1</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -18588,7 +18982,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C22" s="51">
         <v>1</v>
@@ -18602,7 +18996,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C23" s="51">
         <v>1</v>
@@ -18616,7 +19010,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C24" s="51">
         <v>1</v>
@@ -18630,7 +19024,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C25" s="51">
         <v>1</v>
@@ -18921,7 +19315,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>87</v>
@@ -18938,7 +19332,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>87</v>
@@ -18955,7 +19349,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>87</v>
@@ -19015,7 +19409,7 @@
         <v>48</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>87</v>
@@ -19110,7 +19504,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>87</v>
@@ -19151,7 +19545,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>87</v>
@@ -19262,7 +19656,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>87</v>
@@ -19291,7 +19685,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>87</v>

--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769B8279-28F1-4F6B-BDBE-3BB3AE502596}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7494B089-F5F6-4AC7-B101-20572BCD4F3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3510" yWindow="-10910" windowWidth="19420" windowHeight="10420" firstSheet="26" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <sheet name="HiFiCorp" sheetId="30" r:id="rId51"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IC!$A$1:$S$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IC!$A$1:$S$71</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="707">
   <si>
     <t>testSuitID</t>
   </si>
@@ -1981,9 +1981,6 @@
     <t>Wish_List_Validate_Add_All_to_Cart</t>
   </si>
   <si>
-    <t>Clear_cart</t>
-  </si>
-  <si>
     <t>Cart_Add_the_same_Item_multiple_Times_and_Verify</t>
   </si>
   <si>
@@ -2264,6 +2261,9 @@
   </si>
   <si>
     <t>Cart_Remove_some_items_from_the_cart_and_verify_GuestUser</t>
+  </si>
+  <si>
+    <t>Clear_Cart_RegisteredUser</t>
   </si>
 </sst>
 </file>
@@ -2365,7 +2365,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2456,6 +2456,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2501,7 +2507,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2897,8 +2903,11 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2908,7 +2917,157 @@
     <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="114">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4235,11 +4394,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
+      <selection pane="bottomRight" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4316,10 +4475,10 @@
         <v>301</v>
       </c>
       <c r="R1" s="145" t="s">
+        <v>672</v>
+      </c>
+      <c r="S1" s="145" t="s">
         <v>673</v>
-      </c>
-      <c r="S1" s="145" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="29">
@@ -5424,13 +5583,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="124" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C30" s="69" t="s">
         <v>261</v>
       </c>
       <c r="D30" s="124" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E30" s="125"/>
       <c r="F30" s="124" t="s">
@@ -5470,13 +5629,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="124" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C31" s="69" t="s">
         <v>261</v>
       </c>
       <c r="D31" s="124" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E31" s="125"/>
       <c r="F31" s="124" t="s">
@@ -5501,7 +5660,7 @@
         <v>88</v>
       </c>
       <c r="M31" s="126" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N31" s="126" t="s">
         <v>109</v>
@@ -6318,7 +6477,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="130" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C53" s="63"/>
       <c r="D53" s="130" t="s">
@@ -6334,7 +6493,7 @@
         <v>407</v>
       </c>
       <c r="H53" s="129" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I53" s="129" t="s">
         <v>409</v>
@@ -6361,7 +6520,7 @@
         <v>407</v>
       </c>
       <c r="H54" s="129" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I54" s="58" t="s">
         <v>409</v>
@@ -6370,7 +6529,7 @@
         <v>31</v>
       </c>
       <c r="K54" s="129" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L54" s="58" t="s">
         <v>409</v>
@@ -6389,13 +6548,13 @@
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G55" s="58" t="s">
         <v>407</v>
       </c>
       <c r="H55" s="129" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I55" s="58" t="s">
         <v>409</v>
@@ -6431,7 +6590,7 @@
         <v>407</v>
       </c>
       <c r="H56" s="129" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I56" s="58" t="s">
         <v>409</v>
@@ -6464,7 +6623,7 @@
         <v>407</v>
       </c>
       <c r="H57" s="129" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I57" s="58" t="s">
         <v>409</v>
@@ -6473,7 +6632,7 @@
         <v>31</v>
       </c>
       <c r="K57" s="129" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L57" s="57"/>
       <c r="M57" s="57"/>
@@ -6481,17 +6640,17 @@
       <c r="O57" s="57"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="161">
+      <c r="A58" s="160">
         <v>57</v>
       </c>
       <c r="B58" s="65" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C58" s="67">
         <v>265</v>
       </c>
       <c r="D58" s="65" t="s">
-        <v>612</v>
+        <v>696</v>
       </c>
       <c r="E58" s="66" t="s">
         <v>499</v>
@@ -6520,17 +6679,17 @@
       <c r="Q58" s="57"/>
     </row>
     <row r="59" spans="1:17">
-      <c r="A59" s="161">
+      <c r="A59" s="160">
         <v>58</v>
       </c>
       <c r="B59" s="65" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C59" s="67">
         <v>271</v>
       </c>
       <c r="D59" s="65" t="s">
-        <v>613</v>
+        <v>698</v>
       </c>
       <c r="E59" s="66" t="s">
         <v>499</v>
@@ -6538,7 +6697,7 @@
       <c r="F59" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="124" t="s">
+      <c r="G59" s="58" t="s">
         <v>154</v>
       </c>
       <c r="H59" s="58" t="s">
@@ -6556,17 +6715,17 @@
       <c r="P59" s="57"/>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="161">
+      <c r="A60" s="160">
         <v>59</v>
       </c>
       <c r="B60" s="65" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C60" s="67">
         <v>266</v>
       </c>
       <c r="D60" s="65" t="s">
-        <v>614</v>
+        <v>700</v>
       </c>
       <c r="E60" s="66" t="s">
         <v>499</v>
@@ -6574,7 +6733,7 @@
       <c r="F60" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="G60" s="124" t="s">
+      <c r="G60" s="58" t="s">
         <v>154</v>
       </c>
       <c r="H60" s="58" t="s">
@@ -6591,17 +6750,17 @@
       <c r="O60" s="57"/>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="161">
+      <c r="A61" s="160">
         <v>60</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C61" s="67">
         <v>270</v>
       </c>
       <c r="D61" s="65" t="s">
-        <v>615</v>
+        <v>702</v>
       </c>
       <c r="E61" s="66" t="s">
         <v>499</v>
@@ -6609,7 +6768,7 @@
       <c r="F61" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="G61" s="124" t="s">
+      <c r="G61" s="58" t="s">
         <v>154</v>
       </c>
       <c r="H61" s="58" t="s">
@@ -6630,15 +6789,15 @@
       <c r="Q61" s="57"/>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" s="161">
+      <c r="A62" s="160">
         <v>61</v>
       </c>
       <c r="B62" s="65" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C62" s="67"/>
       <c r="D62" s="65" t="s">
-        <v>616</v>
+        <v>704</v>
       </c>
       <c r="E62" s="66" t="s">
         <v>499</v>
@@ -6646,7 +6805,7 @@
       <c r="F62" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="124" t="s">
+      <c r="G62" s="58" t="s">
         <v>154</v>
       </c>
       <c r="H62" s="58" t="s">
@@ -6667,24 +6826,28 @@
       <c r="Q62" s="57"/>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" s="161">
-        <v>74</v>
-      </c>
-      <c r="B63" s="65" t="s">
-        <v>698</v>
-      </c>
-      <c r="C63" s="67"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="66"/>
+      <c r="A63" s="157">
+        <v>62</v>
+      </c>
+      <c r="B63" s="70" t="s">
+        <v>616</v>
+      </c>
+      <c r="C63" s="67">
+        <v>305</v>
+      </c>
+      <c r="D63" s="65" t="s">
+        <v>577</v>
+      </c>
+      <c r="E63" s="66" t="s">
+        <v>196</v>
+      </c>
       <c r="F63" s="124" t="s">
         <v>9</v>
       </c>
       <c r="G63" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63" s="58" t="s">
-        <v>574</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="H63" s="57"/>
       <c r="I63" s="57"/>
       <c r="J63" s="57"/>
       <c r="K63" s="57"/>
@@ -6694,321 +6857,308 @@
       <c r="O63" s="57"/>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="161">
-        <v>75</v>
-      </c>
-      <c r="B64" s="65" t="s">
-        <v>700</v>
+      <c r="A64" s="157">
+        <v>63</v>
+      </c>
+      <c r="B64" s="152" t="s">
+        <v>685</v>
       </c>
       <c r="C64" s="67">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="D64" s="65" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
       <c r="E64" s="66" t="s">
-        <v>499</v>
+        <v>196</v>
       </c>
       <c r="F64" s="124" t="s">
         <v>9</v>
       </c>
       <c r="G64" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H64" s="65"/>
+        <v>578</v>
+      </c>
+      <c r="H64" s="57"/>
       <c r="I64" s="57"/>
       <c r="J64" s="57"/>
       <c r="K64" s="57"/>
       <c r="L64" s="57"/>
       <c r="M64" s="57"/>
       <c r="N64" s="57"/>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="161">
-        <v>76</v>
-      </c>
-      <c r="B65" s="65" t="s">
-        <v>702</v>
+      <c r="O64" s="57"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="157">
+        <v>64</v>
+      </c>
+      <c r="B65" s="71" t="s">
+        <v>617</v>
       </c>
       <c r="C65" s="67">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="D65" s="65" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="E65" s="66" t="s">
-        <v>499</v>
+        <v>196</v>
       </c>
       <c r="F65" s="124" t="s">
         <v>9</v>
       </c>
       <c r="G65" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65" s="65"/>
+        <v>579</v>
+      </c>
+      <c r="H65" s="57"/>
       <c r="I65" s="57"/>
       <c r="J65" s="57"/>
       <c r="K65" s="57"/>
       <c r="L65" s="57"/>
-      <c r="M65" s="57"/>
-      <c r="N65" s="57"/>
-      <c r="O65" s="57"/>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="161">
-        <v>77</v>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="157">
+        <v>65</v>
       </c>
       <c r="B66" s="65" t="s">
-        <v>704</v>
+        <v>618</v>
       </c>
       <c r="C66" s="67">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="D66" s="65" t="s">
-        <v>615</v>
-      </c>
-      <c r="E66" s="66" t="s">
-        <v>499</v>
+        <v>618</v>
+      </c>
+      <c r="E66" s="65" t="s">
+        <v>196</v>
       </c>
       <c r="F66" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="G66" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H66" s="65" t="s">
-        <v>575</v>
-      </c>
+      <c r="G66" s="57" t="s">
+        <v>580</v>
+      </c>
+      <c r="H66" s="57"/>
       <c r="I66" s="57"/>
       <c r="J66" s="57"/>
       <c r="K66" s="57"/>
       <c r="L66" s="57"/>
-      <c r="M66" s="57"/>
-      <c r="N66" s="57"/>
-      <c r="O66" s="57"/>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="161">
-        <v>78</v>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="157">
+        <v>66</v>
       </c>
       <c r="B67" s="65" t="s">
-        <v>706</v>
-      </c>
-      <c r="C67" s="67"/>
+        <v>619</v>
+      </c>
+      <c r="C67" s="67">
+        <v>315</v>
+      </c>
       <c r="D67" s="65" t="s">
-        <v>616</v>
-      </c>
-      <c r="E67" s="66" t="s">
-        <v>499</v>
+        <v>619</v>
+      </c>
+      <c r="E67" s="65" t="s">
+        <v>196</v>
       </c>
       <c r="F67" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="G67" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H67" s="65" t="s">
-        <v>576</v>
-      </c>
+      <c r="G67" s="66" t="s">
+        <v>581</v>
+      </c>
+      <c r="H67" s="57"/>
       <c r="I67" s="57"/>
       <c r="J67" s="57"/>
       <c r="K67" s="57"/>
       <c r="L67" s="57"/>
-      <c r="M67" s="57"/>
-      <c r="N67" s="57"/>
-      <c r="O67" s="57"/>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="157">
-        <v>62</v>
-      </c>
-      <c r="B68" s="70" t="s">
-        <v>617</v>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="154">
+        <v>67</v>
+      </c>
+      <c r="B68" s="65" t="s">
+        <v>620</v>
       </c>
       <c r="C68" s="67">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="D68" s="65" t="s">
-        <v>577</v>
-      </c>
-      <c r="E68" s="66" t="s">
+        <v>620</v>
+      </c>
+      <c r="E68" s="65" t="s">
         <v>196</v>
       </c>
       <c r="F68" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="G68" s="58" t="s">
-        <v>578</v>
-      </c>
-      <c r="H68" s="57"/>
+      <c r="G68" s="57" t="s">
+        <v>581</v>
+      </c>
+      <c r="H68" s="65" t="s">
+        <v>582</v>
+      </c>
       <c r="I68" s="57"/>
       <c r="J68" s="57"/>
       <c r="K68" s="57"/>
       <c r="L68" s="57"/>
-      <c r="M68" s="57"/>
-      <c r="N68" s="57"/>
-      <c r="O68" s="57"/>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="157">
-        <v>63</v>
-      </c>
-      <c r="B69" s="152" t="s">
-        <v>686</v>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="154">
+        <v>68</v>
+      </c>
+      <c r="B69" s="65" t="s">
+        <v>621</v>
       </c>
       <c r="C69" s="67">
-        <v>305</v>
-      </c>
-      <c r="D69" s="65" t="s">
-        <v>577</v>
-      </c>
-      <c r="E69" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="D69" s="123" t="s">
+        <v>621</v>
+      </c>
+      <c r="E69" s="65" t="s">
         <v>196</v>
       </c>
       <c r="F69" s="124" t="s">
         <v>9</v>
       </c>
       <c r="G69" s="58" t="s">
-        <v>578</v>
-      </c>
-      <c r="H69" s="57"/>
-      <c r="I69" s="57"/>
-      <c r="J69" s="57"/>
+        <v>31</v>
+      </c>
+      <c r="H69" s="58"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="65"/>
       <c r="K69" s="57"/>
       <c r="L69" s="57"/>
-      <c r="M69" s="57"/>
-      <c r="N69" s="57"/>
-      <c r="O69" s="57"/>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="157">
-        <v>64</v>
-      </c>
-      <c r="B70" s="71" t="s">
-        <v>618</v>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="154">
+        <v>69</v>
+      </c>
+      <c r="B70" s="65" t="s">
+        <v>622</v>
       </c>
       <c r="C70" s="67">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="D70" s="65" t="s">
-        <v>618</v>
-      </c>
-      <c r="E70" s="66" t="s">
-        <v>196</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="E70" s="57"/>
       <c r="F70" s="124" t="s">
         <v>9</v>
       </c>
       <c r="G70" s="58" t="s">
-        <v>579</v>
-      </c>
-      <c r="H70" s="57"/>
+        <v>31</v>
+      </c>
+      <c r="H70" s="57" t="s">
+        <v>583</v>
+      </c>
       <c r="I70" s="57"/>
       <c r="J70" s="57"/>
       <c r="K70" s="57"/>
       <c r="L70" s="57"/>
     </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="157">
-        <v>65</v>
+    <row r="71" spans="1:12">
+      <c r="A71" s="153">
+        <v>70</v>
       </c>
       <c r="B71" s="65" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C71" s="67">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="D71" s="65" t="s">
-        <v>619</v>
-      </c>
-      <c r="E71" s="65" t="s">
-        <v>196</v>
+        <v>623</v>
+      </c>
+      <c r="E71" s="66" t="s">
+        <v>584</v>
       </c>
       <c r="F71" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="G71" s="57" t="s">
-        <v>580</v>
-      </c>
-      <c r="H71" s="57"/>
-      <c r="I71" s="57"/>
-      <c r="J71" s="57"/>
-      <c r="K71" s="57"/>
-      <c r="L71" s="57"/>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="157">
-        <v>66</v>
-      </c>
-      <c r="B72" s="65" t="s">
-        <v>620</v>
-      </c>
-      <c r="C72" s="67">
-        <v>315</v>
-      </c>
-      <c r="D72" s="65" t="s">
-        <v>620</v>
-      </c>
-      <c r="E72" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="F72" s="124" t="s">
+      <c r="G71" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="H71" s="58" t="s">
+        <v>408</v>
+      </c>
+      <c r="I71" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="J71" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="K71" s="58" t="s">
+        <v>585</v>
+      </c>
+      <c r="L71" s="58" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="158">
+        <v>73</v>
+      </c>
+      <c r="B72" s="131" t="s">
+        <v>692</v>
+      </c>
+      <c r="C72" s="61">
+        <v>249</v>
+      </c>
+      <c r="D72" s="131" t="s">
+        <v>692</v>
+      </c>
+      <c r="E72" s="131" t="s">
+        <v>693</v>
+      </c>
+      <c r="F72" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="G72" s="66" t="s">
-        <v>581</v>
-      </c>
-      <c r="H72" s="57"/>
-      <c r="I72" s="57"/>
-      <c r="J72" s="57"/>
-      <c r="K72" s="57"/>
-      <c r="L72" s="57"/>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="154">
-        <v>67</v>
+      <c r="G72" s="129" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="160">
+        <v>74</v>
       </c>
       <c r="B73" s="65" t="s">
-        <v>621</v>
-      </c>
-      <c r="C73" s="67">
-        <v>318</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="C73" s="67"/>
       <c r="D73" s="65" t="s">
-        <v>621</v>
-      </c>
-      <c r="E73" s="65" t="s">
-        <v>196</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="E73" s="66"/>
       <c r="F73" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="G73" s="57" t="s">
-        <v>581</v>
-      </c>
-      <c r="H73" s="65" t="s">
-        <v>582</v>
+      <c r="G73" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" s="58" t="s">
+        <v>574</v>
       </c>
       <c r="I73" s="57"/>
       <c r="J73" s="57"/>
       <c r="K73" s="57"/>
       <c r="L73" s="57"/>
     </row>
-    <row r="74" spans="1:15">
-      <c r="A74" s="154">
-        <v>68</v>
+    <row r="74" spans="1:12">
+      <c r="A74" s="160">
+        <v>75</v>
       </c>
       <c r="B74" s="65" t="s">
-        <v>622</v>
+        <v>699</v>
       </c>
       <c r="C74" s="67">
-        <v>331</v>
-      </c>
-      <c r="D74" s="123" t="s">
-        <v>622</v>
-      </c>
-      <c r="E74" s="65" t="s">
-        <v>196</v>
+        <v>271</v>
+      </c>
+      <c r="D74" s="65" t="s">
+        <v>699</v>
+      </c>
+      <c r="E74" s="66" t="s">
+        <v>499</v>
       </c>
       <c r="F74" s="124" t="s">
         <v>9</v>
@@ -7016,146 +7166,173 @@
       <c r="G74" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H74" s="58"/>
-      <c r="I74" s="65"/>
-      <c r="J74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="57"/>
       <c r="K74" s="57"/>
       <c r="L74" s="57"/>
     </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="154">
-        <v>69</v>
+    <row r="75" spans="1:12">
+      <c r="A75" s="160">
+        <v>76</v>
       </c>
       <c r="B75" s="65" t="s">
-        <v>623</v>
+        <v>701</v>
       </c>
       <c r="C75" s="67">
-        <v>335</v>
+        <v>266</v>
       </c>
       <c r="D75" s="65" t="s">
-        <v>623</v>
-      </c>
-      <c r="E75" s="57"/>
+        <v>701</v>
+      </c>
+      <c r="E75" s="66" t="s">
+        <v>499</v>
+      </c>
       <c r="F75" s="124" t="s">
         <v>9</v>
       </c>
       <c r="G75" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H75" s="57" t="s">
-        <v>583</v>
-      </c>
+      <c r="H75" s="65"/>
       <c r="I75" s="57"/>
       <c r="J75" s="57"/>
       <c r="K75" s="57"/>
       <c r="L75" s="57"/>
     </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="153">
-        <v>70</v>
+    <row r="76" spans="1:12">
+      <c r="A76" s="160">
+        <v>77</v>
       </c>
       <c r="B76" s="65" t="s">
-        <v>624</v>
+        <v>703</v>
       </c>
       <c r="C76" s="67">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D76" s="65" t="s">
-        <v>624</v>
+        <v>703</v>
       </c>
       <c r="E76" s="66" t="s">
-        <v>584</v>
+        <v>499</v>
       </c>
       <c r="F76" s="124" t="s">
         <v>9</v>
       </c>
       <c r="G76" s="58" t="s">
-        <v>407</v>
-      </c>
-      <c r="H76" s="58" t="s">
-        <v>408</v>
-      </c>
-      <c r="I76" s="58" t="s">
-        <v>409</v>
-      </c>
-      <c r="J76" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="K76" s="58" t="s">
-        <v>585</v>
-      </c>
-      <c r="L76" s="58" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77" s="158">
-        <v>73</v>
-      </c>
-      <c r="B77" s="131" t="s">
-        <v>693</v>
-      </c>
-      <c r="C77" s="61">
-        <v>249</v>
-      </c>
-      <c r="D77" s="131" t="s">
-        <v>693</v>
-      </c>
-      <c r="E77" s="131" t="s">
-        <v>694</v>
-      </c>
-      <c r="F77" s="131" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="129" t="s">
-        <v>696</v>
-      </c>
+      <c r="H76" s="65" t="s">
+        <v>575</v>
+      </c>
+      <c r="I76" s="57"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="57"/>
+      <c r="L76" s="57"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="161">
+        <v>78</v>
+      </c>
+      <c r="B77" s="65" t="s">
+        <v>705</v>
+      </c>
+      <c r="C77" s="67"/>
+      <c r="D77" s="65" t="s">
+        <v>705</v>
+      </c>
+      <c r="E77" s="66" t="s">
+        <v>499</v>
+      </c>
+      <c r="F77" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" s="65" t="s">
+        <v>576</v>
+      </c>
+      <c r="I77" s="57"/>
+      <c r="J77" s="57"/>
+      <c r="K77" s="57"/>
+      <c r="L77" s="57"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B53:B54">
-    <cfRule type="duplicateValues" dxfId="98" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68:B1048576 B33:B49 B1:B31 B55:B63">
-    <cfRule type="duplicateValues" dxfId="97" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="96" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="95" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B52">
-    <cfRule type="duplicateValues" dxfId="94" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="duplicateValues" dxfId="93" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:A54 A2:A31 A33:A49">
-    <cfRule type="duplicateValues" dxfId="92" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="duplicateValues" dxfId="91" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="90" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="89" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72">
+    <cfRule type="duplicateValues" dxfId="104" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74">
+    <cfRule type="duplicateValues" dxfId="103" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75">
+    <cfRule type="duplicateValues" dxfId="102" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76">
+    <cfRule type="duplicateValues" dxfId="101" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77">
+    <cfRule type="duplicateValues" dxfId="100" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="duplicateValues" dxfId="99" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="duplicateValues" dxfId="98" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="duplicateValues" dxfId="97" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="duplicateValues" dxfId="96" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="duplicateValues" dxfId="95" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="duplicateValues" dxfId="94" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74">
+    <cfRule type="duplicateValues" dxfId="93" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75">
+    <cfRule type="duplicateValues" dxfId="92" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D76">
+    <cfRule type="duplicateValues" dxfId="91" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="duplicateValues" dxfId="88" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="87" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
-    <cfRule type="duplicateValues" dxfId="86" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="duplicateValues" dxfId="85" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="duplicateValues" dxfId="84" priority="1"/>
+  <conditionalFormatting sqref="B78:B1048576 B33:B49 B1:B31 B55:B73">
+    <cfRule type="duplicateValues" dxfId="89" priority="70"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -7343,23 +7520,19 @@
     <hyperlink ref="J56" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
     <hyperlink ref="J57" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
     <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="I59" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
     <hyperlink ref="J58" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="G59:G60" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="I61" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="I62" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="G74" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="J76" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="G76" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="H76" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="I76" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="K76" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="L76" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="G69" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="J71" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="G71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="H71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="I71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="K71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="L71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
     <hyperlink ref="G56:G57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
     <hyperlink ref="I56:I57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="G68" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="G69" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="G75" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="G63" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="G64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="G70" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
     <hyperlink ref="H40" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
     <hyperlink ref="I40" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
     <hyperlink ref="I41:I42" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
@@ -7392,15 +7565,16 @@
     <hyperlink ref="H54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{0E18B1F8-9186-42F4-8530-23AF563BF6B2}"/>
     <hyperlink ref="I54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{7B638116-682E-4260-A375-FDF510D5A2D9}"/>
     <hyperlink ref="K54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{05E5242C-1360-4A14-B570-9DBB6D84B394}"/>
-    <hyperlink ref="G77" location="'ic_NavigetoWishlist++'!A1" display="NavigateToWishlist_VerifyLoginPageAppear" xr:uid="{569BCBC1-14CB-4BDD-94B1-584A32FF0AE5}"/>
-    <hyperlink ref="G64" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{3CB13DEB-3034-49A9-B462-26183D3B6C73}"/>
-    <hyperlink ref="I60" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{65874D81-208B-406D-8BAA-05FDD5436D6D}"/>
-    <hyperlink ref="G60:G65" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{2BC93EEF-5E89-4239-B2AA-557EADD3A0A7}"/>
-    <hyperlink ref="G65" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{21643C6F-B89A-41F5-A8CC-D6B78B60AC6D}"/>
-    <hyperlink ref="G66" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{277B8CC8-2F10-470D-A563-9D1039ED8B31}"/>
-    <hyperlink ref="G61" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{AE84F51F-CF8B-46D3-B750-AB0CE6156770}"/>
-    <hyperlink ref="G67" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{AC74479E-FD2D-4273-8B19-9B3413C0A200}"/>
-    <hyperlink ref="G62" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{41B06D1D-C704-4DEE-BA20-51F00BE80BFC}"/>
+    <hyperlink ref="G72" location="'ic_NavigetoWishlist++'!A1" display="NavigateToWishlist_VerifyLoginPageAppear" xr:uid="{569BCBC1-14CB-4BDD-94B1-584A32FF0AE5}"/>
+    <hyperlink ref="G76" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{277B8CC8-2F10-470D-A563-9D1039ED8B31}"/>
+    <hyperlink ref="G77" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{AC74479E-FD2D-4273-8B19-9B3413C0A200}"/>
+    <hyperlink ref="G59:G62" location="'ic_login++'!A1" display="ic_login" xr:uid="{7C96EF6F-8B2E-4FCF-AF61-B06CFD7806C5}"/>
+    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{1D3A9A1A-7D07-4F7C-BE71-0D31D834470D}"/>
+    <hyperlink ref="H59:H73" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{2EB727F0-993C-4694-B301-14FEC0916972}"/>
+    <hyperlink ref="I58" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{89385743-9000-4FE4-AE61-B98AF0084038}"/>
+    <hyperlink ref="I59:I62" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{060EEFBD-D295-499C-8F6E-343759BD18E0}"/>
+    <hyperlink ref="G73" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{15A0E568-FF04-4796-B5EE-800E5CDA4B24}"/>
+    <hyperlink ref="G74:G75" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{AFD27A9B-6D46-4594-85DF-6C71EF2B60A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7539,10 +7713,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="62" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="61" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0900-000000000000}">
@@ -7666,10 +7840,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="60" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="59" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0A00-000000000000}">
@@ -7922,10 +8096,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="58" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="57" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3" xr:uid="{00000000-0002-0000-0B00-000000000000}">
@@ -8005,7 +8179,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>308</v>
@@ -8017,10 +8191,10 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="56" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="55" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8072,10 +8246,10 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="53" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8466,7 +8640,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>92</v>
@@ -8516,7 +8690,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>92</v>
@@ -8805,22 +8979,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="52" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="51" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="50" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="49" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B21">
-    <cfRule type="duplicateValues" dxfId="48" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A21">
-    <cfRule type="duplicateValues" dxfId="47" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="47"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10" xr:uid="{00000000-0002-0000-0F00-000000000000}">
@@ -9484,22 +9658,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="46" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="45" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="43" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B21">
-    <cfRule type="duplicateValues" dxfId="42" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A21">
-    <cfRule type="duplicateValues" dxfId="41" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="29"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576" xr:uid="{00000000-0002-0000-1000-000000000000}">
@@ -9959,10 +10133,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1100-000000000000}">
@@ -10229,7 +10403,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C7" s="82" t="s">
         <v>87</v>
@@ -10238,10 +10412,10 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="83" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="82" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="69"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10687,7 +10861,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B12:B14">
-    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10922,7 +11096,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B13:B15">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1400-000000000000}">
@@ -11027,16 +11201,16 @@
         <v>396</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>76</v>
@@ -11048,16 +11222,16 @@
         <v>73</v>
       </c>
       <c r="M2" s="25" t="s">
+        <v>663</v>
+      </c>
+      <c r="N2" s="25" t="s">
         <v>664</v>
       </c>
-      <c r="N2" s="25" t="s">
-        <v>665</v>
-      </c>
       <c r="O2" s="26" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1">
@@ -11227,13 +11401,13 @@
         <v>396</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G6" s="25" t="s">
+        <v>674</v>
+      </c>
+      <c r="H6" s="25" t="s">
         <v>675</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>676</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>74</v>
@@ -11248,16 +11422,16 @@
         <v>73</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="N6" s="25" t="s">
         <v>74</v>
       </c>
       <c r="O6" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="P6" s="27" t="s">
         <v>678</v>
-      </c>
-      <c r="P6" s="27" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="4" customFormat="1" ht="29">
@@ -11277,16 +11451,16 @@
         <v>396</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G7" s="25" t="s">
+        <v>648</v>
+      </c>
+      <c r="H7" s="25" t="s">
         <v>649</v>
       </c>
-      <c r="H7" s="25" t="s">
-        <v>650</v>
-      </c>
       <c r="I7" s="25" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>76</v>
@@ -11295,19 +11469,19 @@
         <v>73</v>
       </c>
       <c r="L7" s="25" t="s">
+        <v>646</v>
+      </c>
+      <c r="M7" s="25" t="s">
         <v>647</v>
       </c>
-      <c r="M7" s="25" t="s">
-        <v>648</v>
-      </c>
       <c r="N7" s="25" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O7" s="26" t="s">
+        <v>651</v>
+      </c>
+      <c r="P7" s="138" t="s">
         <v>652</v>
-      </c>
-      <c r="P7" s="138" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="4" customFormat="1">
@@ -11789,16 +11963,16 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B10:B12">
-    <cfRule type="duplicateValues" dxfId="36" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="35" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B33">
-    <cfRule type="duplicateValues" dxfId="34" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A33">
-    <cfRule type="duplicateValues" dxfId="33" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
@@ -11970,16 +12144,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B6">
-    <cfRule type="duplicateValues" dxfId="32" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A6">
-    <cfRule type="duplicateValues" dxfId="31" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B12">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A12">
-    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12390,10 +12564,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A13">
-    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12655,7 +12829,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12882,7 +13056,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13009,7 +13183,7 @@
         <v>225504</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -13026,7 +13200,7 @@
         <v>225504</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29">
@@ -13043,7 +13217,7 @@
         <v>225504</v>
       </c>
       <c r="E8" s="116" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -13060,7 +13234,7 @@
         <v>225504</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -13128,7 +13302,7 @@
         <v>225504</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="29">
@@ -13145,7 +13319,7 @@
         <v>225504</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -13281,7 +13455,7 @@
         <v>225504</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -13349,7 +13523,7 @@
         <v>225504</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -13366,7 +13540,7 @@
         <v>225504</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -13469,7 +13643,7 @@
         <v>225504</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -13486,7 +13660,7 @@
         <v>225504</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -13526,19 +13700,19 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B33:B35">
-    <cfRule type="duplicateValues" dxfId="24" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A32">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B32">
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13844,7 +14018,7 @@
         <v>70</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C9" s="77">
         <v>1</v>
@@ -13855,16 +14029,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2 B4">
-    <cfRule type="duplicateValues" dxfId="81" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A4">
-    <cfRule type="duplicateValues" dxfId="80" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="79" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="78" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -13877,13 +14051,13 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -13934,7 +14108,7 @@
         <v>568</v>
       </c>
       <c r="K1" s="147" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -13951,7 +14125,7 @@
         <v>147</v>
       </c>
       <c r="E2" s="84" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F2" s="83" t="s">
         <v>401</v>
@@ -14079,7 +14253,7 @@
         <v>147</v>
       </c>
       <c r="E6" s="116" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F6" s="83" t="s">
         <v>401</v>
@@ -14111,7 +14285,7 @@
         <v>147</v>
       </c>
       <c r="E7" s="84" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F7" s="83" t="s">
         <v>405</v>
@@ -14207,7 +14381,7 @@
         <v>147</v>
       </c>
       <c r="E10" s="83" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F10" s="83" t="s">
         <v>405</v>
@@ -14239,7 +14413,7 @@
         <v>147</v>
       </c>
       <c r="E11" s="114" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F11" s="83" t="s">
         <v>401</v>
@@ -14417,44 +14591,44 @@
         <v>569</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11" s="114" customFormat="1">
       <c r="A17" s="57">
+        <v>57</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>706</v>
+      </c>
+      <c r="C17" s="123">
+        <v>1</v>
+      </c>
+      <c r="D17" s="116" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="123" t="s">
+        <v>592</v>
+      </c>
+      <c r="F17" s="123" t="s">
+        <v>401</v>
+      </c>
+      <c r="G17" s="123" t="s">
+        <v>402</v>
+      </c>
+      <c r="H17" s="123">
+        <v>1</v>
+      </c>
+      <c r="I17" s="123">
+        <v>6</v>
+      </c>
+      <c r="J17" s="123" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="57">
         <v>58</v>
       </c>
-      <c r="B17" s="65" t="s">
-        <v>613</v>
-      </c>
-      <c r="C17" s="86">
-        <v>1</v>
-      </c>
-      <c r="D17" s="84" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="86" t="s">
-        <v>592</v>
-      </c>
-      <c r="F17" s="86" t="s">
-        <v>401</v>
-      </c>
-      <c r="G17" s="86" t="s">
-        <v>402</v>
-      </c>
-      <c r="H17" s="86">
-        <v>3</v>
-      </c>
-      <c r="I17" s="86">
-        <v>6</v>
-      </c>
-      <c r="J17" s="86" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="57">
-        <v>59</v>
-      </c>
       <c r="B18" s="65" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C18" s="86">
         <v>1</v>
@@ -14472,7 +14646,7 @@
         <v>402</v>
       </c>
       <c r="H18" s="86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" s="86">
         <v>6</v>
@@ -14481,12 +14655,12 @@
         <v>570</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="57">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C19" s="86">
         <v>1</v>
@@ -14494,8 +14668,8 @@
       <c r="D19" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="116" t="s">
-        <v>670</v>
+      <c r="E19" s="86" t="s">
+        <v>592</v>
       </c>
       <c r="F19" s="86" t="s">
         <v>401</v>
@@ -14513,12 +14687,12 @@
         <v>570</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="29">
-      <c r="A20" s="86">
-        <v>61</v>
-      </c>
-      <c r="B20" s="86" t="s">
-        <v>616</v>
+    <row r="20" spans="1:11">
+      <c r="A20" s="57">
+        <v>60</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>614</v>
       </c>
       <c r="C20" s="86">
         <v>1</v>
@@ -14527,7 +14701,7 @@
         <v>147</v>
       </c>
       <c r="E20" s="116" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="F20" s="86" t="s">
         <v>401</v>
@@ -14535,8 +14709,8 @@
       <c r="G20" s="86" t="s">
         <v>402</v>
       </c>
-      <c r="H20" s="86" t="s">
-        <v>590</v>
+      <c r="H20" s="86">
+        <v>1</v>
       </c>
       <c r="I20" s="86">
         <v>6</v>
@@ -14545,112 +14719,279 @@
         <v>570</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="57">
-        <v>68</v>
+    <row r="21" spans="1:11" ht="29">
+      <c r="A21" s="86">
+        <v>61</v>
       </c>
       <c r="B21" s="86" t="s">
-        <v>622</v>
-      </c>
-      <c r="C21" s="86" t="s">
-        <v>87</v>
+        <v>615</v>
+      </c>
+      <c r="C21" s="86">
+        <v>1</v>
       </c>
       <c r="D21" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="86" t="s">
-        <v>593</v>
+      <c r="E21" s="116" t="s">
+        <v>683</v>
       </c>
       <c r="F21" s="86" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G21" s="86" t="s">
-        <v>594</v>
-      </c>
-      <c r="H21" s="86">
-        <v>1</v>
-      </c>
-      <c r="I21" s="86" t="s">
-        <v>309</v>
+        <v>402</v>
+      </c>
+      <c r="H21" s="86" t="s">
+        <v>590</v>
+      </c>
+      <c r="I21" s="86">
+        <v>6</v>
       </c>
       <c r="J21" s="86" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="86">
-        <v>69</v>
+    <row r="22" spans="1:11">
+      <c r="A22" s="57">
+        <v>68</v>
       </c>
       <c r="B22" s="86" t="s">
-        <v>623</v>
-      </c>
-      <c r="C22" s="86">
-        <v>1</v>
+        <v>621</v>
+      </c>
+      <c r="C22" s="86" t="s">
+        <v>87</v>
       </c>
       <c r="D22" s="84" t="s">
         <v>147</v>
       </c>
       <c r="E22" s="86" t="s">
-        <v>683</v>
+        <v>593</v>
       </c>
       <c r="F22" s="86" t="s">
         <v>405</v>
       </c>
       <c r="G22" s="86" t="s">
-        <v>595</v>
-      </c>
-      <c r="H22" s="86" t="s">
-        <v>410</v>
-      </c>
-      <c r="I22" s="86">
-        <v>6</v>
+        <v>594</v>
+      </c>
+      <c r="H22" s="86">
+        <v>1</v>
+      </c>
+      <c r="I22" s="86" t="s">
+        <v>309</v>
       </c>
       <c r="J22" s="86" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="86">
-        <v>70</v>
-      </c>
-      <c r="B23" s="65" t="s">
-        <v>624</v>
-      </c>
-      <c r="C23" s="86" t="s">
-        <v>87</v>
+        <v>69</v>
+      </c>
+      <c r="B23" s="86" t="s">
+        <v>622</v>
+      </c>
+      <c r="C23" s="86">
+        <v>1</v>
       </c>
       <c r="D23" s="84" t="s">
         <v>147</v>
       </c>
       <c r="E23" s="86" t="s">
-        <v>596</v>
+        <v>682</v>
       </c>
       <c r="F23" s="86" t="s">
         <v>405</v>
       </c>
       <c r="G23" s="86" t="s">
+        <v>595</v>
+      </c>
+      <c r="H23" s="86" t="s">
+        <v>410</v>
+      </c>
+      <c r="I23" s="86">
+        <v>6</v>
+      </c>
+      <c r="J23" s="86" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="86">
+        <v>70</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>623</v>
+      </c>
+      <c r="C24" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="86" t="s">
+        <v>596</v>
+      </c>
+      <c r="F24" s="86" t="s">
+        <v>405</v>
+      </c>
+      <c r="G24" s="86" t="s">
         <v>406</v>
       </c>
-      <c r="H23" s="86" t="s">
+      <c r="H24" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="86" t="s">
+      <c r="I24" s="86" t="s">
         <v>309</v>
       </c>
-      <c r="J23" s="86" t="s">
+      <c r="J24" s="86" t="s">
         <v>569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="114" customFormat="1">
+      <c r="A25" s="123">
+        <v>75</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>699</v>
+      </c>
+      <c r="C25" s="123">
+        <v>1</v>
+      </c>
+      <c r="D25" s="116" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="123" t="s">
+        <v>593</v>
+      </c>
+      <c r="F25" s="123" t="s">
+        <v>405</v>
+      </c>
+      <c r="G25" s="123" t="s">
+        <v>402</v>
+      </c>
+      <c r="H25" s="123">
+        <v>3</v>
+      </c>
+      <c r="I25" s="123" t="s">
+        <v>309</v>
+      </c>
+      <c r="J25" s="123" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="83">
+        <v>76</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>701</v>
+      </c>
+      <c r="C26" s="123">
+        <v>1</v>
+      </c>
+      <c r="D26" s="116" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="123" t="s">
+        <v>593</v>
+      </c>
+      <c r="F26" s="123" t="s">
+        <v>401</v>
+      </c>
+      <c r="G26" s="123" t="s">
+        <v>402</v>
+      </c>
+      <c r="H26" s="123">
+        <v>1</v>
+      </c>
+      <c r="I26" s="123" t="s">
+        <v>309</v>
+      </c>
+      <c r="J26" s="123" t="s">
+        <v>570</v>
+      </c>
+      <c r="K26" s="114"/>
+    </row>
+    <row r="27" spans="1:11" s="114" customFormat="1">
+      <c r="A27" s="114">
+        <v>77</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>703</v>
+      </c>
+      <c r="C27" s="123">
+        <v>1</v>
+      </c>
+      <c r="D27" s="116" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="123" t="s">
+        <v>593</v>
+      </c>
+      <c r="F27" s="123" t="s">
+        <v>401</v>
+      </c>
+      <c r="G27" s="123" t="s">
+        <v>402</v>
+      </c>
+      <c r="H27" s="123">
+        <v>1</v>
+      </c>
+      <c r="I27" s="123">
+        <v>6</v>
+      </c>
+      <c r="J27" s="123" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="114" customFormat="1" ht="29">
+      <c r="A28" s="114">
+        <v>78</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>705</v>
+      </c>
+      <c r="C28" s="123">
+        <v>1</v>
+      </c>
+      <c r="D28" s="116" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="116" t="s">
+        <v>683</v>
+      </c>
+      <c r="F28" s="123" t="s">
+        <v>401</v>
+      </c>
+      <c r="G28" s="123" t="s">
+        <v>402</v>
+      </c>
+      <c r="H28" s="123" t="s">
+        <v>590</v>
+      </c>
+      <c r="I28" s="123">
+        <v>6</v>
+      </c>
+      <c r="J28" s="123" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B10:B12">
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:B28">
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13" xr:uid="{00000000-0002-0000-1D00-000000000000}">
@@ -14673,13 +15014,13 @@
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$18</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D23</xm:sqref>
+          <xm:sqref>D2:D28</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-1D00-000004000000}">
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D24:D1048576</xm:sqref>
+          <xm:sqref>D29:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15019,10 +15360,10 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -15063,10 +15404,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="95" t="s">
+        <v>679</v>
+      </c>
+      <c r="E2" s="94" t="s">
         <v>680</v>
-      </c>
-      <c r="E2" s="94" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -15080,10 +15421,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="116" t="s">
+        <v>679</v>
+      </c>
+      <c r="E3" s="94" t="s">
         <v>680</v>
-      </c>
-      <c r="E3" s="94" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -15097,10 +15438,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="116" t="s">
+        <v>679</v>
+      </c>
+      <c r="E4" s="94" t="s">
         <v>680</v>
-      </c>
-      <c r="E4" s="94" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -15114,10 +15455,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="116" t="s">
+        <v>679</v>
+      </c>
+      <c r="E5" s="94" t="s">
         <v>680</v>
-      </c>
-      <c r="E5" s="94" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -15131,10 +15472,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="116" t="s">
+        <v>679</v>
+      </c>
+      <c r="E6" s="94" t="s">
         <v>680</v>
-      </c>
-      <c r="E6" s="94" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -15148,10 +15489,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="116" t="s">
+        <v>679</v>
+      </c>
+      <c r="E7" s="94" t="s">
         <v>680</v>
-      </c>
-      <c r="E7" s="94" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -15199,10 +15540,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="116" t="s">
+        <v>679</v>
+      </c>
+      <c r="E10" s="94" t="s">
         <v>680</v>
-      </c>
-      <c r="E10" s="94" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -15216,10 +15557,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="116" t="s">
+        <v>679</v>
+      </c>
+      <c r="E11" s="94" t="s">
         <v>680</v>
-      </c>
-      <c r="E11" s="94" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -15233,10 +15574,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E12" s="94" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -15250,10 +15591,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E13" s="94" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -15278,62 +15619,133 @@
         <v>57</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>612</v>
+        <v>696</v>
       </c>
       <c r="C15" s="95">
         <v>1</v>
       </c>
       <c r="D15" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E15" s="94" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="123" customFormat="1">
       <c r="A16" s="57">
+        <v>58</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>698</v>
+      </c>
+      <c r="C16" s="116">
+        <v>1</v>
+      </c>
+      <c r="D16" s="94" t="s">
+        <v>658</v>
+      </c>
+      <c r="E16" s="94" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="123" customFormat="1">
+      <c r="A17" s="57">
+        <v>59</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>700</v>
+      </c>
+      <c r="C17" s="116">
+        <v>1</v>
+      </c>
+      <c r="D17" s="94" t="s">
+        <v>658</v>
+      </c>
+      <c r="E17" s="94" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="123" customFormat="1">
+      <c r="A18" s="57">
+        <v>60</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>702</v>
+      </c>
+      <c r="C18" s="116">
+        <v>1</v>
+      </c>
+      <c r="D18" s="94" t="s">
+        <v>658</v>
+      </c>
+      <c r="E18" s="94" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="123" customFormat="1">
+      <c r="A19" s="57">
+        <v>61</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>704</v>
+      </c>
+      <c r="C19" s="116">
+        <v>1</v>
+      </c>
+      <c r="D19" s="94" t="s">
+        <v>658</v>
+      </c>
+      <c r="E19" s="94" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14" customHeight="1">
+      <c r="A20" s="57">
         <v>64</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B20" s="65" t="s">
+        <v>617</v>
+      </c>
+      <c r="C20" s="95">
+        <v>1</v>
+      </c>
+      <c r="D20" s="95" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="94" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="57">
+        <v>65</v>
+      </c>
+      <c r="B21" s="65" t="s">
         <v>618</v>
       </c>
-      <c r="C16" s="95">
-        <v>1</v>
-      </c>
-      <c r="D16" s="95" t="s">
+      <c r="C21" s="95">
+        <v>1</v>
+      </c>
+      <c r="D21" s="95" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="94" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="57">
-        <v>65</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>619</v>
-      </c>
-      <c r="C17" s="95">
-        <v>1</v>
-      </c>
-      <c r="D17" s="95" t="s">
-        <v>169</v>
-      </c>
-      <c r="E17" s="94" t="s">
+      <c r="E21" s="94" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B12:B14">
-    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A11">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B19">
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="Password@123" xr:uid="{00000000-0004-0000-2200-000000000000}"/>
@@ -15341,8 +15753,8 @@
     <hyperlink ref="E9" r:id="rId3" xr:uid="{00000000-0004-0000-2200-000002000000}"/>
     <hyperlink ref="E12" r:id="rId4" display="Password@123" xr:uid="{00000000-0004-0000-2200-000003000000}"/>
     <hyperlink ref="E14" r:id="rId5" xr:uid="{00000000-0004-0000-2200-000004000000}"/>
-    <hyperlink ref="E16" r:id="rId6" xr:uid="{00000000-0004-0000-2200-000006000000}"/>
-    <hyperlink ref="E17" r:id="rId7" xr:uid="{00000000-0004-0000-2200-000007000000}"/>
+    <hyperlink ref="E20" r:id="rId6" xr:uid="{00000000-0004-0000-2200-000006000000}"/>
+    <hyperlink ref="E21" r:id="rId7" xr:uid="{00000000-0004-0000-2200-000007000000}"/>
     <hyperlink ref="D12" r:id="rId8" xr:uid="{00000000-0004-0000-2200-000008000000}"/>
     <hyperlink ref="E13" r:id="rId9" display="Password@123" xr:uid="{00000000-0004-0000-2200-00000A000000}"/>
     <hyperlink ref="E3" r:id="rId10" display="Password@123" xr:uid="{00000000-0004-0000-2200-00000B000000}"/>
@@ -15355,17 +15767,24 @@
     <hyperlink ref="D13" r:id="rId17" xr:uid="{00000000-0004-0000-2200-000009000000}"/>
     <hyperlink ref="D15" r:id="rId18" xr:uid="{81428C68-028B-4893-9B4A-CD71D7D22D03}"/>
     <hyperlink ref="E15" r:id="rId19" display="Password@123" xr:uid="{7AE80BCF-FE0D-40EE-8F1D-4CCBC9DED593}"/>
+    <hyperlink ref="D16" r:id="rId20" xr:uid="{90AEBB31-FE04-467A-971F-6F069860908F}"/>
+    <hyperlink ref="E16" r:id="rId21" display="Password@123" xr:uid="{0FA053E1-94DC-4378-9E2E-1156A759E150}"/>
+    <hyperlink ref="D17" r:id="rId22" xr:uid="{E53C6B61-E9DF-4B4D-A577-91D44E651E99}"/>
+    <hyperlink ref="D18" r:id="rId23" xr:uid="{CDDE7AF4-B91E-430A-BE1E-B69F5B97DDFA}"/>
+    <hyperlink ref="D19" r:id="rId24" xr:uid="{CB6A59C3-52AB-4E3F-B9CB-935599461DF5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId25"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -15385,7 +15804,7 @@
         <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -15393,84 +15812,123 @@
         <v>57</v>
       </c>
       <c r="B2" s="103" t="s">
-        <v>612</v>
+        <v>696</v>
       </c>
       <c r="C2" s="101">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="102">
-        <v>58</v>
-      </c>
-      <c r="B3" s="103" t="s">
-        <v>613</v>
-      </c>
-      <c r="C3" s="101">
-        <v>1</v>
+    <row r="3" spans="1:4" s="112" customFormat="1">
+      <c r="A3" s="106">
+        <v>57</v>
+      </c>
+      <c r="B3" s="136" t="s">
+        <v>696</v>
+      </c>
+      <c r="C3" s="120">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="102">
+        <v>58</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>698</v>
+      </c>
+      <c r="C4" s="101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="102">
         <v>59</v>
       </c>
-      <c r="B4" s="103" t="s">
-        <v>614</v>
-      </c>
-      <c r="C4" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="112" customFormat="1">
-      <c r="A5" s="106">
+      <c r="B5" s="65" t="s">
+        <v>700</v>
+      </c>
+      <c r="C5" s="101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="112" customFormat="1">
+      <c r="A6" s="106">
+        <v>60</v>
+      </c>
+      <c r="B6" s="162" t="s">
+        <v>702</v>
+      </c>
+      <c r="C6" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="112" customFormat="1">
+      <c r="A7" s="106">
+        <v>61</v>
+      </c>
+      <c r="B7" s="162" t="s">
+        <v>704</v>
+      </c>
+      <c r="C7" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="112" customFormat="1">
+      <c r="A8" s="106">
         <v>31</v>
       </c>
-      <c r="B5" s="136" t="s">
-        <v>632</v>
-      </c>
-      <c r="C5" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="141">
+      <c r="B8" s="136" t="s">
+        <v>631</v>
+      </c>
+      <c r="C8" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="141">
         <v>39</v>
       </c>
-      <c r="B6" s="131" t="s">
+      <c r="B9" s="131" t="s">
         <v>512</v>
       </c>
-      <c r="C6" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="61">
+      <c r="C9" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="61">
         <v>40</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B10" s="131" t="s">
         <v>513</v>
       </c>
-      <c r="C7" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="61">
+      <c r="C10" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="61">
         <v>41</v>
       </c>
-      <c r="B8" s="131" t="s">
+      <c r="B11" s="131" t="s">
         <v>514</v>
       </c>
-      <c r="C8" s="120">
+      <c r="C11" s="120">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B6:B8">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+  <conditionalFormatting sqref="B9:B11">
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A8">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+  <conditionalFormatting sqref="A9:A11">
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B7">
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15612,7 +16070,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C2" s="111">
         <v>1</v>
@@ -15696,7 +16154,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="136" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C2" s="120" t="s">
         <v>87</v>
@@ -15817,10 +16275,10 @@
         <v>420</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F3" s="74" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G3" s="74">
         <v>11</v>
@@ -15840,10 +16298,10 @@
         <v>420</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F4" s="91" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G4" s="74">
         <v>11</v>
@@ -15863,10 +16321,10 @@
         <v>420</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G5" s="72">
         <v>11</v>
@@ -15886,10 +16344,10 @@
         <v>420</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F6" s="91" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G6" s="72">
         <v>11</v>
@@ -15900,7 +16358,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C7" s="74" t="s">
         <v>87</v>
@@ -15909,10 +16367,10 @@
         <v>420</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F7" s="91" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G7" s="72">
         <v>11</v>
@@ -15923,7 +16381,7 @@
         <v>73</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C8" s="91">
         <v>1</v>
@@ -15932,10 +16390,10 @@
         <v>420</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F8" s="91" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G8" s="123">
         <v>12</v>
@@ -15944,10 +16402,10 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="77" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="76" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -16223,7 +16681,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -16305,10 +16763,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>126</v>
@@ -16317,7 +16775,7 @@
         <v>128</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="16" t="s">
@@ -16339,10 +16797,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>689</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>690</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>126</v>
@@ -16351,7 +16809,7 @@
         <v>128</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16" t="s">
@@ -16373,10 +16831,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>126</v>
@@ -16386,7 +16844,7 @@
       </c>
       <c r="H4" s="24"/>
       <c r="I4" s="24" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>127</v>
@@ -16786,7 +17244,7 @@
         <v>66</v>
       </c>
       <c r="K1" s="88" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L1" s="88" t="s">
         <v>122</v>
@@ -16860,7 +17318,7 @@
         <v>94</v>
       </c>
       <c r="O2" s="119" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="P2" s="114" t="s">
         <v>92</v>
@@ -16889,10 +17347,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="114" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E3" s="114" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F3" s="115" t="s">
         <v>126</v>
@@ -16910,7 +17368,7 @@
         <v>2222224</v>
       </c>
       <c r="K3" s="119" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L3" s="114" t="s">
         <v>115</v>
@@ -16922,7 +17380,7 @@
         <v>94</v>
       </c>
       <c r="O3" s="119" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="P3" s="114" t="s">
         <v>92</v>
@@ -17013,10 +17471,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="114" t="s">
+        <v>637</v>
+      </c>
+      <c r="E5" s="114" t="s">
         <v>638</v>
-      </c>
-      <c r="E5" s="114" t="s">
-        <v>639</v>
       </c>
       <c r="F5" s="115" t="s">
         <v>126</v>
@@ -17034,7 +17492,7 @@
         <v>2222226</v>
       </c>
       <c r="K5" s="119" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L5" s="114" t="s">
         <v>115</v>
@@ -17046,7 +17504,7 @@
         <v>94</v>
       </c>
       <c r="O5" s="119" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P5" s="114" t="s">
         <v>92</v>
@@ -17075,10 +17533,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="114" t="s">
+        <v>639</v>
+      </c>
+      <c r="E6" s="114" t="s">
         <v>640</v>
-      </c>
-      <c r="E6" s="114" t="s">
-        <v>641</v>
       </c>
       <c r="F6" s="115" t="s">
         <v>126</v>
@@ -17096,7 +17554,7 @@
         <v>2222227</v>
       </c>
       <c r="K6" s="119" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L6" s="114" t="s">
         <v>115</v>
@@ -17108,7 +17566,7 @@
         <v>94</v>
       </c>
       <c r="O6" s="119" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P6" s="114" t="s">
         <v>92</v>
@@ -17143,7 +17601,7 @@
         <v>95</v>
       </c>
       <c r="F7" s="139" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G7" s="118" t="s">
         <v>116</v>
@@ -17158,7 +17616,7 @@
         <v>2222227</v>
       </c>
       <c r="K7" s="119" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L7" s="114" t="s">
         <v>115</v>
@@ -18694,7 +19152,7 @@
         <v>35</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -19041,22 +19499,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A21">
-    <cfRule type="duplicateValues" dxfId="75" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B21">
-    <cfRule type="duplicateValues" dxfId="74" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="73" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="72" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A26">
-    <cfRule type="duplicateValues" dxfId="71" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="duplicateValues" dxfId="70" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
@@ -19363,7 +19821,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="duplicateValues" dxfId="69" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19423,10 +19881,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="68" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="67" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19583,10 +20041,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="66" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="65" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0700-000000000000}">
@@ -19711,10 +20169,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="64" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="63" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0800-000000000000}">
@@ -19732,15 +20190,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -19749,7 +20198,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E4315169E4449459811E1A2A421A5D2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="484de8a0a7035cbf3240ac5ef037eda8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="38ec8e4d-8506-4d8b-b040-96d37469ddf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40b4f8b6fbe630a6badbf346a8d0e64c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19898,15 +20347,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19923,7 +20373,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED871C4-2A4D-4B74-98A2-587321F60978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19940,4 +20390,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BB7A2D-D301-491A-809A-2EAF7DAFC09E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3510" yWindow="-10910" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3510" yWindow="-10905" windowWidth="19425" windowHeight="10425" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -70,12 +69,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1D00-000001000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1D00-000002000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,12 +113,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2A00-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2887" uniqueCount="719">
   <si>
     <t>testSuitID</t>
   </si>
@@ -2299,12 +2298,15 @@
   </si>
   <si>
     <t>automation12@gmail.com</t>
+  </si>
+  <si>
+    <t>getnumberOfEmails</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -2928,9 +2930,9 @@
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="116">
     <dxf>
@@ -4149,7 +4151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4182,26 +4184,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4234,23 +4219,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4426,35 +4394,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F62" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F83" sqref="F83"/>
+      <selection pane="bottomRight" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" style="61" customWidth="1"/>
-    <col min="2" max="2" width="93.54296875" style="130" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.7265625" style="130" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="130" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" style="130" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.26953125" style="130" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.54296875" style="130" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.453125" style="130" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.7265625" style="130" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.453125" style="130" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.453125" style="130" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="27.1796875" style="130" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="31.453125" style="130" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.1796875" style="130" customWidth="1"/>
-    <col min="18" max="18" width="20.1796875" style="130" customWidth="1"/>
-    <col min="19" max="16384" width="9.1796875" style="130"/>
+    <col min="2" max="2" width="93.5703125" style="130" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.7109375" style="130" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="130" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="130" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" style="130" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" style="130" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="130" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" style="130" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" style="130" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" style="130" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="27.140625" style="130" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="31.42578125" style="130" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="130" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" style="130" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="130"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -4516,7 +4484,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="29">
+    <row r="2" spans="1:19" ht="30">
       <c r="A2" s="139">
         <v>1</v>
       </c>
@@ -4556,7 +4524,7 @@
       <c r="O2" s="123"/>
       <c r="P2" s="123"/>
     </row>
-    <row r="3" spans="1:19" ht="29">
+    <row r="3" spans="1:19" ht="30">
       <c r="A3" s="139">
         <v>2</v>
       </c>
@@ -4597,7 +4565,7 @@
       <c r="P3" s="123"/>
       <c r="Q3" s="123"/>
     </row>
-    <row r="4" spans="1:19" ht="29">
+    <row r="4" spans="1:19" ht="30">
       <c r="A4" s="139">
         <v>3</v>
       </c>
@@ -4636,7 +4604,7 @@
       <c r="P4" s="123"/>
       <c r="Q4" s="123"/>
     </row>
-    <row r="5" spans="1:19" ht="29">
+    <row r="5" spans="1:19" ht="30">
       <c r="A5" s="139">
         <v>4</v>
       </c>
@@ -4677,7 +4645,7 @@
       <c r="P5" s="123"/>
       <c r="Q5" s="123"/>
     </row>
-    <row r="6" spans="1:19" ht="29">
+    <row r="6" spans="1:19" ht="30">
       <c r="A6" s="139">
         <v>5</v>
       </c>
@@ -4718,7 +4686,7 @@
       <c r="P6" s="123"/>
       <c r="Q6" s="123"/>
     </row>
-    <row r="7" spans="1:19" ht="29">
+    <row r="7" spans="1:19" ht="30">
       <c r="A7" s="136">
         <v>6</v>
       </c>
@@ -4757,7 +4725,7 @@
       <c r="P7" s="123"/>
       <c r="Q7" s="123"/>
     </row>
-    <row r="8" spans="1:19" ht="29">
+    <row r="8" spans="1:19" ht="30">
       <c r="A8" s="136">
         <v>7</v>
       </c>
@@ -4796,7 +4764,7 @@
       <c r="P8" s="123"/>
       <c r="Q8" s="123"/>
     </row>
-    <row r="9" spans="1:19" ht="29">
+    <row r="9" spans="1:19" ht="30">
       <c r="A9" s="136">
         <v>8</v>
       </c>
@@ -4833,7 +4801,7 @@
       <c r="P9" s="123"/>
       <c r="Q9" s="123"/>
     </row>
-    <row r="10" spans="1:19" ht="29">
+    <row r="10" spans="1:19" ht="30">
       <c r="A10" s="136">
         <v>9</v>
       </c>
@@ -4872,7 +4840,7 @@
       <c r="P10" s="123"/>
       <c r="Q10" s="123"/>
     </row>
-    <row r="11" spans="1:19" ht="29">
+    <row r="11" spans="1:19" ht="30">
       <c r="A11" s="136">
         <v>10</v>
       </c>
@@ -4911,7 +4879,7 @@
       <c r="P11" s="123"/>
       <c r="Q11" s="123"/>
     </row>
-    <row r="12" spans="1:19" ht="29">
+    <row r="12" spans="1:19" ht="30">
       <c r="A12" s="136">
         <v>11</v>
       </c>
@@ -4950,7 +4918,7 @@
       <c r="P12" s="123"/>
       <c r="Q12" s="123"/>
     </row>
-    <row r="13" spans="1:19" ht="29">
+    <row r="13" spans="1:19" ht="30">
       <c r="A13" s="136">
         <v>12</v>
       </c>
@@ -4989,7 +4957,7 @@
       <c r="P13" s="123"/>
       <c r="Q13" s="123"/>
     </row>
-    <row r="14" spans="1:19" ht="29">
+    <row r="14" spans="1:19" ht="30">
       <c r="A14" s="139">
         <v>13</v>
       </c>
@@ -5028,7 +4996,7 @@
       <c r="P14" s="123"/>
       <c r="Q14" s="123"/>
     </row>
-    <row r="15" spans="1:19" ht="29">
+    <row r="15" spans="1:19" ht="30">
       <c r="A15" s="139">
         <v>14</v>
       </c>
@@ -5067,7 +5035,7 @@
       <c r="P15" s="123"/>
       <c r="Q15" s="123"/>
     </row>
-    <row r="16" spans="1:19" ht="29">
+    <row r="16" spans="1:19" ht="30">
       <c r="A16" s="146">
         <v>15</v>
       </c>
@@ -5110,7 +5078,7 @@
       <c r="P16" s="123"/>
       <c r="Q16" s="123"/>
     </row>
-    <row r="17" spans="1:17" ht="29">
+    <row r="17" spans="1:17" ht="30">
       <c r="A17" s="146">
         <v>16</v>
       </c>
@@ -5153,7 +5121,7 @@
       <c r="P17" s="123"/>
       <c r="Q17" s="123"/>
     </row>
-    <row r="18" spans="1:17" ht="29">
+    <row r="18" spans="1:17" ht="30">
       <c r="A18" s="146">
         <v>17</v>
       </c>
@@ -5196,7 +5164,7 @@
       <c r="P18" s="123"/>
       <c r="Q18" s="123"/>
     </row>
-    <row r="19" spans="1:17" ht="29">
+    <row r="19" spans="1:17" ht="30">
       <c r="A19" s="146">
         <v>18</v>
       </c>
@@ -5239,7 +5207,7 @@
       <c r="P19" s="123"/>
       <c r="Q19" s="123"/>
     </row>
-    <row r="20" spans="1:17" ht="29">
+    <row r="20" spans="1:17" ht="30">
       <c r="A20" s="146">
         <v>19</v>
       </c>
@@ -5282,7 +5250,7 @@
       <c r="P20" s="123"/>
       <c r="Q20" s="123"/>
     </row>
-    <row r="21" spans="1:17" ht="29">
+    <row r="21" spans="1:17" ht="30">
       <c r="A21" s="146">
         <v>20</v>
       </c>
@@ -6744,7 +6712,7 @@
       <c r="G59" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="H59" s="58" t="s">
+      <c r="H59" s="111" t="s">
         <v>574</v>
       </c>
       <c r="I59" s="58" t="s">
@@ -6780,7 +6748,7 @@
       <c r="G60" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="H60" s="58" t="s">
+      <c r="H60" s="111" t="s">
         <v>574</v>
       </c>
       <c r="I60" s="58" t="s">
@@ -6815,7 +6783,7 @@
       <c r="G61" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="H61" s="58" t="s">
+      <c r="H61" s="111" t="s">
         <v>574</v>
       </c>
       <c r="I61" s="58" t="s">
@@ -6852,7 +6820,7 @@
       <c r="G62" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="H62" s="58" t="s">
+      <c r="H62" s="111" t="s">
         <v>574</v>
       </c>
       <c r="I62" s="58" t="s">
@@ -6891,7 +6859,7 @@
       <c r="G63" s="58" t="s">
         <v>578</v>
       </c>
-      <c r="H63" s="57"/>
+      <c r="H63" s="111"/>
       <c r="I63" s="57"/>
       <c r="J63" s="57"/>
       <c r="K63" s="57"/>
@@ -6922,7 +6890,7 @@
       <c r="G64" s="58" t="s">
         <v>578</v>
       </c>
-      <c r="H64" s="57"/>
+      <c r="H64" s="111"/>
       <c r="I64" s="57"/>
       <c r="J64" s="57"/>
       <c r="K64" s="57"/>
@@ -6953,7 +6921,7 @@
       <c r="G65" s="58" t="s">
         <v>579</v>
       </c>
-      <c r="H65" s="57"/>
+      <c r="H65" s="111"/>
       <c r="I65" s="57"/>
       <c r="J65" s="57"/>
       <c r="K65" s="57"/>
@@ -6981,7 +6949,7 @@
       <c r="G66" s="57" t="s">
         <v>580</v>
       </c>
-      <c r="H66" s="57"/>
+      <c r="H66" s="111"/>
       <c r="I66" s="57"/>
       <c r="J66" s="57"/>
       <c r="K66" s="57"/>
@@ -7009,7 +6977,7 @@
       <c r="G67" s="65" t="s">
         <v>581</v>
       </c>
-      <c r="H67" s="57"/>
+      <c r="H67" s="111"/>
       <c r="I67" s="57"/>
       <c r="J67" s="57"/>
       <c r="K67" s="57"/>
@@ -7019,7 +6987,7 @@
       <c r="A68" s="150">
         <v>67</v>
       </c>
-      <c r="B68" s="64" t="s">
+      <c r="B68" s="65" t="s">
         <v>620</v>
       </c>
       <c r="C68" s="66">
@@ -7034,16 +7002,19 @@
       <c r="F68" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="G68" s="57" t="s">
+      <c r="G68" s="123" t="s">
+        <v>718</v>
+      </c>
+      <c r="H68" s="111" t="s">
         <v>581</v>
       </c>
-      <c r="H68" s="64" t="s">
+      <c r="I68" s="65" t="s">
         <v>582</v>
       </c>
-      <c r="I68" s="57"/>
       <c r="J68" s="57"/>
       <c r="K68" s="57"/>
       <c r="L68" s="57"/>
+      <c r="M68" s="57"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="160">
@@ -7067,7 +7038,7 @@
       <c r="G69" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H69" s="58"/>
+      <c r="H69" s="111"/>
       <c r="I69" s="64"/>
       <c r="J69" s="64"/>
       <c r="K69" s="57"/>
@@ -7093,7 +7064,7 @@
       <c r="G70" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H70" s="57" t="s">
+      <c r="H70" s="111" t="s">
         <v>583</v>
       </c>
       <c r="I70" s="57"/>
@@ -7118,24 +7089,27 @@
         <v>584</v>
       </c>
       <c r="F71" s="123" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="123" t="s">
+        <v>718</v>
+      </c>
+      <c r="H71" s="58" t="s">
         <v>407</v>
       </c>
-      <c r="H71" s="58" t="s">
+      <c r="I71" s="112" t="s">
         <v>408</v>
       </c>
-      <c r="I71" s="58" t="s">
+      <c r="J71" s="58" t="s">
         <v>409</v>
       </c>
-      <c r="J71" s="58" t="s">
+      <c r="K71" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="K71" s="58" t="s">
+      <c r="L71" s="58" t="s">
         <v>585</v>
       </c>
-      <c r="L71" s="58" t="s">
+      <c r="M71" s="58" t="s">
         <v>586</v>
       </c>
     </row>
@@ -7157,6 +7131,7 @@
       <c r="G72" s="58" t="s">
         <v>712</v>
       </c>
+      <c r="H72" s="111"/>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="163">
@@ -7176,6 +7151,7 @@
       <c r="G73" s="58" t="s">
         <v>714</v>
       </c>
+      <c r="H73" s="111"/>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="151">
@@ -7199,6 +7175,7 @@
       <c r="G74" s="128" t="s">
         <v>695</v>
       </c>
+      <c r="H74" s="111"/>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="153">
@@ -7218,7 +7195,7 @@
       <c r="G75" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H75" s="58" t="s">
+      <c r="H75" s="111" t="s">
         <v>574</v>
       </c>
       <c r="I75" s="57"/>
@@ -7464,253 +7441,252 @@
     <cfRule type="duplicateValues" dxfId="89" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J7" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G10:G14" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H10" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H11:H14" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G15" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="H15" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G16" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H16" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="I16" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G17" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G18" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G19" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G20" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H17" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="H18" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H19" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H20" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I17" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="I18" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I19" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="I20" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="H21" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I21" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G27" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="H27" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="L27" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="N27" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G24" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G25" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G22" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="G23" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G26" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J10:J15" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="L17:L21" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="L16" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="I27" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="J27" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="M27" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="K27" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="O27" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="G28" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G30" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="H28" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="H30" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="L28" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="L30" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="N28" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="N30" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="I28" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="I30" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="J28" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="J30" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="M28" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="M30" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="K28" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="K30" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="O28" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="O30" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="H31" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="K31" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="N31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="I31" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="L31" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="J31" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="O31" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="G29" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="H29" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="L29" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="N29" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="I29" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="J29" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="M29" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="K29" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="O29" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="G32" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="H32" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="L32" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="I32" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J32" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="M32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="K32" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="O32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="P32" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="G34" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="H37" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="H33" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="I33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="J33" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="K33" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="L33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="M33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="N33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="G33" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="H34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="J34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="K34" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="L34" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="M34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="N34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="O34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="M35" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="H47" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="H48" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="I47" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="I48" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="J47" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="J48" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="G47" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="G48" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="G49" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="G40" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="M40" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="G41:G42" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="M40:M42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="J54" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="M47" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="N47" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="O47" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="N32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="L48" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="L47" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="K48" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="K47" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="G39" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="G38" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="G53:G54" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="H53" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="I53" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="G35" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="H35" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="I35" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="J35" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="K35" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="L35" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="G36" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="H36" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="I36" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="J36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="K37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="I37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="K36" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="L37" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="H38" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="H39" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="G50" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="G50:G52" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="K2" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="J2" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="K3" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="K5" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="J3" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="J4" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="J5" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="K6" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="J6" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="K16" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="K17:K21" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="J16" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="J17:J21" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="I2" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="I3:I6" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="J55" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="I55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="G55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="K55" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="J56" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="J57" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="J58" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="G69" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="J71" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="G71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="H71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="I71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="K71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="L71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="G56:G57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="I56:I57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="G63" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="G64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="G70" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="H40" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="I40" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="I41:I42" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="H41:H42" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="K41" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="K42" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="K40" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="J42" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="J40:J41" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="L42" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="L40:L41" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="M41" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="N41" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="N40" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="N42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="O42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="O40:O41" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="Q41" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="Q40" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="Q42" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="R40" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="R41:R42" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="S41" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="S40" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="S42" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="L54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{43F28687-BDD4-4576-9CB2-335425C70DAB}"/>
-    <hyperlink ref="H55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{F7B3758D-DA28-4354-BB8E-4C52273B9C3C}"/>
-    <hyperlink ref="H56:H57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{23E952BA-0F16-4536-A7E8-246446D5A12E}"/>
-    <hyperlink ref="K57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{8D6E5A07-449A-45E0-82D1-0BB597EC06AA}"/>
-    <hyperlink ref="H54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{0E18B1F8-9186-42F4-8530-23AF563BF6B2}"/>
-    <hyperlink ref="I54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{7B638116-682E-4260-A375-FDF510D5A2D9}"/>
-    <hyperlink ref="K54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{05E5242C-1360-4A14-B570-9DBB6D84B394}"/>
-    <hyperlink ref="G74" location="'ic_NavigetoWishlist++'!A1" display="NavigateToWishlist_VerifyLoginPageAppear" xr:uid="{569BCBC1-14CB-4BDD-94B1-584A32FF0AE5}"/>
-    <hyperlink ref="G78" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{277B8CC8-2F10-470D-A563-9D1039ED8B31}"/>
-    <hyperlink ref="G79" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{AC74479E-FD2D-4273-8B19-9B3413C0A200}"/>
-    <hyperlink ref="G59:G62" location="'ic_login++'!A1" display="ic_login" xr:uid="{7C96EF6F-8B2E-4FCF-AF61-B06CFD7806C5}"/>
-    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{1D3A9A1A-7D07-4F7C-BE71-0D31D834470D}"/>
-    <hyperlink ref="H59:H75" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{2EB727F0-993C-4694-B301-14FEC0916972}"/>
-    <hyperlink ref="I58" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{89385743-9000-4FE4-AE61-B98AF0084038}"/>
-    <hyperlink ref="I59:I62" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{060EEFBD-D295-499C-8F6E-343759BD18E0}"/>
-    <hyperlink ref="G75" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{15A0E568-FF04-4796-B5EE-800E5CDA4B24}"/>
-    <hyperlink ref="G76:G77" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{AFD27A9B-6D46-4594-85DF-6C71EF2B60A0}"/>
-    <hyperlink ref="G80" location="'ic_login++'!A1" display="ic_login" xr:uid="{75F0765E-3244-4F18-A287-F591941CB7B0}"/>
-    <hyperlink ref="H80" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{5A327A68-0FCA-42F7-8957-156F2007EBFE}"/>
-    <hyperlink ref="I80" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{7ABE5EF3-5D2B-4B5F-8EF1-D851A61018E9}"/>
-    <hyperlink ref="L80" location="'ic_login++'!A1" display="ic_login" xr:uid="{50BB8B51-5D00-4A24-9C2A-0BD4DBEAD9BE}"/>
-    <hyperlink ref="G43" location="'ic_login++'!A1" display="ic_login" xr:uid="{C4848167-EF5D-4FCE-8EAF-A0008D28F298}"/>
-    <hyperlink ref="H43" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{76E8D0DB-4DA5-4365-8969-4FA2E30707A0}"/>
-    <hyperlink ref="I43" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{F27235DF-7B56-4EA2-B612-B305C65AEFAA}"/>
+    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
+    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
+    <hyperlink ref="J7" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G10:G14" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H10" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="H11:H14" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="G15" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H15" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="G16" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H16" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I16" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G17" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G18" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G19" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G20" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H17" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H18" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H19" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H20" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I17" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I18" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I19" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I20" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H21" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I21" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G27" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H27" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L27" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N27" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="G24" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G25" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G22" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G23" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G26" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="J10:J15" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="L17:L21" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="L16" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="I27" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J27" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M27" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K27" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O27" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G28" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G30" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H28" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="H30" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L28" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="L30" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N28" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="N30" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="I28" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="I30" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J28" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="J30" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M28" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="M30" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K28" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="K30" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O28" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="O30" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H31" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="K31" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="I31" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="L31" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="J31" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O31" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G29" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H29" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L29" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N29" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="I29" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J29" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M29" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K29" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O29" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G32" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H32" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L32" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I32" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J32" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K32" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="P32" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G34" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H37" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H33" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="I33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J33" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="K33" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="L33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="M33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="N33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G33" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
+    <hyperlink ref="H34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
+    <hyperlink ref="J34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K34" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L34" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="M34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="N34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="M35" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="H47" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
+    <hyperlink ref="H48" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
+    <hyperlink ref="I47" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
+    <hyperlink ref="I48" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
+    <hyperlink ref="J47" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
+    <hyperlink ref="J48" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
+    <hyperlink ref="G47" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G48" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G49" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID"/>
+    <hyperlink ref="G40" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="M40" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G41:G42" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="M40:M42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="J54" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="M47" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N47" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter"/>
+    <hyperlink ref="O47" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification"/>
+    <hyperlink ref="N32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="L48" location="'EnterContact++'!A1" display="EnterContact"/>
+    <hyperlink ref="L47" location="'EnterContact++'!A1" display="EnterContact"/>
+    <hyperlink ref="K48" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
+    <hyperlink ref="K47" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
+    <hyperlink ref="G39" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G38" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G53:G54" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="H53" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I53" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="G35" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
+    <hyperlink ref="H35" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="I35" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="J35" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="K35" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="L35" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="G36" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H36" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
+    <hyperlink ref="I36" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="J36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="I37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
+    <hyperlink ref="K36" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L37" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="H38" location="'giftCardReport++'!A1" display="giftCardReport"/>
+    <hyperlink ref="H39" location="'giftCardReport++'!A1" display="giftCardReport"/>
+    <hyperlink ref="G50" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
+    <hyperlink ref="G50:G52" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
+    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="K2" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="J2" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K3" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="K5" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="J3" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="J4" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="J5" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K6" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="J6" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K16" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K17:K21" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="J16" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="J17:J21" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="I2" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="I3:I6" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="J55" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="G55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="K55" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart"/>
+    <hyperlink ref="J56" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="J57" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="J58" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="G69" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="K71" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="I71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="J71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="L71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail"/>
+    <hyperlink ref="M71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification"/>
+    <hyperlink ref="G56:G57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="I56:I57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="G63" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
+    <hyperlink ref="G64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
+    <hyperlink ref="G70" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H40" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="I40" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I41:I42" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H41:H42" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="K41" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K42" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K40" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J42" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="J40:J41" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L42" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L40:L41" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M41" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N41" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="N40" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="N42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="O42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O40:O41" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="Q41" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="Q40" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="Q42" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="R40" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="R41:R42" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="S41" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="S40" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="S42" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="L54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="H55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="H56:H57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="K57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="H54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="K54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="G74" location="'ic_NavigetoWishlist++'!A1" display="NavigateToWishlist_VerifyLoginPageAppear"/>
+    <hyperlink ref="G78" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G79" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G59:G62" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="I58" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I59:I62" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G75" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G76:G77" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G80" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H80" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="I80" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="L80" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G43" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H43" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="I43" location="'ProductSearch++'!A1" display="ProductSearch"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7718,29 +7694,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="36" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7265625" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="36"/>
+    <col min="13" max="13" width="17.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -7874,10 +7850,10 @@
     <cfRule type="duplicateValues" dxfId="70" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7886,25 +7862,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.26953125" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="36"/>
+    <col min="4" max="4" width="22.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -8002,13 +7978,13 @@
     <cfRule type="duplicateValues" dxfId="68" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"ABSA,AFRICAN BANK,BIDVEST.CAPITEC,FNB,INVESTEC,NEDBANK,STANDARD BANK SA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0800-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>"English,Afrikaans,Sesotho,Xhosa,Zulu"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8017,28 +7993,28 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.26953125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="36" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7265625" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="36"/>
+    <col min="10" max="10" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -8154,7 +8130,7 @@
     <cfRule type="duplicateValues" dxfId="66" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8162,7 +8138,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Preferred Store'!$A$2:$A$71</xm:f>
           </x14:formula1>
@@ -8175,24 +8151,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="36"/>
+    <col min="8" max="8" width="18.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8281,7 +8257,7 @@
     <cfRule type="duplicateValues" dxfId="64" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Domestic Worker,Company Employed,Government Employed,Full-time Housewife,Self Employed - Company Owner,Self Employed - Informal Trader,Student,Unemployed,Pensioner/Retired,Contract Worker,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8291,38 +8267,38 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.1796875" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" style="36" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="36" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" style="36"/>
-    <col min="15" max="15" width="23.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7265625" style="36" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" style="36" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7265625" style="36" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.1796875" style="36"/>
+    <col min="14" max="14" width="9.140625" style="36"/>
+    <col min="15" max="15" width="23.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -8537,25 +8513,25 @@
     <cfRule type="duplicateValues" dxfId="62" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
       <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3" xr:uid="{00000000-0002-0000-0B00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3">
       <formula1>"African,Asian,Coloured,White,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{00000000-0002-0000-0B00-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3">
       <formula1>"Single,Married / Civil Partnership,Widowed,Divorced,Separated,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{00000000-0002-0000-0B00-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3">
       <formula1>"ANC with Accrual,ANC without Accrual,In Community,Customary Union,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3" xr:uid="{00000000-0002-0000-0B00-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576" xr:uid="{00000000-0002-0000-0B00-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
       <formula1>"0,1,2,3,4,5,6,7,8,9"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8565,22 +8541,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="36"/>
+    <col min="4" max="4" width="20.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8636,15 +8612,15 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="35"/>
@@ -8691,25 +8667,25 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1796875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="29"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -8782,7 +8758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8793,42 +8769,42 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="20.26953125" style="11" customWidth="1"/>
-    <col min="15" max="15" width="31.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="11" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="30" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="20" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.1796875" style="11" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="11.54296875" style="11" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="11"/>
+    <col min="27" max="27" width="23.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.140625" style="11" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" style="11" customWidth="1"/>
+    <col min="31" max="16384" width="8.7109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="30">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -9432,64 +9408,64 @@
     <cfRule type="duplicateValues" dxfId="52" priority="47"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10" xr:uid="{00000000-0002-0000-0F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10">
       <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7" xr:uid="{00000000-0002-0000-0F00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D6:D7" r:id="rId1" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
-    <hyperlink ref="D2:D4" r:id="rId3" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0F00-000003000000}"/>
-    <hyperlink ref="D5" r:id="rId5" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-0F00-000004000000}"/>
+    <hyperlink ref="D6:D7" r:id="rId1" display="original2Ic@automationjdg.co.za"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D2:D4" r:id="rId3" display="original2Ic@automationjdg.co.za"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5" display="original2Ic@automationjdg.co.za"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.26953125" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.54296875" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.54296875" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" style="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21" style="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="25" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="30" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.7265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20" style="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.7265625" style="12"/>
+    <col min="28" max="28" width="23.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.7109375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -10111,7 +10087,7 @@
     <cfRule type="duplicateValues" dxfId="46" priority="29"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576" xr:uid="{00000000-0002-0000-1000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10120,17 +10096,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31917AC-2077-42D8-B3AC-65F6F3A16B2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="39.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10163,14 +10139,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{3BB63F68-8DEB-48F8-8FF8-3285ECE8D5AD}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10181,14 +10157,14 @@
       <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10624,7 +10600,7 @@
     <cfRule type="duplicateValues" dxfId="44" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Guest Customer Creation, Customer Creation, Customer Update,Customer Creation Magento Admin, Customer Update Magento Admin"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10633,22 +10609,22 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10802,24 +10778,24 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="38" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="38"/>
+    <col min="11" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="55" customFormat="1">
@@ -11249,19 +11225,19 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11479,7 +11455,7 @@
     <cfRule type="duplicateValues" dxfId="42" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"payUcreditcard,Cash_Deposits"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11488,33 +11464,33 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="29">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="30">
       <c r="A1" s="37" t="s">
         <v>34</v>
       </c>
@@ -11764,7 +11740,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="4" customFormat="1">
+    <row r="6" spans="1:16" s="4" customFormat="1" ht="30">
       <c r="A6" s="16">
         <v>30</v>
       </c>
@@ -11814,7 +11790,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="4" customFormat="1" ht="29">
+    <row r="7" spans="1:16" s="4" customFormat="1" ht="30">
       <c r="A7" s="16">
         <v>31</v>
       </c>
@@ -12355,14 +12331,14 @@
     <cfRule type="duplicateValues" dxfId="38" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
-    <hyperlink ref="O3" r:id="rId2" xr:uid="{00000000-0004-0000-1500-000001000000}"/>
-    <hyperlink ref="O4" r:id="rId3" xr:uid="{00000000-0004-0000-1500-000002000000}"/>
-    <hyperlink ref="O5" r:id="rId4" xr:uid="{00000000-0004-0000-1500-000003000000}"/>
-    <hyperlink ref="O8" r:id="rId5" xr:uid="{00000000-0004-0000-1500-000004000000}"/>
-    <hyperlink ref="O6" r:id="rId6" xr:uid="{00000000-0004-0000-1500-000005000000}"/>
-    <hyperlink ref="O7" r:id="rId7" xr:uid="{00000000-0004-0000-1500-000006000000}"/>
-    <hyperlink ref="O9" r:id="rId8" xr:uid="{00000000-0004-0000-1500-000007000000}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="O8" r:id="rId5"/>
+    <hyperlink ref="O6" r:id="rId6"/>
+    <hyperlink ref="O7" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
@@ -12370,18 +12346,18 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" style="29"/>
+    <col min="1" max="1" width="21.140625" style="29"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" style="29"/>
+    <col min="3" max="3" width="21.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12401,7 +12377,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29">
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="45">
         <v>1</v>
       </c>
@@ -12412,7 +12388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29">
+    <row r="3" spans="1:5" ht="30">
       <c r="A3" s="45">
         <v>2</v>
       </c>
@@ -12423,7 +12399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="45">
         <v>3</v>
       </c>
@@ -12434,7 +12410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29">
+    <row r="5" spans="1:5" ht="30">
       <c r="A5" s="45">
         <v>4</v>
       </c>
@@ -12445,7 +12421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="45">
         <v>5</v>
       </c>
@@ -12500,7 +12476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="30">
       <c r="A11" s="45">
         <v>19</v>
       </c>
@@ -12540,27 +12516,27 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.54296875" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="6"/>
+    <col min="4" max="4" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -12705,29 +12681,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-1700-000001000000}"/>
-    <hyperlink ref="J3" r:id="rId3" xr:uid="{00000000-0004-0000-1700-000002000000}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{00000000-0004-0000-1700-000003000000}"/>
-    <hyperlink ref="J4" r:id="rId5" xr:uid="{00000000-0004-0000-1700-000004000000}"/>
-    <hyperlink ref="H4" r:id="rId6" xr:uid="{00000000-0004-0000-1700-000005000000}"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId4"/>
+    <hyperlink ref="J4" r:id="rId5"/>
+    <hyperlink ref="H4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.7265625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" style="11" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12744,7 +12720,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="16">
         <v>26</v>
       </c>
@@ -12758,7 +12734,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="29">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="45">
       <c r="A3" s="16">
         <v>27</v>
       </c>
@@ -12772,7 +12748,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29">
+    <row r="4" spans="1:4" ht="45">
       <c r="A4" s="16">
         <v>28</v>
       </c>
@@ -12786,7 +12762,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29">
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" s="16">
         <v>29</v>
       </c>
@@ -12800,7 +12776,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" s="16">
         <v>30</v>
       </c>
@@ -12814,7 +12790,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="16">
         <v>31</v>
       </c>
@@ -12870,7 +12846,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29">
+    <row r="11" spans="1:4" ht="30">
       <c r="A11" s="142">
         <v>40</v>
       </c>
@@ -12884,7 +12860,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29">
+    <row r="12" spans="1:4" ht="45">
       <c r="A12" s="61">
         <v>41</v>
       </c>
@@ -12954,21 +12930,21 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13216,19 +13192,19 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="38"/>
+    <col min="5" max="5" width="13.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -13308,7 +13284,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="16">
         <v>30</v>
       </c>
@@ -13443,17 +13419,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45F8140-A253-4D2D-9444-DDEA38E5F82B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="38.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -13492,14 +13468,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{E4849886-E130-4931-AED9-3253BC3DFF99}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13510,14 +13486,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="1"/>
+    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -13639,7 +13615,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29">
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -13741,7 +13717,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29">
+    <row r="14" spans="1:5" ht="30">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -14156,7 +14132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14166,13 +14142,13 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="11"/>
+    <col min="4" max="4" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -14189,7 +14165,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="16">
         <v>26</v>
       </c>
@@ -14201,7 +14177,7 @@
       </c>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="1:4" ht="43.5">
+    <row r="3" spans="1:4" ht="45">
       <c r="A3" s="16">
         <v>27</v>
       </c>
@@ -14213,7 +14189,7 @@
       </c>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="1:4" ht="43.5">
+    <row r="4" spans="1:4" ht="45">
       <c r="A4" s="16">
         <v>28</v>
       </c>
@@ -14225,7 +14201,7 @@
       </c>
       <c r="D4" s="16"/>
     </row>
-    <row r="5" spans="1:4" ht="29">
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" s="16">
         <v>29</v>
       </c>
@@ -14237,7 +14213,7 @@
       </c>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="1:4" ht="29">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" s="16">
         <v>30</v>
       </c>
@@ -14249,7 +14225,7 @@
       </c>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="1:4" ht="29">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="16">
         <v>31</v>
       </c>
@@ -14321,7 +14297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -14331,23 +14307,23 @@
       <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="82" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="82" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="82" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.54296875" style="82" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.54296875" style="82" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" style="82" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="82" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.7265625" style="82" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.26953125" style="82" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.26953125" style="82" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="82"/>
+    <col min="4" max="4" width="20.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="82" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="30">
       <c r="A1" s="78" t="s">
         <v>34</v>
       </c>
@@ -14446,7 +14422,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="29">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="83">
         <v>28</v>
       </c>
@@ -15022,7 +14998,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="29">
+    <row r="22" spans="1:11" ht="30">
       <c r="A22" s="85">
         <v>61</v>
       </c>
@@ -15247,7 +15223,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="113" customFormat="1" ht="29">
+    <row r="29" spans="1:11" s="113" customFormat="1" ht="30">
       <c r="A29" s="113">
         <v>78</v>
       </c>
@@ -15329,13 +15305,13 @@
     <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G14" xr:uid="{00000000-0002-0000-1D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G14">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F14" xr:uid="{00000000-0002-0000-1D00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F14">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J14" xr:uid="{00000000-0002-0000-1D00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J14">
       <formula1>"Yes_Wishlist,No_wishlist"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15345,13 +15321,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-1D00-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-1D00-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$7</xm:f>
           </x14:formula1>
@@ -15364,20 +15340,20 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15427,16 +15403,16 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.26953125" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -15535,21 +15511,21 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="31"/>
+    <col min="4" max="4" width="18.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -15610,21 +15586,21 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -15694,21 +15670,21 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="96" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="96" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="96" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="96" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="96" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1796875" style="96" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="96"/>
+    <col min="5" max="5" width="23.140625" style="96" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="96"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -16051,7 +16027,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14" customHeight="1">
+    <row r="21" spans="1:5" ht="14.1" customHeight="1">
       <c r="A21" s="57">
         <v>64</v>
       </c>
@@ -16134,33 +16110,33 @@
     <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Password@123" xr:uid="{00000000-0004-0000-2200-000000000000}"/>
-    <hyperlink ref="E8" r:id="rId2" xr:uid="{00000000-0004-0000-2200-000001000000}"/>
-    <hyperlink ref="E9" r:id="rId3" xr:uid="{00000000-0004-0000-2200-000002000000}"/>
-    <hyperlink ref="E12" r:id="rId4" display="Password@123" xr:uid="{00000000-0004-0000-2200-000003000000}"/>
-    <hyperlink ref="E14" r:id="rId5" xr:uid="{00000000-0004-0000-2200-000004000000}"/>
-    <hyperlink ref="E21" r:id="rId6" xr:uid="{00000000-0004-0000-2200-000006000000}"/>
-    <hyperlink ref="E22" r:id="rId7" xr:uid="{00000000-0004-0000-2200-000007000000}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{00000000-0004-0000-2200-000008000000}"/>
-    <hyperlink ref="E13" r:id="rId9" display="Password@123" xr:uid="{00000000-0004-0000-2200-00000A000000}"/>
-    <hyperlink ref="E3" r:id="rId10" display="Password@123" xr:uid="{00000000-0004-0000-2200-00000B000000}"/>
-    <hyperlink ref="E4" r:id="rId11" display="Password@123" xr:uid="{00000000-0004-0000-2200-00000C000000}"/>
-    <hyperlink ref="E5" r:id="rId12" display="Password@123" xr:uid="{00000000-0004-0000-2200-00000D000000}"/>
-    <hyperlink ref="E6" r:id="rId13" display="Password@123" xr:uid="{00000000-0004-0000-2200-00000E000000}"/>
-    <hyperlink ref="E7" r:id="rId14" display="Password@123" xr:uid="{00000000-0004-0000-2200-00000F000000}"/>
-    <hyperlink ref="E10" r:id="rId15" display="Password@123" xr:uid="{00000000-0004-0000-2200-000010000000}"/>
-    <hyperlink ref="E11" r:id="rId16" display="Password@123" xr:uid="{00000000-0004-0000-2200-000011000000}"/>
-    <hyperlink ref="D13" r:id="rId17" xr:uid="{00000000-0004-0000-2200-000009000000}"/>
-    <hyperlink ref="D16" r:id="rId18" xr:uid="{81428C68-028B-4893-9B4A-CD71D7D22D03}"/>
-    <hyperlink ref="E16" r:id="rId19" display="Password@123" xr:uid="{7AE80BCF-FE0D-40EE-8F1D-4CCBC9DED593}"/>
-    <hyperlink ref="D17" r:id="rId20" xr:uid="{90AEBB31-FE04-467A-971F-6F069860908F}"/>
-    <hyperlink ref="E17" r:id="rId21" display="Password@123" xr:uid="{0FA053E1-94DC-4378-9E2E-1156A759E150}"/>
-    <hyperlink ref="D18" r:id="rId22" xr:uid="{E53C6B61-E9DF-4B4D-A577-91D44E651E99}"/>
-    <hyperlink ref="D19" r:id="rId23" xr:uid="{CDDE7AF4-B91E-430A-BE1E-B69F5B97DDFA}"/>
-    <hyperlink ref="D20" r:id="rId24" xr:uid="{CB6A59C3-52AB-4E3F-B9CB-935599461DF5}"/>
-    <hyperlink ref="D23" r:id="rId25" xr:uid="{0DDA1C05-5398-4003-BFF4-6243B960F51E}"/>
-    <hyperlink ref="D24" r:id="rId26" xr:uid="{C6E10DCB-6923-4F2E-A74F-515095483F5D}"/>
-    <hyperlink ref="D15" r:id="rId27" xr:uid="{7A63D023-7686-45AD-93DB-5D1A9A83B3EC}"/>
+    <hyperlink ref="E2" r:id="rId1" display="Password@123"/>
+    <hyperlink ref="E8" r:id="rId2"/>
+    <hyperlink ref="E9" r:id="rId3"/>
+    <hyperlink ref="E12" r:id="rId4" display="Password@123"/>
+    <hyperlink ref="E14" r:id="rId5"/>
+    <hyperlink ref="E21" r:id="rId6"/>
+    <hyperlink ref="E22" r:id="rId7"/>
+    <hyperlink ref="D12" r:id="rId8"/>
+    <hyperlink ref="E13" r:id="rId9" display="Password@123"/>
+    <hyperlink ref="E3" r:id="rId10" display="Password@123"/>
+    <hyperlink ref="E4" r:id="rId11" display="Password@123"/>
+    <hyperlink ref="E5" r:id="rId12" display="Password@123"/>
+    <hyperlink ref="E6" r:id="rId13" display="Password@123"/>
+    <hyperlink ref="E7" r:id="rId14" display="Password@123"/>
+    <hyperlink ref="E10" r:id="rId15" display="Password@123"/>
+    <hyperlink ref="E11" r:id="rId16" display="Password@123"/>
+    <hyperlink ref="D13" r:id="rId17"/>
+    <hyperlink ref="D16" r:id="rId18"/>
+    <hyperlink ref="E16" r:id="rId19" display="Password@123"/>
+    <hyperlink ref="D17" r:id="rId20"/>
+    <hyperlink ref="E17" r:id="rId21" display="Password@123"/>
+    <hyperlink ref="D18" r:id="rId22"/>
+    <hyperlink ref="D19" r:id="rId23"/>
+    <hyperlink ref="D20" r:id="rId24"/>
+    <hyperlink ref="D23" r:id="rId25"/>
+    <hyperlink ref="D24" r:id="rId26"/>
+    <hyperlink ref="D15" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId28"/>
@@ -16168,15 +16144,15 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16344,22 +16320,22 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -16433,27 +16409,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-2400-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-2400-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="81" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="81" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="81"/>
+    <col min="4" max="16384" width="9.140625" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -16546,20 +16522,20 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -16602,27 +16578,27 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -16703,28 +16679,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-2600-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -16814,7 +16790,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-2700-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -16822,26 +16798,26 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -16886,7 +16862,7 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="112" t="s">
         <v>170</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -16913,26 +16889,65 @@
         <v>500</v>
       </c>
     </row>
+    <row r="4" spans="1:11" s="111" customFormat="1">
+      <c r="A4" s="111">
+        <v>67</v>
+      </c>
+      <c r="B4" s="111">
+        <v>1</v>
+      </c>
+      <c r="C4" s="112" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="111" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="111">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="111" customFormat="1">
+      <c r="A5" s="111">
+        <v>70</v>
+      </c>
+      <c r="B5" s="111">
+        <v>1</v>
+      </c>
+      <c r="C5" s="112" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="111" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" s="111">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1">
@@ -16949,7 +16964,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24.65" customHeight="1">
+    <row r="2" spans="1:4" ht="24.6" customHeight="1">
       <c r="A2" s="3">
         <v>9</v>
       </c>
@@ -16960,7 +16975,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="111" customFormat="1" ht="24.65" customHeight="1">
+    <row r="3" spans="1:4" s="111" customFormat="1" ht="24.6" customHeight="1">
       <c r="A3" s="3">
         <v>20</v>
       </c>
@@ -16977,31 +16992,31 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29">
+    <row r="1" spans="1:12" ht="30">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -17107,7 +17122,7 @@
       </c>
       <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="30">
       <c r="A4" s="16">
         <v>8</v>
       </c>
@@ -17446,17 +17461,17 @@
     <cfRule type="duplicateValues" dxfId="6" priority="56"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-2A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
       <formula1>"Main Website,Incredible Connection"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 F5:F1048576" xr:uid="{00000000-0002-0000-2A00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 F5:F1048576">
       <formula1>"SAID,Passport"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-2A00-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-2A00-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-2A00-000002000000}"/>
+    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com"/>
+    <hyperlink ref="F3" r:id="rId2" display="TestAutomation2@gmail.com"/>
+    <hyperlink ref="F4" r:id="rId3" display="TestAutomation2@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -17465,38 +17480,38 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
-  <dimension ref="A1:T30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="121" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="121" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="121" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="121" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="121" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="121" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.54296875" style="121" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="121" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.54296875" style="121" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="121" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="121" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="121" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="121" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="121" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="121" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="121" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11" style="121" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.81640625" style="121" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7265625" style="121" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.26953125" style="121" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.1796875" style="121" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.54296875" style="121" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7265625" style="121" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.453125" style="121" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.453125" style="121" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.1796875" style="121" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.1796875" style="121"/>
+    <col min="12" max="12" width="20.85546875" style="121" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="121" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="121" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" style="121" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="121" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" style="121" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" style="121" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.42578125" style="121" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" style="121" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="121"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -17995,7 +18010,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" ht="30">
       <c r="A9" s="115">
         <v>23</v>
       </c>
@@ -18057,7 +18072,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" ht="30">
       <c r="A10" s="115">
         <v>24</v>
       </c>
@@ -18251,7 +18266,7 @@
         <v>3333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:20">
       <c r="A17" s="123">
         <v>11</v>
       </c>
@@ -18265,7 +18280,7 @@
         <v>3333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:20">
       <c r="A18" s="123">
         <v>12</v>
       </c>
@@ -18279,7 +18294,7 @@
         <v>3333333333</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:20">
       <c r="A19" s="123">
         <v>13</v>
       </c>
@@ -18293,7 +18308,7 @@
         <v>3333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:20">
       <c r="A20" s="123">
         <v>14</v>
       </c>
@@ -18310,7 +18325,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:20">
       <c r="A21" s="123">
         <v>15</v>
       </c>
@@ -18327,7 +18342,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:20">
       <c r="A22" s="123">
         <v>16</v>
       </c>
@@ -18344,7 +18359,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:20">
       <c r="A23" s="123">
         <v>17</v>
       </c>
@@ -18361,7 +18376,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:20">
       <c r="A24" s="123">
         <v>18</v>
       </c>
@@ -18378,7 +18393,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:20">
       <c r="A25" s="123">
         <v>19</v>
       </c>
@@ -18395,7 +18410,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:20">
       <c r="A26" s="123">
         <v>20</v>
       </c>
@@ -18412,7 +18427,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:20">
       <c r="A27" s="123">
         <v>31</v>
       </c>
@@ -18429,7 +18444,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:20">
       <c r="A28" s="130">
         <v>39</v>
       </c>
@@ -18446,7 +18461,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:20">
       <c r="A29" s="130">
         <v>40</v>
       </c>
@@ -18463,7 +18478,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:20">
       <c r="A30" s="130">
         <v>41</v>
       </c>
@@ -18478,6 +18493,68 @@
       </c>
       <c r="L30" s="121" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="115">
+        <v>67</v>
+      </c>
+      <c r="B31" s="116" t="s">
+        <v>620</v>
+      </c>
+      <c r="C31" s="113">
+        <v>1</v>
+      </c>
+      <c r="D31" s="113" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="138" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" s="117" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="I31" s="113" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" s="113">
+        <v>2222227</v>
+      </c>
+      <c r="K31" s="118" t="s">
+        <v>642</v>
+      </c>
+      <c r="L31" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="M31" s="113" t="s">
+        <v>92</v>
+      </c>
+      <c r="N31" s="113" t="s">
+        <v>94</v>
+      </c>
+      <c r="O31" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="P31" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q31" s="113" t="s">
+        <v>92</v>
+      </c>
+      <c r="R31" s="113" t="s">
+        <v>92</v>
+      </c>
+      <c r="S31" s="113" t="s">
+        <v>92</v>
+      </c>
+      <c r="T31" s="113" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -18501,21 +18578,21 @@
     <cfRule type="duplicateValues" dxfId="0" priority="66"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L11" xr:uid="{00000000-0002-0000-2B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L11 L31">
       <formula1>"Main Website,Incredible Connection,Hifi Corporation,Russells,Sleepmasters,Rochester"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I11 P2:T11" xr:uid="{00000000-0002-0000-2B00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I11 P2:T11 I31 P31:T31">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N11" xr:uid="{00000000-0002-0000-2B00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N11 N31">
       <formula1>"ID, Passport"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M11" xr:uid="{00000000-0002-0000-2B00-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M11 M31">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" xr:uid="{00000000-0004-0000-2B00-000000000000}"/>
+    <hyperlink ref="F7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -18523,21 +18600,21 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1">
@@ -18627,19 +18704,19 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
@@ -18831,21 +18908,21 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -18935,20 +19012,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="76" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" style="76" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="76" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="76" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" style="76" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="76"/>
+    <col min="4" max="4" width="19.28515625" style="76" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="76"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -19091,7 +19168,7 @@
     <cfRule type="duplicateValues" dxfId="83" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
       <formula1>"All,Specific"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19100,21 +19177,21 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -19204,16 +19281,16 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -19577,21 +19654,21 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -19681,21 +19758,21 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView topLeftCell="L14" workbookViewId="0">
       <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -19785,23 +19862,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="73" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" style="73" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="73" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="73" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="73" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="73" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="73" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="73" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="73" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="73" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="73"/>
+    <col min="8" max="16384" width="9.140625" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -19997,35 +20072,35 @@
     <cfRule type="duplicateValues" dxfId="81" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
       <formula1>"ExistingUser,logedOn_user"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="E4:E7" r:id="rId3" display="watlevi41@gmail.com" xr:uid="{D16A3140-4CBC-4253-9C85-FAF9D1CB6F5C}"/>
-    <hyperlink ref="E8" r:id="rId4" xr:uid="{B853E9E6-3548-4C36-8719-4B3DD1319787}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4:E7" r:id="rId3" display="watlevi41@gmail.com"/>
+    <hyperlink ref="E8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="50" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="50" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="50"/>
+    <col min="5" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20404,7 +20479,7 @@
     <cfRule type="duplicateValues" dxfId="75" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Update Account,Update Account Magento Admin,Create Account,Create Account Magento Admin,Guest Customer Creation,Registered customer from sales order"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20413,21 +20488,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="36"/>
+    <col min="4" max="4" width="11.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -20507,21 +20582,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="36"/>
+    <col min="4" max="4" width="15.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -20570,12 +20645,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20728,27 +20803,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20773,9 +20839,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -4,60 +4,61 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="26" activeTab="29"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="37" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
-    <sheet name="ic_RemoveFromcart++" sheetId="67" r:id="rId2"/>
-    <sheet name="ic_verifyWishlistItem++" sheetId="66" r:id="rId3"/>
-    <sheet name="ic_NavigetoWishlist++" sheetId="65" r:id="rId4"/>
-    <sheet name="Magento_UserInfoVerification++" sheetId="64" r:id="rId5"/>
-    <sheet name="IC_ProductsSortBy++" sheetId="63" r:id="rId6"/>
-    <sheet name="ic_SubscribeNews_DupliEmailID++" sheetId="62" r:id="rId7"/>
-    <sheet name="EnterSpouseInfor++" sheetId="61" r:id="rId8"/>
-    <sheet name="EnterContact++" sheetId="58" r:id="rId9"/>
-    <sheet name="CreditEnterAddressDetails++" sheetId="59" r:id="rId10"/>
-    <sheet name="CreditEnterEmploymentDetails++" sheetId="60" r:id="rId11"/>
-    <sheet name="EnterBasicDetails++" sheetId="57" r:id="rId12"/>
-    <sheet name="CreditStatusVerification++" sheetId="56" r:id="rId13"/>
-    <sheet name="CreditApp_NavigateFilter++" sheetId="55" r:id="rId14"/>
-    <sheet name="giftCardReport++" sheetId="54" r:id="rId15"/>
-    <sheet name="adminUserUpdate++" sheetId="52" r:id="rId16"/>
-    <sheet name="ICUpdateUser++" sheetId="51" r:id="rId17"/>
-    <sheet name="SapCustomer++" sheetId="50" r:id="rId18"/>
-    <sheet name="Suites" sheetId="22" r:id="rId19"/>
-    <sheet name="PayUPagePayment++" sheetId="31" r:id="rId20"/>
-    <sheet name="CheckoutpaymentOption++" sheetId="32" r:id="rId21"/>
-    <sheet name="deliveryPopulation++" sheetId="34" r:id="rId22"/>
-    <sheet name="RetrieveCustomerDetailsOld++" sheetId="70" r:id="rId23"/>
-    <sheet name="icGiftCardPurchase++" sheetId="43" r:id="rId24"/>
-    <sheet name="SAP_OrderRelated++" sheetId="46" r:id="rId25"/>
-    <sheet name="GenerateOrderSAPnumber++" sheetId="38" r:id="rId26"/>
-    <sheet name="OrderStatusSearch++" sheetId="36" r:id="rId27"/>
-    <sheet name="Login_magento++" sheetId="35" r:id="rId28"/>
-    <sheet name="ic_RetriveOrderID++" sheetId="53" r:id="rId29"/>
-    <sheet name="ProductSearch++" sheetId="33" r:id="rId30"/>
-    <sheet name="IC_WishlistToCart++" sheetId="71" r:id="rId31"/>
-    <sheet name="Products_Category" sheetId="69" r:id="rId32"/>
-    <sheet name="icRedeemGiftCard++" sheetId="48" r:id="rId33"/>
-    <sheet name="VeriyGiftcardUsableity++" sheetId="49" r:id="rId34"/>
-    <sheet name="ic_login++" sheetId="44" r:id="rId35"/>
-    <sheet name="ClearCart++" sheetId="73" r:id="rId36"/>
-    <sheet name="ic_invalidCredslogin++" sheetId="74" r:id="rId37"/>
-    <sheet name="SendWishlistToEmail++" sheetId="75" r:id="rId38"/>
-    <sheet name="icEmailWishlistverification++" sheetId="76" r:id="rId39"/>
-    <sheet name="DB_connection_master++" sheetId="47" r:id="rId40"/>
-    <sheet name="icGiftCardVerificationSender++" sheetId="45" r:id="rId41"/>
-    <sheet name="ic_CashDepositPayment++" sheetId="41" r:id="rId42"/>
-    <sheet name="CreateaccountBackend++" sheetId="40" r:id="rId43"/>
-    <sheet name="accountCreation++" sheetId="39" r:id="rId44"/>
-    <sheet name="Russels" sheetId="26" r:id="rId45"/>
-    <sheet name="Login++" sheetId="25" r:id="rId46"/>
-    <sheet name="Bradlows" sheetId="27" r:id="rId47"/>
-    <sheet name="Rochester" sheetId="28" r:id="rId48"/>
-    <sheet name="Preferred Store" sheetId="68" r:id="rId49"/>
-    <sheet name="Sleepmasters" sheetId="29" r:id="rId50"/>
-    <sheet name="HiFiCorp" sheetId="30" r:id="rId51"/>
+    <sheet name="SapRSIGetDataFromSAPDB++" sheetId="77" r:id="rId2"/>
+    <sheet name="ic_RemoveFromcart++" sheetId="67" r:id="rId3"/>
+    <sheet name="ic_verifyWishlistItem++" sheetId="66" r:id="rId4"/>
+    <sheet name="ic_NavigetoWishlist++" sheetId="65" r:id="rId5"/>
+    <sheet name="Magento_UserInfoVerification++" sheetId="64" r:id="rId6"/>
+    <sheet name="IC_ProductsSortBy++" sheetId="63" r:id="rId7"/>
+    <sheet name="ic_SubscribeNews_DupliEmailID++" sheetId="62" r:id="rId8"/>
+    <sheet name="EnterSpouseInfor++" sheetId="61" r:id="rId9"/>
+    <sheet name="EnterContact++" sheetId="58" r:id="rId10"/>
+    <sheet name="CreditEnterAddressDetails++" sheetId="59" r:id="rId11"/>
+    <sheet name="CreditEnterEmploymentDetails++" sheetId="60" r:id="rId12"/>
+    <sheet name="EnterBasicDetails++" sheetId="57" r:id="rId13"/>
+    <sheet name="CreditStatusVerification++" sheetId="56" r:id="rId14"/>
+    <sheet name="CreditApp_NavigateFilter++" sheetId="55" r:id="rId15"/>
+    <sheet name="giftCardReport++" sheetId="54" r:id="rId16"/>
+    <sheet name="adminUserUpdate++" sheetId="52" r:id="rId17"/>
+    <sheet name="ICUpdateUser++" sheetId="51" r:id="rId18"/>
+    <sheet name="SapCustomer++" sheetId="50" r:id="rId19"/>
+    <sheet name="Suites" sheetId="22" r:id="rId20"/>
+    <sheet name="PayUPagePayment++" sheetId="31" r:id="rId21"/>
+    <sheet name="CheckoutpaymentOption++" sheetId="32" r:id="rId22"/>
+    <sheet name="deliveryPopulation++" sheetId="34" r:id="rId23"/>
+    <sheet name="RetrieveCustomerDetailsOld++" sheetId="70" r:id="rId24"/>
+    <sheet name="icGiftCardPurchase++" sheetId="43" r:id="rId25"/>
+    <sheet name="SAP_OrderRelated++" sheetId="46" r:id="rId26"/>
+    <sheet name="GenerateOrderSAPnumber++" sheetId="38" r:id="rId27"/>
+    <sheet name="OrderStatusSearch++" sheetId="36" r:id="rId28"/>
+    <sheet name="Login_magento++" sheetId="35" r:id="rId29"/>
+    <sheet name="ic_RetriveOrderID++" sheetId="53" r:id="rId30"/>
+    <sheet name="ProductSearch++" sheetId="33" r:id="rId31"/>
+    <sheet name="IC_WishlistToCart++" sheetId="71" r:id="rId32"/>
+    <sheet name="Products_Category" sheetId="69" r:id="rId33"/>
+    <sheet name="icRedeemGiftCard++" sheetId="48" r:id="rId34"/>
+    <sheet name="VeriyGiftcardUsableity++" sheetId="49" r:id="rId35"/>
+    <sheet name="ic_login++" sheetId="44" r:id="rId36"/>
+    <sheet name="ClearCart++" sheetId="73" r:id="rId37"/>
+    <sheet name="ic_invalidCredslogin++" sheetId="74" r:id="rId38"/>
+    <sheet name="SendWishlistToEmail++" sheetId="75" r:id="rId39"/>
+    <sheet name="icEmailWishlistverification++" sheetId="76" r:id="rId40"/>
+    <sheet name="DB_connection_master++" sheetId="47" r:id="rId41"/>
+    <sheet name="icGiftCardVerificationSender++" sheetId="45" r:id="rId42"/>
+    <sheet name="ic_CashDepositPayment++" sheetId="41" r:id="rId43"/>
+    <sheet name="CreateaccountBackend++" sheetId="40" r:id="rId44"/>
+    <sheet name="accountCreation++" sheetId="39" r:id="rId45"/>
+    <sheet name="Russels" sheetId="26" r:id="rId46"/>
+    <sheet name="Login++" sheetId="25" r:id="rId47"/>
+    <sheet name="Bradlows" sheetId="27" r:id="rId48"/>
+    <sheet name="Rochester" sheetId="28" r:id="rId49"/>
+    <sheet name="Preferred Store" sheetId="68" r:id="rId50"/>
+    <sheet name="Sleepmasters" sheetId="29" r:id="rId51"/>
+    <sheet name="HiFiCorp" sheetId="30" r:id="rId52"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IC!$A$1:$Q$72</definedName>
@@ -145,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2743" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="664">
   <si>
     <t>testSuitID</t>
   </si>
@@ -2103,13 +2104,55 @@
   </si>
   <si>
     <t>verifyDeliveryOption</t>
+  </si>
+  <si>
+    <t>SapRSIGetDataFromSAPDB</t>
+  </si>
+  <si>
+    <t>channelID</t>
+  </si>
+  <si>
+    <t>AGGR_AVAIL_QTY</t>
+  </si>
+  <si>
+    <t>rough_stock_value</t>
+  </si>
+  <si>
+    <t>SO08</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>retrieve data from SAP_CAR_RSI_DATA and validate on magento</t>
+  </si>
+  <si>
+    <t>retrieve_data_from_SAP_CAR_RSI_DATA_and_validate_on_magento</t>
+  </si>
+  <si>
+    <t>SKUCode</t>
+  </si>
+  <si>
+    <t>getRSIItemInMagento</t>
+  </si>
+  <si>
+    <t>CARQA</t>
+  </si>
+  <si>
+    <t>RFC_SELENIUM</t>
+  </si>
+  <si>
+    <t>11.19.2.191</t>
+  </si>
+  <si>
+    <t>jdgSel99X#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2222,6 +2265,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2311,7 +2366,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2663,6 +2718,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2671,7 +2737,27 @@
     <cellStyle name="Normal 2 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="90">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3852,13 +3938,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA74"/>
+  <dimension ref="A1:AA78"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G61" sqref="G61"/>
+      <selection pane="bottomRight" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6591,8 +6677,8 @@
       <c r="E74" s="144" t="s">
         <v>199</v>
       </c>
-      <c r="F74" s="134" t="s">
-        <v>8</v>
+      <c r="F74" s="127" t="s">
+        <v>9</v>
       </c>
       <c r="G74" s="148" t="s">
         <v>31</v>
@@ -6600,35 +6686,86 @@
       <c r="H74" s="134" t="s">
         <v>649</v>
       </c>
+    </row>
+    <row r="75" spans="1:27" ht="16.5">
+      <c r="A75" s="69">
+        <v>74</v>
+      </c>
+      <c r="B75" s="151" t="s">
+        <v>657</v>
+      </c>
+      <c r="C75" s="69"/>
+      <c r="D75" s="151" t="s">
+        <v>657</v>
+      </c>
+      <c r="E75" s="67"/>
+      <c r="F75" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="149" t="s">
+        <v>650</v>
+      </c>
+      <c r="H75" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="I75" s="134" t="s">
+        <v>659</v>
+      </c>
+      <c r="J75" s="57"/>
+      <c r="K75" s="57"/>
+      <c r="L75" s="57"/>
+    </row>
+    <row r="78" spans="1:27" ht="16.5">
+      <c r="A78" s="69">
+        <v>74</v>
+      </c>
+      <c r="B78" s="151" t="s">
+        <v>657</v>
+      </c>
+      <c r="C78" s="69"/>
+      <c r="D78" s="151" t="s">
+        <v>657</v>
+      </c>
+      <c r="E78" s="67"/>
+      <c r="F78" s="127" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="149" t="s">
+        <v>650</v>
+      </c>
+      <c r="H78" s="129"/>
+      <c r="J78" s="57"/>
+      <c r="K78" s="57"/>
+      <c r="L78" s="57"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q72"/>
   <conditionalFormatting sqref="B53:B54">
-    <cfRule type="duplicateValues" dxfId="87" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
+    <cfRule type="duplicateValues" dxfId="88" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="duplicateValues" dxfId="87" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B52">
     <cfRule type="duplicateValues" dxfId="86" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="85" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B52">
-    <cfRule type="duplicateValues" dxfId="84" priority="12"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="duplicateValues" dxfId="83" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:A54 A2:A31 A33:A49">
-    <cfRule type="duplicateValues" dxfId="82" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B49 B1:B31 B55:B72 B75:B1048576">
-    <cfRule type="duplicateValues" dxfId="81" priority="75"/>
+  <conditionalFormatting sqref="B33:B49 B1:B31 B55:B72 B76:B77 B79:B1048576">
+    <cfRule type="duplicateValues" dxfId="83" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="80" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="duplicateValues" dxfId="79" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento"/>
@@ -6857,6 +6994,9 @@
     <hyperlink ref="G63" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
     <hyperlink ref="G64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
     <hyperlink ref="G70" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G75" location="'SapRSIGetDataFromSAPDB++'!A1" display="SapRSIGetDataFromSAPDB"/>
+    <hyperlink ref="H75" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G78" location="'SapRSIGetDataFromSAPDB++'!A1" display="SapRSIGetDataFromSAPDB"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6864,6 +7004,137 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="48">
+        <v>46</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>526</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="48">
+        <v>47</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="61" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+      <formula1>"ABSA,AFRICAN BANK,BIDVEST.CAPITEC,FNB,INVESTEC,NEDBANK,STANDARD BANK SA"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>"English,Afrikaans,Sesotho,Xhosa,Zulu"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -7021,7 +7292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -7137,7 +7408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -7411,7 +7682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -7482,7 +7753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -7539,7 +7810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -7630,7 +7901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
@@ -8298,7 +8569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
@@ -8967,7 +9238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -9430,7 +9701,81 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="94" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F1" s="115" t="s">
+        <v>653</v>
+      </c>
+      <c r="G1" s="115" t="s">
+        <v>652</v>
+      </c>
+      <c r="H1" s="153" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="133">
+        <v>74</v>
+      </c>
+      <c r="B2" s="152" t="s">
+        <v>656</v>
+      </c>
+      <c r="C2" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="150" t="s">
+        <v>660</v>
+      </c>
+      <c r="E2" t="s">
+        <v>654</v>
+      </c>
+      <c r="F2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="80" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="79" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -9599,111 +9944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="85" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="85"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="85" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="84">
-        <v>52</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>541</v>
-      </c>
-      <c r="C2" s="85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="84">
-        <v>53</v>
-      </c>
-      <c r="B3" s="84" t="s">
-        <v>540</v>
-      </c>
-      <c r="C3" s="85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="57">
-        <v>54</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>620</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="83">
-        <v>55</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>619</v>
-      </c>
-      <c r="C5" s="85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="57">
-        <v>56</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>621</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="83">
-        <v>70</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>634</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="78" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="77" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -10152,7 +10393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -10389,7 +10630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
@@ -11315,7 +11556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -11485,7 +11726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -11662,7 +11903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -11872,7 +12113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -12123,7 +12364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -12352,16 +12593,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H2" sqref="H2"/>
       <selection pane="topRight" activeCell="H2" sqref="H2"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12984,6 +13225,23 @@
         <v>225505</v>
       </c>
       <c r="E36" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.5">
+      <c r="A37" s="69">
+        <v>74</v>
+      </c>
+      <c r="B37" s="151" t="s">
+        <v>657</v>
+      </c>
+      <c r="C37" s="119">
+        <v>1</v>
+      </c>
+      <c r="D37" s="119">
+        <v>225505</v>
+      </c>
+      <c r="E37" s="119" t="s">
         <v>156</v>
       </c>
     </row>
@@ -13008,7 +13266,111 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="85" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="85"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="84">
+        <v>52</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="84">
+        <v>53</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>540</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="57">
+        <v>54</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>620</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="83">
+        <v>55</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>619</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="57">
+        <v>56</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="83">
+        <v>70</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>634</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="78" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="77" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -13173,160 +13535,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="80" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="80" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="80"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="80" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="79">
-        <v>52</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>541</v>
-      </c>
-      <c r="C2" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="80" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="79">
-        <v>53</v>
-      </c>
-      <c r="B3" s="79" t="s">
-        <v>540</v>
-      </c>
-      <c r="C3" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="57">
-        <v>54</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>620</v>
-      </c>
-      <c r="C4" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="80" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="78">
-        <v>55</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>619</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="57">
-        <v>56</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>621</v>
-      </c>
-      <c r="C6" s="80">
-        <v>1</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="57">
-        <v>56</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>621</v>
-      </c>
-      <c r="C7" s="80">
-        <v>2</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="78">
-        <v>70</v>
-      </c>
-      <c r="B8" s="67" t="s">
-        <v>634</v>
-      </c>
-      <c r="C8" s="80">
-        <v>1</v>
-      </c>
-      <c r="D8" s="78" t="s">
-        <v>432</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="76" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="75" priority="1"/>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
-      <formula1>"All,Specific"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14162,7 +14379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -14225,7 +14442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
@@ -14333,7 +14550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -14408,7 +14625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -14492,7 +14709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -14830,7 +15047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -14894,7 +15111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -14991,7 +15208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -15047,7 +15264,152 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="80"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="79">
+        <v>52</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="79">
+        <v>53</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>540</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="57">
+        <v>54</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>620</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="78">
+        <v>55</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>619</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="57">
+        <v>56</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="C6" s="80">
+        <v>1</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="57">
+        <v>56</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="C7" s="80">
+        <v>2</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="78">
+        <v>70</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>634</v>
+      </c>
+      <c r="C8" s="80">
+        <v>1</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="76" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="75" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+      <formula1>"All,Specific"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -15155,217 +15517,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="77" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="77" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="77" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="77" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="77" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="77"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="77" t="s">
-        <v>425</v>
-      </c>
-      <c r="E1" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="77" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="76">
-        <v>52</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>541</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>428</v>
-      </c>
-      <c r="F2" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G2" s="77">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="76">
-        <v>53</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>540</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>430</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G3" s="77">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="57">
-        <v>54</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>620</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>430</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G4" s="77">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="57">
-        <v>55</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>619</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>428</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G5" s="75">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="57">
-        <v>56</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>621</v>
-      </c>
-      <c r="C6" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>428</v>
-      </c>
-      <c r="F6" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G6" s="75">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="75">
-        <v>70</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>634</v>
-      </c>
-      <c r="C7" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>428</v>
-      </c>
-      <c r="F7" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G7" s="75">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
-      <formula1>"ExistingUser,logedOn_user"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15374,7 +15531,7 @@
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15462,6 +15619,26 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D6">
+        <v>30515</v>
+      </c>
+      <c r="E6" t="s">
+        <v>661</v>
+      </c>
+      <c r="F6" t="s">
+        <v>663</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -15472,7 +15649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -15591,7 +15768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -15637,7 +15814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -16125,7 +16302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T31"/>
   <sheetViews>
@@ -17208,7 +17385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
@@ -17312,7 +17489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -17513,110 +17690,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -17726,6 +17799,315 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="77" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="77" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="77" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="77"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="76">
+        <v>52</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F2" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G2" s="77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="76">
+        <v>53</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>540</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>430</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G3" s="77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="57">
+        <v>54</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>620</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>430</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G4" s="77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="57">
+        <v>55</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>619</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F5" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G5" s="75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="57">
+        <v>56</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G6" s="75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="75">
+        <v>70</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>634</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G7" s="75">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+      <formula1>"ExistingUser,logedOn_user"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18097,7 +18479,215 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView topLeftCell="L14" workbookViewId="0">
+      <selection activeCell="Y27" sqref="Y27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -18492,215 +19082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView topLeftCell="L14" workbookViewId="0">
-      <selection activeCell="Y27" sqref="Y27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -18794,7 +19176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -18857,7 +19239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -19019,137 +19401,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
       <formula1>"Female,Male"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="48">
-        <v>46</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>526</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="48">
-        <v>47</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>424</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="61" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"ABSA,AFRICAN BANK,BIDVEST.CAPITEC,FNB,INVESTEC,NEDBANK,STANDARD BANK SA"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
-      <formula1>"English,Afrikaans,Sesotho,Xhosa,Zulu"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19306,21 +19557,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19343,6 +19594,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -19357,12 +19616,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -15522,7 +15522,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19408,6 +19408,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E4315169E4449459811E1A2A421A5D2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="484de8a0a7035cbf3240ac5ef037eda8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="38ec8e4d-8506-4d8b-b040-96d37469ddf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40b4f8b6fbe630a6badbf346a8d0e64c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19556,25 +19574,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED871C4-2A4D-4B74-98A2-587321F60978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19591,29 +19616,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="37" activeTab="40"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="664">
   <si>
     <t>testSuitID</t>
   </si>
@@ -3938,13 +3938,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA78"/>
+  <dimension ref="A1:AA75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G78" sqref="G78"/>
+      <selection pane="bottomRight" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6700,7 +6700,7 @@
       </c>
       <c r="E75" s="67"/>
       <c r="F75" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G75" s="149" t="s">
         <v>650</v>
@@ -6714,29 +6714,6 @@
       <c r="J75" s="57"/>
       <c r="K75" s="57"/>
       <c r="L75" s="57"/>
-    </row>
-    <row r="78" spans="1:27" ht="16.5">
-      <c r="A78" s="69">
-        <v>74</v>
-      </c>
-      <c r="B78" s="151" t="s">
-        <v>657</v>
-      </c>
-      <c r="C78" s="69"/>
-      <c r="D78" s="151" t="s">
-        <v>657</v>
-      </c>
-      <c r="E78" s="67"/>
-      <c r="F78" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G78" s="149" t="s">
-        <v>650</v>
-      </c>
-      <c r="H78" s="129"/>
-      <c r="J78" s="57"/>
-      <c r="K78" s="57"/>
-      <c r="L78" s="57"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q72"/>
@@ -6758,14 +6735,14 @@
   <conditionalFormatting sqref="A53:A54 A2:A31 A33:A49">
     <cfRule type="duplicateValues" dxfId="84" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B49 B1:B31 B55:B72 B76:B77 B79:B1048576">
-    <cfRule type="duplicateValues" dxfId="83" priority="76"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="82" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="duplicateValues" dxfId="81" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:B49 B1:B31 B55:B72 B76:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento"/>
@@ -6996,7 +6973,6 @@
     <hyperlink ref="G70" location="'ProductSearch++'!A1" display="ProductSearch"/>
     <hyperlink ref="G75" location="'SapRSIGetDataFromSAPDB++'!A1" display="SapRSIGetDataFromSAPDB"/>
     <hyperlink ref="H75" location="'Login_magento++'!A1" display="Login_magento"/>
-    <hyperlink ref="G78" location="'SapRSIGetDataFromSAPDB++'!A1" display="SapRSIGetDataFromSAPDB"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7114,10 +7090,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="61" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
@@ -7266,10 +7242,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="58" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
@@ -7393,10 +7369,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
@@ -7649,10 +7625,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="54" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3">
@@ -7744,10 +7720,10 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7801,10 +7777,10 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8534,22 +8510,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="48" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B21">
-    <cfRule type="duplicateValues" dxfId="45" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A21">
-    <cfRule type="duplicateValues" dxfId="44" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="47"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10">
@@ -9212,22 +9188,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B21">
-    <cfRule type="duplicateValues" dxfId="39" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A21">
-    <cfRule type="duplicateValues" dxfId="38" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="29"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576">
@@ -9687,10 +9663,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
@@ -9765,10 +9741,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="80" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="79" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10386,7 +10362,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B12:B14">
-    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10619,7 +10595,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B13:B15">
-    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
@@ -11530,16 +11506,16 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B10:B12">
-    <cfRule type="duplicateValues" dxfId="33" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B33">
-    <cfRule type="duplicateValues" dxfId="31" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A33">
-    <cfRule type="duplicateValues" dxfId="30" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1"/>
@@ -11711,16 +11687,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B6">
-    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A6">
-    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B12">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A12">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12357,7 +12333,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12587,7 +12563,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13248,19 +13224,19 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B33:B35">
-    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="21" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A32">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B32">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13361,10 +13337,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="78" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="77" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14333,16 +14309,16 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B10:B12">
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13">
@@ -15019,13 +14995,13 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B12:B14">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A11">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
@@ -15395,10 +15371,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="76" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="75" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
@@ -15521,7 +15497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -16266,22 +16242,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B21">
-    <cfRule type="duplicateValues" dxfId="7" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A21">
-    <cfRule type="duplicateValues" dxfId="6" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="56"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
@@ -17349,22 +17325,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B30">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A30">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B26">
-    <cfRule type="duplicateValues" dxfId="1" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:A26">
-    <cfRule type="duplicateValues" dxfId="0" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
   </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L11 L31">
@@ -18084,10 +18060,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
@@ -19056,22 +19032,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A21">
-    <cfRule type="duplicateValues" dxfId="72" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B21">
-    <cfRule type="duplicateValues" dxfId="71" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="70" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="69" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="68" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="67" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
@@ -19170,7 +19146,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="duplicateValues" dxfId="66" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19230,10 +19206,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="65" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="64" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19390,10 +19366,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="63" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="62" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
@@ -19408,24 +19384,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E4315169E4449459811E1A2A421A5D2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="484de8a0a7035cbf3240ac5ef037eda8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="38ec8e4d-8506-4d8b-b040-96d37469ddf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40b4f8b6fbe630a6badbf346a8d0e64c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19574,32 +19532,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED871C4-2A4D-4B74-98A2-587321F60978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19616,4 +19567,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A4FD97-099E-4067-AC41-47E17D762609}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="31" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -71,12 +70,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1F00-000001000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1F00-000002000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,12 +114,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2C00-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2335,7 +2334,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -2965,9 +2964,9 @@
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="120">
     <dxf>
@@ -4226,7 +4225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4259,26 +4258,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4311,23 +4293,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4503,35 +4468,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" style="61" customWidth="1"/>
-    <col min="2" max="2" width="93.54296875" style="130" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.7265625" style="130" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="130" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" style="130" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.26953125" style="130" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.54296875" style="130" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.453125" style="130" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.7265625" style="130" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.453125" style="130" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.453125" style="130" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="27.1796875" style="130" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="31.453125" style="130" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.1796875" style="130" customWidth="1"/>
-    <col min="18" max="18" width="20.1796875" style="130" customWidth="1"/>
-    <col min="19" max="16384" width="9.1796875" style="130"/>
+    <col min="2" max="2" width="93.5703125" style="130" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.7109375" style="130" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="130" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="130" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" style="130" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" style="130" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="130" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" style="130" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" style="130" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" style="130" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="27.140625" style="130" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="31.42578125" style="130" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="130" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" style="130" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="130"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -4593,7 +4558,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="29">
+    <row r="2" spans="1:19" ht="30">
       <c r="A2" s="139">
         <v>1</v>
       </c>
@@ -4633,7 +4598,7 @@
       <c r="O2" s="123"/>
       <c r="P2" s="123"/>
     </row>
-    <row r="3" spans="1:19" ht="29">
+    <row r="3" spans="1:19" ht="30">
       <c r="A3" s="139">
         <v>2</v>
       </c>
@@ -4674,7 +4639,7 @@
       <c r="P3" s="123"/>
       <c r="Q3" s="123"/>
     </row>
-    <row r="4" spans="1:19" ht="29">
+    <row r="4" spans="1:19" ht="30">
       <c r="A4" s="139">
         <v>3</v>
       </c>
@@ -4713,7 +4678,7 @@
       <c r="P4" s="123"/>
       <c r="Q4" s="123"/>
     </row>
-    <row r="5" spans="1:19" ht="29">
+    <row r="5" spans="1:19" ht="30">
       <c r="A5" s="139">
         <v>4</v>
       </c>
@@ -4754,7 +4719,7 @@
       <c r="P5" s="123"/>
       <c r="Q5" s="123"/>
     </row>
-    <row r="6" spans="1:19" ht="29">
+    <row r="6" spans="1:19" ht="30">
       <c r="A6" s="139">
         <v>5</v>
       </c>
@@ -4795,7 +4760,7 @@
       <c r="P6" s="123"/>
       <c r="Q6" s="123"/>
     </row>
-    <row r="7" spans="1:19" ht="29">
+    <row r="7" spans="1:19" ht="30">
       <c r="A7" s="136">
         <v>6</v>
       </c>
@@ -4834,7 +4799,7 @@
       <c r="P7" s="123"/>
       <c r="Q7" s="123"/>
     </row>
-    <row r="8" spans="1:19" ht="29">
+    <row r="8" spans="1:19" ht="30">
       <c r="A8" s="136">
         <v>7</v>
       </c>
@@ -4873,7 +4838,7 @@
       <c r="P8" s="123"/>
       <c r="Q8" s="123"/>
     </row>
-    <row r="9" spans="1:19" ht="29">
+    <row r="9" spans="1:19" ht="30">
       <c r="A9" s="136">
         <v>8</v>
       </c>
@@ -4910,7 +4875,7 @@
       <c r="P9" s="123"/>
       <c r="Q9" s="123"/>
     </row>
-    <row r="10" spans="1:19" ht="29">
+    <row r="10" spans="1:19" ht="30">
       <c r="A10" s="136">
         <v>9</v>
       </c>
@@ -4949,7 +4914,7 @@
       <c r="P10" s="123"/>
       <c r="Q10" s="123"/>
     </row>
-    <row r="11" spans="1:19" ht="29">
+    <row r="11" spans="1:19" ht="30">
       <c r="A11" s="136">
         <v>10</v>
       </c>
@@ -4988,7 +4953,7 @@
       <c r="P11" s="123"/>
       <c r="Q11" s="123"/>
     </row>
-    <row r="12" spans="1:19" ht="29">
+    <row r="12" spans="1:19" ht="30">
       <c r="A12" s="136">
         <v>11</v>
       </c>
@@ -5027,7 +4992,7 @@
       <c r="P12" s="123"/>
       <c r="Q12" s="123"/>
     </row>
-    <row r="13" spans="1:19" ht="29">
+    <row r="13" spans="1:19" ht="30">
       <c r="A13" s="136">
         <v>12</v>
       </c>
@@ -5066,7 +5031,7 @@
       <c r="P13" s="123"/>
       <c r="Q13" s="123"/>
     </row>
-    <row r="14" spans="1:19" ht="29">
+    <row r="14" spans="1:19" ht="30">
       <c r="A14" s="139">
         <v>13</v>
       </c>
@@ -5105,7 +5070,7 @@
       <c r="P14" s="123"/>
       <c r="Q14" s="123"/>
     </row>
-    <row r="15" spans="1:19" ht="29">
+    <row r="15" spans="1:19" ht="30">
       <c r="A15" s="139">
         <v>14</v>
       </c>
@@ -5144,7 +5109,7 @@
       <c r="P15" s="123"/>
       <c r="Q15" s="123"/>
     </row>
-    <row r="16" spans="1:19" ht="29">
+    <row r="16" spans="1:19" ht="30">
       <c r="A16" s="146">
         <v>15</v>
       </c>
@@ -5187,7 +5152,7 @@
       <c r="P16" s="123"/>
       <c r="Q16" s="123"/>
     </row>
-    <row r="17" spans="1:17" ht="29">
+    <row r="17" spans="1:17" ht="30">
       <c r="A17" s="146">
         <v>16</v>
       </c>
@@ -5230,7 +5195,7 @@
       <c r="P17" s="123"/>
       <c r="Q17" s="123"/>
     </row>
-    <row r="18" spans="1:17" ht="29">
+    <row r="18" spans="1:17" ht="30">
       <c r="A18" s="146">
         <v>17</v>
       </c>
@@ -5273,7 +5238,7 @@
       <c r="P18" s="123"/>
       <c r="Q18" s="123"/>
     </row>
-    <row r="19" spans="1:17" ht="29">
+    <row r="19" spans="1:17" ht="30">
       <c r="A19" s="146">
         <v>18</v>
       </c>
@@ -5316,7 +5281,7 @@
       <c r="P19" s="123"/>
       <c r="Q19" s="123"/>
     </row>
-    <row r="20" spans="1:17" ht="29">
+    <row r="20" spans="1:17" ht="30">
       <c r="A20" s="146">
         <v>19</v>
       </c>
@@ -5359,7 +5324,7 @@
       <c r="P20" s="123"/>
       <c r="Q20" s="123"/>
     </row>
-    <row r="21" spans="1:17" ht="29">
+    <row r="21" spans="1:17" ht="30">
       <c r="A21" s="146">
         <v>20</v>
       </c>
@@ -6123,7 +6088,7 @@
       <c r="O39" s="123"/>
       <c r="P39" s="123"/>
     </row>
-    <row r="40" spans="1:20" ht="29">
+    <row r="40" spans="1:20" ht="45">
       <c r="A40" s="141">
         <v>39</v>
       </c>
@@ -6181,7 +6146,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="29">
+    <row r="41" spans="1:20" ht="45">
       <c r="A41" s="141">
         <v>40</v>
       </c>
@@ -6239,7 +6204,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="29">
+    <row r="42" spans="1:20" ht="45">
       <c r="A42" s="141">
         <v>41</v>
       </c>
@@ -7559,246 +7524,246 @@
     <cfRule type="duplicateValues" dxfId="93" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J7" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G10:G14" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H10" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H11:H14" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G15" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="H15" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G16" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H16" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="I16" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G17" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G18" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G19" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G20" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H17" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="H18" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H19" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H20" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I17" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="I18" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I19" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="I20" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="H21" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I21" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G27" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="H27" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="L27" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="N27" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G24" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G25" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G22" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="G23" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G26" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J10:J15" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="L17:L21" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="L16" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="I27" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="J27" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="M27" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="K27" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="O27" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="G28" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G30" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="H28" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="H30" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="L28" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="L30" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="N28" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="N30" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="I28" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="I30" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="J28" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="J30" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="M28" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="M30" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="K28" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="K30" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="O28" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="O30" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="H31" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="K31" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="N31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="I31" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="L31" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="J31" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="O31" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="G29" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="H29" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="L29" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="N29" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="I29" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="J29" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="M29" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="K29" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="O29" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="G32" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="H32" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="L32" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="I32" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J32" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="M32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="K32" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="O32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="P32" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="G34" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="I37" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="H33" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="I33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="J33" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="K33" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="L33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="M33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="N33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="G33" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="H34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="I34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="J34" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="L34" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="M34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="N34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="O34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="H47" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="H48" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="I47" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="J47" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="I48" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="G47" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="G48" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="G49" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="G40" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="N40" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="G41:G42" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="J54" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="M47" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="N47" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="O47" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="N32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="K48" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="L47" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="J48" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="K47" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="G39" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="G38" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="G53:G54" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="H53" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="I53" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="J35" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="G36" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="I36" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="J36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="L37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="J37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="K36" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="M37" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="H38" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="H39" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="G50" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="G50:G52" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="K2" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="J2" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="K3" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="K5" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="J3" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="J4" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="J5" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="K6" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="J6" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="K16" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="K17:K21" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="J16" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="J17:J21" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="I2" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="I3:I6" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="J55" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="I55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="G55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="K55" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="J56" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="J57" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="J58" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="G69" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="K71" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="H71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="I71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="J71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="L71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="M71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="G56:G57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="I56:I57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="G63" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="G64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="G70" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="H40" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="I40" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="I41:I42" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="H41:H42" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="K41" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="K42" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="K40" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="J42" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="J40:J41" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="L42" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="L40:L41" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="N41" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="O41" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="O40" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="O42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="P42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="O40:O41" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="R41" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="R40" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="R42" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="S40" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="R41:R42" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="T41" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="T40" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="T42" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="L54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="H55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="H56:H57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="K57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="H54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="I54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="K54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="G74" location="'ic_NavigetoWishlist++'!A1" display="NavigateToWishlist_VerifyLoginPageAppear" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="G78" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="G79" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="G59:G62" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="I58" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="I59:I62" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="G75" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="G76:G77" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="G80" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="H80" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="I80" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="L80" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="G43" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="H43" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="I43" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="G35" location="'ic_login++'!A1" display="ic_login" xr:uid="{770E4EA5-88B6-4896-9633-9B10533B4FAA}"/>
-    <hyperlink ref="H36" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="I35" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{4A99E2A4-F6BB-4510-A98D-D53A0F073714}"/>
+    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
+    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
+    <hyperlink ref="J7" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G10:G14" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H10" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="H11:H14" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="G15" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H15" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="G16" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H16" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I16" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G17" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G18" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G19" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G20" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H17" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H18" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H19" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H20" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I17" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I18" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I19" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I20" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H21" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I21" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G27" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H27" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L27" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N27" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="G24" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G25" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G22" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G23" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G26" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="J10:J15" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="L17:L21" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="L16" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="I27" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J27" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M27" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K27" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O27" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G28" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G30" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H28" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="H30" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L28" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="L30" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N28" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="N30" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="I28" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="I30" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J28" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="J30" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M28" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="M30" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K28" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="K30" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O28" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="O30" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H31" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="K31" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="I31" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="L31" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="J31" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O31" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G29" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H29" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L29" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N29" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="I29" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J29" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M29" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K29" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O29" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G32" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H32" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L32" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I32" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J32" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K32" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="P32" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G34" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="I37" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H33" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="I33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J33" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="K33" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="L33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="M33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="N33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="G33" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
+    <hyperlink ref="H34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
+    <hyperlink ref="I34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J34" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L34" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="M34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="N34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="H47" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
+    <hyperlink ref="H48" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
+    <hyperlink ref="I47" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
+    <hyperlink ref="J47" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
+    <hyperlink ref="I48" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
+    <hyperlink ref="G47" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G48" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G49" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID"/>
+    <hyperlink ref="G40" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="N40" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G41:G42" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="J54" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="M47" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N47" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter"/>
+    <hyperlink ref="O47" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification"/>
+    <hyperlink ref="N32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="K48" location="'EnterContact++'!A1" display="EnterContact"/>
+    <hyperlink ref="L47" location="'EnterContact++'!A1" display="EnterContact"/>
+    <hyperlink ref="J48" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
+    <hyperlink ref="K47" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
+    <hyperlink ref="G39" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G38" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G53:G54" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="H53" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I53" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="J35" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="G36" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I36" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="J36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="L37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
+    <hyperlink ref="K36" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M37" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="H38" location="'giftCardReport++'!A1" display="giftCardReport"/>
+    <hyperlink ref="H39" location="'giftCardReport++'!A1" display="giftCardReport"/>
+    <hyperlink ref="G50" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
+    <hyperlink ref="G50:G52" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
+    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="K2" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="J2" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K3" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="K5" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="J3" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="J4" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="J5" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K6" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="J6" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K16" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K17:K21" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="J16" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="J17:J21" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="I2" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="I3:I6" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="J55" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="G55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="K55" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart"/>
+    <hyperlink ref="J56" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="J57" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="J58" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="G69" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="K71" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="I71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="J71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="L71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail"/>
+    <hyperlink ref="M71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification"/>
+    <hyperlink ref="G56:G57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="I56:I57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="G63" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
+    <hyperlink ref="G64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
+    <hyperlink ref="G70" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H40" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="I40" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I41:I42" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H41:H42" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="K41" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K42" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K40" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J42" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="J40:J41" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L42" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L40:L41" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="N41" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="O41" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="O40" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="O42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="P42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O40:O41" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="R41" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="R40" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="R42" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="S40" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="R41:R42" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="T41" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="T40" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="T42" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="L54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="H55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="H56:H57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="K57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="H54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="K54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="G74" location="'ic_NavigetoWishlist++'!A1" display="NavigateToWishlist_VerifyLoginPageAppear"/>
+    <hyperlink ref="G78" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G79" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G59:G62" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="I58" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I59:I62" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G75" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G76:G77" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G80" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H80" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="I80" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="L80" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G43" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H43" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="I43" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G35" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H36" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
+    <hyperlink ref="I35" location="'ProductSearch++'!A1" display="ProductSearch"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7806,29 +7771,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="36" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7265625" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="36"/>
+    <col min="13" max="13" width="17.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -7962,10 +7927,10 @@
     <cfRule type="duplicateValues" dxfId="74" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0900-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7974,25 +7939,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.26953125" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="36"/>
+    <col min="4" max="4" width="22.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -8090,13 +8055,13 @@
     <cfRule type="duplicateValues" dxfId="72" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"ABSA,AFRICAN BANK,BIDVEST.CAPITEC,FNB,INVESTEC,NEDBANK,STANDARD BANK SA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0A00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>"English,Afrikaans,Sesotho,Xhosa,Zulu"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8105,28 +8070,28 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.26953125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="36" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7265625" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="36"/>
+    <col min="10" max="10" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -8242,7 +8207,7 @@
     <cfRule type="duplicateValues" dxfId="70" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8250,7 +8215,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Preferred Store'!$A$2:$A$71</xm:f>
           </x14:formula1>
@@ -8263,24 +8228,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="36"/>
+    <col min="8" max="8" width="18.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8369,7 +8334,7 @@
     <cfRule type="duplicateValues" dxfId="68" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Domestic Worker,Company Employed,Government Employed,Full-time Housewife,Self Employed - Company Owner,Self Employed - Informal Trader,Student,Unemployed,Pensioner/Retired,Contract Worker,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8379,38 +8344,38 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.1796875" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" style="36" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="36" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" style="36"/>
-    <col min="15" max="15" width="23.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7265625" style="36" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" style="36" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7265625" style="36" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.1796875" style="36"/>
+    <col min="14" max="14" width="9.140625" style="36"/>
+    <col min="15" max="15" width="23.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -8625,25 +8590,25 @@
     <cfRule type="duplicateValues" dxfId="66" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{00000000-0002-0000-0D00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
       <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3" xr:uid="{00000000-0002-0000-0D00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3">
       <formula1>"African,Asian,Coloured,White,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{00000000-0002-0000-0D00-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3">
       <formula1>"Single,Married / Civil Partnership,Widowed,Divorced,Separated,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{00000000-0002-0000-0D00-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3">
       <formula1>"ANC with Accrual,ANC without Accrual,In Community,Customary Union,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3" xr:uid="{00000000-0002-0000-0D00-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576" xr:uid="{00000000-0002-0000-0D00-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
       <formula1>"0,1,2,3,4,5,6,7,8,9"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8653,22 +8618,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="36"/>
+    <col min="4" max="4" width="20.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8724,15 +8689,15 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="35"/>
@@ -8779,25 +8744,25 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1796875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="29"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -8870,7 +8835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8881,42 +8846,42 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="20.26953125" style="11" customWidth="1"/>
-    <col min="15" max="15" width="31.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="11" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="30" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="20" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.1796875" style="11" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="11.54296875" style="11" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="11"/>
+    <col min="27" max="27" width="23.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.140625" style="11" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" style="11" customWidth="1"/>
+    <col min="31" max="16384" width="8.7109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="30">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -9520,64 +9485,64 @@
     <cfRule type="duplicateValues" dxfId="56" priority="47"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10" xr:uid="{00000000-0002-0000-1100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10">
       <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7" xr:uid="{00000000-0002-0000-1100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D6:D7" r:id="rId1" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
-    <hyperlink ref="D2:D4" r:id="rId3" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-1100-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-1100-000003000000}"/>
-    <hyperlink ref="D5" r:id="rId5" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-1100-000004000000}"/>
+    <hyperlink ref="D6:D7" r:id="rId1" display="original2Ic@automationjdg.co.za"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D2:D4" r:id="rId3" display="original2Ic@automationjdg.co.za"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5" display="original2Ic@automationjdg.co.za"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.26953125" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.54296875" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.54296875" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" style="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21" style="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="25" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="30" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.7265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20" style="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.7265625" style="12"/>
+    <col min="28" max="28" width="23.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.7109375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -10199,7 +10164,7 @@
     <cfRule type="duplicateValues" dxfId="50" priority="29"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576" xr:uid="{00000000-0002-0000-1200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10208,17 +10173,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="39.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10251,14 +10216,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10269,14 +10234,14 @@
       <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10712,7 +10677,7 @@
     <cfRule type="duplicateValues" dxfId="48" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Guest Customer Creation, Customer Creation, Customer Update,Customer Creation Magento Admin, Customer Update Magento Admin"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10721,22 +10686,22 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10890,24 +10855,24 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="38" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="38"/>
+    <col min="11" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="55" customFormat="1">
@@ -11337,17 +11302,19 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11565,7 +11532,7 @@
     <cfRule type="duplicateValues" dxfId="46" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"payUcreditcard,Cash_Deposits"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11574,31 +11541,31 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="29">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="30">
       <c r="A1" s="37" t="s">
         <v>34</v>
       </c>
@@ -11848,7 +11815,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="4" customFormat="1">
+    <row r="6" spans="1:16" s="4" customFormat="1" ht="30">
       <c r="A6" s="16">
         <v>30</v>
       </c>
@@ -11898,7 +11865,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="4" customFormat="1" ht="29">
+    <row r="7" spans="1:16" s="4" customFormat="1" ht="30">
       <c r="A7" s="16">
         <v>31</v>
       </c>
@@ -12439,14 +12406,14 @@
     <cfRule type="duplicateValues" dxfId="42" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
-    <hyperlink ref="O3" r:id="rId2" xr:uid="{00000000-0004-0000-1700-000001000000}"/>
-    <hyperlink ref="O4" r:id="rId3" xr:uid="{00000000-0004-0000-1700-000002000000}"/>
-    <hyperlink ref="O5" r:id="rId4" xr:uid="{00000000-0004-0000-1700-000003000000}"/>
-    <hyperlink ref="O8" r:id="rId5" xr:uid="{00000000-0004-0000-1700-000004000000}"/>
-    <hyperlink ref="O6" r:id="rId6" xr:uid="{00000000-0004-0000-1700-000005000000}"/>
-    <hyperlink ref="O7" r:id="rId7" xr:uid="{00000000-0004-0000-1700-000006000000}"/>
-    <hyperlink ref="O9" r:id="rId8" xr:uid="{00000000-0004-0000-1700-000007000000}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="O8" r:id="rId5"/>
+    <hyperlink ref="O6" r:id="rId6"/>
+    <hyperlink ref="O7" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
@@ -12454,18 +12421,18 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" style="29"/>
+    <col min="1" max="1" width="21.140625" style="29"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" style="29"/>
+    <col min="3" max="3" width="21.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12485,7 +12452,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29">
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="45">
         <v>1</v>
       </c>
@@ -12496,7 +12463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29">
+    <row r="3" spans="1:5" ht="30">
       <c r="A3" s="45">
         <v>2</v>
       </c>
@@ -12507,7 +12474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="45">
         <v>3</v>
       </c>
@@ -12518,7 +12485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29">
+    <row r="5" spans="1:5" ht="30">
       <c r="A5" s="45">
         <v>4</v>
       </c>
@@ -12529,7 +12496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="45">
         <v>5</v>
       </c>
@@ -12584,7 +12551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="30">
       <c r="A11" s="45">
         <v>19</v>
       </c>
@@ -12624,25 +12591,25 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.54296875" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="6"/>
+    <col min="4" max="4" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -12787,29 +12754,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-1900-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-1900-000001000000}"/>
-    <hyperlink ref="J3" r:id="rId3" xr:uid="{00000000-0004-0000-1900-000002000000}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{00000000-0004-0000-1900-000003000000}"/>
-    <hyperlink ref="J4" r:id="rId5" xr:uid="{00000000-0004-0000-1900-000004000000}"/>
-    <hyperlink ref="H4" r:id="rId6" xr:uid="{00000000-0004-0000-1900-000005000000}"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId4"/>
+    <hyperlink ref="J4" r:id="rId5"/>
+    <hyperlink ref="H4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.7265625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" style="11" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12826,7 +12793,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="16">
         <v>26</v>
       </c>
@@ -12840,7 +12807,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="29">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="45">
       <c r="A3" s="16">
         <v>27</v>
       </c>
@@ -12854,7 +12821,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29">
+    <row r="4" spans="1:4" ht="45">
       <c r="A4" s="16">
         <v>28</v>
       </c>
@@ -12868,7 +12835,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29">
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" s="16">
         <v>29</v>
       </c>
@@ -12882,7 +12849,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" s="16">
         <v>30</v>
       </c>
@@ -12896,7 +12863,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="16">
         <v>31</v>
       </c>
@@ -12952,7 +12919,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29">
+    <row r="11" spans="1:4" ht="30">
       <c r="A11" s="142">
         <v>40</v>
       </c>
@@ -12966,7 +12933,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29">
+    <row r="12" spans="1:4" ht="45">
       <c r="A12" s="61">
         <v>41</v>
       </c>
@@ -13036,19 +13003,19 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13296,21 +13263,21 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="38"/>
+    <col min="5" max="5" width="13.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -13390,7 +13357,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="16">
         <v>30</v>
       </c>
@@ -13540,17 +13507,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -13589,14 +13556,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13607,14 +13574,14 @@
       <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="1"/>
+    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -14253,7 +14220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14263,13 +14230,13 @@
       <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="11"/>
+    <col min="4" max="4" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -14286,7 +14253,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="16">
         <v>26</v>
       </c>
@@ -14298,7 +14265,7 @@
       </c>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="1:4" ht="29">
+    <row r="3" spans="1:4" ht="45">
       <c r="A3" s="16">
         <v>27</v>
       </c>
@@ -14310,7 +14277,7 @@
       </c>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="1:4" ht="29">
+    <row r="4" spans="1:4" ht="45">
       <c r="A4" s="16">
         <v>28</v>
       </c>
@@ -14322,7 +14289,7 @@
       </c>
       <c r="D4" s="16"/>
     </row>
-    <row r="5" spans="1:4" ht="29">
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" s="16">
         <v>29</v>
       </c>
@@ -14334,7 +14301,7 @@
       </c>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="1:4" ht="29">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" s="16">
         <v>30</v>
       </c>
@@ -14346,7 +14313,7 @@
       </c>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="1:4" ht="29">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="16">
         <v>31</v>
       </c>
@@ -14382,7 +14349,7 @@
       </c>
       <c r="D9" s="115"/>
     </row>
-    <row r="10" spans="1:4" ht="29">
+    <row r="10" spans="1:4" ht="30">
       <c r="A10" s="16">
         <v>39</v>
       </c>
@@ -14394,7 +14361,7 @@
       </c>
       <c r="D10" s="16"/>
     </row>
-    <row r="11" spans="1:4" ht="29">
+    <row r="11" spans="1:4" ht="30">
       <c r="A11" s="16">
         <v>40</v>
       </c>
@@ -14406,7 +14373,7 @@
       </c>
       <c r="D11" s="16"/>
     </row>
-    <row r="12" spans="1:4" ht="43.5">
+    <row r="12" spans="1:4" ht="45">
       <c r="A12" s="16">
         <v>41</v>
       </c>
@@ -14463,33 +14430,33 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="82" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="82" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="82" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.54296875" style="82" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.54296875" style="82" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" style="82" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="82" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.7265625" style="82" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.26953125" style="82" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.26953125" style="82" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="82"/>
+    <col min="4" max="4" width="20.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="82" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="30">
       <c r="A1" s="78" t="s">
         <v>34</v>
       </c>
@@ -14588,7 +14555,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="29">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="83">
         <v>28</v>
       </c>
@@ -15196,7 +15163,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="29">
+    <row r="23" spans="1:11" ht="30">
       <c r="A23" s="85">
         <v>61</v>
       </c>
@@ -15421,7 +15388,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="113" customFormat="1" ht="29">
+    <row r="30" spans="1:11" s="113" customFormat="1" ht="30">
       <c r="A30" s="113">
         <v>78</v>
       </c>
@@ -15506,13 +15473,13 @@
     <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G15" xr:uid="{00000000-0002-0000-1F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G15">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F15" xr:uid="{00000000-0002-0000-1F00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F15">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J15" xr:uid="{00000000-0002-0000-1F00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J15">
       <formula1>"Yes_Wishlist,No_wishlist"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15522,13 +15489,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-1F00-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D31</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-1F00-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$7</xm:f>
           </x14:formula1>
@@ -15541,20 +15508,20 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15604,16 +15571,16 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.26953125" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -15712,21 +15679,21 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="31"/>
+    <col min="4" max="4" width="18.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -15812,7 +15779,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{9E5A17E6-7578-4ADA-8FDE-A9BAAB836B5E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"Reuse,Redeem"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15822,21 +15789,21 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -15906,19 +15873,21 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="96" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="96" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="96" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="96" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="96" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1796875" style="96" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="96"/>
+    <col min="5" max="5" width="23.140625" style="96" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="96"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -16278,7 +16247,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.15" customHeight="1">
+    <row r="22" spans="1:5" ht="14.1" customHeight="1">
       <c r="A22" s="57">
         <v>64</v>
       </c>
@@ -16361,40 +16330,40 @@
     <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Password@123" xr:uid="{00000000-0004-0000-2400-000000000000}"/>
-    <hyperlink ref="E8" r:id="rId2" xr:uid="{00000000-0004-0000-2400-000001000000}"/>
-    <hyperlink ref="E13" r:id="rId3" display="Password@123" xr:uid="{00000000-0004-0000-2400-000003000000}"/>
-    <hyperlink ref="E22" r:id="rId4" xr:uid="{00000000-0004-0000-2400-000005000000}"/>
-    <hyperlink ref="E23" r:id="rId5" xr:uid="{00000000-0004-0000-2400-000006000000}"/>
-    <hyperlink ref="D13" r:id="rId6" xr:uid="{00000000-0004-0000-2400-000007000000}"/>
-    <hyperlink ref="E14" r:id="rId7" display="Password@123" xr:uid="{00000000-0004-0000-2400-000008000000}"/>
-    <hyperlink ref="E3" r:id="rId8" display="Password@123" xr:uid="{00000000-0004-0000-2400-000009000000}"/>
-    <hyperlink ref="E4" r:id="rId9" display="Password@123" xr:uid="{00000000-0004-0000-2400-00000A000000}"/>
-    <hyperlink ref="E5" r:id="rId10" display="Password@123" xr:uid="{00000000-0004-0000-2400-00000B000000}"/>
-    <hyperlink ref="E6" r:id="rId11" display="Password@123" xr:uid="{00000000-0004-0000-2400-00000C000000}"/>
-    <hyperlink ref="E7" r:id="rId12" display="Password@123" xr:uid="{00000000-0004-0000-2400-00000D000000}"/>
-    <hyperlink ref="E12" r:id="rId13" display="Password@123" xr:uid="{00000000-0004-0000-2400-00000F000000}"/>
-    <hyperlink ref="D14" r:id="rId14" xr:uid="{00000000-0004-0000-2400-000010000000}"/>
-    <hyperlink ref="D17" r:id="rId15" xr:uid="{00000000-0004-0000-2400-000011000000}"/>
-    <hyperlink ref="E17" r:id="rId16" display="Password@123" xr:uid="{00000000-0004-0000-2400-000012000000}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-2400-000013000000}"/>
-    <hyperlink ref="E18" r:id="rId18" display="Password@123" xr:uid="{00000000-0004-0000-2400-000014000000}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-2400-000016000000}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-2400-000017000000}"/>
-    <hyperlink ref="D24" r:id="rId21" xr:uid="{00000000-0004-0000-2400-000018000000}"/>
-    <hyperlink ref="D25" r:id="rId22" xr:uid="{00000000-0004-0000-2400-000019000000}"/>
-    <hyperlink ref="D16" r:id="rId23" xr:uid="{00000000-0004-0000-2400-00001A000000}"/>
-    <hyperlink ref="E19" r:id="rId24" display="Password@123" xr:uid="{9DE4937D-D670-4004-BABD-937908D2B8FF}"/>
-    <hyperlink ref="D19" r:id="rId25" xr:uid="{2667FCEB-48C3-4DEB-8E91-90106CD49276}"/>
-    <hyperlink ref="D11" r:id="rId26" xr:uid="{311EE7EE-79B8-4456-9363-371B2CFF69FF}"/>
-    <hyperlink ref="E11" r:id="rId27" display="Password@123" xr:uid="{C1F2C4A4-1D2B-40DF-BA66-59426BE2F0A4}"/>
-    <hyperlink ref="D15" r:id="rId28" xr:uid="{E85D79CD-C8BE-4E16-B534-66148B0C7630}"/>
-    <hyperlink ref="E15" r:id="rId29" display="Password@123" xr:uid="{D43E0D8D-90A7-47A9-B4E2-CCA3182D87CE}"/>
-    <hyperlink ref="D8" r:id="rId30" xr:uid="{4E18E016-3D21-4E26-9395-3269A0A032B0}"/>
-    <hyperlink ref="D10" r:id="rId31" xr:uid="{196C9777-3F89-4FBB-9CB7-8F8751E0766A}"/>
-    <hyperlink ref="E10" r:id="rId32" xr:uid="{00000000-0004-0000-2400-000002000000}"/>
-    <hyperlink ref="D9" r:id="rId33" xr:uid="{71575DF5-FAC7-4407-8EF2-865BB24C94AA}"/>
-    <hyperlink ref="E9" r:id="rId34" xr:uid="{D9E88B3D-3CB9-41A1-B589-617FA4E37CE0}"/>
+    <hyperlink ref="E2" r:id="rId1" display="Password@123"/>
+    <hyperlink ref="E8" r:id="rId2"/>
+    <hyperlink ref="E13" r:id="rId3" display="Password@123"/>
+    <hyperlink ref="E22" r:id="rId4"/>
+    <hyperlink ref="E23" r:id="rId5"/>
+    <hyperlink ref="D13" r:id="rId6"/>
+    <hyperlink ref="E14" r:id="rId7" display="Password@123"/>
+    <hyperlink ref="E3" r:id="rId8" display="Password@123"/>
+    <hyperlink ref="E4" r:id="rId9" display="Password@123"/>
+    <hyperlink ref="E5" r:id="rId10" display="Password@123"/>
+    <hyperlink ref="E6" r:id="rId11" display="Password@123"/>
+    <hyperlink ref="E7" r:id="rId12" display="Password@123"/>
+    <hyperlink ref="E12" r:id="rId13" display="Password@123"/>
+    <hyperlink ref="D14" r:id="rId14"/>
+    <hyperlink ref="D17" r:id="rId15"/>
+    <hyperlink ref="E17" r:id="rId16" display="Password@123"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="E18" r:id="rId18" display="Password@123"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D24" r:id="rId21"/>
+    <hyperlink ref="D25" r:id="rId22"/>
+    <hyperlink ref="D16" r:id="rId23"/>
+    <hyperlink ref="E19" r:id="rId24" display="Password@123"/>
+    <hyperlink ref="D19" r:id="rId25"/>
+    <hyperlink ref="D11" r:id="rId26"/>
+    <hyperlink ref="E11" r:id="rId27" display="Password@123"/>
+    <hyperlink ref="D15" r:id="rId28"/>
+    <hyperlink ref="E15" r:id="rId29" display="Password@123"/>
+    <hyperlink ref="D8" r:id="rId30"/>
+    <hyperlink ref="D10" r:id="rId31"/>
+    <hyperlink ref="E10" r:id="rId32"/>
+    <hyperlink ref="D9" r:id="rId33"/>
+    <hyperlink ref="E9" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId35"/>
@@ -16402,15 +16371,15 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16578,22 +16547,22 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -16667,27 +16636,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-2600-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-2600-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="81" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="81" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="81"/>
+    <col min="4" max="16384" width="9.140625" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -16780,20 +16749,20 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -16836,27 +16805,27 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -16937,28 +16906,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-2800-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -17048,7 +17017,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-2900-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -17056,26 +17025,26 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -17183,9 +17152,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-2A00-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-2A00-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-2A00-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -17193,19 +17162,19 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1">
@@ -17222,7 +17191,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24.65" customHeight="1">
+    <row r="2" spans="1:4" ht="24.6" customHeight="1">
       <c r="A2" s="3">
         <v>9</v>
       </c>
@@ -17233,7 +17202,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="111" customFormat="1" ht="24.65" customHeight="1">
+    <row r="3" spans="1:4" s="111" customFormat="1" ht="24.6" customHeight="1">
       <c r="A3" s="3">
         <v>20</v>
       </c>
@@ -17250,31 +17219,31 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29">
+    <row r="1" spans="1:12" ht="30">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -17380,7 +17349,7 @@
       </c>
       <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="30">
       <c r="A4" s="16">
         <v>8</v>
       </c>
@@ -17719,17 +17688,17 @@
     <cfRule type="duplicateValues" dxfId="6" priority="56"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-2C00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
       <formula1>"Main Website,Incredible Connection"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 F5:F1048576" xr:uid="{00000000-0002-0000-2C00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 F5:F1048576">
       <formula1>"SAID,Passport"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-2C00-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-2C00-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-2C00-000002000000}"/>
+    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com"/>
+    <hyperlink ref="F3" r:id="rId2" display="TestAutomation2@gmail.com"/>
+    <hyperlink ref="F4" r:id="rId3" display="TestAutomation2@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -17738,16 +17707,16 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3509520-EB85-4711-A026-B1391A2A12CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17779,7 +17748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -17789,28 +17758,28 @@
       <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="121" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="121" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="121" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="121" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="121" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="121" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.54296875" style="121" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="121" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.54296875" style="121" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="121" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="121" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="121" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="121" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="121" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="121" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="121" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11" style="121" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.81640625" style="121" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7265625" style="121" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.26953125" style="121" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.1796875" style="121" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.54296875" style="121" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7265625" style="121" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.453125" style="121" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.453125" style="121" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.1796875" style="121" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.1796875" style="121"/>
+    <col min="12" max="12" width="20.85546875" style="121" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="121" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="121" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" style="121" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="121" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" style="121" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" style="121" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.42578125" style="121" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" style="121" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="121"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -18309,7 +18278,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" ht="30">
       <c r="A9" s="115">
         <v>23</v>
       </c>
@@ -18371,7 +18340,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" ht="30">
       <c r="A10" s="115">
         <v>24</v>
       </c>
@@ -18877,21 +18846,21 @@
     <cfRule type="duplicateValues" dxfId="0" priority="66"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L11 L31" xr:uid="{00000000-0002-0000-2D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L11 L31">
       <formula1>"Main Website,Incredible Connection,Hifi Corporation,Russells,Sleepmasters,Rochester"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I11 P2:T11 I31 P31:T31" xr:uid="{00000000-0002-0000-2D00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I11 P2:T11 I31 P31:T31">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N11 N31" xr:uid="{00000000-0002-0000-2D00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N11 N31">
       <formula1>"ID, Passport"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M11 M31" xr:uid="{00000000-0002-0000-2D00-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M11 M31">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" xr:uid="{00000000-0004-0000-2D00-000000000000}"/>
+    <hyperlink ref="F7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -18899,21 +18868,21 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1">
@@ -19003,19 +18972,19 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
@@ -19207,20 +19176,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="76" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" style="76" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="76" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="76" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" style="76" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="76"/>
+    <col min="4" max="4" width="19.28515625" style="76" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="76"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -19363,7 +19332,7 @@
     <cfRule type="duplicateValues" dxfId="87" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
       <formula1>"All,Specific"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19372,21 +19341,21 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -19476,21 +19445,21 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -19580,16 +19549,16 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -19953,21 +19922,21 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -20057,21 +20026,21 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView topLeftCell="L14" workbookViewId="0">
       <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -20161,21 +20130,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="73" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" style="73" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="73" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="73" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="73" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="73" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="73" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.54296875" style="73" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="73" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="73" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="73"/>
+    <col min="8" max="16384" width="9.140625" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -20371,35 +20340,35 @@
     <cfRule type="duplicateValues" dxfId="85" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
       <formula1>"ExistingUser,logedOn_user"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="E4:E7" r:id="rId3" display="watlevi41@gmail.com" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4:E7" r:id="rId3" display="watlevi41@gmail.com"/>
+    <hyperlink ref="E8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="50" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="50" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="50"/>
+    <col min="5" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20778,7 +20747,7 @@
     <cfRule type="duplicateValues" dxfId="79" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Update Account,Update Account Magento Admin,Create Account,Create Account Magento Admin,Guest Customer Creation,Registered customer from sales order"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20787,19 +20756,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="36"/>
+    <col min="4" max="4" width="11.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -20879,21 +20848,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="36"/>
+    <col min="4" max="4" width="15.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A4FD97-099E-4067-AC41-47E17D762609}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24CEC30-2711-4EF0-AFD5-7468B480A9F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="31" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="23" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2918" uniqueCount="729">
   <si>
     <t>testSuitID</t>
   </si>
@@ -2326,10 +2326,13 @@
     <t>ZZXAE</t>
   </si>
   <si>
-    <t>L2HNZNUJ6YLV4XG</t>
-  </si>
-  <si>
-    <t>FSB4M</t>
+    <t>PEGVWZ4ZUJW8J6N</t>
+  </si>
+  <si>
+    <t>PJNWN</t>
+  </si>
+  <si>
+    <t>ic_RetriveGiftCardOrderID</t>
   </si>
 </sst>
 </file>
@@ -4506,11 +4509,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="J22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -5862,20 +5865,23 @@
       <c r="J33" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="K33" s="125" t="s">
+      <c r="K33" s="126" t="s">
+        <v>728</v>
+      </c>
+      <c r="L33" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="L33" s="125" t="s">
+      <c r="M33" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="M33" s="125" t="s">
+      <c r="N33" s="125" t="s">
         <v>109</v>
       </c>
-      <c r="N33" s="126" t="s">
+      <c r="O33" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="O33" s="123"/>
       <c r="P33" s="123"/>
+      <c r="Q33" s="123"/>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="139">
@@ -5894,7 +5900,7 @@
         <v>196</v>
       </c>
       <c r="F34" s="123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G34" s="126" t="s">
         <v>154</v>
@@ -5909,7 +5915,7 @@
         <v>33</v>
       </c>
       <c r="K34" s="126" t="s">
-        <v>266</v>
+        <v>728</v>
       </c>
       <c r="L34" s="125" t="s">
         <v>86</v>
@@ -6025,7 +6031,7 @@
         <v>196</v>
       </c>
       <c r="F37" s="123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G37" s="126" t="s">
         <v>154</v>
@@ -7662,10 +7668,10 @@
     <hyperlink ref="H33" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
     <hyperlink ref="I33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
     <hyperlink ref="J33" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="K33" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="L33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="M33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="N33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="L33" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="M33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="N33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="O33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
     <hyperlink ref="G33" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
     <hyperlink ref="H34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
     <hyperlink ref="I34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
@@ -7699,7 +7705,7 @@
     <hyperlink ref="G53:G54" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
     <hyperlink ref="H53" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
     <hyperlink ref="I53" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="J35" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="J35" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
     <hyperlink ref="G36" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
     <hyperlink ref="I36" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
     <hyperlink ref="J36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
@@ -14260,7 +14266,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -15715,8 +15721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E3:E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -15909,7 +15915,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
@@ -16173,7 +16181,7 @@
         <v>656</v>
       </c>
       <c r="E15" s="93" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="122" customFormat="1">

--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -4472,10 +4472,10 @@
   <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5990,7 +5990,7 @@
         <v>196</v>
       </c>
       <c r="F37" s="123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G37" s="126" t="s">
         <v>154</v>
@@ -6277,7 +6277,7 @@
         <v>196</v>
       </c>
       <c r="F43" s="123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G43" s="128" t="s">
         <v>154</v>
@@ -20911,6 +20911,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E4315169E4449459811E1A2A421A5D2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="484de8a0a7035cbf3240ac5ef037eda8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="38ec8e4d-8506-4d8b-b040-96d37469ddf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40b4f8b6fbe630a6badbf346a8d0e64c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -21059,15 +21068,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -21078,6 +21078,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED871C4-2A4D-4B74-98A2-587321F60978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21096,23 +21113,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
   <ds:schemaRefs>

--- a/src/test/resources/data/jdgroupMAIN.xlsx
+++ b/src/test/resources/data/jdgroupMAIN.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD550D8C-5AA7-49E5-8C9D-0B4743DF856C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EAD783-0611-4FD3-B26C-3C30DCF141F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="735">
   <si>
     <t>testSuitID</t>
   </si>
@@ -2314,12 +2314,6 @@
     <t>ZZXAE</t>
   </si>
   <si>
-    <t>PEGVWZ4ZUJW8J6N</t>
-  </si>
-  <si>
-    <t>PJNWN</t>
-  </si>
-  <si>
     <t>ic_RetriveGiftCardOrderID</t>
   </si>
   <si>
@@ -2327,13 +2321,43 @@
   </si>
   <si>
     <t>Password1</t>
+  </si>
+  <si>
+    <t>RickyEEichhorn@rhyta.com</t>
+  </si>
+  <si>
+    <t>LisaEIves@armyspy.com</t>
+  </si>
+  <si>
+    <t>gift card</t>
+  </si>
+  <si>
+    <t>TW473W94GJ43ZAW</t>
+  </si>
+  <si>
+    <t>4DYZT</t>
+  </si>
+  <si>
+    <t>deliveryPopulationGiftCard</t>
+  </si>
+  <si>
+    <t>XDEPDTHUAWSCEMS</t>
+  </si>
+  <si>
+    <t>7DJLW</t>
+  </si>
+  <si>
+    <t>CheckoutpaymentOptionGiftCard</t>
+  </si>
+  <si>
+    <t>Action14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2426,6 +2450,12 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -2551,7 +2581,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2961,6 +2991,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2969,7 +3002,27 @@
     <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="120">
+  <dxfs count="122">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4507,10 +4560,10 @@
   <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4522,7 +4575,7 @@
     <col min="5" max="5" width="9.81640625" style="130" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.1796875" style="130" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.26953125" style="130" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.54296875" style="130" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.6328125" style="130" customWidth="1"/>
     <col min="9" max="9" width="31.453125" style="130" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.7265625" style="130" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.453125" style="130" bestFit="1" customWidth="1"/>
@@ -4534,7 +4587,7 @@
     <col min="19" max="16384" width="9.1796875" style="130"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="60" t="s">
         <v>15</v>
       </c>
@@ -4592,8 +4645,11 @@
       <c r="S1" s="144" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="29">
+      <c r="T1" s="144" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="29">
       <c r="A2" s="139">
         <v>1</v>
       </c>
@@ -4610,7 +4666,7 @@
         <v>495</v>
       </c>
       <c r="F2" s="123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="125" t="s">
         <v>108</v>
@@ -4633,7 +4689,7 @@
       <c r="O2" s="123"/>
       <c r="P2" s="123"/>
     </row>
-    <row r="3" spans="1:19" ht="29">
+    <row r="3" spans="1:20" ht="29">
       <c r="A3" s="139">
         <v>2</v>
       </c>
@@ -4674,7 +4730,7 @@
       <c r="P3" s="123"/>
       <c r="Q3" s="123"/>
     </row>
-    <row r="4" spans="1:19" ht="29">
+    <row r="4" spans="1:20" ht="29">
       <c r="A4" s="139">
         <v>3</v>
       </c>
@@ -4713,7 +4769,7 @@
       <c r="P4" s="123"/>
       <c r="Q4" s="123"/>
     </row>
-    <row r="5" spans="1:19" ht="29">
+    <row r="5" spans="1:20" ht="29">
       <c r="A5" s="139">
         <v>4</v>
       </c>
@@ -4754,7 +4810,7 @@
       <c r="P5" s="123"/>
       <c r="Q5" s="123"/>
     </row>
-    <row r="6" spans="1:19" ht="29">
+    <row r="6" spans="1:20" ht="29">
       <c r="A6" s="139">
         <v>5</v>
       </c>
@@ -4795,7 +4851,7 @@
       <c r="P6" s="123"/>
       <c r="Q6" s="123"/>
     </row>
-    <row r="7" spans="1:19" ht="29">
+    <row r="7" spans="1:20" ht="29">
       <c r="A7" s="136">
         <v>6</v>
       </c>
@@ -4834,7 +4890,7 @@
       <c r="P7" s="123"/>
       <c r="Q7" s="123"/>
     </row>
-    <row r="8" spans="1:19" ht="29">
+    <row r="8" spans="1:20" ht="29">
       <c r="A8" s="136">
         <v>7</v>
       </c>
@@ -4873,7 +4929,7 @@
       <c r="P8" s="123"/>
       <c r="Q8" s="123"/>
     </row>
-    <row r="9" spans="1:19" ht="29">
+    <row r="9" spans="1:20" ht="29">
       <c r="A9" s="136">
         <v>8</v>
       </c>
@@ -4910,7 +4966,7 @@
       <c r="P9" s="123"/>
       <c r="Q9" s="123"/>
     </row>
-    <row r="10" spans="1:19" ht="29">
+    <row r="10" spans="1:20" ht="29">
       <c r="A10" s="136">
         <v>9</v>
       </c>
@@ -4949,7 +5005,7 @@
       <c r="P10" s="123"/>
       <c r="Q10" s="123"/>
     </row>
-    <row r="11" spans="1:19" ht="29">
+    <row r="11" spans="1:20" ht="29">
       <c r="A11" s="136">
         <v>10</v>
       </c>
@@ -4988,7 +5044,7 @@
       <c r="P11" s="123"/>
       <c r="Q11" s="123"/>
     </row>
-    <row r="12" spans="1:19" ht="29">
+    <row r="12" spans="1:20" ht="29">
       <c r="A12" s="136">
         <v>11</v>
       </c>
@@ -5027,7 +5083,7 @@
       <c r="P12" s="123"/>
       <c r="Q12" s="123"/>
     </row>
-    <row r="13" spans="1:19" ht="29">
+    <row r="13" spans="1:20" ht="29">
       <c r="A13" s="136">
         <v>12</v>
       </c>
@@ -5066,7 +5122,7 @@
       <c r="P13" s="123"/>
       <c r="Q13" s="123"/>
     </row>
-    <row r="14" spans="1:19" ht="29">
+    <row r="14" spans="1:20" ht="29">
       <c r="A14" s="139">
         <v>13</v>
       </c>
@@ -5105,7 +5161,7 @@
       <c r="P14" s="123"/>
       <c r="Q14" s="123"/>
     </row>
-    <row r="15" spans="1:19" ht="29">
+    <row r="15" spans="1:20" ht="29">
       <c r="A15" s="139">
         <v>14</v>
       </c>
@@ -5144,7 +5200,7 @@
       <c r="P15" s="123"/>
       <c r="Q15" s="123"/>
     </row>
-    <row r="16" spans="1:19" ht="29">
+    <row r="16" spans="1:20" ht="29">
       <c r="A16" s="146">
         <v>15</v>
       </c>
@@ -5161,7 +5217,7 @@
         <v>195</v>
       </c>
       <c r="F16" s="123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="125" t="s">
         <v>153</v>
@@ -5848,37 +5904,34 @@
         <v>195</v>
       </c>
       <c r="F33" s="123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G33" s="126" t="s">
         <v>154</v>
       </c>
-      <c r="H33" s="125" t="s">
-        <v>57</v>
+      <c r="H33" s="126" t="s">
+        <v>733</v>
       </c>
       <c r="I33" s="126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J33" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="K33" s="126" t="s">
-        <v>724</v>
+        <v>264</v>
+      </c>
+      <c r="K33" s="125" t="s">
+        <v>86</v>
       </c>
       <c r="L33" s="125" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M33" s="125" t="s">
-        <v>88</v>
-      </c>
-      <c r="N33" s="125" t="s">
         <v>109</v>
       </c>
-      <c r="O33" s="126" t="s">
+      <c r="N33" s="126" t="s">
         <v>194</v>
       </c>
+      <c r="O33" s="123"/>
       <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="139">
@@ -5912,7 +5965,7 @@
         <v>33</v>
       </c>
       <c r="K34" s="126" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="L34" s="125" t="s">
         <v>86</v>
@@ -5930,7 +5983,7 @@
       <c r="Q34" s="123"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="139">
+      <c r="A35" s="136">
         <v>34</v>
       </c>
       <c r="B35" s="123" t="s">
@@ -5970,7 +6023,7 @@
       <c r="R35" s="123"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="139">
+      <c r="A36" s="136">
         <v>35</v>
       </c>
       <c r="B36" s="123" t="s">
@@ -5995,7 +6048,7 @@
         <v>196</v>
       </c>
       <c r="I36" s="125" t="s">
-        <v>57</v>
+        <v>730</v>
       </c>
       <c r="J36" s="126" t="s">
         <v>32</v>
@@ -6003,7 +6056,7 @@
       <c r="K36" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="L36" s="123" t="s">
+      <c r="L36" s="126" t="s">
         <v>264</v>
       </c>
       <c r="M36" s="123"/>
@@ -6012,7 +6065,7 @@
       <c r="P36" s="123"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="139">
+      <c r="A37" s="167">
         <v>36</v>
       </c>
       <c r="B37" s="123" t="s">
@@ -6051,8 +6104,8 @@
       <c r="M37" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="N37" s="123" t="s">
-        <v>264</v>
+      <c r="N37" s="126" t="s">
+        <v>722</v>
       </c>
       <c r="O37" s="123"/>
       <c r="P37" s="123"/>
@@ -7443,13 +7496,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="155" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C80" s="155">
         <v>278</v>
       </c>
       <c r="D80" s="155" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E80" s="155" t="s">
         <v>495</v>
@@ -7480,86 +7533,87 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B53:B54">
-    <cfRule type="duplicateValues" dxfId="119" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="118" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="117" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B52">
-    <cfRule type="duplicateValues" dxfId="116" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="duplicateValues" dxfId="115" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:A54 A2:A31 A33:A49">
-    <cfRule type="duplicateValues" dxfId="114" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="duplicateValues" dxfId="113" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="112" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="111" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="duplicateValues" dxfId="110" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="109" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="duplicateValues" dxfId="108" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78">
-    <cfRule type="duplicateValues" dxfId="107" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79">
-    <cfRule type="duplicateValues" dxfId="106" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="duplicateValues" dxfId="105" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="duplicateValues" dxfId="104" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="duplicateValues" dxfId="103" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="duplicateValues" dxfId="102" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="duplicateValues" dxfId="101" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="duplicateValues" dxfId="100" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="duplicateValues" dxfId="99" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="duplicateValues" dxfId="98" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="duplicateValues" dxfId="97" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="duplicateValues" dxfId="96" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81:B1048576 B33:B49 B1:B31 B55:B75">
-    <cfRule type="duplicateValues" dxfId="95" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="duplicateValues" dxfId="94" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="duplicateValues" dxfId="93" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -7662,13 +7716,12 @@
     <hyperlink ref="G34" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
     <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
     <hyperlink ref="I37" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="H33" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="I33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="J33" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="L33" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="M33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="N33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="O33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="H33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="I33" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="K33" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="L33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="M33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="N33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
     <hyperlink ref="G33" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
     <hyperlink ref="H34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
     <hyperlink ref="I34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
@@ -7959,10 +8012,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="75" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0900-000000000000}">
@@ -8087,10 +8140,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="72" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0A00-000000000000}">
@@ -8239,10 +8292,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="71" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="70" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0B00-000000000000}">
@@ -8366,10 +8419,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="69" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="68" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0C00-000000000000}">
@@ -8622,10 +8675,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="67" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="66" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3" xr:uid="{00000000-0002-0000-0D00-000000000000}">
@@ -8717,10 +8770,10 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="65" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="64" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8772,10 +8825,10 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="63" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="62" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8881,7 +8934,7 @@
       <selection activeCell="H2" sqref="H2"/>
       <selection pane="topRight" activeCell="H2" sqref="H2"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -9166,7 +9219,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="93" t="s">
-        <v>653</v>
+        <v>246</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>92</v>
@@ -9216,7 +9269,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="93" t="s">
-        <v>653</v>
+        <v>246</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>92</v>
@@ -9505,22 +9558,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="61" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="60" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="58" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B21">
-    <cfRule type="duplicateValues" dxfId="57" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A21">
-    <cfRule type="duplicateValues" dxfId="56" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="47"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10" xr:uid="{00000000-0002-0000-1100-000000000000}">
@@ -9534,8 +9587,7 @@
     <hyperlink ref="D6:D7" r:id="rId1" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
     <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
     <hyperlink ref="D2:D4" r:id="rId3" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-1100-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-1100-000003000000}"/>
-    <hyperlink ref="D5" r:id="rId5" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-1100-000004000000}"/>
+    <hyperlink ref="D5:D6" r:id="rId4" display="original2Ic@automationjdg.co.za" xr:uid="{848B17D2-05A9-4D02-BC74-836348373EC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9545,9 +9597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
@@ -10184,22 +10234,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="55" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="54" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B21">
-    <cfRule type="duplicateValues" dxfId="51" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A21">
-    <cfRule type="duplicateValues" dxfId="50" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="29"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576" xr:uid="{00000000-0002-0000-1200-000000000000}">
@@ -10709,10 +10759,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1300-000000000000}">
@@ -11332,7 +11382,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B12:B14">
-    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -11565,7 +11615,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B13:B15">
-    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1600-000000000000}">
@@ -11580,7 +11630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -12430,16 +12482,16 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B10:B12">
-    <cfRule type="duplicateValues" dxfId="45" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="44" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B33">
-    <cfRule type="duplicateValues" dxfId="43" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A33">
-    <cfRule type="duplicateValues" dxfId="42" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
@@ -12611,16 +12663,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B6">
-    <cfRule type="duplicateValues" dxfId="41" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A6">
-    <cfRule type="duplicateValues" dxfId="40" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B12">
-    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A12">
-    <cfRule type="duplicateValues" dxfId="38" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13029,10 +13081,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A13">
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13292,7 +13344,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13300,11 +13352,9 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
@@ -13470,10 +13520,10 @@
     </row>
     <row r="11" spans="1:5" s="121" customFormat="1">
       <c r="A11" s="115">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="115" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C11" s="115">
         <v>1</v>
@@ -13483,29 +13533,27 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="39">
-        <v>39</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>508</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="E12" s="39" t="s">
+    <row r="12" spans="1:5" s="121" customFormat="1">
+      <c r="A12" s="115">
+        <v>36</v>
+      </c>
+      <c r="B12" s="115" t="s">
+        <v>535</v>
+      </c>
+      <c r="C12" s="115">
+        <v>1</v>
+      </c>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="39">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>87</v>
@@ -13519,10 +13567,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="39">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>87</v>
@@ -13534,9 +13582,26 @@
         <v>262</v>
       </c>
     </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="39">
+        <v>41</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>510</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>262</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B12:B14">
-    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
+  <conditionalFormatting sqref="B13:B15">
+    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13603,11 +13668,11 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H2" sqref="H2"/>
       <selection pan